--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD0D0A7-D995-0F40-B320-31E5496399C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D5DD9B-D03E-DC44-B4FF-61543DE6099E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="0" windowWidth="28000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,14 +535,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -583,6 +575,37 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -758,7 +781,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -898,14 +921,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,52 +946,52 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,14 +1000,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8080,8 +8114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AB0D6-E0E9-6D42-9B21-33D1777F9FE2}">
   <dimension ref="A1:CQ232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R126" sqref="A1:R126"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -8094,30 +8128,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95">
-      <c r="A1" s="81">
-        <v>1</v>
-      </c>
-      <c r="B1" s="81">
-        <v>1</v>
-      </c>
-      <c r="C1" s="81">
-        <v>1</v>
-      </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
+      <c r="A1" s="76">
+        <v>1</v>
+      </c>
+      <c r="B1" s="76">
+        <v>1</v>
+      </c>
+      <c r="C1" s="76">
+        <v>1</v>
+      </c>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
       <c r="CF1" s="57"/>
       <c r="CG1" s="57"/>
       <c r="CH1" s="57"/>
@@ -8132,30 +8172,36 @@
       <c r="CQ1" s="57"/>
     </row>
     <row r="2" spans="1:95">
-      <c r="A2" s="81">
-        <v>1</v>
-      </c>
-      <c r="B2" s="81">
-        <v>1</v>
-      </c>
-      <c r="C2" s="81">
-        <v>1</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="A2" s="76">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76">
+        <v>1</v>
+      </c>
+      <c r="C2" s="76">
+        <v>1</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
       <c r="AN2">
         <v>1</v>
       </c>
@@ -8345,36 +8391,36 @@
       <c r="CQ2" s="57"/>
     </row>
     <row r="3" spans="1:95" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A3" s="81">
-        <v>1</v>
-      </c>
-      <c r="B3" s="81">
-        <v>1</v>
-      </c>
-      <c r="C3" s="81">
-        <v>1</v>
-      </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
+      <c r="A3" s="76">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76">
+        <v>1</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
       <c r="Y3" s="54"/>
       <c r="Z3" s="54"/>
       <c r="AA3" s="54"/>
@@ -8448,36 +8494,36 @@
       <c r="CQ3" s="53"/>
     </row>
     <row r="4" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A4" s="81">
-        <v>1</v>
-      </c>
-      <c r="B4" s="81">
-        <v>1</v>
-      </c>
-      <c r="C4" s="81">
-        <v>1</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="A4" s="76">
+        <v>1</v>
+      </c>
+      <c r="B4" s="76">
+        <v>1</v>
+      </c>
+      <c r="C4" s="76">
+        <v>1</v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
       <c r="Y4" s="57"/>
       <c r="Z4" s="57"/>
       <c r="AA4" s="57"/>
@@ -8551,36 +8597,36 @@
       <c r="CQ4" s="57"/>
     </row>
     <row r="5" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A5" s="81">
-        <v>1</v>
-      </c>
-      <c r="B5" s="81">
-        <v>1</v>
-      </c>
-      <c r="C5" s="81">
-        <v>1</v>
-      </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="A5" s="76">
+        <v>1</v>
+      </c>
+      <c r="B5" s="76">
+        <v>1</v>
+      </c>
+      <c r="C5" s="76">
+        <v>1</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
       <c r="Y5" s="57"/>
       <c r="Z5" s="57"/>
       <c r="AA5" s="57"/>
@@ -8654,36 +8700,36 @@
       <c r="CQ5" s="57"/>
     </row>
     <row r="6" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A6" s="81">
-        <v>1</v>
-      </c>
-      <c r="B6" s="81">
-        <v>1</v>
-      </c>
-      <c r="C6" s="81">
-        <v>1</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="A6" s="76">
+        <v>1</v>
+      </c>
+      <c r="B6" s="76">
+        <v>1</v>
+      </c>
+      <c r="C6" s="76">
+        <v>1</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
       <c r="Y6" s="57"/>
       <c r="Z6" s="57"/>
       <c r="AA6" s="57"/>
@@ -8757,36 +8803,36 @@
       <c r="CQ6" s="57"/>
     </row>
     <row r="7" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A7" s="81">
-        <v>1</v>
-      </c>
-      <c r="B7" s="81">
-        <v>1</v>
-      </c>
-      <c r="C7" s="81">
-        <v>1</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="A7" s="76">
+        <v>1</v>
+      </c>
+      <c r="B7" s="76">
+        <v>1</v>
+      </c>
+      <c r="C7" s="76">
+        <v>1</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
       <c r="Y7" s="57"/>
       <c r="Z7" s="57"/>
       <c r="AA7" s="57"/>
@@ -8860,36 +8906,36 @@
       <c r="CQ7" s="57"/>
     </row>
     <row r="8" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A8" s="81">
-        <v>1</v>
-      </c>
-      <c r="B8" s="81">
-        <v>1</v>
-      </c>
-      <c r="C8" s="81">
-        <v>1</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
+      <c r="A8" s="76">
+        <v>1</v>
+      </c>
+      <c r="B8" s="76">
+        <v>1</v>
+      </c>
+      <c r="C8" s="76">
+        <v>1</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
       <c r="Y8" s="57"/>
       <c r="Z8" s="57"/>
       <c r="AA8" s="57"/>
@@ -8963,36 +9009,36 @@
       <c r="CQ8" s="57"/>
     </row>
     <row r="9" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A9" s="81">
-        <v>1</v>
-      </c>
-      <c r="B9" s="81">
-        <v>1</v>
-      </c>
-      <c r="C9" s="81">
-        <v>1</v>
-      </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
+      <c r="A9" s="76">
+        <v>1</v>
+      </c>
+      <c r="B9" s="76">
+        <v>1</v>
+      </c>
+      <c r="C9" s="76">
+        <v>1</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
       <c r="Y9" s="57"/>
       <c r="Z9" s="57"/>
       <c r="AA9" s="57"/>
@@ -9066,36 +9112,36 @@
       <c r="CQ9" s="57"/>
     </row>
     <row r="10" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A10" s="81">
-        <v>1</v>
-      </c>
-      <c r="B10" s="81">
-        <v>1</v>
-      </c>
-      <c r="C10" s="81">
-        <v>1</v>
-      </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
+      <c r="A10" s="76">
+        <v>1</v>
+      </c>
+      <c r="B10" s="76">
+        <v>1</v>
+      </c>
+      <c r="C10" s="76">
+        <v>1</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
       <c r="Y10" s="57"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="57"/>
@@ -9169,36 +9215,36 @@
       <c r="CQ10" s="57"/>
     </row>
     <row r="11" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A11" s="81">
-        <v>1</v>
-      </c>
-      <c r="B11" s="81">
-        <v>1</v>
-      </c>
-      <c r="C11" s="81">
-        <v>1</v>
-      </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
+      <c r="A11" s="76">
+        <v>1</v>
+      </c>
+      <c r="B11" s="76">
+        <v>1</v>
+      </c>
+      <c r="C11" s="76">
+        <v>1</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
       <c r="Y11" s="57"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="57"/>
@@ -9272,36 +9318,36 @@
       <c r="CQ11" s="57"/>
     </row>
     <row r="12" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A12" s="81">
-        <v>1</v>
-      </c>
-      <c r="B12" s="81">
-        <v>1</v>
-      </c>
-      <c r="C12" s="81">
-        <v>1</v>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
+      <c r="A12" s="76">
+        <v>1</v>
+      </c>
+      <c r="B12" s="76">
+        <v>1</v>
+      </c>
+      <c r="C12" s="76">
+        <v>1</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
       <c r="Y12" s="57"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="57"/>
@@ -9375,36 +9421,36 @@
       <c r="CQ12" s="57"/>
     </row>
     <row r="13" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A13" s="81">
-        <v>1</v>
-      </c>
-      <c r="B13" s="81">
-        <v>1</v>
-      </c>
-      <c r="C13" s="81">
-        <v>1</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
+      <c r="A13" s="76">
+        <v>1</v>
+      </c>
+      <c r="B13" s="76">
+        <v>1</v>
+      </c>
+      <c r="C13" s="76">
+        <v>1</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
       <c r="Y13" s="57"/>
       <c r="Z13" s="57"/>
       <c r="AA13" s="57"/>
@@ -9478,36 +9524,36 @@
       <c r="CQ13" s="57"/>
     </row>
     <row r="14" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A14" s="81">
-        <v>1</v>
-      </c>
-      <c r="B14" s="81">
-        <v>1</v>
-      </c>
-      <c r="C14" s="81">
-        <v>1</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
+      <c r="A14" s="76">
+        <v>1</v>
+      </c>
+      <c r="B14" s="76">
+        <v>1</v>
+      </c>
+      <c r="C14" s="76">
+        <v>1</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
       <c r="Y14" s="57"/>
       <c r="Z14" s="57"/>
       <c r="AA14" s="57"/>
@@ -9581,36 +9627,36 @@
       <c r="CQ14" s="57"/>
     </row>
     <row r="15" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A15" s="81">
-        <v>1</v>
-      </c>
-      <c r="B15" s="81">
-        <v>1</v>
-      </c>
-      <c r="C15" s="81">
-        <v>1</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
+      <c r="A15" s="76">
+        <v>1</v>
+      </c>
+      <c r="B15" s="76">
+        <v>1</v>
+      </c>
+      <c r="C15" s="76">
+        <v>1</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="57"/>
@@ -9684,36 +9730,36 @@
       <c r="CQ15" s="57"/>
     </row>
     <row r="16" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A16" s="81">
-        <v>1</v>
-      </c>
-      <c r="B16" s="81">
-        <v>1</v>
-      </c>
-      <c r="C16" s="81">
-        <v>1</v>
-      </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
+      <c r="A16" s="76">
+        <v>1</v>
+      </c>
+      <c r="B16" s="76">
+        <v>1</v>
+      </c>
+      <c r="C16" s="76">
+        <v>1</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
       <c r="Y16" s="57"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="57"/>
@@ -9787,36 +9833,36 @@
       <c r="CQ16" s="57"/>
     </row>
     <row r="17" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A17" s="81">
-        <v>1</v>
-      </c>
-      <c r="B17" s="81">
-        <v>1</v>
-      </c>
-      <c r="C17" s="81">
-        <v>1</v>
-      </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
+      <c r="A17" s="76">
+        <v>1</v>
+      </c>
+      <c r="B17" s="76">
+        <v>1</v>
+      </c>
+      <c r="C17" s="76">
+        <v>1</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="57"/>
       <c r="AA17" s="57"/>
@@ -9890,36 +9936,36 @@
       <c r="CQ17" s="57"/>
     </row>
     <row r="18" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A18" s="81">
-        <v>1</v>
-      </c>
-      <c r="B18" s="81">
-        <v>1</v>
-      </c>
-      <c r="C18" s="81">
-        <v>1</v>
-      </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
+      <c r="A18" s="76">
+        <v>1</v>
+      </c>
+      <c r="B18" s="76">
+        <v>1</v>
+      </c>
+      <c r="C18" s="76">
+        <v>1</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
       <c r="Y18" s="57"/>
       <c r="Z18" s="57"/>
       <c r="AA18" s="57"/>
@@ -9993,36 +10039,36 @@
       <c r="CQ18" s="57"/>
     </row>
     <row r="19" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A19" s="81">
-        <v>1</v>
-      </c>
-      <c r="B19" s="81">
-        <v>1</v>
-      </c>
-      <c r="C19" s="81">
-        <v>1</v>
-      </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
+      <c r="A19" s="76">
+        <v>1</v>
+      </c>
+      <c r="B19" s="76">
+        <v>1</v>
+      </c>
+      <c r="C19" s="76">
+        <v>1</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
       <c r="Y19" s="57"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="57"/>
@@ -10096,36 +10142,36 @@
       <c r="CQ19" s="57"/>
     </row>
     <row r="20" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A20" s="81">
-        <v>1</v>
-      </c>
-      <c r="B20" s="81">
-        <v>1</v>
-      </c>
-      <c r="C20" s="81">
-        <v>1</v>
-      </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
+      <c r="A20" s="76">
+        <v>1</v>
+      </c>
+      <c r="B20" s="76">
+        <v>1</v>
+      </c>
+      <c r="C20" s="76">
+        <v>1</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
       <c r="Y20" s="57"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="57"/>
@@ -10199,36 +10245,36 @@
       <c r="CQ20" s="57"/>
     </row>
     <row r="21" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A21" s="81">
-        <v>1</v>
-      </c>
-      <c r="B21" s="81">
-        <v>1</v>
-      </c>
-      <c r="C21" s="81">
-        <v>1</v>
-      </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
+      <c r="A21" s="76">
+        <v>1</v>
+      </c>
+      <c r="B21" s="76">
+        <v>1</v>
+      </c>
+      <c r="C21" s="76">
+        <v>1</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
       <c r="Y21" s="57"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="57"/>
@@ -10302,36 +10348,36 @@
       <c r="CQ21" s="57"/>
     </row>
     <row r="22" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A22" s="81">
-        <v>1</v>
-      </c>
-      <c r="B22" s="81">
-        <v>1</v>
-      </c>
-      <c r="C22" s="81">
-        <v>1</v>
-      </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
+      <c r="A22" s="76">
+        <v>1</v>
+      </c>
+      <c r="B22" s="76">
+        <v>1</v>
+      </c>
+      <c r="C22" s="76">
+        <v>1</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
       <c r="Y22" s="57"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="57"/>
@@ -10405,36 +10451,36 @@
       <c r="CQ22" s="57"/>
     </row>
     <row r="23" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A23" s="81">
-        <v>1</v>
-      </c>
-      <c r="B23" s="81">
-        <v>1</v>
-      </c>
-      <c r="C23" s="81">
-        <v>1</v>
-      </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
+      <c r="A23" s="76">
+        <v>1</v>
+      </c>
+      <c r="B23" s="76">
+        <v>1</v>
+      </c>
+      <c r="C23" s="76">
+        <v>1</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
       <c r="Y23" s="57"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="57"/>
@@ -10508,36 +10554,36 @@
       <c r="CQ23" s="57"/>
     </row>
     <row r="24" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A24" s="81">
-        <v>1</v>
-      </c>
-      <c r="B24" s="81">
-        <v>1</v>
-      </c>
-      <c r="C24" s="81">
-        <v>1</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
+      <c r="A24" s="76">
+        <v>1</v>
+      </c>
+      <c r="B24" s="76">
+        <v>1</v>
+      </c>
+      <c r="C24" s="76">
+        <v>1</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
       <c r="Y24" s="57"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="57"/>
@@ -10611,36 +10657,36 @@
       <c r="CQ24" s="57"/>
     </row>
     <row r="25" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A25" s="81">
-        <v>1</v>
-      </c>
-      <c r="B25" s="81">
-        <v>1</v>
-      </c>
-      <c r="C25" s="81">
-        <v>1</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
+      <c r="A25" s="76">
+        <v>1</v>
+      </c>
+      <c r="B25" s="76">
+        <v>1</v>
+      </c>
+      <c r="C25" s="76">
+        <v>1</v>
+      </c>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
       <c r="Y25" s="57"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="57"/>
@@ -10714,36 +10760,36 @@
       <c r="CQ25" s="57"/>
     </row>
     <row r="26" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A26" s="81">
-        <v>1</v>
-      </c>
-      <c r="B26" s="81">
-        <v>1</v>
-      </c>
-      <c r="C26" s="81">
-        <v>1</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
+      <c r="A26" s="76">
+        <v>1</v>
+      </c>
+      <c r="B26" s="76">
+        <v>1</v>
+      </c>
+      <c r="C26" s="76">
+        <v>1</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
       <c r="Y26" s="57"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="57"/>
@@ -10817,36 +10863,36 @@
       <c r="CQ26" s="57"/>
     </row>
     <row r="27" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A27" s="81">
-        <v>1</v>
-      </c>
-      <c r="B27" s="81">
-        <v>1</v>
-      </c>
-      <c r="C27" s="81">
-        <v>1</v>
-      </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
+      <c r="A27" s="76">
+        <v>1</v>
+      </c>
+      <c r="B27" s="76">
+        <v>1</v>
+      </c>
+      <c r="C27" s="76">
+        <v>1</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
       <c r="Y27" s="57"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="57"/>
@@ -10920,36 +10966,36 @@
       <c r="CQ27" s="57"/>
     </row>
     <row r="28" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A28" s="81">
-        <v>1</v>
-      </c>
-      <c r="B28" s="81">
-        <v>1</v>
-      </c>
-      <c r="C28" s="81">
-        <v>1</v>
-      </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
+      <c r="A28" s="76">
+        <v>1</v>
+      </c>
+      <c r="B28" s="76">
+        <v>1</v>
+      </c>
+      <c r="C28" s="76">
+        <v>1</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
       <c r="Y28" s="57"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="57"/>
@@ -11023,36 +11069,36 @@
       <c r="CQ28" s="57"/>
     </row>
     <row r="29" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A29" s="81">
-        <v>1</v>
-      </c>
-      <c r="B29" s="81">
-        <v>1</v>
-      </c>
-      <c r="C29" s="81">
-        <v>1</v>
-      </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
+      <c r="A29" s="76">
+        <v>1</v>
+      </c>
+      <c r="B29" s="76">
+        <v>1</v>
+      </c>
+      <c r="C29" s="76">
+        <v>1</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
       <c r="Y29" s="57"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="57"/>
@@ -11126,36 +11172,36 @@
       <c r="CQ29" s="57"/>
     </row>
     <row r="30" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A30" s="81">
-        <v>1</v>
-      </c>
-      <c r="B30" s="81">
-        <v>1</v>
-      </c>
-      <c r="C30" s="81">
-        <v>1</v>
-      </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
+      <c r="A30" s="76">
+        <v>1</v>
+      </c>
+      <c r="B30" s="76">
+        <v>1</v>
+      </c>
+      <c r="C30" s="76">
+        <v>1</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
       <c r="Y30" s="57"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="57"/>
@@ -11229,36 +11275,36 @@
       <c r="CQ30" s="57"/>
     </row>
     <row r="31" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A31" s="81">
-        <v>1</v>
-      </c>
-      <c r="B31" s="81">
-        <v>1</v>
-      </c>
-      <c r="C31" s="81">
-        <v>1</v>
-      </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
+      <c r="A31" s="76">
+        <v>1</v>
+      </c>
+      <c r="B31" s="76">
+        <v>1</v>
+      </c>
+      <c r="C31" s="76">
+        <v>1</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
       <c r="Y31" s="57"/>
       <c r="Z31" s="57"/>
       <c r="AA31" s="57"/>
@@ -11332,36 +11378,36 @@
       <c r="CQ31" s="57"/>
     </row>
     <row r="32" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A32" s="81">
-        <v>1</v>
-      </c>
-      <c r="B32" s="81">
-        <v>1</v>
-      </c>
-      <c r="C32" s="81">
-        <v>1</v>
-      </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
+      <c r="A32" s="76">
+        <v>1</v>
+      </c>
+      <c r="B32" s="76">
+        <v>1</v>
+      </c>
+      <c r="C32" s="76">
+        <v>1</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
       <c r="Y32" s="57"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="57"/>
@@ -11435,36 +11481,36 @@
       <c r="CQ32" s="57"/>
     </row>
     <row r="33" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A33" s="81">
-        <v>1</v>
-      </c>
-      <c r="B33" s="81">
-        <v>1</v>
-      </c>
-      <c r="C33" s="81">
-        <v>1</v>
-      </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
+      <c r="A33" s="76">
+        <v>1</v>
+      </c>
+      <c r="B33" s="76">
+        <v>1</v>
+      </c>
+      <c r="C33" s="76">
+        <v>1</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
       <c r="Y33" s="57"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="57"/>
@@ -11538,36 +11584,36 @@
       <c r="CQ33" s="57"/>
     </row>
     <row r="34" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A34" s="81">
-        <v>1</v>
-      </c>
-      <c r="B34" s="81">
-        <v>1</v>
-      </c>
-      <c r="C34" s="81">
-        <v>1</v>
-      </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
+      <c r="A34" s="76">
+        <v>1</v>
+      </c>
+      <c r="B34" s="76">
+        <v>1</v>
+      </c>
+      <c r="C34" s="76">
+        <v>1</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
       <c r="Y34" s="57"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="57"/>
@@ -11641,36 +11687,36 @@
       <c r="CQ34" s="57"/>
     </row>
     <row r="35" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A35" s="81">
-        <v>1</v>
-      </c>
-      <c r="B35" s="81">
-        <v>1</v>
-      </c>
-      <c r="C35" s="81">
-        <v>1</v>
-      </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
+      <c r="A35" s="76">
+        <v>1</v>
+      </c>
+      <c r="B35" s="76">
+        <v>1</v>
+      </c>
+      <c r="C35" s="76">
+        <v>1</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
       <c r="Y35" s="57"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="57"/>
@@ -11744,36 +11790,36 @@
       <c r="CQ35" s="57"/>
     </row>
     <row r="36" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A36" s="81">
-        <v>1</v>
-      </c>
-      <c r="B36" s="81">
-        <v>1</v>
-      </c>
-      <c r="C36" s="81">
-        <v>1</v>
-      </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
+      <c r="A36" s="76">
+        <v>1</v>
+      </c>
+      <c r="B36" s="76">
+        <v>1</v>
+      </c>
+      <c r="C36" s="76">
+        <v>1</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
       <c r="Y36" s="57"/>
       <c r="Z36" s="57"/>
       <c r="AA36" s="57"/>
@@ -11847,36 +11893,36 @@
       <c r="CQ36" s="57"/>
     </row>
     <row r="37" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A37" s="81">
-        <v>1</v>
-      </c>
-      <c r="B37" s="81">
-        <v>1</v>
-      </c>
-      <c r="C37" s="81">
-        <v>1</v>
-      </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
+      <c r="A37" s="76">
+        <v>1</v>
+      </c>
+      <c r="B37" s="76">
+        <v>1</v>
+      </c>
+      <c r="C37" s="76">
+        <v>1</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="104"/>
+      <c r="W37" s="104"/>
+      <c r="X37" s="104"/>
       <c r="Y37" s="57"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="57"/>
@@ -11950,36 +11996,36 @@
       <c r="CQ37" s="57"/>
     </row>
     <row r="38" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A38" s="81">
-        <v>1</v>
-      </c>
-      <c r="B38" s="81">
-        <v>1</v>
-      </c>
-      <c r="C38" s="81">
-        <v>1</v>
-      </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
+      <c r="A38" s="76">
+        <v>1</v>
+      </c>
+      <c r="B38" s="76">
+        <v>1</v>
+      </c>
+      <c r="C38" s="76">
+        <v>1</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
       <c r="Y38" s="57"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
@@ -12053,36 +12099,36 @@
       <c r="CQ38" s="57"/>
     </row>
     <row r="39" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A39" s="81">
-        <v>1</v>
-      </c>
-      <c r="B39" s="81">
-        <v>1</v>
-      </c>
-      <c r="C39" s="81">
-        <v>1</v>
-      </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
+      <c r="A39" s="76">
+        <v>1</v>
+      </c>
+      <c r="B39" s="76">
+        <v>1</v>
+      </c>
+      <c r="C39" s="76">
+        <v>1</v>
+      </c>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="104"/>
       <c r="Y39" s="57"/>
       <c r="Z39" s="57"/>
       <c r="AA39" s="57"/>
@@ -12156,36 +12202,36 @@
       <c r="CQ39" s="57"/>
     </row>
     <row r="40" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A40" s="81">
-        <v>1</v>
-      </c>
-      <c r="B40" s="81">
-        <v>1</v>
-      </c>
-      <c r="C40" s="81">
-        <v>1</v>
-      </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
+      <c r="A40" s="76">
+        <v>1</v>
+      </c>
+      <c r="B40" s="76">
+        <v>1</v>
+      </c>
+      <c r="C40" s="76">
+        <v>1</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
       <c r="Y40" s="57"/>
       <c r="Z40" s="57"/>
       <c r="AA40" s="57"/>
@@ -12259,36 +12305,36 @@
       <c r="CQ40" s="57"/>
     </row>
     <row r="41" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A41" s="81">
-        <v>1</v>
-      </c>
-      <c r="B41" s="81">
-        <v>1</v>
-      </c>
-      <c r="C41" s="81">
-        <v>1</v>
-      </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
+      <c r="A41" s="76">
+        <v>1</v>
+      </c>
+      <c r="B41" s="76">
+        <v>1</v>
+      </c>
+      <c r="C41" s="76">
+        <v>1</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
       <c r="Y41" s="57"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="57"/>
@@ -12362,36 +12408,36 @@
       <c r="CQ41" s="57"/>
     </row>
     <row r="42" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A42" s="81">
-        <v>1</v>
-      </c>
-      <c r="B42" s="81">
-        <v>1</v>
-      </c>
-      <c r="C42" s="81">
-        <v>1</v>
-      </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
+      <c r="A42" s="76">
+        <v>1</v>
+      </c>
+      <c r="B42" s="76">
+        <v>1</v>
+      </c>
+      <c r="C42" s="76">
+        <v>1</v>
+      </c>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
       <c r="Y42" s="57"/>
       <c r="Z42" s="57"/>
       <c r="AA42" s="57"/>
@@ -12459,36 +12505,36 @@
       <c r="CK42" s="57"/>
     </row>
     <row r="43" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A43" s="81">
-        <v>1</v>
-      </c>
-      <c r="B43" s="81">
-        <v>1</v>
-      </c>
-      <c r="C43" s="81">
-        <v>1</v>
-      </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
+      <c r="A43" s="76">
+        <v>1</v>
+      </c>
+      <c r="B43" s="76">
+        <v>1</v>
+      </c>
+      <c r="C43" s="76">
+        <v>1</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="76"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="104"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="104"/>
       <c r="Y43" s="57"/>
       <c r="Z43" s="57"/>
       <c r="AA43" s="57"/>
@@ -12556,36 +12602,36 @@
       <c r="CK43" s="57"/>
     </row>
     <row r="44" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A44" s="81">
-        <v>1</v>
-      </c>
-      <c r="B44" s="81">
-        <v>1</v>
-      </c>
-      <c r="C44" s="81">
-        <v>1</v>
-      </c>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
+      <c r="A44" s="76">
+        <v>1</v>
+      </c>
+      <c r="B44" s="76">
+        <v>1</v>
+      </c>
+      <c r="C44" s="76">
+        <v>1</v>
+      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
+      <c r="U44" s="104"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
       <c r="Y44" s="57"/>
       <c r="Z44" s="57"/>
       <c r="AA44" s="57"/>
@@ -12653,36 +12699,36 @@
       <c r="CK44" s="57"/>
     </row>
     <row r="45" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A45" s="81">
-        <v>1</v>
-      </c>
-      <c r="B45" s="81">
-        <v>1</v>
-      </c>
-      <c r="C45" s="81">
-        <v>1</v>
-      </c>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
+      <c r="A45" s="76">
+        <v>1</v>
+      </c>
+      <c r="B45" s="76">
+        <v>1</v>
+      </c>
+      <c r="C45" s="76">
+        <v>1</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
       <c r="Y45" s="57"/>
       <c r="Z45" s="57"/>
       <c r="AA45" s="57"/>
@@ -12750,36 +12796,36 @@
       <c r="CK45" s="57"/>
     </row>
     <row r="46" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A46" s="81">
-        <v>1</v>
-      </c>
-      <c r="B46" s="81">
-        <v>1</v>
-      </c>
-      <c r="C46" s="81">
-        <v>1</v>
-      </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
+      <c r="A46" s="76">
+        <v>1</v>
+      </c>
+      <c r="B46" s="76">
+        <v>1</v>
+      </c>
+      <c r="C46" s="76">
+        <v>1</v>
+      </c>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="104"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
       <c r="Y46" s="57"/>
       <c r="Z46" s="57"/>
       <c r="AA46" s="57"/>
@@ -12847,36 +12893,36 @@
       <c r="CK46" s="57"/>
     </row>
     <row r="47" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A47" s="81">
-        <v>1</v>
-      </c>
-      <c r="B47" s="81">
-        <v>1</v>
-      </c>
-      <c r="C47" s="81">
-        <v>1</v>
-      </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
+      <c r="A47" s="76">
+        <v>1</v>
+      </c>
+      <c r="B47" s="76">
+        <v>1</v>
+      </c>
+      <c r="C47" s="76">
+        <v>1</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
+      <c r="U47" s="104"/>
+      <c r="V47" s="104"/>
+      <c r="W47" s="104"/>
+      <c r="X47" s="104"/>
       <c r="Y47" s="57"/>
       <c r="Z47" s="57"/>
       <c r="AA47" s="57"/>
@@ -12944,36 +12990,36 @@
       <c r="CK47" s="57"/>
     </row>
     <row r="48" spans="1:95" ht="18.5" customHeight="1">
-      <c r="A48" s="81">
-        <v>1</v>
-      </c>
-      <c r="B48" s="81">
-        <v>1</v>
-      </c>
-      <c r="C48" s="81">
-        <v>1</v>
-      </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
+      <c r="A48" s="76">
+        <v>1</v>
+      </c>
+      <c r="B48" s="76">
+        <v>1</v>
+      </c>
+      <c r="C48" s="76">
+        <v>1</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="U48" s="104"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="104"/>
+      <c r="X48" s="104"/>
       <c r="Y48" s="57"/>
       <c r="Z48" s="57"/>
       <c r="AA48" s="57"/>
@@ -13041,36 +13087,36 @@
       <c r="CK48" s="57"/>
     </row>
     <row r="49" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A49" s="81">
-        <v>1</v>
-      </c>
-      <c r="B49" s="81">
-        <v>1</v>
-      </c>
-      <c r="C49" s="81">
-        <v>1</v>
-      </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
+      <c r="A49" s="76">
+        <v>1</v>
+      </c>
+      <c r="B49" s="76">
+        <v>1</v>
+      </c>
+      <c r="C49" s="76">
+        <v>1</v>
+      </c>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="104"/>
       <c r="Y49" s="57"/>
       <c r="Z49" s="57"/>
       <c r="AA49" s="57"/>
@@ -13138,36 +13184,36 @@
       <c r="CK49" s="57"/>
     </row>
     <row r="50" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A50" s="81">
-        <v>1</v>
-      </c>
-      <c r="B50" s="81">
-        <v>1</v>
-      </c>
-      <c r="C50" s="81">
-        <v>1</v>
-      </c>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
+      <c r="A50" s="76">
+        <v>1</v>
+      </c>
+      <c r="B50" s="76">
+        <v>1</v>
+      </c>
+      <c r="C50" s="76">
+        <v>1</v>
+      </c>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="104"/>
+      <c r="U50" s="104"/>
+      <c r="V50" s="104"/>
+      <c r="W50" s="104"/>
+      <c r="X50" s="104"/>
       <c r="Y50" s="57"/>
       <c r="Z50" s="57"/>
       <c r="AA50" s="57"/>
@@ -13235,36 +13281,36 @@
       <c r="CK50" s="57"/>
     </row>
     <row r="51" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A51" s="81">
-        <v>1</v>
-      </c>
-      <c r="B51" s="81">
-        <v>1</v>
-      </c>
-      <c r="C51" s="81">
-        <v>1</v>
-      </c>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
+      <c r="A51" s="76">
+        <v>1</v>
+      </c>
+      <c r="B51" s="76">
+        <v>1</v>
+      </c>
+      <c r="C51" s="76">
+        <v>1</v>
+      </c>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="104"/>
+      <c r="T51" s="104"/>
+      <c r="U51" s="104"/>
+      <c r="V51" s="104"/>
+      <c r="W51" s="104"/>
+      <c r="X51" s="104"/>
       <c r="Y51" s="57"/>
       <c r="Z51" s="57"/>
       <c r="AA51" s="57"/>
@@ -13332,36 +13378,36 @@
       <c r="CK51" s="57"/>
     </row>
     <row r="52" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A52" s="81">
-        <v>1</v>
-      </c>
-      <c r="B52" s="81">
-        <v>1</v>
-      </c>
-      <c r="C52" s="81">
-        <v>1</v>
-      </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
+      <c r="A52" s="76">
+        <v>1</v>
+      </c>
+      <c r="B52" s="76">
+        <v>1</v>
+      </c>
+      <c r="C52" s="76">
+        <v>1</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="104"/>
+      <c r="T52" s="104"/>
+      <c r="U52" s="104"/>
+      <c r="V52" s="104"/>
+      <c r="W52" s="104"/>
+      <c r="X52" s="104"/>
       <c r="Y52" s="57"/>
       <c r="Z52" s="57"/>
       <c r="AA52" s="57"/>
@@ -13429,36 +13475,36 @@
       <c r="CK52" s="57"/>
     </row>
     <row r="53" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A53" s="81">
-        <v>1</v>
-      </c>
-      <c r="B53" s="81">
-        <v>1</v>
-      </c>
-      <c r="C53" s="81">
-        <v>1</v>
-      </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
+      <c r="A53" s="76">
+        <v>1</v>
+      </c>
+      <c r="B53" s="76">
+        <v>1</v>
+      </c>
+      <c r="C53" s="76">
+        <v>1</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="104"/>
+      <c r="T53" s="104"/>
+      <c r="U53" s="104"/>
+      <c r="V53" s="104"/>
+      <c r="W53" s="104"/>
+      <c r="X53" s="104"/>
       <c r="Y53" s="57"/>
       <c r="Z53" s="57"/>
       <c r="AA53" s="57"/>
@@ -13526,36 +13572,36 @@
       <c r="CK53" s="57"/>
     </row>
     <row r="54" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A54" s="81">
-        <v>1</v>
-      </c>
-      <c r="B54" s="81">
-        <v>1</v>
-      </c>
-      <c r="C54" s="81">
-        <v>1</v>
-      </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
+      <c r="A54" s="76">
+        <v>1</v>
+      </c>
+      <c r="B54" s="76">
+        <v>1</v>
+      </c>
+      <c r="C54" s="76">
+        <v>1</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="104"/>
       <c r="Y54" s="57"/>
       <c r="Z54" s="57"/>
       <c r="AA54" s="57"/>
@@ -13623,36 +13669,30 @@
       <c r="CK54" s="57"/>
     </row>
     <row r="55" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A55" s="81">
-        <v>1</v>
-      </c>
-      <c r="B55" s="81">
-        <v>1</v>
-      </c>
-      <c r="C55" s="81">
-        <v>1</v>
-      </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="76"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
       <c r="Y55" s="57"/>
       <c r="Z55" s="57"/>
       <c r="AA55" s="57"/>
@@ -13720,36 +13760,30 @@
       <c r="CK55" s="57"/>
     </row>
     <row r="56" spans="1:89" ht="18.5" customHeight="1">
-      <c r="A56" s="81">
-        <v>1</v>
-      </c>
-      <c r="B56" s="81">
-        <v>1</v>
-      </c>
-      <c r="C56" s="81">
-        <v>1</v>
-      </c>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="76"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
       <c r="Y56" s="57"/>
       <c r="Z56" s="57"/>
       <c r="AA56" s="57"/>
@@ -13817,36 +13851,30 @@
       <c r="CK56" s="57"/>
     </row>
     <row r="57" spans="1:89">
-      <c r="A57" s="81">
-        <v>1</v>
-      </c>
-      <c r="B57" s="81">
-        <v>1</v>
-      </c>
-      <c r="C57" s="81">
-        <v>1</v>
-      </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="81"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
+      <c r="A57" s="76"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="104"/>
+      <c r="T57" s="104"/>
+      <c r="U57" s="104"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
+      <c r="X57" s="104"/>
       <c r="Y57" s="57"/>
       <c r="Z57" s="57"/>
       <c r="AA57" s="57"/>
@@ -13914,36 +13942,30 @@
       <c r="CK57" s="57"/>
     </row>
     <row r="58" spans="1:89">
-      <c r="A58" s="81">
-        <v>1</v>
-      </c>
-      <c r="B58" s="81">
-        <v>1</v>
-      </c>
-      <c r="C58" s="81">
-        <v>1</v>
-      </c>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="81"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
+      <c r="U58" s="104"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
       <c r="Y58" s="57"/>
       <c r="Z58" s="57"/>
       <c r="AA58" s="57"/>
@@ -14011,36 +14033,30 @@
       <c r="CK58" s="57"/>
     </row>
     <row r="59" spans="1:89">
-      <c r="A59" s="81">
-        <v>1</v>
-      </c>
-      <c r="B59" s="81">
-        <v>1</v>
-      </c>
-      <c r="C59" s="81">
-        <v>1</v>
-      </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="81"/>
-      <c r="R59" s="81"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="76"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="104"/>
+      <c r="U59" s="104"/>
+      <c r="V59" s="104"/>
+      <c r="W59" s="104"/>
+      <c r="X59" s="104"/>
       <c r="Y59" s="57"/>
       <c r="Z59" s="57"/>
       <c r="AA59" s="57"/>
@@ -14108,36 +14124,30 @@
       <c r="CK59" s="57"/>
     </row>
     <row r="60" spans="1:89">
-      <c r="A60" s="81">
-        <v>1</v>
-      </c>
-      <c r="B60" s="81">
-        <v>1</v>
-      </c>
-      <c r="C60" s="81">
-        <v>1</v>
-      </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="81"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="104"/>
+      <c r="U60" s="104"/>
+      <c r="V60" s="104"/>
+      <c r="W60" s="104"/>
+      <c r="X60" s="104"/>
       <c r="Y60" s="57"/>
       <c r="Z60" s="57"/>
       <c r="AA60" s="57"/>
@@ -14160,36 +14170,30 @@
       <c r="AR60" s="57"/>
     </row>
     <row r="61" spans="1:89">
-      <c r="A61" s="81">
-        <v>1</v>
-      </c>
-      <c r="B61" s="81">
-        <v>1</v>
-      </c>
-      <c r="C61" s="81">
-        <v>1</v>
-      </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="76"/>
+      <c r="O61" s="76"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="76"/>
+      <c r="S61" s="104"/>
+      <c r="T61" s="104"/>
+      <c r="U61" s="104"/>
+      <c r="V61" s="104"/>
+      <c r="W61" s="104"/>
+      <c r="X61" s="104"/>
       <c r="Y61" s="57"/>
       <c r="Z61" s="57"/>
       <c r="AA61" s="57"/>
@@ -14212,36 +14216,30 @@
       <c r="AR61" s="57"/>
     </row>
     <row r="62" spans="1:89">
-      <c r="A62" s="81">
-        <v>1</v>
-      </c>
-      <c r="B62" s="81">
-        <v>1</v>
-      </c>
-      <c r="C62" s="81">
-        <v>1</v>
-      </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="81"/>
-      <c r="N62" s="81"/>
-      <c r="O62" s="81"/>
-      <c r="P62" s="81"/>
-      <c r="Q62" s="81"/>
-      <c r="R62" s="81"/>
-      <c r="S62" s="57"/>
-      <c r="T62" s="57"/>
-      <c r="U62" s="57"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="57"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="76"/>
+      <c r="S62" s="104"/>
+      <c r="T62" s="104"/>
+      <c r="U62" s="104"/>
+      <c r="V62" s="104"/>
+      <c r="W62" s="104"/>
+      <c r="X62" s="104"/>
       <c r="Y62" s="57"/>
       <c r="Z62" s="57"/>
       <c r="AA62" s="57"/>
@@ -14264,36 +14262,30 @@
       <c r="AR62" s="57"/>
     </row>
     <row r="63" spans="1:89">
-      <c r="A63" s="81">
-        <v>1</v>
-      </c>
-      <c r="B63" s="81">
-        <v>1</v>
-      </c>
-      <c r="C63" s="81">
-        <v>1</v>
-      </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
-      <c r="N63" s="81"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="76"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="76"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
       <c r="Y63" s="57"/>
       <c r="Z63" s="57"/>
       <c r="AA63" s="57"/>
@@ -14316,36 +14308,30 @@
       <c r="AR63" s="57"/>
     </row>
     <row r="64" spans="1:89">
-      <c r="A64" s="81">
-        <v>1</v>
-      </c>
-      <c r="B64" s="81">
-        <v>1</v>
-      </c>
-      <c r="C64" s="81">
-        <v>1</v>
-      </c>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="81"/>
-      <c r="O64" s="81"/>
-      <c r="P64" s="81"/>
-      <c r="Q64" s="81"/>
-      <c r="R64" s="81"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
+      <c r="P64" s="76"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="76"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
       <c r="Y64" s="57"/>
       <c r="Z64" s="57"/>
       <c r="AA64" s="57"/>
@@ -14368,36 +14354,30 @@
       <c r="AR64" s="57"/>
     </row>
     <row r="65" spans="1:44">
-      <c r="A65" s="81">
-        <v>1</v>
-      </c>
-      <c r="B65" s="81">
-        <v>1</v>
-      </c>
-      <c r="C65" s="81">
-        <v>1</v>
-      </c>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="81"/>
-      <c r="N65" s="81"/>
-      <c r="O65" s="81"/>
-      <c r="P65" s="81"/>
-      <c r="Q65" s="81"/>
-      <c r="R65" s="81"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="57"/>
-      <c r="U65" s="57"/>
-      <c r="V65" s="57"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="76"/>
+      <c r="S65" s="104"/>
+      <c r="T65" s="104"/>
+      <c r="U65" s="104"/>
+      <c r="V65" s="104"/>
+      <c r="W65" s="104"/>
+      <c r="X65" s="104"/>
       <c r="Y65" s="57"/>
       <c r="Z65" s="57"/>
       <c r="AA65" s="57"/>
@@ -14420,45 +14400,39 @@
       <c r="AR65" s="57"/>
     </row>
     <row r="66" spans="1:44" ht="24">
-      <c r="A66" s="81">
-        <v>1</v>
-      </c>
-      <c r="B66" s="81">
-        <v>1</v>
-      </c>
-      <c r="C66" s="81">
-        <v>1</v>
-      </c>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="107"/>
-      <c r="M66" s="107"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="108" t="s">
+      <c r="A66" s="76"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="76"/>
+      <c r="O66" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="81"/>
-      <c r="S66" s="109"/>
-      <c r="T66" s="109"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="58"/>
-      <c r="X66" s="57"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="76"/>
+      <c r="S66" s="106"/>
+      <c r="T66" s="106"/>
+      <c r="U66" s="104"/>
+      <c r="V66" s="104"/>
+      <c r="W66" s="107"/>
+      <c r="X66" s="104"/>
       <c r="Y66" s="57"/>
       <c r="Z66" s="57"/>
       <c r="AA66" s="57"/>
-      <c r="AB66" s="103"/>
-      <c r="AC66" s="103"/>
-      <c r="AD66" s="103"/>
-      <c r="AE66" s="103"/>
+      <c r="AB66" s="98"/>
+      <c r="AC66" s="98"/>
+      <c r="AD66" s="98"/>
+      <c r="AE66" s="98"/>
       <c r="AF66" s="57"/>
       <c r="AG66" s="57"/>
       <c r="AH66" s="57"/>
@@ -14474,42 +14448,36 @@
       <c r="AR66" s="57"/>
     </row>
     <row r="67" spans="1:44">
-      <c r="A67" s="81">
-        <v>1</v>
-      </c>
-      <c r="B67" s="81">
-        <v>1</v>
-      </c>
-      <c r="C67" s="81">
-        <v>1</v>
-      </c>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="81"/>
-      <c r="O67" s="88" t="s">
+      <c r="A67" s="76"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
+      <c r="K67" s="76"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="76"/>
+      <c r="O67" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P67" s="88" t="s">
+      <c r="P67" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="Q67" s="88" t="s">
+      <c r="Q67" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="R67" s="81"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="57"/>
-      <c r="W67" s="62"/>
-      <c r="X67" s="57"/>
+      <c r="R67" s="76"/>
+      <c r="S67" s="108"/>
+      <c r="T67" s="108"/>
+      <c r="U67" s="109"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="109"/>
+      <c r="X67" s="104"/>
       <c r="Y67" s="57"/>
       <c r="Z67" s="57"/>
       <c r="AA67" s="57"/>
@@ -14532,45 +14500,39 @@
       <c r="AR67" s="57"/>
     </row>
     <row r="68" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A68" s="81">
-        <v>1</v>
-      </c>
-      <c r="B68" s="81">
-        <v>1</v>
-      </c>
-      <c r="C68" s="81">
-        <v>1</v>
-      </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="89"/>
-      <c r="M68" s="90"/>
-      <c r="N68" s="81"/>
-      <c r="O68" s="89">
-        <f>A24</f>
-        <v>1</v>
-      </c>
-      <c r="P68" s="90">
-        <f>Utilidad!B1</f>
-        <v>1</v>
-      </c>
-      <c r="Q68" s="89">
-        <f>C1</f>
-        <v>1</v>
-      </c>
-      <c r="R68" s="81"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="63"/>
-      <c r="U68" s="64"/>
-      <c r="V68" s="65"/>
-      <c r="W68" s="64"/>
-      <c r="X68" s="65"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="85"/>
+      <c r="N68" s="76"/>
+      <c r="O68" s="84">
+        <f>A1</f>
+        <v>1</v>
+      </c>
+      <c r="P68" s="84">
+        <f t="shared" ref="P68:Q68" si="1">B1</f>
+        <v>1</v>
+      </c>
+      <c r="Q68" s="84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="110"/>
+      <c r="S68" s="111"/>
+      <c r="T68" s="111"/>
+      <c r="U68" s="112"/>
+      <c r="V68" s="113"/>
+      <c r="W68" s="112"/>
+      <c r="X68" s="113"/>
       <c r="Y68" s="57"/>
       <c r="Z68" s="57"/>
       <c r="AA68" s="57"/>
@@ -14593,45 +14555,39 @@
       <c r="AR68" s="57"/>
     </row>
     <row r="69" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A69" s="81">
-        <v>1</v>
-      </c>
-      <c r="B69" s="81">
-        <v>1</v>
-      </c>
-      <c r="C69" s="81">
-        <v>1</v>
-      </c>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="81"/>
-      <c r="O69" s="89">
-        <f t="shared" ref="O69:O120" si="1">A25</f>
-        <v>1</v>
-      </c>
-      <c r="P69" s="90">
-        <f>Utilidad!B2</f>
-        <v>1</v>
-      </c>
-      <c r="Q69" s="89">
-        <f t="shared" ref="Q69:Q120" si="2">C2</f>
-        <v>1</v>
-      </c>
-      <c r="R69" s="81"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="63"/>
-      <c r="U69" s="64"/>
-      <c r="V69" s="65"/>
-      <c r="W69" s="64"/>
-      <c r="X69" s="65"/>
+      <c r="A69" s="76"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="76"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="84">
+        <f t="shared" ref="O69:O112" si="2">A2</f>
+        <v>1</v>
+      </c>
+      <c r="P69" s="84">
+        <f t="shared" ref="P69:P112" si="3">B2</f>
+        <v>1</v>
+      </c>
+      <c r="Q69" s="84">
+        <f t="shared" ref="Q69:Q112" si="4">C2</f>
+        <v>1</v>
+      </c>
+      <c r="R69" s="110"/>
+      <c r="S69" s="111"/>
+      <c r="T69" s="111"/>
+      <c r="U69" s="112"/>
+      <c r="V69" s="113"/>
+      <c r="W69" s="112"/>
+      <c r="X69" s="113"/>
       <c r="Y69" s="57"/>
       <c r="Z69" s="57"/>
       <c r="AA69" s="57"/>
@@ -14654,45 +14610,39 @@
       <c r="AR69" s="57"/>
     </row>
     <row r="70" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A70" s="81">
-        <v>1</v>
-      </c>
-      <c r="B70" s="81">
-        <v>1</v>
-      </c>
-      <c r="C70" s="81">
-        <v>1</v>
-      </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="89"/>
-      <c r="M70" s="90"/>
-      <c r="N70" s="81"/>
-      <c r="O70" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P70" s="90">
-        <f>Utilidad!B3</f>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="89">
+      <c r="A70" s="76"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="76"/>
+      <c r="O70" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R70" s="81"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
-      <c r="U70" s="64"/>
-      <c r="V70" s="65"/>
-      <c r="W70" s="64"/>
-      <c r="X70" s="65"/>
+      <c r="P70" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q70" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R70" s="110"/>
+      <c r="S70" s="111"/>
+      <c r="T70" s="111"/>
+      <c r="U70" s="112"/>
+      <c r="V70" s="113"/>
+      <c r="W70" s="112"/>
+      <c r="X70" s="113"/>
       <c r="Y70" s="57"/>
       <c r="Z70" s="57"/>
       <c r="AA70" s="57"/>
@@ -14715,45 +14665,39 @@
       <c r="AR70" s="57"/>
     </row>
     <row r="71" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A71" s="81">
-        <v>1</v>
-      </c>
-      <c r="B71" s="81">
-        <v>1</v>
-      </c>
-      <c r="C71" s="81">
-        <v>1</v>
-      </c>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="89"/>
-      <c r="M71" s="90"/>
-      <c r="N71" s="81"/>
-      <c r="O71" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P71" s="90">
-        <f>Utilidad!B4</f>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="89">
+      <c r="A71" s="76"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
+      <c r="K71" s="76"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="85"/>
+      <c r="N71" s="76"/>
+      <c r="O71" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R71" s="81"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
-      <c r="U71" s="64"/>
-      <c r="V71" s="65"/>
-      <c r="W71" s="64"/>
-      <c r="X71" s="65"/>
+      <c r="P71" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R71" s="110"/>
+      <c r="S71" s="111"/>
+      <c r="T71" s="111"/>
+      <c r="U71" s="112"/>
+      <c r="V71" s="113"/>
+      <c r="W71" s="112"/>
+      <c r="X71" s="113"/>
       <c r="Y71" s="57"/>
       <c r="Z71" s="57"/>
       <c r="AA71" s="57"/>
@@ -14776,45 +14720,39 @@
       <c r="AR71" s="57"/>
     </row>
     <row r="72" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A72" s="81">
-        <v>1</v>
-      </c>
-      <c r="B72" s="81">
-        <v>1</v>
-      </c>
-      <c r="C72" s="81">
-        <v>1</v>
-      </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="89"/>
-      <c r="M72" s="90"/>
-      <c r="N72" s="81"/>
-      <c r="O72" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P72" s="90">
-        <f>Utilidad!B5</f>
-        <v>1</v>
-      </c>
-      <c r="Q72" s="89">
+      <c r="A72" s="76"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="84"/>
+      <c r="J72" s="76"/>
+      <c r="K72" s="76"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="85"/>
+      <c r="N72" s="76"/>
+      <c r="O72" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R72" s="81"/>
-      <c r="S72" s="63"/>
-      <c r="T72" s="63"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="65"/>
-      <c r="W72" s="64"/>
-      <c r="X72" s="65"/>
+      <c r="P72" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R72" s="110"/>
+      <c r="S72" s="111"/>
+      <c r="T72" s="111"/>
+      <c r="U72" s="112"/>
+      <c r="V72" s="113"/>
+      <c r="W72" s="112"/>
+      <c r="X72" s="113"/>
       <c r="Y72" s="57"/>
       <c r="Z72" s="57"/>
       <c r="AA72" s="57"/>
@@ -14837,45 +14775,39 @@
       <c r="AR72" s="57"/>
     </row>
     <row r="73" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A73" s="81">
-        <v>1</v>
-      </c>
-      <c r="B73" s="81">
-        <v>1</v>
-      </c>
-      <c r="C73" s="81">
-        <v>1</v>
-      </c>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="89"/>
-      <c r="M73" s="90"/>
-      <c r="N73" s="81"/>
-      <c r="O73" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P73" s="90">
-        <f>Utilidad!B6</f>
-        <v>1</v>
-      </c>
-      <c r="Q73" s="89">
+      <c r="A73" s="76"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="85"/>
+      <c r="N73" s="76"/>
+      <c r="O73" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R73" s="81"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="63"/>
-      <c r="U73" s="64"/>
-      <c r="V73" s="65"/>
-      <c r="W73" s="64"/>
-      <c r="X73" s="65"/>
+      <c r="P73" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R73" s="110"/>
+      <c r="S73" s="111"/>
+      <c r="T73" s="111"/>
+      <c r="U73" s="112"/>
+      <c r="V73" s="113"/>
+      <c r="W73" s="112"/>
+      <c r="X73" s="113"/>
       <c r="Y73" s="57"/>
       <c r="Z73" s="57"/>
       <c r="AA73" s="57"/>
@@ -14898,45 +14830,39 @@
       <c r="AR73" s="57"/>
     </row>
     <row r="74" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A74" s="81">
-        <v>1</v>
-      </c>
-      <c r="B74" s="81">
-        <v>1</v>
-      </c>
-      <c r="C74" s="81">
-        <v>1</v>
-      </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="89"/>
-      <c r="M74" s="90"/>
-      <c r="N74" s="81"/>
-      <c r="O74" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P74" s="90">
-        <f>Utilidad!B7</f>
-        <v>1</v>
-      </c>
-      <c r="Q74" s="89">
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="76"/>
+      <c r="K74" s="76"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="76"/>
+      <c r="O74" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R74" s="81"/>
-      <c r="S74" s="63"/>
-      <c r="T74" s="63"/>
-      <c r="U74" s="64"/>
-      <c r="V74" s="65"/>
-      <c r="W74" s="64"/>
-      <c r="X74" s="65"/>
+      <c r="P74" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q74" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R74" s="110"/>
+      <c r="S74" s="111"/>
+      <c r="T74" s="111"/>
+      <c r="U74" s="112"/>
+      <c r="V74" s="113"/>
+      <c r="W74" s="112"/>
+      <c r="X74" s="113"/>
       <c r="Y74" s="57"/>
       <c r="Z74" s="57"/>
       <c r="AA74" s="57"/>
@@ -14959,45 +14885,39 @@
       <c r="AR74" s="57"/>
     </row>
     <row r="75" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A75" s="81">
-        <v>1</v>
-      </c>
-      <c r="B75" s="81">
-        <v>1</v>
-      </c>
-      <c r="C75" s="81">
-        <v>1</v>
-      </c>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="90"/>
-      <c r="N75" s="81"/>
-      <c r="O75" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P75" s="90">
-        <f>Utilidad!B8</f>
-        <v>1</v>
-      </c>
-      <c r="Q75" s="89">
+      <c r="A75" s="76"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="76"/>
+      <c r="K75" s="76"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="76"/>
+      <c r="O75" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R75" s="81"/>
-      <c r="S75" s="63"/>
-      <c r="T75" s="63"/>
-      <c r="U75" s="64"/>
-      <c r="V75" s="65"/>
-      <c r="W75" s="64"/>
-      <c r="X75" s="65"/>
+      <c r="P75" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q75" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R75" s="110"/>
+      <c r="S75" s="111"/>
+      <c r="T75" s="111"/>
+      <c r="U75" s="112"/>
+      <c r="V75" s="113"/>
+      <c r="W75" s="112"/>
+      <c r="X75" s="113"/>
       <c r="Y75" s="57"/>
       <c r="Z75" s="57"/>
       <c r="AA75" s="57"/>
@@ -15020,45 +14940,39 @@
       <c r="AR75" s="57"/>
     </row>
     <row r="76" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A76" s="81">
-        <v>1</v>
-      </c>
-      <c r="B76" s="81">
-        <v>1</v>
-      </c>
-      <c r="C76" s="81">
-        <v>1</v>
-      </c>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="88"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="89"/>
-      <c r="M76" s="90"/>
-      <c r="N76" s="81"/>
-      <c r="O76" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P76" s="90">
-        <f>Utilidad!B9</f>
-        <v>1</v>
-      </c>
-      <c r="Q76" s="89">
+      <c r="A76" s="76"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="85"/>
+      <c r="N76" s="76"/>
+      <c r="O76" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R76" s="81"/>
-      <c r="S76" s="63"/>
-      <c r="T76" s="63"/>
-      <c r="U76" s="64"/>
-      <c r="V76" s="65"/>
-      <c r="W76" s="64"/>
-      <c r="X76" s="65"/>
+      <c r="P76" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q76" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R76" s="110"/>
+      <c r="S76" s="111"/>
+      <c r="T76" s="111"/>
+      <c r="U76" s="112"/>
+      <c r="V76" s="113"/>
+      <c r="W76" s="112"/>
+      <c r="X76" s="113"/>
       <c r="Y76" s="57"/>
       <c r="Z76" s="57"/>
       <c r="AA76" s="57"/>
@@ -15081,45 +14995,39 @@
       <c r="AR76" s="57"/>
     </row>
     <row r="77" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A77" s="81">
-        <v>1</v>
-      </c>
-      <c r="B77" s="81">
-        <v>1</v>
-      </c>
-      <c r="C77" s="81">
-        <v>1</v>
-      </c>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
-      <c r="G77" s="91"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="90"/>
-      <c r="N77" s="81"/>
-      <c r="O77" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P77" s="90">
-        <f>Utilidad!B10</f>
-        <v>1</v>
-      </c>
-      <c r="Q77" s="89">
+      <c r="A77" s="76"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R77" s="81"/>
-      <c r="S77" s="63"/>
-      <c r="T77" s="63"/>
-      <c r="U77" s="64"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="64"/>
-      <c r="X77" s="65"/>
+      <c r="P77" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q77" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R77" s="110"/>
+      <c r="S77" s="111"/>
+      <c r="T77" s="111"/>
+      <c r="U77" s="112"/>
+      <c r="V77" s="113"/>
+      <c r="W77" s="112"/>
+      <c r="X77" s="113"/>
       <c r="Y77" s="57"/>
       <c r="Z77" s="57"/>
       <c r="AA77" s="57"/>
@@ -15142,45 +15050,39 @@
       <c r="AR77" s="57"/>
     </row>
     <row r="78" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A78" s="81">
-        <v>1</v>
-      </c>
-      <c r="B78" s="81">
-        <v>1</v>
-      </c>
-      <c r="C78" s="81">
-        <v>1</v>
-      </c>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="81"/>
-      <c r="L78" s="89"/>
-      <c r="M78" s="90"/>
-      <c r="N78" s="81"/>
-      <c r="O78" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P78" s="90">
-        <f>Utilidad!B11</f>
-        <v>1</v>
-      </c>
-      <c r="Q78" s="89">
+      <c r="A78" s="76"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="76"/>
+      <c r="K78" s="76"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="76"/>
+      <c r="O78" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R78" s="81"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="63"/>
-      <c r="U78" s="64"/>
-      <c r="V78" s="65"/>
-      <c r="W78" s="64"/>
-      <c r="X78" s="65"/>
+      <c r="P78" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q78" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R78" s="110"/>
+      <c r="S78" s="111"/>
+      <c r="T78" s="111"/>
+      <c r="U78" s="112"/>
+      <c r="V78" s="113"/>
+      <c r="W78" s="112"/>
+      <c r="X78" s="113"/>
       <c r="Y78" s="57"/>
       <c r="Z78" s="57"/>
       <c r="AA78" s="57"/>
@@ -15203,45 +15105,39 @@
       <c r="AR78" s="57"/>
     </row>
     <row r="79" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A79" s="81">
-        <v>1</v>
-      </c>
-      <c r="B79" s="81">
-        <v>1</v>
-      </c>
-      <c r="C79" s="81">
-        <v>1</v>
-      </c>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="81"/>
-      <c r="J79" s="81"/>
-      <c r="K79" s="81"/>
-      <c r="L79" s="89"/>
-      <c r="M79" s="90"/>
-      <c r="N79" s="81"/>
-      <c r="O79" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P79" s="90">
-        <f>Utilidad!B12</f>
-        <v>1</v>
-      </c>
-      <c r="Q79" s="89">
+      <c r="A79" s="76"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="86"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="76"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="76"/>
+      <c r="O79" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R79" s="81"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="63"/>
-      <c r="U79" s="64"/>
-      <c r="V79" s="65"/>
-      <c r="W79" s="64"/>
-      <c r="X79" s="65"/>
+      <c r="P79" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R79" s="110"/>
+      <c r="S79" s="111"/>
+      <c r="T79" s="111"/>
+      <c r="U79" s="112"/>
+      <c r="V79" s="113"/>
+      <c r="W79" s="112"/>
+      <c r="X79" s="113"/>
       <c r="Y79" s="57"/>
       <c r="Z79" s="57"/>
       <c r="AA79" s="57"/>
@@ -15264,39 +15160,39 @@
       <c r="AR79" s="57"/>
     </row>
     <row r="80" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A80" s="81"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="81"/>
-      <c r="K80" s="81"/>
-      <c r="L80" s="89"/>
-      <c r="M80" s="90"/>
-      <c r="N80" s="81"/>
-      <c r="O80" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P80" s="90">
-        <f>Utilidad!B13</f>
-        <v>1</v>
-      </c>
-      <c r="Q80" s="89">
+      <c r="A80" s="76"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="76"/>
+      <c r="K80" s="76"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="85"/>
+      <c r="N80" s="76"/>
+      <c r="O80" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R80" s="81"/>
-      <c r="S80" s="63"/>
-      <c r="T80" s="63"/>
-      <c r="U80" s="64"/>
-      <c r="V80" s="65"/>
-      <c r="W80" s="64"/>
-      <c r="X80" s="65"/>
+      <c r="P80" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q80" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R80" s="110"/>
+      <c r="S80" s="111"/>
+      <c r="T80" s="111"/>
+      <c r="U80" s="112"/>
+      <c r="V80" s="113"/>
+      <c r="W80" s="112"/>
+      <c r="X80" s="113"/>
       <c r="Y80" s="57"/>
       <c r="Z80" s="57"/>
       <c r="AA80" s="57"/>
@@ -15319,39 +15215,39 @@
       <c r="AR80" s="57"/>
     </row>
     <row r="81" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A81" s="81"/>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="81"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="89"/>
-      <c r="M81" s="90"/>
-      <c r="N81" s="81"/>
-      <c r="O81" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P81" s="90">
-        <f>Utilidad!B14</f>
-        <v>1</v>
-      </c>
-      <c r="Q81" s="89">
+      <c r="A81" s="76"/>
+      <c r="B81" s="76"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R81" s="81"/>
-      <c r="S81" s="63"/>
-      <c r="T81" s="63"/>
-      <c r="U81" s="64"/>
-      <c r="V81" s="65"/>
-      <c r="W81" s="64"/>
-      <c r="X81" s="65"/>
+      <c r="P81" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q81" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R81" s="110"/>
+      <c r="S81" s="111"/>
+      <c r="T81" s="111"/>
+      <c r="U81" s="112"/>
+      <c r="V81" s="113"/>
+      <c r="W81" s="112"/>
+      <c r="X81" s="113"/>
       <c r="Y81" s="57"/>
       <c r="Z81" s="57"/>
       <c r="AA81" s="57"/>
@@ -15374,39 +15270,39 @@
       <c r="AR81" s="57"/>
     </row>
     <row r="82" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A82" s="88"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="81"/>
-      <c r="K82" s="81"/>
-      <c r="L82" s="89"/>
-      <c r="M82" s="90"/>
-      <c r="N82" s="81"/>
-      <c r="O82" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P82" s="90">
-        <f>Utilidad!B15</f>
-        <v>1</v>
-      </c>
-      <c r="Q82" s="89">
+      <c r="A82" s="83"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="87"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="76"/>
+      <c r="O82" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R82" s="81"/>
-      <c r="S82" s="63"/>
-      <c r="T82" s="63"/>
-      <c r="U82" s="64"/>
-      <c r="V82" s="65"/>
-      <c r="W82" s="64"/>
-      <c r="X82" s="65"/>
+      <c r="P82" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q82" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R82" s="110"/>
+      <c r="S82" s="111"/>
+      <c r="T82" s="111"/>
+      <c r="U82" s="112"/>
+      <c r="V82" s="113"/>
+      <c r="W82" s="112"/>
+      <c r="X82" s="113"/>
       <c r="Y82" s="57"/>
       <c r="Z82" s="57"/>
       <c r="AA82" s="57"/>
@@ -15429,39 +15325,39 @@
       <c r="AR82" s="57"/>
     </row>
     <row r="83" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A83" s="88"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="90"/>
-      <c r="N83" s="81"/>
-      <c r="O83" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P83" s="90">
-        <f>Utilidad!B16</f>
-        <v>1</v>
-      </c>
-      <c r="Q83" s="89">
+      <c r="A83" s="83"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="87"/>
+      <c r="H83" s="87"/>
+      <c r="I83" s="87"/>
+      <c r="J83" s="76"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="85"/>
+      <c r="N83" s="76"/>
+      <c r="O83" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R83" s="81"/>
-      <c r="S83" s="63"/>
-      <c r="T83" s="63"/>
-      <c r="U83" s="64"/>
-      <c r="V83" s="65"/>
-      <c r="W83" s="64"/>
-      <c r="X83" s="65"/>
+      <c r="P83" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q83" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R83" s="110"/>
+      <c r="S83" s="111"/>
+      <c r="T83" s="111"/>
+      <c r="U83" s="112"/>
+      <c r="V83" s="113"/>
+      <c r="W83" s="112"/>
+      <c r="X83" s="113"/>
       <c r="Y83" s="57"/>
       <c r="Z83" s="57"/>
       <c r="AA83" s="57"/>
@@ -15484,39 +15380,39 @@
       <c r="AR83" s="57"/>
     </row>
     <row r="84" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A84" s="81"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="81"/>
-      <c r="K84" s="81"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="90"/>
-      <c r="N84" s="81"/>
-      <c r="O84" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P84" s="90">
-        <f>Utilidad!B17</f>
-        <v>1</v>
-      </c>
-      <c r="Q84" s="89">
+      <c r="A84" s="76"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="85"/>
+      <c r="N84" s="76"/>
+      <c r="O84" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R84" s="81"/>
-      <c r="S84" s="63"/>
-      <c r="T84" s="63"/>
-      <c r="U84" s="64"/>
-      <c r="V84" s="65"/>
-      <c r="W84" s="64"/>
-      <c r="X84" s="65"/>
+      <c r="P84" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q84" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R84" s="110"/>
+      <c r="S84" s="111"/>
+      <c r="T84" s="111"/>
+      <c r="U84" s="112"/>
+      <c r="V84" s="113"/>
+      <c r="W84" s="112"/>
+      <c r="X84" s="113"/>
       <c r="Y84" s="57"/>
       <c r="Z84" s="57"/>
       <c r="AA84" s="57"/>
@@ -15539,39 +15435,39 @@
       <c r="AR84" s="57"/>
     </row>
     <row r="85" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A85" s="81"/>
-      <c r="B85" s="81"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81"/>
-      <c r="J85" s="81"/>
-      <c r="K85" s="81"/>
-      <c r="L85" s="89"/>
-      <c r="M85" s="90"/>
-      <c r="N85" s="81"/>
-      <c r="O85" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P85" s="90">
-        <f>Utilidad!B18</f>
-        <v>1</v>
-      </c>
-      <c r="Q85" s="89">
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="84"/>
+      <c r="M85" s="85"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R85" s="81"/>
-      <c r="S85" s="63"/>
-      <c r="T85" s="63"/>
-      <c r="U85" s="64"/>
-      <c r="V85" s="65"/>
-      <c r="W85" s="64"/>
-      <c r="X85" s="65"/>
+      <c r="P85" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q85" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R85" s="110"/>
+      <c r="S85" s="111"/>
+      <c r="T85" s="111"/>
+      <c r="U85" s="112"/>
+      <c r="V85" s="113"/>
+      <c r="W85" s="112"/>
+      <c r="X85" s="113"/>
       <c r="Y85" s="57"/>
       <c r="Z85" s="57"/>
       <c r="AA85" s="57"/>
@@ -15594,39 +15490,39 @@
       <c r="AR85" s="57"/>
     </row>
     <row r="86" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A86" s="81"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
-      <c r="K86" s="81"/>
-      <c r="L86" s="89"/>
-      <c r="M86" s="90"/>
-      <c r="N86" s="81"/>
-      <c r="O86" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P86" s="90">
-        <f>Utilidad!B19</f>
-        <v>1</v>
-      </c>
-      <c r="Q86" s="89">
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="84"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="76"/>
+      <c r="O86" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R86" s="81"/>
-      <c r="S86" s="63"/>
-      <c r="T86" s="63"/>
-      <c r="U86" s="64"/>
-      <c r="V86" s="65"/>
-      <c r="W86" s="64"/>
-      <c r="X86" s="65"/>
+      <c r="P86" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q86" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R86" s="110"/>
+      <c r="S86" s="111"/>
+      <c r="T86" s="111"/>
+      <c r="U86" s="112"/>
+      <c r="V86" s="113"/>
+      <c r="W86" s="112"/>
+      <c r="X86" s="113"/>
       <c r="Y86" s="57"/>
       <c r="Z86" s="57"/>
       <c r="AA86" s="57"/>
@@ -15649,39 +15545,39 @@
       <c r="AR86" s="57"/>
     </row>
     <row r="87" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A87" s="81"/>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="89"/>
-      <c r="J87" s="81"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="89"/>
-      <c r="M87" s="90"/>
-      <c r="N87" s="81"/>
-      <c r="O87" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P87" s="90">
-        <f>Utilidad!B20</f>
-        <v>1</v>
-      </c>
-      <c r="Q87" s="89">
+      <c r="A87" s="76"/>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="76"/>
+      <c r="L87" s="84"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="76"/>
+      <c r="O87" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R87" s="81"/>
-      <c r="S87" s="63"/>
-      <c r="T87" s="63"/>
-      <c r="U87" s="64"/>
-      <c r="V87" s="65"/>
-      <c r="W87" s="64"/>
-      <c r="X87" s="65"/>
+      <c r="P87" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q87" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R87" s="110"/>
+      <c r="S87" s="111"/>
+      <c r="T87" s="111"/>
+      <c r="U87" s="112"/>
+      <c r="V87" s="113"/>
+      <c r="W87" s="112"/>
+      <c r="X87" s="113"/>
       <c r="Y87" s="57"/>
       <c r="Z87" s="57"/>
       <c r="AA87" s="57"/>
@@ -15704,39 +15600,39 @@
       <c r="AR87" s="57"/>
     </row>
     <row r="88" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A88" s="93"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-      <c r="K88" s="81"/>
-      <c r="L88" s="89"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="81"/>
-      <c r="O88" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P88" s="90">
-        <f>Utilidad!B21</f>
-        <v>1</v>
-      </c>
-      <c r="Q88" s="89">
+      <c r="A88" s="97"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="76"/>
+      <c r="K88" s="76"/>
+      <c r="L88" s="84"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="76"/>
+      <c r="O88" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R88" s="81"/>
-      <c r="S88" s="63"/>
-      <c r="T88" s="63"/>
-      <c r="U88" s="64"/>
-      <c r="V88" s="65"/>
-      <c r="W88" s="64"/>
-      <c r="X88" s="65"/>
+      <c r="P88" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q88" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R88" s="110"/>
+      <c r="S88" s="111"/>
+      <c r="T88" s="111"/>
+      <c r="U88" s="112"/>
+      <c r="V88" s="113"/>
+      <c r="W88" s="112"/>
+      <c r="X88" s="113"/>
       <c r="Y88" s="57"/>
       <c r="Z88" s="57"/>
       <c r="AA88" s="57"/>
@@ -15759,39 +15655,39 @@
       <c r="AR88" s="57"/>
     </row>
     <row r="89" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A89" s="88"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="K89" s="81"/>
-      <c r="L89" s="89"/>
-      <c r="M89" s="90"/>
-      <c r="N89" s="81"/>
-      <c r="O89" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P89" s="90">
-        <f>Utilidad!B22</f>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="89">
+      <c r="A89" s="83"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+      <c r="K89" s="76"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="76"/>
+      <c r="O89" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R89" s="81"/>
-      <c r="S89" s="63"/>
-      <c r="T89" s="63"/>
-      <c r="U89" s="64"/>
-      <c r="V89" s="65"/>
-      <c r="W89" s="64"/>
-      <c r="X89" s="65"/>
+      <c r="P89" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q89" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R89" s="110"/>
+      <c r="S89" s="111"/>
+      <c r="T89" s="111"/>
+      <c r="U89" s="112"/>
+      <c r="V89" s="113"/>
+      <c r="W89" s="112"/>
+      <c r="X89" s="113"/>
       <c r="Y89" s="57"/>
       <c r="Z89" s="57"/>
       <c r="AA89" s="57"/>
@@ -15814,39 +15710,39 @@
       <c r="AR89" s="57"/>
     </row>
     <row r="90" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A90" s="88"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81"/>
-      <c r="L90" s="89"/>
-      <c r="M90" s="90"/>
-      <c r="N90" s="81"/>
-      <c r="O90" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P90" s="90">
-        <f>Utilidad!B23</f>
-        <v>1</v>
-      </c>
-      <c r="Q90" s="89">
+      <c r="A90" s="83"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="86"/>
+      <c r="F90" s="86"/>
+      <c r="G90" s="86"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="84"/>
+      <c r="J90" s="76"/>
+      <c r="K90" s="76"/>
+      <c r="L90" s="84"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="76"/>
+      <c r="O90" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R90" s="81"/>
-      <c r="S90" s="63"/>
-      <c r="T90" s="63"/>
-      <c r="U90" s="64"/>
-      <c r="V90" s="65"/>
-      <c r="W90" s="64"/>
-      <c r="X90" s="65"/>
+      <c r="P90" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q90" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R90" s="110"/>
+      <c r="S90" s="111"/>
+      <c r="T90" s="111"/>
+      <c r="U90" s="112"/>
+      <c r="V90" s="113"/>
+      <c r="W90" s="112"/>
+      <c r="X90" s="113"/>
       <c r="Y90" s="57"/>
       <c r="Z90" s="57"/>
       <c r="AA90" s="57"/>
@@ -15869,44 +15765,44 @@
       <c r="AR90" s="57"/>
     </row>
     <row r="91" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A91" s="88"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="81"/>
-      <c r="K91" s="81"/>
-      <c r="L91" s="89"/>
-      <c r="M91" s="90"/>
-      <c r="N91" s="81"/>
-      <c r="O91" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P91" s="90">
-        <f>Utilidad!B24</f>
-        <v>1</v>
-      </c>
-      <c r="Q91" s="89">
+      <c r="A91" s="83"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="84"/>
+      <c r="M91" s="85"/>
+      <c r="N91" s="76"/>
+      <c r="O91" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R91" s="81"/>
-      <c r="S91" s="63"/>
-      <c r="T91" s="63"/>
-      <c r="U91" s="64"/>
-      <c r="V91" s="65"/>
-      <c r="W91" s="64"/>
-      <c r="X91" s="65"/>
+      <c r="P91" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q91" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R91" s="110"/>
+      <c r="S91" s="111"/>
+      <c r="T91" s="111"/>
+      <c r="U91" s="112"/>
+      <c r="V91" s="113"/>
+      <c r="W91" s="112"/>
+      <c r="X91" s="113"/>
       <c r="Y91" s="57"/>
       <c r="Z91" s="57"/>
       <c r="AA91" s="57"/>
-      <c r="AB91" s="66"/>
-      <c r="AC91" s="66"/>
+      <c r="AB91" s="61"/>
+      <c r="AC91" s="61"/>
       <c r="AD91" s="57"/>
       <c r="AE91" s="57"/>
       <c r="AF91" s="57"/>
@@ -15924,44 +15820,44 @@
       <c r="AR91" s="57"/>
     </row>
     <row r="92" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A92" s="81"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="90"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="90"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="81"/>
-      <c r="K92" s="81"/>
-      <c r="L92" s="89"/>
-      <c r="M92" s="89"/>
-      <c r="N92" s="81"/>
-      <c r="O92" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P92" s="90">
-        <f>Utilidad!B25</f>
-        <v>1</v>
-      </c>
-      <c r="Q92" s="89">
+      <c r="A92" s="76"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76"/>
+      <c r="K92" s="76"/>
+      <c r="L92" s="84"/>
+      <c r="M92" s="84"/>
+      <c r="N92" s="76"/>
+      <c r="O92" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R92" s="81"/>
-      <c r="S92" s="63"/>
-      <c r="T92" s="63"/>
-      <c r="U92" s="64"/>
-      <c r="V92" s="65"/>
-      <c r="W92" s="64"/>
-      <c r="X92" s="65"/>
+      <c r="P92" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q92" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R92" s="110"/>
+      <c r="S92" s="111"/>
+      <c r="T92" s="111"/>
+      <c r="U92" s="112"/>
+      <c r="V92" s="113"/>
+      <c r="W92" s="112"/>
+      <c r="X92" s="113"/>
       <c r="Y92" s="57"/>
       <c r="Z92" s="57"/>
       <c r="AA92" s="57"/>
-      <c r="AB92" s="67"/>
-      <c r="AC92" s="67"/>
+      <c r="AB92" s="62"/>
+      <c r="AC92" s="62"/>
       <c r="AD92" s="57"/>
       <c r="AE92" s="57"/>
       <c r="AF92" s="57"/>
@@ -15979,44 +15875,44 @@
       <c r="AR92" s="57"/>
     </row>
     <row r="93" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A93" s="81"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="81"/>
-      <c r="H93" s="81"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="81"/>
-      <c r="K93" s="81"/>
-      <c r="L93" s="89"/>
-      <c r="M93" s="89"/>
-      <c r="N93" s="81"/>
-      <c r="O93" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P93" s="90">
-        <f>Utilidad!B26</f>
-        <v>1</v>
-      </c>
-      <c r="Q93" s="89">
+      <c r="A93" s="76"/>
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="76"/>
+      <c r="L93" s="84"/>
+      <c r="M93" s="84"/>
+      <c r="N93" s="76"/>
+      <c r="O93" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R93" s="81"/>
-      <c r="S93" s="63"/>
-      <c r="T93" s="63"/>
-      <c r="U93" s="64"/>
-      <c r="V93" s="65"/>
-      <c r="W93" s="64"/>
-      <c r="X93" s="65"/>
+      <c r="P93" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q93" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R93" s="110"/>
+      <c r="S93" s="111"/>
+      <c r="T93" s="111"/>
+      <c r="U93" s="112"/>
+      <c r="V93" s="113"/>
+      <c r="W93" s="112"/>
+      <c r="X93" s="113"/>
       <c r="Y93" s="57"/>
       <c r="Z93" s="57"/>
       <c r="AA93" s="57"/>
-      <c r="AB93" s="67"/>
-      <c r="AC93" s="67"/>
+      <c r="AB93" s="62"/>
+      <c r="AC93" s="62"/>
       <c r="AD93" s="57"/>
       <c r="AE93" s="57"/>
       <c r="AF93" s="57"/>
@@ -16034,39 +15930,39 @@
       <c r="AR93" s="57"/>
     </row>
     <row r="94" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="90"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="90"/>
-      <c r="G94" s="90"/>
-      <c r="H94" s="90"/>
-      <c r="I94" s="90"/>
-      <c r="J94" s="81"/>
-      <c r="K94" s="81"/>
-      <c r="L94" s="89"/>
-      <c r="M94" s="89"/>
-      <c r="N94" s="81"/>
-      <c r="O94" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P94" s="90">
-        <f>Utilidad!B27</f>
-        <v>1</v>
-      </c>
-      <c r="Q94" s="89">
+      <c r="A94" s="88"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="76"/>
+      <c r="K94" s="76"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="76"/>
+      <c r="O94" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R94" s="81"/>
-      <c r="S94" s="63"/>
-      <c r="T94" s="63"/>
-      <c r="U94" s="64"/>
-      <c r="V94" s="65"/>
-      <c r="W94" s="64"/>
-      <c r="X94" s="65"/>
+      <c r="P94" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q94" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R94" s="110"/>
+      <c r="S94" s="111"/>
+      <c r="T94" s="111"/>
+      <c r="U94" s="112"/>
+      <c r="V94" s="113"/>
+      <c r="W94" s="112"/>
+      <c r="X94" s="113"/>
       <c r="Y94" s="57"/>
       <c r="Z94" s="57"/>
       <c r="AA94" s="57"/>
@@ -16089,39 +15985,39 @@
       <c r="AR94" s="57"/>
     </row>
     <row r="95" spans="1:44" ht="22.5" customHeight="1">
-      <c r="A95" s="81"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="90"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="90"/>
-      <c r="G95" s="90"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="81"/>
-      <c r="K95" s="85"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="85"/>
-      <c r="O95" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P95" s="90">
-        <f>Utilidad!B28</f>
-        <v>1</v>
-      </c>
-      <c r="Q95" s="89">
+      <c r="A95" s="76"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="85"/>
+      <c r="J95" s="76"/>
+      <c r="K95" s="80"/>
+      <c r="L95" s="89"/>
+      <c r="M95" s="90"/>
+      <c r="N95" s="80"/>
+      <c r="O95" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R95" s="81"/>
-      <c r="S95" s="63"/>
-      <c r="T95" s="63"/>
-      <c r="U95" s="64"/>
-      <c r="V95" s="65"/>
-      <c r="W95" s="64"/>
-      <c r="X95" s="65"/>
+      <c r="P95" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q95" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R95" s="110"/>
+      <c r="S95" s="111"/>
+      <c r="T95" s="111"/>
+      <c r="U95" s="112"/>
+      <c r="V95" s="113"/>
+      <c r="W95" s="112"/>
+      <c r="X95" s="113"/>
       <c r="Y95" s="57"/>
       <c r="Z95" s="57"/>
       <c r="AA95" s="57"/>
@@ -16144,39 +16040,39 @@
       <c r="AR95" s="57"/>
     </row>
     <row r="96" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A96" s="81"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="81"/>
-      <c r="K96" s="81"/>
-      <c r="L96" s="89"/>
-      <c r="M96" s="90"/>
-      <c r="N96" s="81"/>
-      <c r="O96" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P96" s="90">
-        <f>Utilidad!B29</f>
-        <v>1</v>
-      </c>
-      <c r="Q96" s="89">
+      <c r="A96" s="76"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="76"/>
+      <c r="K96" s="76"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="85"/>
+      <c r="N96" s="76"/>
+      <c r="O96" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R96" s="81"/>
-      <c r="S96" s="63"/>
-      <c r="T96" s="63"/>
-      <c r="U96" s="64"/>
-      <c r="V96" s="65"/>
-      <c r="W96" s="64"/>
-      <c r="X96" s="65"/>
+      <c r="P96" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q96" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R96" s="110"/>
+      <c r="S96" s="111"/>
+      <c r="T96" s="111"/>
+      <c r="U96" s="112"/>
+      <c r="V96" s="113"/>
+      <c r="W96" s="112"/>
+      <c r="X96" s="113"/>
       <c r="Y96" s="57"/>
       <c r="Z96" s="57"/>
       <c r="AA96" s="57"/>
@@ -16199,39 +16095,39 @@
       <c r="AR96" s="57"/>
     </row>
     <row r="97" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A97" s="81"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="97"/>
-      <c r="I97" s="90"/>
-      <c r="J97" s="81"/>
-      <c r="K97" s="81"/>
-      <c r="L97" s="89"/>
-      <c r="M97" s="90"/>
-      <c r="N97" s="81"/>
-      <c r="O97" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P97" s="90">
-        <f>Utilidad!B30</f>
-        <v>1</v>
-      </c>
-      <c r="Q97" s="89">
+      <c r="A97" s="76"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="76"/>
+      <c r="K97" s="76"/>
+      <c r="L97" s="84"/>
+      <c r="M97" s="85"/>
+      <c r="N97" s="76"/>
+      <c r="O97" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R97" s="81"/>
-      <c r="S97" s="63"/>
-      <c r="T97" s="63"/>
-      <c r="U97" s="64"/>
-      <c r="V97" s="65"/>
-      <c r="W97" s="64"/>
-      <c r="X97" s="65"/>
+      <c r="P97" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q97" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R97" s="110"/>
+      <c r="S97" s="111"/>
+      <c r="T97" s="111"/>
+      <c r="U97" s="112"/>
+      <c r="V97" s="113"/>
+      <c r="W97" s="112"/>
+      <c r="X97" s="113"/>
       <c r="Y97" s="57"/>
       <c r="Z97" s="57"/>
       <c r="AA97" s="57"/>
@@ -16254,39 +16150,39 @@
       <c r="AR97" s="57"/>
     </row>
     <row r="98" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A98" s="81"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="81"/>
-      <c r="G98" s="81"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="81"/>
-      <c r="J98" s="81"/>
-      <c r="K98" s="81"/>
-      <c r="L98" s="89"/>
-      <c r="M98" s="90"/>
-      <c r="N98" s="81"/>
-      <c r="O98" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P98" s="90">
-        <f>Utilidad!B31</f>
-        <v>1</v>
-      </c>
-      <c r="Q98" s="89">
+      <c r="A98" s="76"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="84"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="76"/>
+      <c r="K98" s="76"/>
+      <c r="L98" s="84"/>
+      <c r="M98" s="85"/>
+      <c r="N98" s="76"/>
+      <c r="O98" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R98" s="81"/>
-      <c r="S98" s="63"/>
-      <c r="T98" s="63"/>
-      <c r="U98" s="64"/>
-      <c r="V98" s="65"/>
-      <c r="W98" s="64"/>
-      <c r="X98" s="65"/>
+      <c r="P98" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q98" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R98" s="110"/>
+      <c r="S98" s="111"/>
+      <c r="T98" s="111"/>
+      <c r="U98" s="112"/>
+      <c r="V98" s="113"/>
+      <c r="W98" s="112"/>
+      <c r="X98" s="113"/>
       <c r="Y98" s="57"/>
       <c r="Z98" s="57"/>
       <c r="AA98" s="57"/>
@@ -16309,39 +16205,39 @@
       <c r="AR98" s="57"/>
     </row>
     <row r="99" spans="1:44" ht="15.5" customHeight="1">
-      <c r="A99" s="81"/>
-      <c r="B99" s="81"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="81"/>
-      <c r="E99" s="81"/>
-      <c r="F99" s="81"/>
-      <c r="G99" s="81"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="81"/>
-      <c r="J99" s="81"/>
-      <c r="K99" s="81"/>
-      <c r="L99" s="89"/>
-      <c r="M99" s="90"/>
-      <c r="N99" s="81"/>
-      <c r="O99" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P99" s="90">
-        <f>Utilidad!B32</f>
-        <v>1</v>
-      </c>
-      <c r="Q99" s="89">
+      <c r="A99" s="76"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76"/>
+      <c r="K99" s="76"/>
+      <c r="L99" s="84"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="76"/>
+      <c r="O99" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R99" s="81"/>
-      <c r="S99" s="63"/>
-      <c r="T99" s="63"/>
-      <c r="U99" s="64"/>
-      <c r="V99" s="65"/>
-      <c r="W99" s="64"/>
-      <c r="X99" s="65"/>
+      <c r="P99" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q99" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R99" s="110"/>
+      <c r="S99" s="111"/>
+      <c r="T99" s="111"/>
+      <c r="U99" s="112"/>
+      <c r="V99" s="113"/>
+      <c r="W99" s="112"/>
+      <c r="X99" s="113"/>
       <c r="Y99" s="57"/>
       <c r="Z99" s="57"/>
       <c r="AA99" s="57"/>
@@ -16363,40 +16259,40 @@
       <c r="AQ99" s="57"/>
       <c r="AR99" s="57"/>
     </row>
-    <row r="100" spans="1:44" ht="16">
-      <c r="A100" s="81"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="81"/>
-      <c r="G100" s="81"/>
-      <c r="H100" s="81"/>
-      <c r="I100" s="81"/>
-      <c r="J100" s="81"/>
-      <c r="K100" s="81"/>
-      <c r="L100" s="89"/>
-      <c r="M100" s="90"/>
-      <c r="N100" s="81"/>
-      <c r="O100" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P100" s="90">
-        <f>Utilidad!B33</f>
-        <v>1</v>
-      </c>
-      <c r="Q100" s="89">
+    <row r="100" spans="1:44" ht="19">
+      <c r="A100" s="76"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+      <c r="K100" s="76"/>
+      <c r="L100" s="84"/>
+      <c r="M100" s="85"/>
+      <c r="N100" s="76"/>
+      <c r="O100" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R100" s="81"/>
-      <c r="S100" s="63"/>
-      <c r="T100" s="63"/>
-      <c r="U100" s="64"/>
-      <c r="V100" s="65"/>
-      <c r="W100" s="64"/>
-      <c r="X100" s="65"/>
+      <c r="P100" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q100" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R100" s="110"/>
+      <c r="S100" s="111"/>
+      <c r="T100" s="111"/>
+      <c r="U100" s="112"/>
+      <c r="V100" s="113"/>
+      <c r="W100" s="112"/>
+      <c r="X100" s="113"/>
       <c r="Y100" s="57"/>
       <c r="Z100" s="57"/>
       <c r="AA100" s="57"/>
@@ -16419,39 +16315,39 @@
       <c r="AR100" s="57"/>
     </row>
     <row r="101" spans="1:44" ht="28.5" customHeight="1">
-      <c r="A101" s="81"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="81"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="81"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="81"/>
-      <c r="J101" s="81"/>
-      <c r="K101" s="98"/>
-      <c r="L101" s="89"/>
-      <c r="M101" s="90"/>
-      <c r="N101" s="81"/>
-      <c r="O101" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P101" s="90">
-        <f>Utilidad!B34</f>
-        <v>1</v>
-      </c>
-      <c r="Q101" s="89">
+      <c r="A101" s="76"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+      <c r="K101" s="92"/>
+      <c r="L101" s="84"/>
+      <c r="M101" s="85"/>
+      <c r="N101" s="76"/>
+      <c r="O101" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R101" s="81"/>
-      <c r="S101" s="63"/>
-      <c r="T101" s="63"/>
-      <c r="U101" s="64"/>
-      <c r="V101" s="65"/>
-      <c r="W101" s="64"/>
-      <c r="X101" s="65"/>
+      <c r="P101" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q101" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R101" s="114"/>
+      <c r="S101" s="111"/>
+      <c r="T101" s="111"/>
+      <c r="U101" s="112"/>
+      <c r="V101" s="113"/>
+      <c r="W101" s="112"/>
+      <c r="X101" s="113"/>
       <c r="Y101" s="57"/>
       <c r="Z101" s="57"/>
       <c r="AA101" s="57"/>
@@ -16473,40 +16369,40 @@
       <c r="AQ101" s="57"/>
       <c r="AR101" s="57"/>
     </row>
-    <row r="102" spans="1:44" ht="16">
-      <c r="A102" s="81"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="81"/>
-      <c r="E102" s="81"/>
-      <c r="F102" s="81"/>
-      <c r="G102" s="81"/>
-      <c r="H102" s="81"/>
-      <c r="I102" s="81"/>
-      <c r="J102" s="81"/>
-      <c r="K102" s="98"/>
-      <c r="L102" s="89"/>
-      <c r="M102" s="90"/>
-      <c r="N102" s="81"/>
-      <c r="O102" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P102" s="90">
-        <f>Utilidad!B35</f>
-        <v>1</v>
-      </c>
-      <c r="Q102" s="89">
+    <row r="102" spans="1:44" ht="19">
+      <c r="A102" s="76"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
+      <c r="K102" s="92"/>
+      <c r="L102" s="84"/>
+      <c r="M102" s="85"/>
+      <c r="N102" s="76"/>
+      <c r="O102" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R102" s="81"/>
-      <c r="S102" s="63"/>
-      <c r="T102" s="63"/>
-      <c r="U102" s="64"/>
-      <c r="V102" s="65"/>
-      <c r="W102" s="64"/>
-      <c r="X102" s="65"/>
+      <c r="P102" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q102" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R102" s="114"/>
+      <c r="S102" s="111"/>
+      <c r="T102" s="111"/>
+      <c r="U102" s="112"/>
+      <c r="V102" s="113"/>
+      <c r="W102" s="112"/>
+      <c r="X102" s="113"/>
       <c r="Y102" s="57"/>
       <c r="Z102" s="57"/>
       <c r="AA102" s="57"/>
@@ -16528,40 +16424,40 @@
       <c r="AQ102" s="57"/>
       <c r="AR102" s="57"/>
     </row>
-    <row r="103" spans="1:44" ht="16">
-      <c r="A103" s="81"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="81"/>
-      <c r="G103" s="81"/>
-      <c r="H103" s="81"/>
-      <c r="I103" s="81"/>
-      <c r="J103" s="81"/>
-      <c r="K103" s="81"/>
-      <c r="L103" s="89"/>
-      <c r="M103" s="90"/>
-      <c r="N103" s="81"/>
-      <c r="O103" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P103" s="90">
-        <f>Utilidad!B36</f>
-        <v>1</v>
-      </c>
-      <c r="Q103" s="89">
+    <row r="103" spans="1:44" ht="19">
+      <c r="A103" s="76"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="76"/>
+      <c r="L103" s="84"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="76"/>
+      <c r="O103" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R103" s="81"/>
-      <c r="S103" s="63"/>
-      <c r="T103" s="63"/>
-      <c r="U103" s="64"/>
-      <c r="V103" s="65"/>
-      <c r="W103" s="64"/>
-      <c r="X103" s="65"/>
+      <c r="P103" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q103" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R103" s="110"/>
+      <c r="S103" s="111"/>
+      <c r="T103" s="111"/>
+      <c r="U103" s="112"/>
+      <c r="V103" s="113"/>
+      <c r="W103" s="112"/>
+      <c r="X103" s="113"/>
       <c r="Y103" s="57"/>
       <c r="Z103" s="57"/>
       <c r="AA103" s="57"/>
@@ -16583,40 +16479,40 @@
       <c r="AQ103" s="57"/>
       <c r="AR103" s="57"/>
     </row>
-    <row r="104" spans="1:44" ht="16">
-      <c r="A104" s="81"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-      <c r="H104" s="81"/>
-      <c r="I104" s="81"/>
-      <c r="J104" s="81"/>
-      <c r="K104" s="81"/>
-      <c r="L104" s="89"/>
-      <c r="M104" s="90"/>
-      <c r="N104" s="81"/>
-      <c r="O104" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P104" s="90">
-        <f>Utilidad!B37</f>
-        <v>1</v>
-      </c>
-      <c r="Q104" s="89">
+    <row r="104" spans="1:44" ht="19">
+      <c r="A104" s="76"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="76"/>
+      <c r="L104" s="84"/>
+      <c r="M104" s="85"/>
+      <c r="N104" s="76"/>
+      <c r="O104" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R104" s="81"/>
-      <c r="S104" s="63"/>
-      <c r="T104" s="63"/>
-      <c r="U104" s="64"/>
-      <c r="V104" s="65"/>
-      <c r="W104" s="64"/>
-      <c r="X104" s="65"/>
+      <c r="P104" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q104" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R104" s="110"/>
+      <c r="S104" s="111"/>
+      <c r="T104" s="111"/>
+      <c r="U104" s="112"/>
+      <c r="V104" s="113"/>
+      <c r="W104" s="112"/>
+      <c r="X104" s="113"/>
       <c r="Y104" s="57"/>
       <c r="Z104" s="57"/>
       <c r="AA104" s="57"/>
@@ -16638,40 +16534,40 @@
       <c r="AQ104" s="57"/>
       <c r="AR104" s="57"/>
     </row>
-    <row r="105" spans="1:44" ht="16">
-      <c r="A105" s="81"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
-      <c r="E105" s="81"/>
-      <c r="F105" s="81"/>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="90"/>
-      <c r="J105" s="81"/>
-      <c r="K105" s="81"/>
-      <c r="L105" s="89"/>
-      <c r="M105" s="90"/>
-      <c r="N105" s="81"/>
-      <c r="O105" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P105" s="90">
-        <f>Utilidad!B38</f>
-        <v>1</v>
-      </c>
-      <c r="Q105" s="89">
+    <row r="105" spans="1:44" ht="19">
+      <c r="A105" s="76"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="84"/>
+      <c r="M105" s="85"/>
+      <c r="N105" s="76"/>
+      <c r="O105" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R105" s="81"/>
-      <c r="S105" s="63"/>
-      <c r="T105" s="63"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="65"/>
-      <c r="W105" s="64"/>
-      <c r="X105" s="65"/>
+      <c r="P105" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q105" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R105" s="110"/>
+      <c r="S105" s="111"/>
+      <c r="T105" s="111"/>
+      <c r="U105" s="112"/>
+      <c r="V105" s="113"/>
+      <c r="W105" s="112"/>
+      <c r="X105" s="113"/>
       <c r="Y105" s="57"/>
       <c r="Z105" s="57"/>
       <c r="AA105" s="57"/>
@@ -16693,40 +16589,40 @@
       <c r="AQ105" s="57"/>
       <c r="AR105" s="57"/>
     </row>
-    <row r="106" spans="1:44" ht="16">
-      <c r="A106" s="81"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="81"/>
-      <c r="K106" s="81"/>
-      <c r="L106" s="89"/>
-      <c r="M106" s="90"/>
-      <c r="N106" s="81"/>
-      <c r="O106" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P106" s="90">
-        <f>Utilidad!B39</f>
-        <v>1</v>
-      </c>
-      <c r="Q106" s="89">
+    <row r="106" spans="1:44" ht="19">
+      <c r="A106" s="76"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="76"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="84"/>
+      <c r="M106" s="85"/>
+      <c r="N106" s="76"/>
+      <c r="O106" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R106" s="81"/>
-      <c r="S106" s="63"/>
-      <c r="T106" s="63"/>
-      <c r="U106" s="64"/>
-      <c r="V106" s="65"/>
-      <c r="W106" s="64"/>
-      <c r="X106" s="65"/>
+      <c r="P106" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q106" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R106" s="110"/>
+      <c r="S106" s="111"/>
+      <c r="T106" s="111"/>
+      <c r="U106" s="112"/>
+      <c r="V106" s="113"/>
+      <c r="W106" s="112"/>
+      <c r="X106" s="113"/>
       <c r="Y106" s="57"/>
       <c r="Z106" s="57"/>
       <c r="AA106" s="57"/>
@@ -16748,40 +16644,40 @@
       <c r="AQ106" s="57"/>
       <c r="AR106" s="57"/>
     </row>
-    <row r="107" spans="1:44" ht="16">
-      <c r="A107" s="81"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="81"/>
-      <c r="E107" s="81"/>
-      <c r="F107" s="81"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="81"/>
-      <c r="I107" s="90"/>
-      <c r="J107" s="81"/>
-      <c r="K107" s="81"/>
-      <c r="L107" s="89"/>
-      <c r="M107" s="90"/>
-      <c r="N107" s="81"/>
-      <c r="O107" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P107" s="90">
-        <f>Utilidad!B40</f>
-        <v>1</v>
-      </c>
-      <c r="Q107" s="89">
+    <row r="107" spans="1:44" ht="19">
+      <c r="A107" s="76"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="85"/>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="84"/>
+      <c r="M107" s="85"/>
+      <c r="N107" s="76"/>
+      <c r="O107" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R107" s="81"/>
-      <c r="S107" s="63"/>
-      <c r="T107" s="63"/>
-      <c r="U107" s="64"/>
-      <c r="V107" s="65"/>
-      <c r="W107" s="64"/>
-      <c r="X107" s="65"/>
+      <c r="P107" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q107" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R107" s="110"/>
+      <c r="S107" s="111"/>
+      <c r="T107" s="111"/>
+      <c r="U107" s="112"/>
+      <c r="V107" s="113"/>
+      <c r="W107" s="112"/>
+      <c r="X107" s="113"/>
       <c r="Y107" s="57"/>
       <c r="Z107" s="57"/>
       <c r="AA107" s="57"/>
@@ -16803,40 +16699,40 @@
       <c r="AQ107" s="57"/>
       <c r="AR107" s="57"/>
     </row>
-    <row r="108" spans="1:44" ht="16">
-      <c r="A108" s="81"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="81"/>
-      <c r="K108" s="81"/>
-      <c r="L108" s="89"/>
-      <c r="M108" s="90"/>
-      <c r="N108" s="81"/>
-      <c r="O108" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P108" s="90">
-        <f>Utilidad!B41</f>
-        <v>1</v>
-      </c>
-      <c r="Q108" s="89">
+    <row r="108" spans="1:44" ht="19">
+      <c r="A108" s="76"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+      <c r="K108" s="76"/>
+      <c r="L108" s="84"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="76"/>
+      <c r="O108" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R108" s="81"/>
-      <c r="S108" s="63"/>
-      <c r="T108" s="63"/>
-      <c r="U108" s="64"/>
-      <c r="V108" s="65"/>
-      <c r="W108" s="64"/>
-      <c r="X108" s="65"/>
+      <c r="P108" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q108" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R108" s="110"/>
+      <c r="S108" s="111"/>
+      <c r="T108" s="111"/>
+      <c r="U108" s="112"/>
+      <c r="V108" s="113"/>
+      <c r="W108" s="112"/>
+      <c r="X108" s="113"/>
       <c r="Y108" s="57"/>
       <c r="Z108" s="57"/>
       <c r="AA108" s="57"/>
@@ -16858,40 +16754,40 @@
       <c r="AQ108" s="57"/>
       <c r="AR108" s="57"/>
     </row>
-    <row r="109" spans="1:44" ht="16">
-      <c r="A109" s="81"/>
-      <c r="B109" s="81"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="81"/>
-      <c r="K109" s="81"/>
-      <c r="L109" s="89"/>
-      <c r="M109" s="90"/>
-      <c r="N109" s="81"/>
-      <c r="O109" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P109" s="90">
-        <f>Utilidad!B42</f>
-        <v>1</v>
-      </c>
-      <c r="Q109" s="89">
+    <row r="109" spans="1:44" ht="19">
+      <c r="A109" s="76"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="85"/>
+      <c r="J109" s="76"/>
+      <c r="K109" s="76"/>
+      <c r="L109" s="84"/>
+      <c r="M109" s="85"/>
+      <c r="N109" s="76"/>
+      <c r="O109" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R109" s="81"/>
-      <c r="S109" s="63"/>
-      <c r="T109" s="63"/>
-      <c r="U109" s="64"/>
-      <c r="V109" s="65"/>
-      <c r="W109" s="64"/>
-      <c r="X109" s="65"/>
+      <c r="P109" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q109" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R109" s="110"/>
+      <c r="S109" s="111"/>
+      <c r="T109" s="111"/>
+      <c r="U109" s="112"/>
+      <c r="V109" s="113"/>
+      <c r="W109" s="112"/>
+      <c r="X109" s="113"/>
       <c r="Y109" s="57"/>
       <c r="Z109" s="57"/>
       <c r="AA109" s="57"/>
@@ -16913,40 +16809,40 @@
       <c r="AQ109" s="57"/>
       <c r="AR109" s="57"/>
     </row>
-    <row r="110" spans="1:44" ht="16">
-      <c r="A110" s="81"/>
-      <c r="B110" s="81"/>
-      <c r="C110" s="81"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81"/>
-      <c r="I110" s="81"/>
-      <c r="J110" s="81"/>
-      <c r="K110" s="81"/>
-      <c r="L110" s="89"/>
-      <c r="M110" s="90"/>
-      <c r="N110" s="81"/>
-      <c r="O110" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P110" s="90">
-        <f>Utilidad!B43</f>
-        <v>1</v>
-      </c>
-      <c r="Q110" s="89">
+    <row r="110" spans="1:44" ht="19">
+      <c r="A110" s="76"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+      <c r="K110" s="76"/>
+      <c r="L110" s="84"/>
+      <c r="M110" s="85"/>
+      <c r="N110" s="76"/>
+      <c r="O110" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R110" s="81"/>
-      <c r="S110" s="63"/>
-      <c r="T110" s="63"/>
-      <c r="U110" s="64"/>
-      <c r="V110" s="65"/>
-      <c r="W110" s="64"/>
-      <c r="X110" s="65"/>
+      <c r="P110" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q110" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R110" s="110"/>
+      <c r="S110" s="111"/>
+      <c r="T110" s="111"/>
+      <c r="U110" s="112"/>
+      <c r="V110" s="113"/>
+      <c r="W110" s="112"/>
+      <c r="X110" s="113"/>
       <c r="Y110" s="57"/>
       <c r="Z110" s="57"/>
       <c r="AA110" s="57"/>
@@ -16969,94 +16865,94 @@
       <c r="AR110" s="57"/>
     </row>
     <row r="111" spans="1:44" s="6" customFormat="1" ht="19">
-      <c r="A111" s="81"/>
-      <c r="B111" s="81"/>
-      <c r="C111" s="81"/>
-      <c r="D111" s="81"/>
-      <c r="E111" s="81"/>
-      <c r="F111" s="81"/>
-      <c r="G111" s="81"/>
-      <c r="H111" s="81"/>
-      <c r="I111" s="81"/>
-      <c r="J111" s="99"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="89"/>
-      <c r="M111" s="90"/>
-      <c r="N111" s="85"/>
-      <c r="O111" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P111" s="90">
-        <f>Utilidad!B44</f>
-        <v>1</v>
-      </c>
-      <c r="Q111" s="89">
+      <c r="A111" s="76"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="93"/>
+      <c r="K111" s="80"/>
+      <c r="L111" s="84"/>
+      <c r="M111" s="85"/>
+      <c r="N111" s="80"/>
+      <c r="O111" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R111" s="85"/>
-      <c r="S111" s="63"/>
-      <c r="T111" s="63"/>
-      <c r="U111" s="64"/>
-      <c r="V111" s="67"/>
-      <c r="W111" s="64"/>
-      <c r="X111" s="65"/>
+      <c r="P111" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q111" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R111" s="110"/>
+      <c r="S111" s="111"/>
+      <c r="T111" s="111"/>
+      <c r="U111" s="112"/>
+      <c r="V111" s="61"/>
+      <c r="W111" s="112"/>
+      <c r="X111" s="113"/>
       <c r="Y111" s="57"/>
       <c r="Z111" s="57"/>
-      <c r="AA111" s="67"/>
-      <c r="AB111" s="67"/>
-      <c r="AC111" s="67"/>
-      <c r="AD111" s="67"/>
-      <c r="AE111" s="67"/>
-      <c r="AF111" s="67"/>
-      <c r="AG111" s="67"/>
-      <c r="AH111" s="67"/>
-      <c r="AI111" s="67"/>
-      <c r="AJ111" s="67"/>
-      <c r="AK111" s="67"/>
-      <c r="AL111" s="67"/>
-      <c r="AM111" s="67"/>
-      <c r="AN111" s="67"/>
-      <c r="AO111" s="67"/>
-      <c r="AP111" s="67"/>
-      <c r="AQ111" s="67"/>
-      <c r="AR111" s="67"/>
+      <c r="AA111" s="62"/>
+      <c r="AB111" s="62"/>
+      <c r="AC111" s="62"/>
+      <c r="AD111" s="62"/>
+      <c r="AE111" s="62"/>
+      <c r="AF111" s="62"/>
+      <c r="AG111" s="62"/>
+      <c r="AH111" s="62"/>
+      <c r="AI111" s="62"/>
+      <c r="AJ111" s="62"/>
+      <c r="AK111" s="62"/>
+      <c r="AL111" s="62"/>
+      <c r="AM111" s="62"/>
+      <c r="AN111" s="62"/>
+      <c r="AO111" s="62"/>
+      <c r="AP111" s="62"/>
+      <c r="AQ111" s="62"/>
+      <c r="AR111" s="62"/>
     </row>
     <row r="112" spans="1:44" ht="19">
-      <c r="A112" s="99"/>
-      <c r="B112" s="99"/>
-      <c r="C112" s="99"/>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="99"/>
-      <c r="H112" s="99"/>
-      <c r="I112" s="89"/>
-      <c r="J112" s="81"/>
-      <c r="K112" s="81"/>
-      <c r="L112" s="89"/>
-      <c r="M112" s="81"/>
-      <c r="N112" s="81"/>
-      <c r="O112" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P112" s="90">
-        <f>Utilidad!B45</f>
-        <v>1</v>
-      </c>
-      <c r="Q112" s="89">
+      <c r="A112" s="93"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="93"/>
+      <c r="D112" s="93"/>
+      <c r="E112" s="93"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="93"/>
+      <c r="H112" s="93"/>
+      <c r="I112" s="84"/>
+      <c r="J112" s="76"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="84"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="76"/>
+      <c r="O112" s="84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="R112" s="81"/>
-      <c r="S112" s="63"/>
-      <c r="T112" s="63"/>
-      <c r="U112" s="64"/>
-      <c r="V112" s="65"/>
-      <c r="W112" s="64"/>
-      <c r="X112" s="57"/>
+      <c r="P112" s="84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q112" s="84">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R112" s="110"/>
+      <c r="S112" s="111"/>
+      <c r="T112" s="111"/>
+      <c r="U112" s="112"/>
+      <c r="V112" s="113"/>
+      <c r="W112" s="112"/>
+      <c r="X112" s="104"/>
       <c r="Y112" s="57"/>
       <c r="Z112" s="57"/>
       <c r="AA112" s="57"/>
@@ -17079,39 +16975,39 @@
       <c r="AR112" s="57"/>
     </row>
     <row r="113" spans="1:44" ht="19">
-      <c r="A113" s="81"/>
-      <c r="B113" s="81"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="81"/>
-      <c r="E113" s="81"/>
-      <c r="F113" s="81"/>
-      <c r="G113" s="81"/>
-      <c r="H113" s="81"/>
-      <c r="I113" s="81"/>
-      <c r="J113" s="81"/>
-      <c r="K113" s="81"/>
-      <c r="L113" s="95"/>
-      <c r="M113" s="96"/>
-      <c r="N113" s="81"/>
-      <c r="O113" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P113" s="90">
-        <f>Utilidad!B46</f>
-        <v>1</v>
-      </c>
-      <c r="Q113" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R113" s="81"/>
-      <c r="S113" s="63"/>
-      <c r="T113" s="63"/>
-      <c r="U113" s="64"/>
-      <c r="V113" s="65"/>
-      <c r="W113" s="64"/>
-      <c r="X113" s="65"/>
+      <c r="A113" s="76"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
+      <c r="K113" s="76"/>
+      <c r="L113" s="89"/>
+      <c r="M113" s="90"/>
+      <c r="N113" s="76"/>
+      <c r="O113" s="84">
+        <f t="shared" ref="O113:O120" si="5">A46</f>
+        <v>1</v>
+      </c>
+      <c r="P113" s="84">
+        <f t="shared" ref="P113:P120" si="6">B46</f>
+        <v>1</v>
+      </c>
+      <c r="Q113" s="84">
+        <f t="shared" ref="Q113:Q120" si="7">C46</f>
+        <v>1</v>
+      </c>
+      <c r="R113" s="110"/>
+      <c r="S113" s="111"/>
+      <c r="T113" s="111"/>
+      <c r="U113" s="112"/>
+      <c r="V113" s="113"/>
+      <c r="W113" s="112"/>
+      <c r="X113" s="113"/>
       <c r="Y113" s="57"/>
       <c r="Z113" s="57"/>
       <c r="AA113" s="57"/>
@@ -17133,40 +17029,40 @@
       <c r="AQ113" s="57"/>
       <c r="AR113" s="57"/>
     </row>
-    <row r="114" spans="1:44" ht="16">
-      <c r="A114" s="81"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="81"/>
-      <c r="D114" s="81"/>
-      <c r="E114" s="81"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="81"/>
-      <c r="H114" s="81"/>
-      <c r="I114" s="81"/>
-      <c r="J114" s="81"/>
-      <c r="K114" s="81"/>
-      <c r="L114" s="100"/>
-      <c r="M114" s="90"/>
-      <c r="N114" s="81"/>
-      <c r="O114" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P114" s="90">
-        <f>Utilidad!B47</f>
-        <v>1</v>
-      </c>
-      <c r="Q114" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R114" s="81"/>
-      <c r="S114" s="63"/>
-      <c r="T114" s="63"/>
-      <c r="U114" s="64"/>
-      <c r="V114" s="65"/>
-      <c r="W114" s="64"/>
-      <c r="X114" s="65"/>
+    <row r="114" spans="1:44" ht="19">
+      <c r="A114" s="76"/>
+      <c r="B114" s="76"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="94"/>
+      <c r="M114" s="85"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P114" s="84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q114" s="84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R114" s="110"/>
+      <c r="S114" s="111"/>
+      <c r="T114" s="111"/>
+      <c r="U114" s="112"/>
+      <c r="V114" s="113"/>
+      <c r="W114" s="112"/>
+      <c r="X114" s="113"/>
       <c r="Y114" s="57"/>
       <c r="Z114" s="57"/>
       <c r="AA114" s="57"/>
@@ -17188,40 +17084,40 @@
       <c r="AQ114" s="57"/>
       <c r="AR114" s="57"/>
     </row>
-    <row r="115" spans="1:44">
-      <c r="A115" s="81"/>
-      <c r="B115" s="81"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="81"/>
-      <c r="H115" s="81"/>
-      <c r="I115" s="81"/>
-      <c r="J115" s="81"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="100"/>
-      <c r="M115" s="90"/>
-      <c r="N115" s="81"/>
-      <c r="O115" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P115" s="90">
-        <f>Utilidad!B48</f>
-        <v>1</v>
-      </c>
-      <c r="Q115" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R115" s="81"/>
-      <c r="S115" s="63"/>
-      <c r="T115" s="63"/>
-      <c r="U115" s="64"/>
-      <c r="V115" s="57"/>
-      <c r="W115" s="64"/>
-      <c r="X115" s="57"/>
+    <row r="115" spans="1:44" ht="19">
+      <c r="A115" s="76"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+      <c r="L115" s="94"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="76"/>
+      <c r="O115" s="84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P115" s="84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q115" s="84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R115" s="110"/>
+      <c r="S115" s="111"/>
+      <c r="T115" s="111"/>
+      <c r="U115" s="112"/>
+      <c r="V115" s="104"/>
+      <c r="W115" s="112"/>
+      <c r="X115" s="104"/>
       <c r="Y115" s="57"/>
       <c r="Z115" s="57"/>
       <c r="AA115" s="57"/>
@@ -17243,40 +17139,40 @@
       <c r="AQ115" s="57"/>
       <c r="AR115" s="57"/>
     </row>
-    <row r="116" spans="1:44">
-      <c r="A116" s="81"/>
-      <c r="B116" s="81"/>
-      <c r="C116" s="81"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
-      <c r="F116" s="81"/>
-      <c r="G116" s="81"/>
-      <c r="H116" s="81"/>
-      <c r="I116" s="81"/>
-      <c r="J116" s="81"/>
-      <c r="K116" s="81"/>
-      <c r="L116" s="100"/>
-      <c r="M116" s="90"/>
-      <c r="N116" s="81"/>
-      <c r="O116" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P116" s="90">
-        <f>Utilidad!B49</f>
-        <v>1</v>
-      </c>
-      <c r="Q116" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R116" s="81"/>
-      <c r="S116" s="63"/>
-      <c r="T116" s="63"/>
-      <c r="U116" s="64"/>
-      <c r="V116" s="57"/>
-      <c r="W116" s="64"/>
-      <c r="X116" s="57"/>
+    <row r="116" spans="1:44" ht="19">
+      <c r="A116" s="76"/>
+      <c r="B116" s="76"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="76"/>
+      <c r="J116" s="76"/>
+      <c r="K116" s="76"/>
+      <c r="L116" s="94"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="76"/>
+      <c r="O116" s="84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P116" s="84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q116" s="84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R116" s="110"/>
+      <c r="S116" s="111"/>
+      <c r="T116" s="111"/>
+      <c r="U116" s="112"/>
+      <c r="V116" s="104"/>
+      <c r="W116" s="112"/>
+      <c r="X116" s="104"/>
       <c r="Y116" s="57"/>
       <c r="Z116" s="57"/>
       <c r="AA116" s="57"/>
@@ -17298,40 +17194,40 @@
       <c r="AQ116" s="57"/>
       <c r="AR116" s="57"/>
     </row>
-    <row r="117" spans="1:44">
-      <c r="A117" s="81"/>
-      <c r="B117" s="81"/>
-      <c r="C117" s="81"/>
-      <c r="D117" s="81"/>
-      <c r="E117" s="81"/>
-      <c r="F117" s="81"/>
-      <c r="G117" s="81"/>
-      <c r="H117" s="81"/>
-      <c r="I117" s="81"/>
-      <c r="J117" s="81"/>
-      <c r="K117" s="81"/>
-      <c r="L117" s="100"/>
-      <c r="M117" s="90"/>
-      <c r="N117" s="81"/>
-      <c r="O117" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P117" s="90">
-        <f>Utilidad!B50</f>
-        <v>1</v>
-      </c>
-      <c r="Q117" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R117" s="81"/>
-      <c r="S117" s="63"/>
-      <c r="T117" s="63"/>
-      <c r="U117" s="64"/>
-      <c r="V117" s="57"/>
-      <c r="W117" s="64"/>
-      <c r="X117" s="57"/>
+    <row r="117" spans="1:44" ht="19">
+      <c r="A117" s="76"/>
+      <c r="B117" s="76"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="76"/>
+      <c r="J117" s="76"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="94"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="76"/>
+      <c r="O117" s="84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P117" s="84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q117" s="84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R117" s="110"/>
+      <c r="S117" s="111"/>
+      <c r="T117" s="111"/>
+      <c r="U117" s="112"/>
+      <c r="V117" s="104"/>
+      <c r="W117" s="112"/>
+      <c r="X117" s="104"/>
       <c r="Y117" s="57"/>
       <c r="Z117" s="57"/>
       <c r="AA117" s="57"/>
@@ -17353,40 +17249,40 @@
       <c r="AQ117" s="57"/>
       <c r="AR117" s="57"/>
     </row>
-    <row r="118" spans="1:44">
-      <c r="A118" s="81"/>
-      <c r="B118" s="81"/>
-      <c r="C118" s="81"/>
-      <c r="D118" s="81"/>
-      <c r="E118" s="81"/>
-      <c r="F118" s="81"/>
-      <c r="G118" s="81"/>
-      <c r="H118" s="81"/>
-      <c r="I118" s="81"/>
-      <c r="J118" s="81"/>
-      <c r="K118" s="81"/>
-      <c r="L118" s="100"/>
-      <c r="M118" s="90"/>
-      <c r="N118" s="81"/>
-      <c r="O118" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P118" s="90">
-        <f>Utilidad!B51</f>
-        <v>1</v>
-      </c>
-      <c r="Q118" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R118" s="81"/>
-      <c r="S118" s="63"/>
-      <c r="T118" s="63"/>
-      <c r="U118" s="64"/>
-      <c r="V118" s="57"/>
-      <c r="W118" s="64"/>
-      <c r="X118" s="57"/>
+    <row r="118" spans="1:44" ht="19">
+      <c r="A118" s="76"/>
+      <c r="B118" s="76"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="76"/>
+      <c r="J118" s="76"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="94"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="76"/>
+      <c r="O118" s="84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P118" s="84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q118" s="84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R118" s="110"/>
+      <c r="S118" s="111"/>
+      <c r="T118" s="111"/>
+      <c r="U118" s="112"/>
+      <c r="V118" s="104"/>
+      <c r="W118" s="112"/>
+      <c r="X118" s="104"/>
       <c r="Y118" s="57"/>
       <c r="Z118" s="57"/>
       <c r="AA118" s="57"/>
@@ -17408,40 +17304,40 @@
       <c r="AQ118" s="57"/>
       <c r="AR118" s="57"/>
     </row>
-    <row r="119" spans="1:44">
-      <c r="A119" s="81"/>
-      <c r="B119" s="81"/>
-      <c r="C119" s="81"/>
-      <c r="D119" s="81"/>
-      <c r="E119" s="81"/>
-      <c r="F119" s="81"/>
-      <c r="G119" s="81"/>
-      <c r="H119" s="81"/>
-      <c r="I119" s="81"/>
-      <c r="J119" s="81"/>
-      <c r="K119" s="81"/>
-      <c r="L119" s="100"/>
-      <c r="M119" s="90"/>
-      <c r="N119" s="81"/>
-      <c r="O119" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P119" s="90">
-        <f>Utilidad!B52</f>
-        <v>1</v>
-      </c>
-      <c r="Q119" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R119" s="81"/>
-      <c r="S119" s="63"/>
-      <c r="T119" s="63"/>
-      <c r="U119" s="64"/>
-      <c r="V119" s="57"/>
-      <c r="W119" s="64"/>
-      <c r="X119" s="57"/>
+    <row r="119" spans="1:44" ht="19">
+      <c r="A119" s="76"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="76"/>
+      <c r="K119" s="76"/>
+      <c r="L119" s="94"/>
+      <c r="M119" s="85"/>
+      <c r="N119" s="76"/>
+      <c r="O119" s="84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P119" s="84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q119" s="84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R119" s="110"/>
+      <c r="S119" s="111"/>
+      <c r="T119" s="111"/>
+      <c r="U119" s="112"/>
+      <c r="V119" s="104"/>
+      <c r="W119" s="112"/>
+      <c r="X119" s="104"/>
       <c r="Y119" s="57"/>
       <c r="Z119" s="57"/>
       <c r="AA119" s="57"/>
@@ -17463,40 +17359,40 @@
       <c r="AQ119" s="57"/>
       <c r="AR119" s="57"/>
     </row>
-    <row r="120" spans="1:44" ht="16">
-      <c r="A120" s="81"/>
-      <c r="B120" s="81"/>
-      <c r="C120" s="81"/>
-      <c r="D120" s="81"/>
-      <c r="E120" s="81"/>
-      <c r="F120" s="81"/>
-      <c r="G120" s="81"/>
-      <c r="H120" s="81"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="81"/>
-      <c r="K120" s="81"/>
-      <c r="L120" s="100"/>
-      <c r="M120" s="90"/>
-      <c r="N120" s="81"/>
-      <c r="O120" s="89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P120" s="90">
-        <f>Utilidad!B53</f>
-        <v>1</v>
-      </c>
-      <c r="Q120" s="89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R120" s="81"/>
-      <c r="S120" s="63"/>
-      <c r="T120" s="63"/>
-      <c r="U120" s="64"/>
-      <c r="V120" s="65"/>
-      <c r="W120" s="64"/>
-      <c r="X120" s="57"/>
+    <row r="120" spans="1:44" ht="19">
+      <c r="A120" s="76"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="84"/>
+      <c r="J120" s="76"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="94"/>
+      <c r="M120" s="85"/>
+      <c r="N120" s="76"/>
+      <c r="O120" s="84">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P120" s="84">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q120" s="84">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R120" s="110"/>
+      <c r="S120" s="111"/>
+      <c r="T120" s="111"/>
+      <c r="U120" s="112"/>
+      <c r="V120" s="113"/>
+      <c r="W120" s="112"/>
+      <c r="X120" s="104"/>
       <c r="Y120" s="57"/>
       <c r="Z120" s="57"/>
       <c r="AA120" s="57"/>
@@ -17519,30 +17415,30 @@
       <c r="AR120" s="57"/>
     </row>
     <row r="121" spans="1:44">
-      <c r="A121" s="81"/>
-      <c r="B121" s="81"/>
-      <c r="C121" s="81"/>
-      <c r="D121" s="81"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="81"/>
-      <c r="H121" s="81"/>
-      <c r="I121" s="81"/>
-      <c r="J121" s="81"/>
-      <c r="K121" s="81"/>
-      <c r="L121" s="81"/>
-      <c r="M121" s="81"/>
-      <c r="N121" s="81"/>
-      <c r="O121" s="81"/>
-      <c r="P121" s="90"/>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="57"/>
-      <c r="T121" s="57"/>
-      <c r="U121" s="57"/>
-      <c r="V121" s="57"/>
-      <c r="W121" s="57"/>
-      <c r="X121" s="57"/>
+      <c r="A121" s="76"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="76"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="76"/>
+      <c r="P121" s="85"/>
+      <c r="Q121" s="76"/>
+      <c r="R121" s="76"/>
+      <c r="S121" s="104"/>
+      <c r="T121" s="104"/>
+      <c r="U121" s="104"/>
+      <c r="V121" s="104"/>
+      <c r="W121" s="104"/>
+      <c r="X121" s="104"/>
       <c r="Y121" s="57"/>
       <c r="Z121" s="57"/>
       <c r="AA121" s="57"/>
@@ -17565,30 +17461,30 @@
       <c r="AR121" s="57"/>
     </row>
     <row r="122" spans="1:44">
-      <c r="A122" s="81"/>
-      <c r="B122" s="81"/>
-      <c r="C122" s="81"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81"/>
-      <c r="H122" s="81"/>
-      <c r="I122" s="81"/>
-      <c r="J122" s="81"/>
-      <c r="K122" s="81"/>
-      <c r="L122" s="81"/>
-      <c r="M122" s="81"/>
-      <c r="N122" s="81"/>
-      <c r="O122" s="81"/>
-      <c r="P122" s="81"/>
-      <c r="Q122" s="81"/>
-      <c r="R122" s="81"/>
-      <c r="S122" s="57"/>
-      <c r="T122" s="57"/>
-      <c r="U122" s="57"/>
-      <c r="V122" s="57"/>
-      <c r="W122" s="57"/>
-      <c r="X122" s="57"/>
+      <c r="A122" s="76"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="76"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="76"/>
+      <c r="P122" s="76"/>
+      <c r="Q122" s="76"/>
+      <c r="R122" s="76"/>
+      <c r="S122" s="104"/>
+      <c r="T122" s="104"/>
+      <c r="U122" s="104"/>
+      <c r="V122" s="104"/>
+      <c r="W122" s="104"/>
+      <c r="X122" s="104"/>
       <c r="Y122" s="57"/>
       <c r="Z122" s="57"/>
       <c r="AA122" s="57"/>
@@ -17611,30 +17507,30 @@
       <c r="AR122" s="57"/>
     </row>
     <row r="123" spans="1:44">
-      <c r="A123" s="81"/>
-      <c r="B123" s="81"/>
-      <c r="C123" s="81"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="81"/>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
-      <c r="H123" s="81"/>
-      <c r="I123" s="81"/>
-      <c r="J123" s="81"/>
-      <c r="K123" s="81"/>
-      <c r="L123" s="81"/>
-      <c r="M123" s="81"/>
-      <c r="N123" s="81"/>
-      <c r="O123" s="81"/>
-      <c r="P123" s="81"/>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="57"/>
-      <c r="T123" s="57"/>
-      <c r="U123" s="57"/>
-      <c r="V123" s="57"/>
-      <c r="W123" s="57"/>
-      <c r="X123" s="57"/>
+      <c r="A123" s="76"/>
+      <c r="B123" s="76"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="76"/>
+      <c r="I123" s="76"/>
+      <c r="J123" s="76"/>
+      <c r="K123" s="76"/>
+      <c r="L123" s="76"/>
+      <c r="M123" s="76"/>
+      <c r="N123" s="76"/>
+      <c r="O123" s="76"/>
+      <c r="P123" s="76"/>
+      <c r="Q123" s="76"/>
+      <c r="R123" s="76"/>
+      <c r="S123" s="104"/>
+      <c r="T123" s="104"/>
+      <c r="U123" s="104"/>
+      <c r="V123" s="104"/>
+      <c r="W123" s="104"/>
+      <c r="X123" s="104"/>
       <c r="Y123" s="57"/>
       <c r="Z123" s="57"/>
       <c r="AA123" s="57"/>
@@ -17657,24 +17553,24 @@
       <c r="AR123" s="57"/>
     </row>
     <row r="124" spans="1:44">
-      <c r="A124" s="81"/>
-      <c r="B124" s="81"/>
-      <c r="C124" s="81"/>
-      <c r="D124" s="81"/>
-      <c r="E124" s="81"/>
-      <c r="F124" s="81"/>
-      <c r="G124" s="81"/>
-      <c r="H124" s="81"/>
-      <c r="I124" s="81"/>
-      <c r="J124" s="81"/>
-      <c r="K124" s="81"/>
-      <c r="L124" s="81"/>
-      <c r="M124" s="81"/>
-      <c r="N124" s="81"/>
-      <c r="O124" s="81"/>
-      <c r="P124" s="81"/>
-      <c r="Q124" s="81"/>
-      <c r="R124" s="81"/>
+      <c r="A124" s="76"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="76"/>
+      <c r="K124" s="76"/>
+      <c r="L124" s="76"/>
+      <c r="M124" s="76"/>
+      <c r="N124" s="76"/>
+      <c r="O124" s="76"/>
+      <c r="P124" s="76"/>
+      <c r="Q124" s="76"/>
+      <c r="R124" s="76"/>
       <c r="S124" s="57"/>
       <c r="T124" s="57"/>
       <c r="U124" s="57"/>
@@ -17703,24 +17599,24 @@
       <c r="AR124" s="57"/>
     </row>
     <row r="125" spans="1:44">
-      <c r="A125" s="81"/>
-      <c r="B125" s="81"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="81"/>
-      <c r="G125" s="81"/>
-      <c r="H125" s="81"/>
-      <c r="I125" s="81"/>
-      <c r="J125" s="81"/>
-      <c r="K125" s="81"/>
-      <c r="L125" s="81"/>
-      <c r="M125" s="81"/>
-      <c r="N125" s="81"/>
-      <c r="O125" s="81"/>
-      <c r="P125" s="81"/>
-      <c r="Q125" s="81"/>
-      <c r="R125" s="81"/>
+      <c r="A125" s="76"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="76"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="76"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="76"/>
+      <c r="M125" s="76"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="76"/>
+      <c r="P125" s="76"/>
+      <c r="Q125" s="76"/>
+      <c r="R125" s="76"/>
       <c r="S125" s="57"/>
       <c r="T125" s="57"/>
       <c r="U125" s="57"/>
@@ -17749,24 +17645,24 @@
       <c r="AR125" s="57"/>
     </row>
     <row r="126" spans="1:44">
-      <c r="A126" s="81"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="81"/>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="81"/>
-      <c r="I126" s="81"/>
-      <c r="J126" s="81"/>
-      <c r="K126" s="98"/>
-      <c r="L126" s="104"/>
-      <c r="M126" s="104"/>
-      <c r="N126" s="81"/>
-      <c r="O126" s="104"/>
-      <c r="P126" s="104"/>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="81"/>
+      <c r="A126" s="76"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
+      <c r="K126" s="92"/>
+      <c r="L126" s="99"/>
+      <c r="M126" s="99"/>
+      <c r="N126" s="76"/>
+      <c r="O126" s="99"/>
+      <c r="P126" s="99"/>
+      <c r="Q126" s="76"/>
+      <c r="R126" s="76"/>
       <c r="S126" s="57"/>
       <c r="T126" s="57"/>
       <c r="U126" s="57"/>
@@ -17795,22 +17691,22 @@
       <c r="AR126" s="57"/>
     </row>
     <row r="127" spans="1:44" ht="19">
-      <c r="K127" s="73"/>
-      <c r="L127" s="74"/>
-      <c r="M127" s="74"/>
+      <c r="K127" s="68"/>
+      <c r="L127" s="69"/>
+      <c r="M127" s="69"/>
       <c r="N127" s="51"/>
-      <c r="O127" s="74"/>
-      <c r="P127" s="74"/>
+      <c r="O127" s="69"/>
+      <c r="P127" s="69"/>
       <c r="Q127" s="51"/>
       <c r="R127" s="51"/>
-      <c r="S127" s="105"/>
-      <c r="T127" s="105"/>
-      <c r="U127" s="105"/>
+      <c r="S127" s="100"/>
+      <c r="T127" s="100"/>
+      <c r="U127" s="100"/>
       <c r="V127" s="57"/>
       <c r="W127" s="57"/>
       <c r="X127" s="57"/>
-      <c r="Y127" s="67"/>
-      <c r="Z127" s="67"/>
+      <c r="Y127" s="62"/>
+      <c r="Z127" s="62"/>
       <c r="AA127" s="57"/>
       <c r="AB127" s="57"/>
       <c r="AC127" s="57"/>
@@ -17836,12 +17732,12 @@
       <c r="M128" s="51"/>
       <c r="N128" s="51"/>
       <c r="O128" s="52"/>
-      <c r="P128" s="75"/>
+      <c r="P128" s="70"/>
       <c r="Q128" s="51"/>
       <c r="R128" s="51"/>
-      <c r="S128" s="68"/>
-      <c r="T128" s="68"/>
-      <c r="U128" s="68"/>
+      <c r="S128" s="63"/>
+      <c r="T128" s="63"/>
+      <c r="U128" s="63"/>
       <c r="V128" s="57"/>
       <c r="W128" s="57"/>
       <c r="X128" s="57"/>
@@ -17872,12 +17768,12 @@
       <c r="M129" s="51"/>
       <c r="N129" s="51"/>
       <c r="O129" s="52"/>
-      <c r="P129" s="75"/>
+      <c r="P129" s="70"/>
       <c r="Q129" s="51"/>
       <c r="R129" s="51"/>
-      <c r="S129" s="69"/>
-      <c r="T129" s="70"/>
-      <c r="U129" s="69"/>
+      <c r="S129" s="64"/>
+      <c r="T129" s="65"/>
+      <c r="U129" s="64"/>
       <c r="V129" s="57"/>
       <c r="W129" s="57"/>
       <c r="X129" s="57"/>
@@ -17908,12 +17804,12 @@
       <c r="M130" s="51"/>
       <c r="N130" s="51"/>
       <c r="O130" s="52"/>
-      <c r="P130" s="75"/>
+      <c r="P130" s="70"/>
       <c r="Q130" s="51"/>
       <c r="R130" s="51"/>
       <c r="S130" s="57"/>
       <c r="T130" s="57"/>
-      <c r="U130" s="68"/>
+      <c r="U130" s="63"/>
       <c r="V130" s="57"/>
       <c r="W130" s="57"/>
       <c r="X130" s="57"/>
@@ -17944,7 +17840,7 @@
       <c r="M131" s="51"/>
       <c r="N131" s="51"/>
       <c r="O131" s="52"/>
-      <c r="P131" s="75"/>
+      <c r="P131" s="70"/>
       <c r="Q131" s="51"/>
       <c r="R131" s="51"/>
       <c r="S131" s="57"/>
@@ -17980,7 +17876,7 @@
       <c r="M132" s="51"/>
       <c r="N132" s="51"/>
       <c r="O132" s="52"/>
-      <c r="P132" s="75"/>
+      <c r="P132" s="70"/>
       <c r="Q132" s="51"/>
       <c r="R132" s="51"/>
       <c r="S132" s="57"/>
@@ -18016,7 +17912,7 @@
       <c r="M133" s="51"/>
       <c r="N133" s="51"/>
       <c r="O133" s="52"/>
-      <c r="P133" s="75"/>
+      <c r="P133" s="70"/>
       <c r="Q133" s="51"/>
       <c r="R133" s="51"/>
       <c r="S133" s="57"/>
@@ -18052,7 +17948,7 @@
       <c r="M134" s="51"/>
       <c r="N134" s="51"/>
       <c r="O134" s="52"/>
-      <c r="P134" s="75"/>
+      <c r="P134" s="70"/>
       <c r="Q134" s="51"/>
       <c r="R134" s="51"/>
       <c r="S134" s="57"/>
@@ -18088,7 +17984,7 @@
       <c r="M135" s="51"/>
       <c r="N135" s="51"/>
       <c r="O135" s="52"/>
-      <c r="P135" s="75"/>
+      <c r="P135" s="70"/>
       <c r="Q135" s="51"/>
       <c r="R135" s="51"/>
       <c r="S135" s="57"/>
@@ -18124,7 +18020,7 @@
       <c r="M136" s="51"/>
       <c r="N136" s="51"/>
       <c r="O136" s="52"/>
-      <c r="P136" s="75"/>
+      <c r="P136" s="70"/>
       <c r="Q136" s="51"/>
       <c r="R136" s="51"/>
       <c r="S136" s="57"/>
@@ -18160,7 +18056,7 @@
       <c r="M137" s="51"/>
       <c r="N137" s="51"/>
       <c r="O137" s="52"/>
-      <c r="P137" s="75"/>
+      <c r="P137" s="70"/>
       <c r="Q137" s="51"/>
       <c r="R137" s="51"/>
       <c r="S137" s="57"/>
@@ -18196,7 +18092,7 @@
       <c r="M138" s="51"/>
       <c r="N138" s="51"/>
       <c r="O138" s="52"/>
-      <c r="P138" s="75"/>
+      <c r="P138" s="70"/>
       <c r="Q138" s="51"/>
       <c r="R138" s="51"/>
       <c r="S138" s="57"/>
@@ -18227,20 +18123,20 @@
       <c r="AR138" s="57"/>
     </row>
     <row r="139" spans="1:44" ht="19">
-      <c r="K139" s="72"/>
-      <c r="L139" s="72"/>
-      <c r="M139" s="72"/>
+      <c r="K139" s="67"/>
+      <c r="L139" s="67"/>
+      <c r="M139" s="67"/>
       <c r="N139" s="51"/>
       <c r="O139" s="52"/>
-      <c r="P139" s="75"/>
-      <c r="Q139" s="76"/>
-      <c r="R139" s="76"/>
-      <c r="S139" s="67"/>
-      <c r="T139" s="67"/>
-      <c r="U139" s="67"/>
-      <c r="V139" s="67"/>
-      <c r="W139" s="67"/>
-      <c r="X139" s="67"/>
+      <c r="P139" s="70"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="71"/>
+      <c r="S139" s="62"/>
+      <c r="T139" s="62"/>
+      <c r="U139" s="62"/>
+      <c r="V139" s="62"/>
+      <c r="W139" s="62"/>
+      <c r="X139" s="62"/>
       <c r="Y139" s="57"/>
       <c r="Z139" s="57"/>
       <c r="AA139" s="57"/>
@@ -18268,7 +18164,7 @@
       <c r="M140" s="51"/>
       <c r="N140" s="51"/>
       <c r="O140" s="52"/>
-      <c r="P140" s="75"/>
+      <c r="P140" s="70"/>
       <c r="Q140" s="51"/>
       <c r="R140" s="51"/>
       <c r="S140" s="57"/>
@@ -18304,7 +18200,7 @@
       <c r="M141" s="51"/>
       <c r="N141" s="51"/>
       <c r="O141" s="52"/>
-      <c r="P141" s="75"/>
+      <c r="P141" s="70"/>
       <c r="Q141" s="51"/>
       <c r="R141" s="51"/>
       <c r="S141" s="57"/>
@@ -18340,7 +18236,7 @@
       <c r="M142" s="51"/>
       <c r="N142" s="51"/>
       <c r="O142" s="52"/>
-      <c r="P142" s="75"/>
+      <c r="P142" s="70"/>
       <c r="Q142" s="51"/>
       <c r="R142" s="51"/>
       <c r="S142" s="57"/>
@@ -18384,7 +18280,7 @@
       <c r="M143" s="51"/>
       <c r="N143" s="51"/>
       <c r="O143" s="52"/>
-      <c r="P143" s="75"/>
+      <c r="P143" s="70"/>
       <c r="Q143" s="51"/>
       <c r="R143" s="51"/>
       <c r="S143" s="57"/>
@@ -18395,24 +18291,24 @@
       <c r="X143" s="57"/>
       <c r="Y143" s="57"/>
       <c r="Z143" s="57"/>
-      <c r="AA143" s="71"/>
-      <c r="AB143" s="71"/>
-      <c r="AC143" s="71"/>
-      <c r="AD143" s="71"/>
-      <c r="AE143" s="71"/>
-      <c r="AF143" s="71"/>
-      <c r="AG143" s="71"/>
-      <c r="AH143" s="71"/>
-      <c r="AI143" s="71"/>
-      <c r="AJ143" s="71"/>
-      <c r="AK143" s="71"/>
-      <c r="AL143" s="71"/>
-      <c r="AM143" s="71"/>
-      <c r="AN143" s="71"/>
-      <c r="AO143" s="71"/>
-      <c r="AP143" s="71"/>
-      <c r="AQ143" s="71"/>
-      <c r="AR143" s="71"/>
+      <c r="AA143" s="66"/>
+      <c r="AB143" s="66"/>
+      <c r="AC143" s="66"/>
+      <c r="AD143" s="66"/>
+      <c r="AE143" s="66"/>
+      <c r="AF143" s="66"/>
+      <c r="AG143" s="66"/>
+      <c r="AH143" s="66"/>
+      <c r="AI143" s="66"/>
+      <c r="AJ143" s="66"/>
+      <c r="AK143" s="66"/>
+      <c r="AL143" s="66"/>
+      <c r="AM143" s="66"/>
+      <c r="AN143" s="66"/>
+      <c r="AO143" s="66"/>
+      <c r="AP143" s="66"/>
+      <c r="AQ143" s="66"/>
+      <c r="AR143" s="66"/>
     </row>
     <row r="144" spans="1:44" ht="16">
       <c r="A144" s="5"/>
@@ -18428,7 +18324,7 @@
       <c r="M144" s="51"/>
       <c r="N144" s="51"/>
       <c r="O144" s="52"/>
-      <c r="P144" s="75"/>
+      <c r="P144" s="70"/>
       <c r="Q144" s="51"/>
       <c r="R144" s="51"/>
       <c r="S144" s="57"/>
@@ -18464,7 +18360,7 @@
       <c r="M145" s="51"/>
       <c r="N145" s="51"/>
       <c r="O145" s="52"/>
-      <c r="P145" s="75"/>
+      <c r="P145" s="70"/>
       <c r="Q145" s="51"/>
       <c r="R145" s="51"/>
       <c r="S145" s="57"/>
@@ -18500,7 +18396,7 @@
       <c r="M146" s="51"/>
       <c r="N146" s="51"/>
       <c r="O146" s="52"/>
-      <c r="P146" s="75"/>
+      <c r="P146" s="70"/>
       <c r="Q146" s="51"/>
       <c r="R146" s="51"/>
       <c r="S146" s="57"/>
@@ -18536,7 +18432,7 @@
       <c r="M147" s="51"/>
       <c r="N147" s="51"/>
       <c r="O147" s="52"/>
-      <c r="P147" s="75"/>
+      <c r="P147" s="70"/>
       <c r="Q147" s="51"/>
       <c r="R147" s="51"/>
       <c r="S147" s="57"/>
@@ -18572,7 +18468,7 @@
       <c r="M148" s="51"/>
       <c r="N148" s="51"/>
       <c r="O148" s="52"/>
-      <c r="P148" s="75"/>
+      <c r="P148" s="70"/>
       <c r="Q148" s="51"/>
       <c r="R148" s="51"/>
       <c r="S148" s="57"/>
@@ -18608,7 +18504,7 @@
       <c r="M149" s="51"/>
       <c r="N149" s="51"/>
       <c r="O149" s="52"/>
-      <c r="P149" s="75"/>
+      <c r="P149" s="70"/>
       <c r="Q149" s="51"/>
       <c r="R149" s="51"/>
       <c r="S149" s="57"/>
@@ -18644,7 +18540,7 @@
       <c r="M150" s="51"/>
       <c r="N150" s="51"/>
       <c r="O150" s="52"/>
-      <c r="P150" s="75"/>
+      <c r="P150" s="70"/>
       <c r="Q150" s="51"/>
       <c r="R150" s="51"/>
       <c r="S150" s="57"/>
@@ -18680,7 +18576,7 @@
       <c r="M151" s="51"/>
       <c r="N151" s="51"/>
       <c r="O151" s="52"/>
-      <c r="P151" s="75"/>
+      <c r="P151" s="70"/>
       <c r="Q151" s="51"/>
       <c r="R151" s="51"/>
       <c r="S151" s="57"/>
@@ -18716,7 +18612,7 @@
       <c r="M152" s="51"/>
       <c r="N152" s="51"/>
       <c r="O152" s="52"/>
-      <c r="P152" s="75"/>
+      <c r="P152" s="70"/>
       <c r="Q152" s="51"/>
       <c r="R152" s="51"/>
       <c r="S152" s="57"/>
@@ -18752,7 +18648,7 @@
       <c r="M153" s="51"/>
       <c r="N153" s="51"/>
       <c r="O153" s="52"/>
-      <c r="P153" s="75"/>
+      <c r="P153" s="70"/>
       <c r="Q153" s="51"/>
       <c r="R153" s="51"/>
       <c r="S153" s="57"/>
@@ -18788,7 +18684,7 @@
       <c r="M154" s="51"/>
       <c r="N154" s="51"/>
       <c r="O154" s="52"/>
-      <c r="P154" s="75"/>
+      <c r="P154" s="70"/>
       <c r="Q154" s="51"/>
       <c r="R154" s="51"/>
       <c r="S154" s="57"/>
@@ -18824,7 +18720,7 @@
       <c r="M155" s="51"/>
       <c r="N155" s="51"/>
       <c r="O155" s="52"/>
-      <c r="P155" s="75"/>
+      <c r="P155" s="70"/>
       <c r="Q155" s="51"/>
       <c r="R155" s="51"/>
       <c r="S155" s="57"/>
@@ -18860,7 +18756,7 @@
       <c r="M156" s="51"/>
       <c r="N156" s="51"/>
       <c r="O156" s="52"/>
-      <c r="P156" s="75"/>
+      <c r="P156" s="70"/>
       <c r="Q156" s="51"/>
       <c r="R156" s="51"/>
       <c r="S156" s="57"/>
@@ -18896,7 +18792,7 @@
       <c r="M157" s="51"/>
       <c r="N157" s="51"/>
       <c r="O157" s="52"/>
-      <c r="P157" s="75"/>
+      <c r="P157" s="70"/>
       <c r="Q157" s="51"/>
       <c r="R157" s="51"/>
       <c r="S157" s="57"/>
@@ -18932,7 +18828,7 @@
       <c r="M158" s="51"/>
       <c r="N158" s="51"/>
       <c r="O158" s="52"/>
-      <c r="P158" s="75"/>
+      <c r="P158" s="70"/>
       <c r="Q158" s="51"/>
       <c r="R158" s="51"/>
       <c r="S158" s="57"/>
@@ -18968,7 +18864,7 @@
       <c r="M159" s="51"/>
       <c r="N159" s="51"/>
       <c r="O159" s="52"/>
-      <c r="P159" s="75"/>
+      <c r="P159" s="70"/>
       <c r="Q159" s="51"/>
       <c r="R159" s="51"/>
       <c r="S159" s="57"/>
@@ -18977,8 +18873,8 @@
       <c r="V159" s="57"/>
       <c r="W159" s="57"/>
       <c r="X159" s="57"/>
-      <c r="Y159" s="71"/>
-      <c r="Z159" s="71"/>
+      <c r="Y159" s="66"/>
+      <c r="Z159" s="66"/>
       <c r="AA159" s="57"/>
       <c r="AB159" s="57"/>
       <c r="AC159" s="57"/>
@@ -19004,7 +18900,7 @@
       <c r="M160" s="51"/>
       <c r="N160" s="51"/>
       <c r="O160" s="52"/>
-      <c r="P160" s="75"/>
+      <c r="P160" s="70"/>
       <c r="Q160" s="51"/>
       <c r="R160" s="51"/>
       <c r="S160" s="57"/>
@@ -19040,7 +18936,7 @@
       <c r="M161" s="51"/>
       <c r="N161" s="51"/>
       <c r="O161" s="52"/>
-      <c r="P161" s="75"/>
+      <c r="P161" s="70"/>
       <c r="Q161" s="51"/>
       <c r="R161" s="51"/>
       <c r="S161" s="57"/>
@@ -19076,7 +18972,7 @@
       <c r="M162" s="51"/>
       <c r="N162" s="51"/>
       <c r="O162" s="52"/>
-      <c r="P162" s="75"/>
+      <c r="P162" s="70"/>
       <c r="Q162" s="51"/>
       <c r="R162" s="51"/>
       <c r="S162" s="57"/>
@@ -19112,7 +19008,7 @@
       <c r="M163" s="51"/>
       <c r="N163" s="51"/>
       <c r="O163" s="52"/>
-      <c r="P163" s="75"/>
+      <c r="P163" s="70"/>
       <c r="Q163" s="51"/>
       <c r="R163" s="51"/>
       <c r="S163" s="57"/>
@@ -19148,7 +19044,7 @@
       <c r="M164" s="51"/>
       <c r="N164" s="51"/>
       <c r="O164" s="52"/>
-      <c r="P164" s="75"/>
+      <c r="P164" s="70"/>
       <c r="Q164" s="51"/>
       <c r="R164" s="51"/>
       <c r="S164" s="57"/>
@@ -19184,7 +19080,7 @@
       <c r="M165" s="51"/>
       <c r="N165" s="51"/>
       <c r="O165" s="52"/>
-      <c r="P165" s="75"/>
+      <c r="P165" s="70"/>
       <c r="Q165" s="51"/>
       <c r="R165" s="51"/>
       <c r="S165" s="57"/>
@@ -19220,7 +19116,7 @@
       <c r="M166" s="51"/>
       <c r="N166" s="51"/>
       <c r="O166" s="52"/>
-      <c r="P166" s="75"/>
+      <c r="P166" s="70"/>
       <c r="Q166" s="51"/>
       <c r="R166" s="51"/>
       <c r="S166" s="57"/>
@@ -19256,7 +19152,7 @@
       <c r="M167" s="51"/>
       <c r="N167" s="51"/>
       <c r="O167" s="52"/>
-      <c r="P167" s="75"/>
+      <c r="P167" s="70"/>
       <c r="Q167" s="51"/>
       <c r="R167" s="51"/>
       <c r="S167" s="57"/>
@@ -19292,7 +19188,7 @@
       <c r="M168" s="51"/>
       <c r="N168" s="51"/>
       <c r="O168" s="52"/>
-      <c r="P168" s="75"/>
+      <c r="P168" s="70"/>
       <c r="Q168" s="51"/>
       <c r="R168" s="51"/>
       <c r="S168" s="57"/>
@@ -19328,7 +19224,7 @@
       <c r="M169" s="51"/>
       <c r="N169" s="51"/>
       <c r="O169" s="52"/>
-      <c r="P169" s="75"/>
+      <c r="P169" s="70"/>
       <c r="Q169" s="51"/>
       <c r="R169" s="51"/>
       <c r="S169" s="57"/>
@@ -19364,7 +19260,7 @@
       <c r="M170" s="51"/>
       <c r="N170" s="51"/>
       <c r="O170" s="52"/>
-      <c r="P170" s="75"/>
+      <c r="P170" s="70"/>
       <c r="Q170" s="51"/>
       <c r="R170" s="51"/>
       <c r="S170" s="57"/>
@@ -19395,17 +19291,17 @@
       <c r="AR170" s="57"/>
     </row>
     <row r="171" spans="11:44" ht="16">
-      <c r="K171" s="77"/>
-      <c r="L171" s="77"/>
-      <c r="M171" s="77"/>
+      <c r="K171" s="72"/>
+      <c r="L171" s="72"/>
+      <c r="M171" s="72"/>
       <c r="N171" s="51"/>
-      <c r="O171" s="78"/>
-      <c r="P171" s="79"/>
-      <c r="Q171" s="80"/>
-      <c r="R171" s="80"/>
-      <c r="S171" s="80"/>
-      <c r="T171" s="80"/>
-      <c r="U171" s="80"/>
+      <c r="O171" s="73"/>
+      <c r="P171" s="74"/>
+      <c r="Q171" s="75"/>
+      <c r="R171" s="75"/>
+      <c r="S171" s="75"/>
+      <c r="T171" s="75"/>
+      <c r="U171" s="75"/>
       <c r="V171" s="5"/>
       <c r="W171" s="5"/>
       <c r="X171" s="5"/>
@@ -19416,7 +19312,7 @@
       <c r="M172" s="51"/>
       <c r="N172" s="51"/>
       <c r="O172" s="52"/>
-      <c r="P172" s="75"/>
+      <c r="P172" s="70"/>
       <c r="Q172" s="51"/>
       <c r="R172" s="51"/>
       <c r="S172" s="51"/>
@@ -19476,9 +19372,9 @@
       <c r="U176" s="51"/>
     </row>
     <row r="177" spans="11:21">
-      <c r="K177" s="73"/>
-      <c r="L177" s="106"/>
-      <c r="M177" s="106"/>
+      <c r="K177" s="68"/>
+      <c r="L177" s="101"/>
+      <c r="M177" s="101"/>
       <c r="N177" s="51"/>
       <c r="O177" s="51"/>
       <c r="P177" s="51"/>
@@ -19489,9 +19385,9 @@
       <c r="U177" s="51"/>
     </row>
     <row r="178" spans="11:21">
-      <c r="K178" s="73"/>
-      <c r="L178" s="74"/>
-      <c r="M178" s="74"/>
+      <c r="K178" s="68"/>
+      <c r="L178" s="69"/>
+      <c r="M178" s="69"/>
       <c r="N178" s="51"/>
       <c r="O178" s="51"/>
       <c r="P178" s="51"/>
@@ -20204,7 +20100,7 @@
       <c r="U232" s="51"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aJd01iCa/qFNTI0a0WSliKgEWTlizftXunUibdxCX6xPofkpiDMZq8DyKVuf2ammtuiAIE0XN2+46MC6NNrR6g==" saltValue="rQE59G4LgxTRppTUNdVuCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vJAL7ygkidGawFy/kcl3RYHu8t61quD5+eW5JKB/y4pFgbQwBRelDEDsrqhguaPH8HJqhuaBHTXhXhUEffmLZw==" saltValue="F/Jlr3QOQ7KWhzGiGJLSBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="8">
     <mergeCell ref="AB66:AE66"/>
     <mergeCell ref="L126:M126"/>
@@ -20292,8 +20188,8 @@
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="11"/>
-      <c r="F7" s="102"/>
-      <c r="H7" s="101" t="s">
+      <c r="F7" s="96"/>
+      <c r="H7" s="95" t="s">
         <v>60</v>
       </c>
       <c r="K7" s="15">
@@ -22066,7 +21962,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D53"/>
+      <selection sqref="A1:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE20F5F-57A7-7E40-8418-6938E21B37C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4F3FBC-130F-624B-8ED3-FA2CC3B5F3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilidad" sheetId="10" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
   <si>
     <t>Recepción P55</t>
   </si>
@@ -436,9 +436,6 @@
     <t>Conc Flotación Neumática</t>
   </si>
   <si>
-    <t>Delta Invent Cancha</t>
-  </si>
-  <si>
     <t>BALANCE METALÚRGICO - VALLE COPIAPO</t>
   </si>
   <si>
@@ -527,6 +524,21 @@
   </si>
   <si>
     <t>Repulpeo</t>
+  </si>
+  <si>
+    <t>Recepción Repulpeo</t>
+  </si>
+  <si>
+    <t>Recepción Hnos araya</t>
+  </si>
+  <si>
+    <t>Delta Stock Repulpeo</t>
+  </si>
+  <si>
+    <t>Delta Stock Hnos Araya</t>
+  </si>
+  <si>
+    <t>Delta Invent Cancha/Repulpeo</t>
   </si>
 </sst>
 </file>
@@ -9323,90 +9335,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="68">
-          <cell r="K68" t="str">
-            <v>Recepción P55</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="K69" t="str">
-            <v>Delta Stock P55</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="K71" t="str">
-            <v>Recepción Alianza</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="K72" t="str">
-            <v>Delta Stock Alianza</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="K74" t="str">
-            <v>Recepción P40</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="K75" t="str">
-            <v>Delta Stock P40</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="K77" t="str">
-            <v>Recepción Repulpeo</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="K78" t="str">
-            <v>Delta Stock Repulpeo</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="K80" t="str">
-            <v>Recepción Hnos araya</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="K81" t="str">
-            <v>Delta Stock Hnos Araya</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="K83" t="str">
-            <v>Recep San Andrés</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="K84" t="str">
-            <v>Delta Stock San Andrés</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="K86" t="str">
-            <v>Recep A&amp;Q</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="K87" t="str">
-            <v>Delta Stock A&amp;Q</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="K89" t="str">
-            <v>Recep Autech</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="K90" t="str">
-            <v>Delta Stock Autech</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9711,8 +9642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AB0D6-E0E9-6D42-9B21-33D1777F9FE2}">
   <dimension ref="A1:DN306"/>
   <sheetViews>
-    <sheetView topLeftCell="K65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P69" sqref="P69"/>
+    <sheetView topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -18249,11 +18180,11 @@
         <f>A1</f>
         <v>1</v>
       </c>
-      <c r="P68" s="171">
+      <c r="P68" s="172">
         <f t="shared" ref="P68:Q68" si="1">B1</f>
         <v>1</v>
       </c>
-      <c r="Q68" s="171">
+      <c r="Q68" s="172">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -18380,11 +18311,11 @@
         <f t="shared" ref="O69:O112" si="2">A2</f>
         <v>1</v>
       </c>
-      <c r="P69" s="171">
+      <c r="P69" s="172">
         <f t="shared" ref="P69:P112" si="3">B2</f>
         <v>1</v>
       </c>
-      <c r="Q69" s="171">
+      <c r="Q69" s="172">
         <f t="shared" ref="Q69:Q112" si="4">C2</f>
         <v>1</v>
       </c>
@@ -18511,11 +18442,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P70" s="171">
+      <c r="P70" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q70" s="171">
+      <c r="Q70" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18642,11 +18573,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P71" s="171">
+      <c r="P71" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q71" s="171">
+      <c r="Q71" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18773,11 +18704,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P72" s="171">
+      <c r="P72" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q72" s="171">
+      <c r="Q72" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -18904,11 +18835,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P73" s="171">
+      <c r="P73" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q73" s="171">
+      <c r="Q73" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19035,11 +18966,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P74" s="171">
+      <c r="P74" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q74" s="171">
+      <c r="Q74" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19166,11 +19097,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P75" s="171">
+      <c r="P75" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q75" s="171">
+      <c r="Q75" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19297,11 +19228,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P76" s="171">
+      <c r="P76" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q76" s="171">
+      <c r="Q76" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19428,11 +19359,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P77" s="171">
+      <c r="P77" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q77" s="171">
+      <c r="Q77" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19559,11 +19490,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P78" s="171">
+      <c r="P78" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q78" s="171">
+      <c r="Q78" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19690,11 +19621,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P79" s="171">
+      <c r="P79" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q79" s="171">
+      <c r="Q79" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19821,11 +19752,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P80" s="171">
+      <c r="P80" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q80" s="171">
+      <c r="Q80" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -19952,11 +19883,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P81" s="171">
+      <c r="P81" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q81" s="171">
+      <c r="Q81" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -20083,11 +20014,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P82" s="171">
+      <c r="P82" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q82" s="171">
+      <c r="Q82" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -20214,11 +20145,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P83" s="171">
+      <c r="P83" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q83" s="171">
+      <c r="Q83" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -20345,11 +20276,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P84" s="171">
+      <c r="P84" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q84" s="171">
+      <c r="Q84" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -20476,11 +20407,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P85" s="171">
+      <c r="P85" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q85" s="171">
+      <c r="Q85" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -20607,11 +20538,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P86" s="171">
+      <c r="P86" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q86" s="171">
+      <c r="Q86" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -20738,11 +20669,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P87" s="171">
+      <c r="P87" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q87" s="171">
+      <c r="Q87" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -20892,11 +20823,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P88" s="171">
+      <c r="P88" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q88" s="171">
+      <c r="Q88" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -21004,7 +20935,7 @@
     </row>
     <row r="89" spans="1:118" ht="15.5" customHeight="1">
       <c r="A89" s="178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="179">
         <f>+P95</f>
@@ -21046,11 +20977,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P89" s="171">
+      <c r="P89" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q89" s="171">
+      <c r="Q89" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -21158,7 +21089,7 @@
     </row>
     <row r="90" spans="1:118" ht="15.5" customHeight="1">
       <c r="A90" s="178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="179">
         <f>+P97</f>
@@ -21203,11 +21134,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P90" s="171">
+      <c r="P90" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q90" s="171">
+      <c r="Q90" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -21315,7 +21246,7 @@
     </row>
     <row r="91" spans="1:118" ht="15.5" customHeight="1">
       <c r="A91" s="178" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="179">
         <f>+P96</f>
@@ -21357,11 +21288,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P91" s="171">
+      <c r="P91" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q91" s="171">
+      <c r="Q91" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -21488,11 +21419,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P92" s="171">
+      <c r="P92" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q92" s="171">
+      <c r="Q92" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -21622,11 +21553,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P93" s="171">
+      <c r="P93" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q93" s="171">
+      <c r="Q93" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -21734,7 +21665,7 @@
     </row>
     <row r="94" spans="1:118" ht="15.5" customHeight="1">
       <c r="A94" s="183" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="182">
         <f>+IF((B90-B91)&lt;&gt;0,(B90/B89)*(B89-B91)/(B90-B91),0)</f>
@@ -21779,11 +21710,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P94" s="171">
+      <c r="P94" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q94" s="171">
+      <c r="Q94" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -21910,11 +21841,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P95" s="171">
+      <c r="P95" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q95" s="171">
+      <c r="Q95" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -22041,11 +21972,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P96" s="171">
+      <c r="P96" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q96" s="171">
+      <c r="Q96" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -22172,11 +22103,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P97" s="171">
+      <c r="P97" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q97" s="171">
+      <c r="Q97" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -22305,11 +22236,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P98" s="171">
+      <c r="P98" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q98" s="171">
+      <c r="Q98" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -22417,7 +22348,7 @@
     </row>
     <row r="99" spans="1:118" ht="15.5" customHeight="1">
       <c r="A99" s="178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="179">
         <f>+Q95</f>
@@ -22459,11 +22390,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P99" s="171">
+      <c r="P99" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q99" s="171">
+      <c r="Q99" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -22571,7 +22502,7 @@
     </row>
     <row r="100" spans="1:118" ht="19">
       <c r="A100" s="178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="179">
         <f>+Q97</f>
@@ -22616,11 +22547,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P100" s="171">
+      <c r="P100" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q100" s="171">
+      <c r="Q100" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -22728,7 +22659,7 @@
     </row>
     <row r="101" spans="1:118" ht="28.5" customHeight="1">
       <c r="A101" s="178" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="179">
         <f>+Q96</f>
@@ -22770,11 +22701,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P101" s="171">
+      <c r="P101" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q101" s="171">
+      <c r="Q101" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -22901,11 +22832,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P102" s="171">
+      <c r="P102" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q102" s="171">
+      <c r="Q102" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -23035,11 +22966,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P103" s="171">
+      <c r="P103" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q103" s="171">
+      <c r="Q103" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -23147,7 +23078,7 @@
     </row>
     <row r="104" spans="1:118" ht="20" thickBot="1">
       <c r="A104" s="183" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="182">
         <f>+IF((B100-B101)&lt;&gt;0,(B100/B99)*(B99-B101)/(B100-B101),0)</f>
@@ -23192,11 +23123,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P104" s="171">
+      <c r="P104" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q104" s="171">
+      <c r="Q104" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -23304,39 +23235,39 @@
     </row>
     <row r="105" spans="1:118" ht="20" thickBot="1">
       <c r="A105" s="191" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B105" s="192">
-        <f>O107/O105</f>
+        <f>O97/O95</f>
         <v>1</v>
       </c>
       <c r="C105" s="192">
-        <f>+O109/O107</f>
+        <f>+O99/O97</f>
         <v>1</v>
       </c>
       <c r="D105" s="192">
-        <f>+O114/O112</f>
+        <f>+O104/O102</f>
         <v>1</v>
       </c>
       <c r="E105" s="192">
-        <f>+O116/O114</f>
+        <f>+O106/O104</f>
         <v>1</v>
       </c>
       <c r="F105" s="192">
-        <f>+O118/O116</f>
+        <f>+O108/O106</f>
         <v>1</v>
       </c>
       <c r="G105" s="192">
-        <f>+O120/O118</f>
+        <f>+O110/O108</f>
         <v>1</v>
       </c>
       <c r="H105" s="192">
-        <f>+O123/O120</f>
-        <v>0</v>
+        <f>+O113/O110</f>
+        <v>1</v>
       </c>
       <c r="I105" s="192">
         <f>+B105*C105*D105*E105*F105*G105*H105</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" s="160"/>
       <c r="K105" s="160"/>
@@ -23349,11 +23280,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P105" s="171">
+      <c r="P105" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q105" s="171">
+      <c r="Q105" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -23480,11 +23411,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P106" s="171">
+      <c r="P106" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q106" s="171">
+      <c r="Q106" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -23611,11 +23542,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P107" s="171">
+      <c r="P107" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q107" s="171">
+      <c r="Q107" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -23742,11 +23673,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P108" s="171">
+      <c r="P108" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q108" s="171">
+      <c r="Q108" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -23873,11 +23804,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P109" s="171">
+      <c r="P109" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q109" s="171">
+      <c r="Q109" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -24004,11 +23935,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P110" s="171">
+      <c r="P110" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q110" s="171">
+      <c r="Q110" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -24135,11 +24066,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P111" s="171">
+      <c r="P111" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q111" s="171">
+      <c r="Q111" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -24192,11 +24123,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P112" s="171">
+      <c r="P112" s="172">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q112" s="171">
+      <c r="Q112" s="172">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -24323,11 +24254,11 @@
         <f t="shared" ref="O113:O120" si="7">A46</f>
         <v>1</v>
       </c>
-      <c r="P113" s="171">
+      <c r="P113" s="172">
         <f t="shared" ref="P113:P120" si="8">B46</f>
         <v>1</v>
       </c>
-      <c r="Q113" s="171">
+      <c r="Q113" s="172">
         <f t="shared" ref="Q113:Q120" si="9">C46</f>
         <v>1</v>
       </c>
@@ -24454,11 +24385,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P114" s="171">
+      <c r="P114" s="172">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q114" s="171">
+      <c r="Q114" s="172">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -24585,11 +24516,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P115" s="171">
+      <c r="P115" s="172">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q115" s="171">
+      <c r="Q115" s="172">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -24716,11 +24647,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P116" s="171">
+      <c r="P116" s="172">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q116" s="171">
+      <c r="Q116" s="172">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -24847,11 +24778,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P117" s="171">
+      <c r="P117" s="172">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q117" s="171">
+      <c r="Q117" s="172">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -24976,11 +24907,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P118" s="171">
+      <c r="P118" s="172">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q118" s="171">
+      <c r="Q118" s="172">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -25105,11 +25036,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P119" s="171">
+      <c r="P119" s="172">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q119" s="171">
+      <c r="Q119" s="172">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -25234,11 +25165,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P120" s="171">
+      <c r="P120" s="172">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Q120" s="171">
+      <c r="Q120" s="172">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -47690,8 +47621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -47755,7 +47686,7 @@
       <c r="B7" s="11"/>
       <c r="F7" s="62"/>
       <c r="H7" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="15">
         <f>+Utilidad!Q95</f>
@@ -47766,7 +47697,7 @@
     <row r="8" spans="2:18">
       <c r="B8" s="11"/>
       <c r="H8" s="19">
-        <f>+Utilidad!O120</f>
+        <f>Flujos!B11</f>
         <v>1</v>
       </c>
       <c r="R8" s="12"/>
@@ -47778,7 +47709,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="15">
-        <f>+Utilidad!Q120</f>
+        <f>Flujos!B11*Flujos!C11</f>
         <v>1</v>
       </c>
       <c r="N9" s="13">
@@ -47842,7 +47773,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="23">
-        <f>Utilidad!O116</f>
+        <f>Flujos!B10</f>
         <v>1</v>
       </c>
       <c r="K13" s="15">
@@ -47854,7 +47785,7 @@
     <row r="14" spans="2:18">
       <c r="B14" s="11"/>
       <c r="H14" s="7">
-        <f>Utilidad!P116</f>
+        <f>Flujos!C10</f>
         <v>1</v>
       </c>
       <c r="L14" s="13">
@@ -47902,7 +47833,7 @@
     <row r="18" spans="2:18">
       <c r="B18" s="11"/>
       <c r="I18" s="23">
-        <f>Utilidad!O118</f>
+        <f>Flujos!B49</f>
         <v>1</v>
       </c>
       <c r="K18" s="14">
@@ -47914,7 +47845,7 @@
     <row r="19" spans="2:18">
       <c r="B19" s="11"/>
       <c r="I19" s="7">
-        <f>Utilidad!P118</f>
+        <f>Flujos!C49</f>
         <v>1</v>
       </c>
       <c r="K19" s="15"/>
@@ -47923,12 +47854,12 @@
     <row r="20" spans="2:18">
       <c r="B20" s="11"/>
       <c r="G20" s="23">
-        <f>Utilidad!O117</f>
+        <f>Flujos!B12</f>
         <v>1</v>
       </c>
       <c r="I20" s="24"/>
       <c r="K20" s="13">
-        <f>Utilidad!O119</f>
+        <f>Flujos!B50</f>
         <v>1</v>
       </c>
       <c r="R20" s="12"/>
@@ -47940,11 +47871,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="7">
-        <f>Utilidad!P117</f>
+        <f>Flujos!C12</f>
         <v>1</v>
       </c>
       <c r="K21" s="14">
-        <f>Utilidad!P119</f>
+        <f>Flujos!C50</f>
         <v>1</v>
       </c>
       <c r="R21" s="12"/>
@@ -47960,7 +47891,7 @@
     <row r="23" spans="2:18">
       <c r="B23" s="11"/>
       <c r="C23" s="18">
-        <f>+Utilidad!Q71</f>
+        <f>C21*C22</f>
         <v>1</v>
       </c>
       <c r="F23" s="13">
@@ -48036,7 +47967,7 @@
     <row r="29" spans="2:18">
       <c r="B29" s="11"/>
       <c r="H29" s="23">
-        <f>Utilidad!O115</f>
+        <f>Flujos!B48</f>
         <v>1</v>
       </c>
       <c r="L29" s="13">
@@ -48049,7 +47980,7 @@
     <row r="30" spans="2:18">
       <c r="B30" s="11"/>
       <c r="H30" s="7">
-        <f>Utilidad!P115</f>
+        <f>Flujos!C48</f>
         <v>1</v>
       </c>
       <c r="L30" s="14">
@@ -48409,9 +48340,8 @@
         <f>+K5</f>
         <v>1</v>
       </c>
-      <c r="V57" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K69</f>
-        <v>Delta Stock P55</v>
+      <c r="V57" s="43" t="s">
+        <v>3</v>
       </c>
       <c r="W57" s="29">
         <f>+E12</f>
@@ -48431,17 +48361,15 @@
         <v>27</v>
       </c>
       <c r="R58" s="12"/>
-      <c r="T58" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K68</f>
-        <v>Recepción P55</v>
+      <c r="T58" s="43" t="s">
+        <v>0</v>
       </c>
       <c r="U58" s="28">
         <f>+C9</f>
         <v>1</v>
       </c>
-      <c r="V58" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K72</f>
-        <v>Delta Stock Alianza</v>
+      <c r="V58" s="43" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="29">
         <f>+E24</f>
@@ -48465,17 +48393,15 @@
         <v>36</v>
       </c>
       <c r="R59" s="12"/>
-      <c r="T59" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K71</f>
-        <v>Recepción Alianza</v>
+      <c r="T59" s="43" t="s">
+        <v>2</v>
       </c>
       <c r="U59" s="28">
         <f>+C21</f>
         <v>1</v>
       </c>
-      <c r="V59" t="str">
-        <f>+'[1]Bal Fe Tot'!K75</f>
-        <v>Delta Stock P40</v>
+      <c r="V59" t="s">
+        <v>7</v>
       </c>
       <c r="W59" s="29">
         <f>+E34</f>
@@ -48499,17 +48425,15 @@
         <v>1</v>
       </c>
       <c r="R60" s="12"/>
-      <c r="T60" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K74</f>
-        <v>Recepción P40</v>
+      <c r="T60" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="U60" s="28">
         <f>+C31</f>
         <v>1</v>
       </c>
-      <c r="V60" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K78</f>
-        <v>Delta Stock Repulpeo</v>
+      <c r="V60" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="W60" s="29">
         <f>+E44</f>
@@ -48541,17 +48465,15 @@
         <v>1</v>
       </c>
       <c r="R61" s="12"/>
-      <c r="T61" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K77</f>
-        <v>Recepción Repulpeo</v>
+      <c r="T61" s="43" t="s">
+        <v>97</v>
       </c>
       <c r="U61" s="28">
         <f>+C41</f>
         <v>1</v>
       </c>
-      <c r="V61" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K81</f>
-        <v>Delta Stock Hnos Araya</v>
+      <c r="V61" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="W61" s="29">
         <f>+E54</f>
@@ -48579,17 +48501,15 @@
         <v>1</v>
       </c>
       <c r="R62" s="12"/>
-      <c r="T62" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K80</f>
-        <v>Recepción Hnos araya</v>
+      <c r="T62" s="43" t="s">
+        <v>98</v>
       </c>
       <c r="U62" s="28">
         <f>+C51</f>
         <v>1</v>
       </c>
-      <c r="V62" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K84</f>
-        <v>Delta Stock San Andrés</v>
+      <c r="V62" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="W62" s="29">
         <f>+E61</f>
@@ -48602,17 +48522,15 @@
       <c r="B63" s="11"/>
       <c r="L63" s="15"/>
       <c r="R63" s="12"/>
-      <c r="T63" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K83</f>
-        <v>Recep San Andrés</v>
+      <c r="T63" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="U63" s="28">
         <f>+C59</f>
         <v>1</v>
       </c>
-      <c r="V63" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K87</f>
-        <v>Delta Stock A&amp;Q</v>
+      <c r="V63" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="W63" s="29">
         <f>+E69</f>
@@ -48625,17 +48543,15 @@
       <c r="B64" s="11"/>
       <c r="L64" s="15"/>
       <c r="R64" s="12"/>
-      <c r="T64" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K86</f>
-        <v>Recep A&amp;Q</v>
+      <c r="T64" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="U64" s="28">
         <f>+C66</f>
         <v>1</v>
       </c>
-      <c r="V64" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K90</f>
-        <v>Delta Stock Autech</v>
+      <c r="V64" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="W64" s="29">
         <f>+E76</f>
@@ -48651,16 +48567,15 @@
       </c>
       <c r="L65" s="15"/>
       <c r="R65" s="12"/>
-      <c r="T65" s="43" t="str">
-        <f>+'[1]Bal Fe Tot'!K89</f>
-        <v>Recep Autech</v>
+      <c r="T65" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="U65" s="28">
         <f>+C73</f>
         <v>1</v>
       </c>
       <c r="V65" s="37" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="W65" s="29">
         <f>H8</f>
@@ -48804,9 +48719,8 @@
         <f>+K7</f>
         <v>1</v>
       </c>
-      <c r="V73" s="43" t="str">
-        <f>+V57</f>
-        <v>Delta Stock P55</v>
+      <c r="V73" s="43" t="s">
+        <v>3</v>
       </c>
       <c r="W73" s="29">
         <f>+E13</f>
@@ -48832,17 +48746,15 @@
       </c>
       <c r="L74" s="15"/>
       <c r="R74" s="12"/>
-      <c r="T74" s="43" t="str">
-        <f>+T58</f>
-        <v>Recepción P55</v>
+      <c r="T74" s="43" t="s">
+        <v>0</v>
       </c>
       <c r="U74" s="28">
         <f>+C11</f>
         <v>1</v>
       </c>
-      <c r="V74" s="43" t="str">
-        <f t="shared" ref="V74:V80" si="0">+V58</f>
-        <v>Delta Stock Alianza</v>
+      <c r="V74" s="43" t="s">
+        <v>4</v>
       </c>
       <c r="W74" s="29">
         <f>+E25</f>
@@ -48868,17 +48780,15 @@
       </c>
       <c r="L75" s="15"/>
       <c r="R75" s="12"/>
-      <c r="T75" s="43" t="str">
-        <f t="shared" ref="T75:T81" si="1">+T59</f>
-        <v>Recepción Alianza</v>
+      <c r="T75" s="43" t="s">
+        <v>2</v>
       </c>
       <c r="U75" s="28">
         <f>+C23</f>
         <v>1</v>
       </c>
-      <c r="V75" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Delta Stock P40</v>
+      <c r="V75" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="W75" s="29">
         <f>+E35</f>
@@ -48895,17 +48805,15 @@
       </c>
       <c r="L76" s="15"/>
       <c r="R76" s="12"/>
-      <c r="T76" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Recepción P40</v>
+      <c r="T76" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="U76" s="28">
         <f>+C33</f>
         <v>1</v>
       </c>
-      <c r="V76" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Delta Stock Repulpeo</v>
+      <c r="V76" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="W76" s="29">
         <f>+E45</f>
@@ -48922,17 +48830,15 @@
       </c>
       <c r="L77" s="15"/>
       <c r="R77" s="12"/>
-      <c r="T77" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Recepción Repulpeo</v>
+      <c r="T77" s="43" t="s">
+        <v>97</v>
       </c>
       <c r="U77" s="28">
         <f>+C43</f>
         <v>1</v>
       </c>
-      <c r="V77" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Delta Stock Hnos Araya</v>
+      <c r="V77" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="W77" s="29">
         <f>+E55</f>
@@ -48945,17 +48851,15 @@
       <c r="B78" s="11"/>
       <c r="L78" s="15"/>
       <c r="R78" s="12"/>
-      <c r="T78" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Recepción Hnos araya</v>
+      <c r="T78" s="43" t="s">
+        <v>98</v>
       </c>
       <c r="U78" s="28">
         <f>+C53</f>
         <v>1</v>
       </c>
-      <c r="V78" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Delta Stock San Andrés</v>
+      <c r="V78" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="W78" s="29">
         <f>+E62</f>
@@ -48968,17 +48872,15 @@
       <c r="B79" s="11"/>
       <c r="L79" s="15"/>
       <c r="R79" s="12"/>
-      <c r="T79" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Recep San Andrés</v>
+      <c r="T79" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="U79" s="28">
         <f>+C61</f>
         <v>1</v>
       </c>
-      <c r="V79" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Delta Stock A&amp;Q</v>
+      <c r="V79" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="W79" s="29">
         <f>+E70</f>
@@ -48991,17 +48893,15 @@
       <c r="B80" s="11"/>
       <c r="L80" s="15"/>
       <c r="R80" s="12"/>
-      <c r="T80" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Recep A&amp;Q</v>
+      <c r="T80" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="U80" s="28">
         <f>+C68</f>
         <v>1</v>
       </c>
-      <c r="V80" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>Delta Stock Autech</v>
+      <c r="V80" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="W80" s="29">
         <f>+E77</f>
@@ -49014,16 +48914,15 @@
       <c r="B81" s="11"/>
       <c r="L81" s="15"/>
       <c r="R81" s="12"/>
-      <c r="T81" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>Recep Autech</v>
+      <c r="T81" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="U81" s="28">
         <f>+C75</f>
         <v>1</v>
       </c>
       <c r="V81" s="37" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="W81" s="29">
         <f>H9</f>
@@ -49526,8 +49425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B33E5-7676-1F47-BBE6-CFF6D81A466B}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50415,8 +50314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F528B85-A256-6641-B1D0-8807EAEE4050}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="60" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:J33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C3" zoomScale="130" zoomScaleNormal="60" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -50476,7 +50375,7 @@
       <c r="C3" s="210"/>
       <c r="D3" s="211"/>
       <c r="E3" s="216" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="216"/>
       <c r="G3" s="216"/>
@@ -50512,7 +50411,7 @@
       <c r="C5" s="212"/>
       <c r="D5" s="213"/>
       <c r="E5" s="218" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="218"/>
       <c r="G5" s="218"/>
@@ -50568,27 +50467,27 @@
       <c r="D8" s="203"/>
       <c r="E8" s="203"/>
       <c r="F8" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="H8" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="94" t="s">
-        <v>72</v>
-      </c>
       <c r="I8" s="94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="206"/>
       <c r="K8" s="207"/>
       <c r="L8" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="93" t="s">
+      <c r="N8" s="94" t="s">
         <v>71</v>
-      </c>
-      <c r="N8" s="94" t="s">
-        <v>72</v>
       </c>
       <c r="O8" s="158"/>
     </row>
@@ -50602,13 +50501,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="I9" s="96" t="s">
         <v>74</v>
-      </c>
-      <c r="I9" s="96" t="s">
-        <v>75</v>
       </c>
       <c r="J9" s="208"/>
       <c r="K9" s="209"/>
@@ -50616,10 +50515,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="96" t="s">
         <v>73</v>
-      </c>
-      <c r="N9" s="96" t="s">
-        <v>74</v>
       </c>
       <c r="O9" s="158"/>
     </row>
@@ -50635,7 +50534,7 @@
       <c r="G10" s="226"/>
       <c r="H10" s="226"/>
       <c r="I10" s="227" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="226"/>
       <c r="K10" s="226"/>
@@ -50648,7 +50547,7 @@
       <c r="A11" s="84"/>
       <c r="B11" s="88"/>
       <c r="C11" s="229" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="230"/>
       <c r="E11" s="231"/>
@@ -50669,7 +50568,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="101"/>
       <c r="L11" s="102">
@@ -50712,7 +50611,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="109"/>
       <c r="L12" s="110"/>
@@ -50951,7 +50850,7 @@
       <c r="A20" s="84"/>
       <c r="B20" s="88"/>
       <c r="C20" s="256" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="257"/>
       <c r="E20" s="257"/>
@@ -50979,7 +50878,7 @@
       <c r="A21" s="84"/>
       <c r="B21" s="88"/>
       <c r="C21" s="260" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="261"/>
       <c r="E21" s="261"/>
@@ -50987,7 +50886,7 @@
       <c r="G21" s="261"/>
       <c r="H21" s="261"/>
       <c r="I21" s="262" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="263"/>
       <c r="K21" s="263"/>
@@ -51000,7 +50899,7 @@
       <c r="A22" s="84"/>
       <c r="B22" s="88"/>
       <c r="C22" s="232" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="233"/>
       <c r="E22" s="234"/>
@@ -51011,7 +50910,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="265" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22" s="266"/>
       <c r="K22" s="267"/>
@@ -51033,7 +50932,7 @@
       <c r="A23" s="84"/>
       <c r="B23" s="88"/>
       <c r="C23" s="256" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="257"/>
       <c r="E23" s="257"/>
@@ -51044,7 +50943,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="288" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J23" s="289"/>
       <c r="K23" s="290"/>
@@ -51083,7 +50982,7 @@
       <c r="A25" s="84"/>
       <c r="B25" s="88"/>
       <c r="C25" s="291" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="263"/>
       <c r="E25" s="292"/>
@@ -51091,10 +50990,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="133" t="s">
         <v>85</v>
-      </c>
-      <c r="H25" s="133" t="s">
-        <v>86</v>
       </c>
       <c r="I25" s="134"/>
       <c r="J25" s="135"/>
@@ -51108,7 +51007,7 @@
       <c r="A26" s="84"/>
       <c r="B26" s="88"/>
       <c r="C26" s="293" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="294"/>
       <c r="E26" s="295"/>
@@ -51136,7 +51035,7 @@
       <c r="A27" s="84"/>
       <c r="B27" s="88"/>
       <c r="C27" s="296" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="297"/>
       <c r="E27" s="297"/>
@@ -51181,7 +51080,7 @@
       <c r="A29" s="84"/>
       <c r="B29" s="88"/>
       <c r="C29" s="253" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="254"/>
       <c r="E29" s="254"/>
@@ -51217,20 +51116,20 @@
       <c r="A31" s="84"/>
       <c r="B31" s="88"/>
       <c r="C31" s="268" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="298"/>
       <c r="E31" s="299"/>
       <c r="F31" s="154"/>
       <c r="G31" s="154"/>
       <c r="H31" s="268" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I31" s="298"/>
       <c r="J31" s="299"/>
       <c r="K31" s="154"/>
       <c r="L31" s="268" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M31" s="269"/>
       <c r="N31" s="270"/>
@@ -51241,7 +51140,7 @@
       <c r="B32" s="88"/>
       <c r="C32" s="271">
         <f>Utilidad!I105</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="272"/>
       <c r="E32" s="273"/>

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4F3FBC-130F-624B-8ED3-FA2CC3B5F3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A95887-8845-4743-9B51-01885CCAEA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,22 +330,6 @@
     <t>Valores Calculados</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PRODUCCIÓN </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-  </si>
-  <si>
     <t>BALANCE GLOBAL MASA</t>
   </si>
   <si>
@@ -540,12 +524,28 @@
   <si>
     <t>Delta Invent Cancha/Repulpeo</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PRODUCCIÓN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -554,8 +554,9 @@
     <numFmt numFmtId="169" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0_)"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,8 +804,15 @@
       <color theme="2"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +876,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,7 +1678,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2119,9 +2133,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="28" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2147,6 +2158,237 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2163,12 +2405,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2216,230 +2452,14 @@
     <xf numFmtId="167" fontId="17" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3812,326 +3832,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>P40</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>744681</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>37790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561166</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>5910</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Triángulo isósceles 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71837E80-12C9-44AE-82A7-6BB48A03FB90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2531752" y="7294933"/>
-          <a:ext cx="578485" cy="512406"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>264531</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>81927</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>517258</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66222</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectángulo 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CDD97F-44C5-4051-899F-5C3EDB31FF88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1026531" y="7079627"/>
-          <a:ext cx="1014727" cy="352595"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>MLC-SF</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6085,62 +5785,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>108253</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>113925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127302</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>113925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector recto de flecha 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEC0A8D-D908-4188-890C-9FB75935F926}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1895324" y="7552496"/>
-          <a:ext cx="781049" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>422953</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -6230,65 +5874,6 @@
         <a:xfrm flipV="1">
           <a:off x="2964170" y="4918265"/>
           <a:ext cx="1649995" cy="784057"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>416545</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>423165</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>112565</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Conector: angular 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA60A2BD-55AA-413C-8020-410B694B1396}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="11" idx="5"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2965616" y="4918265"/>
-          <a:ext cx="1648549" cy="2632871"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9642,8 +9227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AB0D6-E0E9-6D42-9B21-33D1777F9FE2}">
   <dimension ref="A1:DN306"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView topLeftCell="L71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -9658,13 +9243,13 @@
   <sheetData>
     <row r="1" spans="1:118">
       <c r="A1" s="160">
-        <v>1</v>
+        <v>13202.36645</v>
       </c>
       <c r="B1" s="160">
-        <v>1</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="C1" s="160">
-        <v>1</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="D1" s="160"/>
       <c r="E1" s="160"/>
@@ -9784,13 +9369,13 @@
     </row>
     <row r="2" spans="1:118">
       <c r="A2" s="160">
-        <v>1</v>
+        <v>6778.8554000000004</v>
       </c>
       <c r="B2" s="160">
-        <v>1</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="C2" s="160">
-        <v>1</v>
+        <v>0.56620000000000004</v>
       </c>
       <c r="D2" s="160"/>
       <c r="E2" s="160"/>
@@ -10041,13 +9626,13 @@
     </row>
     <row r="3" spans="1:118" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A3" s="160">
-        <v>1</v>
+        <v>6423.5110500000001</v>
       </c>
       <c r="B3" s="160">
-        <v>1</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="C3" s="160">
-        <v>1</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="D3" s="162"/>
       <c r="E3" s="162"/>
@@ -10167,13 +9752,13 @@
     </row>
     <row r="4" spans="1:118" ht="18.5" customHeight="1">
       <c r="A4" s="160">
-        <v>1</v>
+        <v>7852.2802756999999</v>
       </c>
       <c r="B4" s="160">
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="C4" s="160">
-        <v>1</v>
+        <v>0.4032</v>
       </c>
       <c r="D4" s="160"/>
       <c r="E4" s="160"/>
@@ -10293,13 +9878,13 @@
     </row>
     <row r="5" spans="1:118" ht="18.5" customHeight="1">
       <c r="A5" s="160">
-        <v>1</v>
+        <v>6696.3673878</v>
       </c>
       <c r="B5" s="160">
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="C5" s="160">
-        <v>1</v>
+        <v>0.40450000000000003</v>
       </c>
       <c r="D5" s="160"/>
       <c r="E5" s="160"/>
@@ -10419,13 +10004,13 @@
     </row>
     <row r="6" spans="1:118" ht="18.5" customHeight="1">
       <c r="A6" s="160">
-        <v>1</v>
+        <v>1155.9128879</v>
       </c>
       <c r="B6" s="160">
-        <v>1</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="C6" s="160">
-        <v>1</v>
+        <v>0.39579999999999999</v>
       </c>
       <c r="D6" s="160"/>
       <c r="E6" s="160"/>
@@ -10545,13 +10130,13 @@
     </row>
     <row r="7" spans="1:118" ht="18.5" customHeight="1">
       <c r="A7" s="160">
-        <v>1</v>
+        <v>2893.7873199999999</v>
       </c>
       <c r="B7" s="160">
-        <v>1</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="C7" s="160">
-        <v>1</v>
+        <v>0.43959999999999999</v>
       </c>
       <c r="D7" s="160"/>
       <c r="E7" s="160"/>
@@ -10671,13 +10256,13 @@
     </row>
     <row r="8" spans="1:118" ht="18.5" customHeight="1">
       <c r="A8" s="160">
-        <v>1</v>
+        <v>-4071.8200099999999</v>
       </c>
       <c r="B8" s="160">
-        <v>1</v>
+        <v>0.46810000000000002</v>
       </c>
       <c r="C8" s="160">
-        <v>1</v>
+        <v>0.43659999999999999</v>
       </c>
       <c r="D8" s="160"/>
       <c r="E8" s="160"/>
@@ -10797,13 +10382,13 @@
     </row>
     <row r="9" spans="1:118" ht="18.5" customHeight="1">
       <c r="A9" s="160">
-        <v>1</v>
+        <v>6965.6073299999998</v>
       </c>
       <c r="B9" s="160">
-        <v>1</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="C9" s="160">
-        <v>1</v>
+        <v>0.43790000000000001</v>
       </c>
       <c r="D9" s="160"/>
       <c r="E9" s="160"/>
@@ -10923,13 +10508,13 @@
     </row>
     <row r="10" spans="1:118" ht="18.5" customHeight="1">
       <c r="A10" s="160">
-        <v>1</v>
+        <v>37005.332999999999</v>
       </c>
       <c r="B10" s="160">
-        <v>1</v>
+        <v>0.35489999999999999</v>
       </c>
       <c r="C10" s="160">
-        <v>1</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="D10" s="160"/>
       <c r="E10" s="160"/>
@@ -11049,13 +10634,13 @@
     </row>
     <row r="11" spans="1:118" ht="18.5" customHeight="1">
       <c r="A11" s="160">
-        <v>1</v>
+        <v>24274.569074999999</v>
       </c>
       <c r="B11" s="160">
-        <v>1</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="C11" s="160">
-        <v>1</v>
+        <v>0.34160000000000001</v>
       </c>
       <c r="D11" s="160"/>
       <c r="E11" s="160"/>
@@ -11175,13 +10760,13 @@
     </row>
     <row r="12" spans="1:118" ht="18.5" customHeight="1">
       <c r="A12" s="160">
-        <v>1</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="B12" s="160">
-        <v>1</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="C12" s="160">
-        <v>1</v>
+        <v>0.32619999999999999</v>
       </c>
       <c r="D12" s="160"/>
       <c r="E12" s="160"/>
@@ -11301,13 +10886,13 @@
     </row>
     <row r="13" spans="1:118" ht="18.5" customHeight="1">
       <c r="A13" s="160">
-        <v>1</v>
+        <v>4912.6787609000003</v>
       </c>
       <c r="B13" s="160">
-        <v>1</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C13" s="160">
-        <v>1</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D13" s="160"/>
       <c r="E13" s="160"/>
@@ -11427,13 +11012,13 @@
     </row>
     <row r="14" spans="1:118" ht="18.5" customHeight="1">
       <c r="A14" s="160">
-        <v>1</v>
+        <v>2597.1958393</v>
       </c>
       <c r="B14" s="160">
-        <v>1</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="C14" s="160">
-        <v>1</v>
+        <v>0.41160000000000002</v>
       </c>
       <c r="D14" s="160"/>
       <c r="E14" s="160"/>
@@ -11553,13 +11138,13 @@
     </row>
     <row r="15" spans="1:118" ht="18.5" customHeight="1">
       <c r="A15" s="160">
-        <v>1</v>
+        <v>2315.4829215999998</v>
       </c>
       <c r="B15" s="160">
-        <v>1</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="C15" s="160">
-        <v>1</v>
+        <v>0.40179999999999999</v>
       </c>
       <c r="D15" s="160"/>
       <c r="E15" s="160"/>
@@ -11679,13 +11264,13 @@
     </row>
     <row r="16" spans="1:118" ht="18.5" customHeight="1">
       <c r="A16" s="160">
-        <v>1</v>
+        <v>3667.1989233999998</v>
       </c>
       <c r="B16" s="160">
-        <v>1</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="C16" s="160">
-        <v>1</v>
+        <v>0.37280000000000002</v>
       </c>
       <c r="D16" s="160"/>
       <c r="E16" s="160"/>
@@ -11805,13 +11390,13 @@
     </row>
     <row r="17" spans="1:118" ht="18.5" customHeight="1">
       <c r="A17" s="160">
-        <v>1</v>
+        <v>1145.8164823</v>
       </c>
       <c r="B17" s="160">
-        <v>1</v>
+        <v>0.42280000000000001</v>
       </c>
       <c r="C17" s="160">
-        <v>1</v>
+        <v>0.379</v>
       </c>
       <c r="D17" s="160"/>
       <c r="E17" s="160"/>
@@ -11931,13 +11516,13 @@
     </row>
     <row r="18" spans="1:118" ht="18.5" customHeight="1">
       <c r="A18" s="160">
-        <v>1</v>
+        <v>2521.3824411000001</v>
       </c>
       <c r="B18" s="160">
-        <v>1</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="C18" s="160">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="D18" s="160"/>
       <c r="E18" s="160"/>
@@ -12057,13 +11642,13 @@
     </row>
     <row r="19" spans="1:118" ht="18.5" customHeight="1">
       <c r="A19" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="160"/>
       <c r="E19" s="160"/>
@@ -12183,13 +11768,13 @@
     </row>
     <row r="20" spans="1:118" ht="18.5" customHeight="1">
       <c r="A20" s="160">
-        <v>1</v>
+        <v>-1199.0246399</v>
       </c>
       <c r="B20" s="160">
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="C20" s="160">
-        <v>1</v>
+        <v>0.42920000000000003</v>
       </c>
       <c r="D20" s="160"/>
       <c r="E20" s="160"/>
@@ -12309,13 +11894,13 @@
     </row>
     <row r="21" spans="1:118" ht="18.5" customHeight="1">
       <c r="A21" s="160">
-        <v>1</v>
+        <v>1199.0246399</v>
       </c>
       <c r="B21" s="160">
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="C21" s="160">
-        <v>1</v>
+        <v>0.42920000000000003</v>
       </c>
       <c r="D21" s="160"/>
       <c r="E21" s="160"/>
@@ -12435,13 +12020,13 @@
     </row>
     <row r="22" spans="1:118" ht="18.5" customHeight="1">
       <c r="A22" s="160">
-        <v>1</v>
+        <v>3277.8028466000001</v>
       </c>
       <c r="B22" s="160">
-        <v>1</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="C22" s="160">
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="D22" s="160"/>
       <c r="E22" s="160"/>
@@ -12561,13 +12146,13 @@
     </row>
     <row r="23" spans="1:118" ht="18.5" customHeight="1">
       <c r="A23" s="160">
-        <v>1</v>
+        <v>2109.2036739999999</v>
       </c>
       <c r="B23" s="160">
-        <v>1</v>
+        <v>0.52869999999999995</v>
       </c>
       <c r="C23" s="160">
-        <v>1</v>
+        <v>0.43569999999999998</v>
       </c>
       <c r="D23" s="160"/>
       <c r="E23" s="160"/>
@@ -12687,13 +12272,13 @@
     </row>
     <row r="24" spans="1:118" ht="18.5" customHeight="1">
       <c r="A24" s="160">
-        <v>1</v>
+        <v>1168.5991726</v>
       </c>
       <c r="B24" s="160">
-        <v>1</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="C24" s="160">
-        <v>1</v>
+        <v>0.42920000000000003</v>
       </c>
       <c r="D24" s="160"/>
       <c r="E24" s="160"/>
@@ -12813,13 +12398,13 @@
     </row>
     <row r="25" spans="1:118" ht="18.5" customHeight="1">
       <c r="A25" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="160"/>
       <c r="E25" s="160"/>
@@ -12939,13 +12524,13 @@
     </row>
     <row r="26" spans="1:118" ht="18.5" customHeight="1">
       <c r="A26" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="160"/>
       <c r="E26" s="160"/>
@@ -13065,13 +12650,13 @@
     </row>
     <row r="27" spans="1:118" ht="18.5" customHeight="1">
       <c r="A27" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="160"/>
       <c r="E27" s="160"/>
@@ -13191,13 +12776,13 @@
     </row>
     <row r="28" spans="1:118" ht="18.5" customHeight="1">
       <c r="A28" s="160">
-        <v>1</v>
+        <v>1667568</v>
       </c>
       <c r="B28" s="160">
-        <v>1</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="C28" s="160">
-        <v>1</v>
+        <v>0.1101</v>
       </c>
       <c r="D28" s="160"/>
       <c r="E28" s="160"/>
@@ -13317,13 +12902,13 @@
     </row>
     <row r="29" spans="1:118" ht="18.5" customHeight="1">
       <c r="A29" s="160">
-        <v>1</v>
+        <v>1042380.0522</v>
       </c>
       <c r="B29" s="160">
-        <v>1</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="C29" s="160">
-        <v>1</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="D29" s="160"/>
       <c r="E29" s="160"/>
@@ -13443,13 +13028,13 @@
     </row>
     <row r="30" spans="1:118" ht="18.5" customHeight="1">
       <c r="A30" s="160">
-        <v>1</v>
+        <v>625187.94782999996</v>
       </c>
       <c r="B30" s="160">
-        <v>1</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="C30" s="160">
-        <v>1</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="D30" s="160"/>
       <c r="E30" s="160"/>
@@ -13569,13 +13154,13 @@
     </row>
     <row r="31" spans="1:118" ht="18.5" customHeight="1">
       <c r="A31" s="160">
-        <v>1</v>
+        <v>96883.249754000004</v>
       </c>
       <c r="B31" s="160">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C31" s="160">
-        <v>1</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="D31" s="160"/>
       <c r="E31" s="160"/>
@@ -13695,13 +13280,13 @@
     </row>
     <row r="32" spans="1:118" ht="18.5" customHeight="1">
       <c r="A32" s="160">
-        <v>1</v>
+        <v>528304.69808</v>
       </c>
       <c r="B32" s="160">
-        <v>1</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="C32" s="160">
-        <v>1</v>
+        <v>0.33929999999999999</v>
       </c>
       <c r="D32" s="160"/>
       <c r="E32" s="160"/>
@@ -13821,13 +13406,13 @@
     </row>
     <row r="33" spans="1:118" ht="18.5" customHeight="1">
       <c r="A33" s="160">
-        <v>1</v>
+        <v>94163.869506999996</v>
       </c>
       <c r="B33" s="160">
-        <v>1</v>
+        <v>0.3775</v>
       </c>
       <c r="C33" s="160">
-        <v>1</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="D33" s="160"/>
       <c r="E33" s="160"/>
@@ -13947,13 +13532,13 @@
     </row>
     <row r="34" spans="1:118" ht="18.5" customHeight="1">
       <c r="A34" s="160">
-        <v>1</v>
+        <v>34480.284368000001</v>
       </c>
       <c r="B34" s="160">
-        <v>1</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="C34" s="160">
-        <v>1</v>
+        <v>0.40870000000000001</v>
       </c>
       <c r="D34" s="160"/>
       <c r="E34" s="160"/>
@@ -14073,13 +13658,13 @@
     </row>
     <row r="35" spans="1:118" ht="18.5" customHeight="1">
       <c r="A35" s="160">
-        <v>1</v>
+        <v>416813.64674</v>
       </c>
       <c r="B35" s="160">
-        <v>1</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="C35" s="160">
-        <v>1</v>
+        <v>0.33939999999999998</v>
       </c>
       <c r="D35" s="160"/>
       <c r="E35" s="160"/>
@@ -14199,13 +13784,13 @@
     </row>
     <row r="36" spans="1:118" ht="18.5" customHeight="1">
       <c r="A36" s="160">
-        <v>1</v>
+        <v>108297.44338</v>
       </c>
       <c r="B36" s="160">
-        <v>1</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="C36" s="160">
-        <v>1</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="D36" s="160"/>
       <c r="E36" s="160"/>
@@ -14325,13 +13910,13 @@
     </row>
     <row r="37" spans="1:118" ht="18.5" customHeight="1">
       <c r="A37" s="160">
-        <v>1</v>
+        <v>323318.33656000003</v>
       </c>
       <c r="B37" s="160">
-        <v>1</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="C37" s="160">
-        <v>1</v>
+        <v>0.45190000000000002</v>
       </c>
       <c r="D37" s="160"/>
       <c r="E37" s="160"/>
@@ -14451,13 +14036,13 @@
     </row>
     <row r="38" spans="1:118" ht="18.5" customHeight="1">
       <c r="A38" s="160">
-        <v>1</v>
+        <v>74739.665452000001</v>
       </c>
       <c r="B38" s="160">
-        <v>1</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="C38" s="160">
-        <v>1</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="D38" s="160"/>
       <c r="E38" s="160"/>
@@ -14577,13 +14162,13 @@
     </row>
     <row r="39" spans="1:118" ht="18.5" customHeight="1">
       <c r="A39" s="160">
-        <v>1</v>
+        <v>248578.67111</v>
       </c>
       <c r="B39" s="160">
-        <v>1</v>
+        <v>0.5786</v>
       </c>
       <c r="C39" s="160">
-        <v>1</v>
+        <v>0.57230000000000003</v>
       </c>
       <c r="D39" s="160"/>
       <c r="E39" s="160"/>
@@ -14703,13 +14288,13 @@
     </row>
     <row r="40" spans="1:118" ht="18.5" customHeight="1">
       <c r="A40" s="160">
-        <v>1</v>
+        <v>25296.16849</v>
       </c>
       <c r="B40" s="160">
-        <v>1</v>
+        <v>0.40389999999999998</v>
       </c>
       <c r="C40" s="160">
-        <v>1</v>
+        <v>0.40310000000000001</v>
       </c>
       <c r="D40" s="160"/>
       <c r="E40" s="160"/>
@@ -14829,13 +14414,13 @@
     </row>
     <row r="41" spans="1:118" ht="18.5" customHeight="1">
       <c r="A41" s="160">
-        <v>1</v>
+        <v>223282.50262000001</v>
       </c>
       <c r="B41" s="160">
-        <v>1</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="C41" s="160">
-        <v>1</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="D41" s="160"/>
       <c r="E41" s="160"/>
@@ -14955,13 +14540,13 @@
     </row>
     <row r="42" spans="1:118" ht="18.5" customHeight="1">
       <c r="A42" s="160">
-        <v>1</v>
+        <v>71918.502619000006</v>
       </c>
       <c r="B42" s="160">
-        <v>1</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="C42" s="160">
-        <v>1</v>
+        <v>0.48909999999999998</v>
       </c>
       <c r="D42" s="160"/>
       <c r="E42" s="160"/>
@@ -15081,13 +14666,13 @@
     </row>
     <row r="43" spans="1:118" ht="18.5" customHeight="1">
       <c r="A43" s="160">
-        <v>1</v>
+        <v>152012.95337999999</v>
       </c>
       <c r="B43" s="160">
-        <v>1</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="C43" s="160">
-        <v>1</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="D43" s="160"/>
       <c r="E43" s="160"/>
@@ -15207,13 +14792,13 @@
     </row>
     <row r="44" spans="1:118" ht="18.5" customHeight="1">
       <c r="A44" s="160">
-        <v>1</v>
+        <v>648.95338264999998</v>
       </c>
       <c r="B44" s="160">
-        <v>1</v>
+        <v>0.4965</v>
       </c>
       <c r="C44" s="160">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D44" s="160"/>
       <c r="E44" s="160"/>
@@ -15333,13 +14918,13 @@
     </row>
     <row r="45" spans="1:118" ht="18.5" customHeight="1">
       <c r="A45" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="160"/>
       <c r="E45" s="160"/>
@@ -15459,13 +15044,13 @@
     </row>
     <row r="46" spans="1:118" ht="18.5" customHeight="1">
       <c r="A46" s="160">
-        <v>1</v>
+        <v>151364</v>
       </c>
       <c r="B46" s="160">
-        <v>1</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="C46" s="160">
-        <v>1</v>
+        <v>0.6401</v>
       </c>
       <c r="D46" s="160"/>
       <c r="E46" s="160"/>
@@ -15585,13 +15170,13 @@
     </row>
     <row r="47" spans="1:118" ht="18.5" customHeight="1">
       <c r="A47" s="160">
-        <v>1</v>
+        <v>1513678.9513999999</v>
       </c>
       <c r="B47" s="160">
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C47" s="160">
-        <v>1</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="D47" s="160"/>
       <c r="E47" s="160"/>
@@ -15711,13 +15296,13 @@
     </row>
     <row r="48" spans="1:118" ht="18.5" customHeight="1">
       <c r="A48" s="160">
-        <v>1</v>
+        <v>14802.1332</v>
       </c>
       <c r="B48" s="160">
-        <v>1</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="C48" s="160">
-        <v>1</v>
+        <v>0.38450000000000001</v>
       </c>
       <c r="D48" s="160"/>
       <c r="E48" s="160"/>
@@ -15837,13 +15422,13 @@
     </row>
     <row r="49" spans="1:118" ht="18.5" customHeight="1">
       <c r="A49" s="160">
-        <v>1</v>
+        <v>51807.466200000003</v>
       </c>
       <c r="B49" s="160">
-        <v>1</v>
+        <v>0.3639</v>
       </c>
       <c r="C49" s="160">
-        <v>1</v>
+        <v>0.35010000000000002</v>
       </c>
       <c r="D49" s="160"/>
       <c r="E49" s="160"/>
@@ -15963,13 +15548,13 @@
     </row>
     <row r="50" spans="1:118" ht="18.5" customHeight="1">
       <c r="A50" s="160">
-        <v>1</v>
+        <v>476497.23187999998</v>
       </c>
       <c r="B50" s="160">
-        <v>1</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="C50" s="160">
-        <v>1</v>
+        <v>0.3382</v>
       </c>
       <c r="D50" s="160"/>
       <c r="E50" s="160"/>
@@ -17923,17 +17508,17 @@
       <c r="I66" s="160"/>
       <c r="J66" s="160"/>
       <c r="K66" s="160"/>
-      <c r="L66" s="199"/>
-      <c r="M66" s="199"/>
+      <c r="L66" s="198"/>
+      <c r="M66" s="198"/>
       <c r="N66" s="160"/>
-      <c r="O66" s="200" t="s">
+      <c r="O66" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="P66" s="200"/>
-      <c r="Q66" s="200"/>
+      <c r="P66" s="199"/>
+      <c r="Q66" s="199"/>
       <c r="R66" s="160"/>
-      <c r="S66" s="201"/>
-      <c r="T66" s="201"/>
+      <c r="S66" s="200"/>
+      <c r="T66" s="200"/>
       <c r="U66" s="64"/>
       <c r="V66" s="64"/>
       <c r="W66" s="65"/>
@@ -17941,10 +17526,10 @@
       <c r="Y66" s="64"/>
       <c r="Z66" s="64"/>
       <c r="AA66" s="64"/>
-      <c r="AB66" s="195"/>
-      <c r="AC66" s="195"/>
-      <c r="AD66" s="195"/>
-      <c r="AE66" s="195"/>
+      <c r="AB66" s="194"/>
+      <c r="AC66" s="194"/>
+      <c r="AD66" s="194"/>
+      <c r="AE66" s="194"/>
       <c r="AF66" s="64"/>
       <c r="AG66" s="64"/>
       <c r="AH66" s="64"/>
@@ -18178,17 +17763,20 @@
       </c>
       <c r="O68" s="171">
         <f>A1</f>
-        <v>1</v>
+        <v>13202.36645</v>
       </c>
       <c r="P68" s="172">
         <f t="shared" ref="P68:Q68" si="1">B1</f>
-        <v>1</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="Q68" s="172">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R68" s="173"/>
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="R68" s="173">
+        <f>P68*O68</f>
+        <v>7735.2665030549997</v>
+      </c>
       <c r="S68" s="174"/>
       <c r="T68" s="174"/>
       <c r="U68" s="66"/>
@@ -18309,17 +17897,20 @@
       </c>
       <c r="O69" s="171">
         <f t="shared" ref="O69:O112" si="2">A2</f>
-        <v>1</v>
+        <v>6778.8554000000004</v>
       </c>
       <c r="P69" s="172">
         <f t="shared" ref="P69:P112" si="3">B2</f>
-        <v>1</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="Q69" s="172">
         <f t="shared" ref="Q69:Q112" si="4">C2</f>
-        <v>1</v>
-      </c>
-      <c r="R69" s="173"/>
+        <v>0.56620000000000004</v>
+      </c>
+      <c r="R69" s="173">
+        <f t="shared" ref="R69:R117" si="5">P69*O69</f>
+        <v>3987.32274628</v>
+      </c>
       <c r="S69" s="174"/>
       <c r="T69" s="174"/>
       <c r="U69" s="66"/>
@@ -18440,17 +18031,20 @@
       </c>
       <c r="O70" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6423.5110500000001</v>
       </c>
       <c r="P70" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="Q70" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R70" s="173"/>
+        <v>0.55269999999999997</v>
+      </c>
+      <c r="R70" s="173">
+        <f t="shared" si="5"/>
+        <v>3747.4763465700003</v>
+      </c>
       <c r="S70" s="174"/>
       <c r="T70" s="174"/>
       <c r="U70" s="66"/>
@@ -18571,17 +18165,20 @@
       </c>
       <c r="O71" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7852.2802756999999</v>
       </c>
       <c r="P71" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="Q71" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R71" s="173"/>
+        <v>0.4032</v>
+      </c>
+      <c r="R71" s="173">
+        <f t="shared" si="5"/>
+        <v>3403.1782714883802</v>
+      </c>
       <c r="S71" s="174"/>
       <c r="T71" s="174"/>
       <c r="U71" s="66"/>
@@ -18702,17 +18299,20 @@
       </c>
       <c r="O72" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6696.3673878</v>
       </c>
       <c r="P72" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="Q72" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R72" s="173"/>
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="R72" s="173">
+        <f t="shared" si="5"/>
+        <v>2902.2056258725202</v>
+      </c>
       <c r="S72" s="174"/>
       <c r="T72" s="174"/>
       <c r="U72" s="66"/>
@@ -18833,17 +18433,20 @@
       </c>
       <c r="O73" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1155.9128879</v>
       </c>
       <c r="P73" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="Q73" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R73" s="173"/>
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="R73" s="173">
+        <f t="shared" si="5"/>
+        <v>500.39468917190999</v>
+      </c>
       <c r="S73" s="174"/>
       <c r="T73" s="174"/>
       <c r="U73" s="66"/>
@@ -18964,17 +18567,20 @@
       </c>
       <c r="O74" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2893.7873199999999</v>
       </c>
       <c r="P74" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="Q74" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R74" s="173"/>
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="R74" s="173">
+        <f t="shared" si="5"/>
+        <v>1355.73935942</v>
+      </c>
       <c r="S74" s="174"/>
       <c r="T74" s="174"/>
       <c r="U74" s="66"/>
@@ -19095,17 +18701,20 @@
       </c>
       <c r="O75" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-4071.8200099999999</v>
       </c>
       <c r="P75" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.46810000000000002</v>
       </c>
       <c r="Q75" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R75" s="173"/>
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="R75" s="173">
+        <f t="shared" si="5"/>
+        <v>-1906.018946681</v>
+      </c>
       <c r="S75" s="174"/>
       <c r="T75" s="174"/>
       <c r="U75" s="66"/>
@@ -19226,17 +18835,20 @@
       </c>
       <c r="O76" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6965.6073299999998</v>
       </c>
       <c r="P76" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="Q76" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R76" s="173"/>
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="R76" s="173">
+        <f t="shared" si="5"/>
+        <v>3261.993912639</v>
+      </c>
       <c r="S76" s="174"/>
       <c r="T76" s="174"/>
       <c r="U76" s="66"/>
@@ -19357,17 +18969,20 @@
       </c>
       <c r="O77" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>37005.332999999999</v>
       </c>
       <c r="P77" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.35489999999999999</v>
       </c>
       <c r="Q77" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R77" s="173"/>
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="R77" s="173">
+        <f t="shared" si="5"/>
+        <v>13133.192681699999</v>
+      </c>
       <c r="S77" s="174"/>
       <c r="T77" s="174"/>
       <c r="U77" s="66"/>
@@ -19488,17 +19103,20 @@
       </c>
       <c r="O78" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>24274.569074999999</v>
       </c>
       <c r="P78" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="Q78" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R78" s="173"/>
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="R78" s="173">
+        <f t="shared" si="5"/>
+        <v>8651.456418329999</v>
+      </c>
       <c r="S78" s="174"/>
       <c r="T78" s="174"/>
       <c r="U78" s="66"/>
@@ -19619,17 +19237,20 @@
       </c>
       <c r="O79" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="P79" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="Q79" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R79" s="173"/>
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="R79" s="173">
+        <f t="shared" si="5"/>
+        <v>4482.5019779924996</v>
+      </c>
       <c r="S79" s="174"/>
       <c r="T79" s="174"/>
       <c r="U79" s="66"/>
@@ -19750,17 +19371,20 @@
       </c>
       <c r="O80" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4912.6787609000003</v>
       </c>
       <c r="P80" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="Q80" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R80" s="173"/>
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="R80" s="173">
+        <f t="shared" si="5"/>
+        <v>2534.9422406244003</v>
+      </c>
       <c r="S80" s="174"/>
       <c r="T80" s="174"/>
       <c r="U80" s="66"/>
@@ -19881,17 +19505,20 @@
       </c>
       <c r="O81" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2597.1958393</v>
       </c>
       <c r="P81" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="Q81" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R81" s="173"/>
+        <v>0.41160000000000002</v>
+      </c>
+      <c r="R81" s="173">
+        <f t="shared" si="5"/>
+        <v>1341.9710901663102</v>
+      </c>
       <c r="S81" s="174"/>
       <c r="T81" s="174"/>
       <c r="U81" s="66"/>
@@ -20012,17 +19639,20 @@
       </c>
       <c r="O82" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2315.4829215999998</v>
       </c>
       <c r="P82" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="Q82" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R82" s="173"/>
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="R82" s="173">
+        <f t="shared" si="5"/>
+        <v>1192.9368012083198</v>
+      </c>
       <c r="S82" s="174"/>
       <c r="T82" s="174"/>
       <c r="U82" s="66"/>
@@ -20139,21 +19769,24 @@
       <c r="L83" s="171"/>
       <c r="M83" s="172"/>
       <c r="N83" s="160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O83" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3667.1989233999998</v>
       </c>
       <c r="P83" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="Q83" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R83" s="173"/>
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="R83" s="173">
+        <f t="shared" si="5"/>
+        <v>1547.9246655671398</v>
+      </c>
       <c r="S83" s="174"/>
       <c r="T83" s="174"/>
       <c r="U83" s="66"/>
@@ -20270,21 +19903,24 @@
       <c r="L84" s="171"/>
       <c r="M84" s="172"/>
       <c r="N84" s="160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O84" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1145.8164823</v>
       </c>
       <c r="P84" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.42280000000000001</v>
       </c>
       <c r="Q84" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R84" s="173"/>
+        <v>0.379</v>
+      </c>
+      <c r="R84" s="173">
+        <f t="shared" si="5"/>
+        <v>484.45120871644002</v>
+      </c>
       <c r="S84" s="174"/>
       <c r="T84" s="174"/>
       <c r="U84" s="66"/>
@@ -20401,21 +20037,24 @@
       <c r="L85" s="171"/>
       <c r="M85" s="172"/>
       <c r="N85" s="160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O85" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2521.3824411000001</v>
       </c>
       <c r="P85" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="Q85" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R85" s="173"/>
+        <v>0.37</v>
+      </c>
+      <c r="R85" s="173">
+        <f t="shared" si="5"/>
+        <v>1063.5191136559799</v>
+      </c>
       <c r="S85" s="174"/>
       <c r="T85" s="174"/>
       <c r="U85" s="66"/>
@@ -20532,21 +20171,24 @@
       <c r="L86" s="171"/>
       <c r="M86" s="172"/>
       <c r="N86" s="160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O86" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R86" s="173"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S86" s="174"/>
       <c r="T86" s="174"/>
       <c r="U86" s="66"/>
@@ -20663,21 +20305,24 @@
       <c r="L87" s="171"/>
       <c r="M87" s="172"/>
       <c r="N87" s="160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O87" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1199.0246399</v>
       </c>
       <c r="P87" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="Q87" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R87" s="173"/>
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="R87" s="173">
+        <f t="shared" si="5"/>
+        <v>-595.43563617433995</v>
+      </c>
       <c r="S87" s="174"/>
       <c r="T87" s="174"/>
       <c r="U87" s="66"/>
@@ -20817,21 +20462,24 @@
       <c r="L88" s="171"/>
       <c r="M88" s="172"/>
       <c r="N88" s="160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O88" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1199.0246399</v>
       </c>
       <c r="P88" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="Q88" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R88" s="173"/>
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="R88" s="173">
+        <f t="shared" si="5"/>
+        <v>595.43563617433995</v>
+      </c>
       <c r="S88" s="174"/>
       <c r="T88" s="174"/>
       <c r="U88" s="66"/>
@@ -20935,35 +20583,35 @@
     </row>
     <row r="89" spans="1:118" ht="15.5" customHeight="1">
       <c r="A89" s="178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="179">
         <f>+P95</f>
-        <v>1</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="C89" s="179">
         <f>+P97</f>
-        <v>1</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="D89" s="179">
         <f>+P102</f>
-        <v>1</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="E89" s="179">
         <f>+P104</f>
-        <v>1</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="F89" s="179">
         <f>+P106</f>
-        <v>1</v>
+        <v>0.5786</v>
       </c>
       <c r="G89" s="179">
         <f>+P108</f>
-        <v>1</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="H89" s="179">
         <f>+P110</f>
-        <v>1</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="I89" s="180"/>
       <c r="J89" s="160"/>
@@ -20971,21 +20619,24 @@
       <c r="L89" s="171"/>
       <c r="M89" s="172"/>
       <c r="N89" s="160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O89" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3277.8028466000001</v>
       </c>
       <c r="P89" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="Q89" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R89" s="173"/>
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="R89" s="173">
+        <f t="shared" si="5"/>
+        <v>1731.99102414344</v>
+      </c>
       <c r="S89" s="174"/>
       <c r="T89" s="174"/>
       <c r="U89" s="66"/>
@@ -21089,35 +20740,35 @@
     </row>
     <row r="90" spans="1:118" ht="15.5" customHeight="1">
       <c r="A90" s="178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="179">
         <f>+P97</f>
-        <v>1</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="C90" s="179">
         <f>+P99</f>
-        <v>1</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="D90" s="179">
         <f>+P104</f>
-        <v>1</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="E90" s="179">
         <f>+P106</f>
-        <v>1</v>
+        <v>0.5786</v>
       </c>
       <c r="F90" s="179">
         <f>+P108</f>
-        <v>1</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="G90" s="179">
         <f>+P110</f>
-        <v>1</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="H90" s="179">
         <f>+P113</f>
-        <v>1</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="I90" s="181">
         <f>+'[1]Calc Nodos Stock'!E12</f>
@@ -21128,21 +20779,24 @@
       <c r="L90" s="171"/>
       <c r="M90" s="172"/>
       <c r="N90" s="160" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O90" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2109.2036739999999</v>
       </c>
       <c r="P90" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.52869999999999995</v>
       </c>
       <c r="Q90" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R90" s="173"/>
+        <v>0.43569999999999998</v>
+      </c>
+      <c r="R90" s="173">
+        <f t="shared" si="5"/>
+        <v>1115.1359824437998</v>
+      </c>
       <c r="S90" s="174"/>
       <c r="T90" s="174"/>
       <c r="U90" s="66"/>
@@ -21246,35 +20900,35 @@
     </row>
     <row r="91" spans="1:118" ht="15.5" customHeight="1">
       <c r="A91" s="178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="179">
         <f>+P96</f>
-        <v>1</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="C91" s="179">
         <f>+P98</f>
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D91" s="179">
         <f>+P103</f>
-        <v>1</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="E91" s="179">
         <f>+P105</f>
-        <v>1</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="F91" s="179">
         <f>+P107</f>
-        <v>1</v>
+        <v>0.40389999999999998</v>
       </c>
       <c r="G91" s="179">
         <f>+P109</f>
-        <v>1</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="H91" s="179">
         <f>+P111</f>
-        <v>1</v>
+        <v>0.4965</v>
       </c>
       <c r="I91" s="180"/>
       <c r="J91" s="160"/>
@@ -21282,21 +20936,24 @@
       <c r="L91" s="171"/>
       <c r="M91" s="172"/>
       <c r="N91" s="160" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O91" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1168.5991726</v>
       </c>
       <c r="P91" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="Q91" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R91" s="173"/>
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="R91" s="173">
+        <f t="shared" si="5"/>
+        <v>616.90350321554001</v>
+      </c>
       <c r="S91" s="174"/>
       <c r="T91" s="174"/>
       <c r="U91" s="66"/>
@@ -21417,17 +21074,20 @@
       </c>
       <c r="O92" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R92" s="173"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S92" s="174"/>
       <c r="T92" s="174"/>
       <c r="U92" s="66"/>
@@ -21551,17 +21211,20 @@
       </c>
       <c r="O93" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R93" s="173"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S93" s="174"/>
       <c r="T93" s="174"/>
       <c r="U93" s="66"/>
@@ -21665,39 +21328,39 @@
     </row>
     <row r="94" spans="1:118" ht="15.5" customHeight="1">
       <c r="A94" s="183" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="182">
         <f>+IF((B90-B91)&lt;&gt;0,(B90/B89)*(B89-B91)/(B90-B91),0)</f>
-        <v>0</v>
+        <v>0.78187915685497944</v>
       </c>
       <c r="C94" s="182">
-        <f t="shared" ref="C94:H94" si="5">+IF((C90-C91)&lt;&gt;0,(C90/C89)*(C89-C91)/(C90-C91),0)</f>
-        <v>0</v>
+        <f t="shared" ref="C94:H94" si="6">+IF((C90-C91)&lt;&gt;0,(C90/C89)*(C89-C91)/(C90-C91),0)</f>
+        <v>0.97127957823839028</v>
       </c>
       <c r="D94" s="182">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.9599864365614168</v>
       </c>
       <c r="E94" s="182">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.95547151927428087</v>
       </c>
       <c r="F94" s="182">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.92893741386219886</v>
       </c>
       <c r="G94" s="182">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.73686413067900969</v>
       </c>
       <c r="H94" s="182">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.99697258620405838</v>
       </c>
       <c r="I94" s="184">
         <f>+B94*C94*D94*E94*F94*G94*H94</f>
-        <v>0</v>
+        <v>0.47536130253454256</v>
       </c>
       <c r="J94" s="160"/>
       <c r="K94" s="160"/>
@@ -21708,17 +21371,20 @@
       </c>
       <c r="O94" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R94" s="173"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S94" s="174"/>
       <c r="T94" s="174"/>
       <c r="U94" s="66"/>
@@ -21839,17 +21505,20 @@
       </c>
       <c r="O95" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1667568</v>
       </c>
       <c r="P95" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="Q95" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R95" s="173"/>
+        <v>0.1101</v>
+      </c>
+      <c r="R95" s="173">
+        <f t="shared" si="5"/>
+        <v>250301.95680000001</v>
+      </c>
       <c r="S95" s="174"/>
       <c r="T95" s="174"/>
       <c r="U95" s="66"/>
@@ -21970,17 +21639,20 @@
       </c>
       <c r="O96" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1042380.0522</v>
       </c>
       <c r="P96" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="Q96" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R96" s="173"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="R96" s="173">
+        <f t="shared" si="5"/>
+        <v>54620.714735280002</v>
+      </c>
       <c r="S96" s="174"/>
       <c r="T96" s="174"/>
       <c r="U96" s="66"/>
@@ -22101,17 +21773,20 @@
       </c>
       <c r="O97" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>625187.94782999996</v>
       </c>
       <c r="P97" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="Q97" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R97" s="173"/>
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="R97" s="173">
+        <f t="shared" si="5"/>
+        <v>195558.790081224</v>
+      </c>
       <c r="S97" s="174"/>
       <c r="T97" s="174"/>
       <c r="U97" s="66"/>
@@ -22234,17 +21909,20 @@
       </c>
       <c r="O98" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>96883.249754000004</v>
       </c>
       <c r="P98" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="Q98" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R98" s="173"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="R98" s="173">
+        <f t="shared" si="5"/>
+        <v>5619.2284857320001</v>
+      </c>
       <c r="S98" s="174"/>
       <c r="T98" s="174"/>
       <c r="U98" s="66"/>
@@ -22348,35 +22026,35 @@
     </row>
     <row r="99" spans="1:118" ht="15.5" customHeight="1">
       <c r="A99" s="178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="179">
         <f>+Q95</f>
-        <v>1</v>
+        <v>0.1101</v>
       </c>
       <c r="C99" s="179">
         <f>+Q97</f>
-        <v>1</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="D99" s="179">
         <f>+Q102</f>
-        <v>1</v>
+        <v>0.33939999999999998</v>
       </c>
       <c r="E99" s="179">
         <f>+Q104</f>
-        <v>1</v>
+        <v>0.45190000000000002</v>
       </c>
       <c r="F99" s="179">
         <f>+Q106</f>
-        <v>1</v>
+        <v>0.57230000000000003</v>
       </c>
       <c r="G99" s="179">
         <f>+Q108</f>
-        <v>1</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="H99" s="179">
         <f>+Q110</f>
-        <v>1</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="I99" s="180"/>
       <c r="J99" s="160"/>
@@ -22388,17 +22066,20 @@
       </c>
       <c r="O99" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>528304.69808</v>
       </c>
       <c r="P99" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="Q99" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R99" s="173"/>
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="R99" s="173">
+        <f t="shared" si="5"/>
+        <v>189925.53895975999</v>
+      </c>
       <c r="S99" s="174"/>
       <c r="T99" s="174"/>
       <c r="U99" s="66"/>
@@ -22502,35 +22183,35 @@
     </row>
     <row r="100" spans="1:118" ht="19">
       <c r="A100" s="178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="179">
         <f>+Q97</f>
-        <v>1</v>
+        <v>0.28720000000000001</v>
       </c>
       <c r="C100" s="179">
         <f>+Q99</f>
-        <v>1</v>
+        <v>0.33929999999999999</v>
       </c>
       <c r="D100" s="179">
         <f>+Q104</f>
-        <v>1</v>
+        <v>0.45190000000000002</v>
       </c>
       <c r="E100" s="179">
         <f>+Q106</f>
-        <v>1</v>
+        <v>0.57230000000000003</v>
       </c>
       <c r="F100" s="179">
         <f>+Q108</f>
-        <v>1</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="G100" s="179">
         <f>+Q110</f>
-        <v>1</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="H100" s="179">
         <f>+Q113</f>
-        <v>1</v>
+        <v>0.6401</v>
       </c>
       <c r="I100" s="181">
         <f>+'[1]Calc Nodos Stock'!E22</f>
@@ -22541,21 +22222,24 @@
       <c r="L100" s="171"/>
       <c r="M100" s="172"/>
       <c r="N100" s="160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O100" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>94163.869506999996</v>
       </c>
       <c r="P100" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.3775</v>
       </c>
       <c r="Q100" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R100" s="173"/>
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="R100" s="173">
+        <f t="shared" si="5"/>
+        <v>35546.860738892501</v>
+      </c>
       <c r="S100" s="174"/>
       <c r="T100" s="174"/>
       <c r="U100" s="66"/>
@@ -22659,35 +22343,35 @@
     </row>
     <row r="101" spans="1:118" ht="28.5" customHeight="1">
       <c r="A101" s="178" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="179">
         <f>+Q96</f>
-        <v>1</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="C101" s="179">
         <f>+Q98</f>
-        <v>1</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="D101" s="179">
         <f>+Q103</f>
-        <v>1</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E101" s="179">
         <f>+Q105</f>
-        <v>1</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="F101" s="179">
         <f>+Q107</f>
-        <v>1</v>
+        <v>0.40310000000000001</v>
       </c>
       <c r="G101" s="179">
         <f>+Q109</f>
-        <v>1</v>
+        <v>0.48909999999999998</v>
       </c>
       <c r="H101" s="179">
         <f>+Q111</f>
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="I101" s="180"/>
       <c r="J101" s="160"/>
@@ -22699,17 +22383,20 @@
       </c>
       <c r="O101" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>34480.284368000001</v>
       </c>
       <c r="P101" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="Q101" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R101" s="190"/>
+        <v>0.40870000000000001</v>
+      </c>
+      <c r="R101" s="173">
+        <f t="shared" si="5"/>
+        <v>15460.959510611201</v>
+      </c>
       <c r="S101" s="174"/>
       <c r="T101" s="174"/>
       <c r="U101" s="66"/>
@@ -22826,21 +22513,24 @@
       <c r="L102" s="171"/>
       <c r="M102" s="172"/>
       <c r="N102" s="160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O102" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>416813.64674</v>
       </c>
       <c r="P102" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="Q102" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R102" s="190"/>
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="R102" s="173">
+        <f t="shared" si="5"/>
+        <v>151011.58421390201</v>
+      </c>
       <c r="S102" s="174"/>
       <c r="T102" s="174"/>
       <c r="U102" s="66"/>
@@ -22964,17 +22654,20 @@
       </c>
       <c r="O103" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>108297.44338</v>
       </c>
       <c r="P103" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="Q103" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R103" s="173"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="R103" s="173">
+        <f t="shared" si="5"/>
+        <v>6205.4435056739994</v>
+      </c>
       <c r="S103" s="174"/>
       <c r="T103" s="174"/>
       <c r="U103" s="66"/>
@@ -23078,39 +22771,39 @@
     </row>
     <row r="104" spans="1:118" ht="20" thickBot="1">
       <c r="A104" s="183" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="182">
         <f>+IF((B100-B101)&lt;&gt;0,(B100/B99)*(B99-B101)/(B100-B101),0)</f>
-        <v>0</v>
+        <v>0.97785634661939724</v>
       </c>
       <c r="C104" s="182">
-        <f t="shared" ref="C104:H104" si="6">+IF((C100-C101)&lt;&gt;0,(C100/C99)*(C99-C101)/(C100-C101),0)</f>
-        <v>0</v>
+        <f t="shared" ref="C104:H104" si="7">+IF((C100-C101)&lt;&gt;0,(C100/C99)*(C99-C101)/(C100-C101),0)</f>
+        <v>0.99827283132175637</v>
       </c>
       <c r="D104" s="182">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.99280559341130914</v>
       </c>
       <c r="E104" s="182">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.97370985949514344</v>
       </c>
       <c r="F104" s="182">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.92821902013442237</v>
       </c>
       <c r="G104" s="182">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.73647644131292256</v>
       </c>
       <c r="H104" s="182">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.99671772236502931</v>
       </c>
       <c r="I104" s="184">
         <f>+B104*C104*D104*E104*F104*G104*H104</f>
-        <v>0</v>
+        <v>0.64298315605996326</v>
       </c>
       <c r="J104" s="160"/>
       <c r="K104" s="160"/>
@@ -23121,17 +22814,20 @@
       </c>
       <c r="O104" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>323318.33656000003</v>
       </c>
       <c r="P104" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="Q104" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R104" s="173"/>
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="R104" s="173">
+        <f t="shared" si="5"/>
+        <v>150537.01750233601</v>
+      </c>
       <c r="S104" s="174"/>
       <c r="T104" s="174"/>
       <c r="U104" s="66"/>
@@ -23234,40 +22930,40 @@
       <c r="DN104" s="61"/>
     </row>
     <row r="105" spans="1:118" ht="20" thickBot="1">
-      <c r="A105" s="191" t="s">
-        <v>92</v>
-      </c>
-      <c r="B105" s="192">
+      <c r="A105" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="191">
         <f>O97/O95</f>
-        <v>1</v>
-      </c>
-      <c r="C105" s="192">
+        <v>0.37491001736061136</v>
+      </c>
+      <c r="C105" s="191">
         <f>+O99/O97</f>
-        <v>1</v>
-      </c>
-      <c r="D105" s="192">
+        <v>0.84503340141748173</v>
+      </c>
+      <c r="D105" s="191">
         <f>+O104/O102</f>
-        <v>1</v>
-      </c>
-      <c r="E105" s="192">
+        <v>0.77569038127410339</v>
+      </c>
+      <c r="E105" s="191">
         <f>+O106/O104</f>
-        <v>1</v>
-      </c>
-      <c r="F105" s="192">
+        <v>0.76883567370411066</v>
+      </c>
+      <c r="F105" s="191">
         <f>+O108/O106</f>
-        <v>1</v>
-      </c>
-      <c r="G105" s="192">
+        <v>0.89823676996484536</v>
+      </c>
+      <c r="G105" s="191">
         <f>+O110/O108</f>
-        <v>1</v>
-      </c>
-      <c r="H105" s="192">
+        <v>0.68080996762521861</v>
+      </c>
+      <c r="H105" s="191">
         <f>+O113/O110</f>
-        <v>1</v>
-      </c>
-      <c r="I105" s="192">
+        <v>0.99573093367656806</v>
+      </c>
+      <c r="I105" s="191">
         <f>+B105*C105*D105*E105*F105*G105*H105</f>
-        <v>1</v>
+        <v>0.11504866580773521</v>
       </c>
       <c r="J105" s="160"/>
       <c r="K105" s="160"/>
@@ -23278,17 +22974,20 @@
       </c>
       <c r="O105" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>74739.665452000001</v>
       </c>
       <c r="P105" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="Q105" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R105" s="173"/>
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="R105" s="173">
+        <f t="shared" si="5"/>
+        <v>6704.1479910444004</v>
+      </c>
       <c r="S105" s="174"/>
       <c r="T105" s="174"/>
       <c r="U105" s="66"/>
@@ -23409,17 +23108,20 @@
       </c>
       <c r="O106" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>248578.67111</v>
       </c>
       <c r="P106" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5786</v>
       </c>
       <c r="Q106" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R106" s="173"/>
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="R106" s="173">
+        <f t="shared" si="5"/>
+        <v>143827.619104246</v>
+      </c>
       <c r="S106" s="174"/>
       <c r="T106" s="174"/>
       <c r="U106" s="66"/>
@@ -23536,21 +23238,24 @@
       <c r="L107" s="171"/>
       <c r="M107" s="172"/>
       <c r="N107" s="160" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O107" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>25296.16849</v>
       </c>
       <c r="P107" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.40389999999999998</v>
       </c>
       <c r="Q107" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R107" s="173"/>
+        <v>0.40310000000000001</v>
+      </c>
+      <c r="R107" s="173">
+        <f t="shared" si="5"/>
+        <v>10217.122453111</v>
+      </c>
       <c r="S107" s="174"/>
       <c r="T107" s="174"/>
       <c r="U107" s="66"/>
@@ -23667,21 +23372,24 @@
       <c r="L108" s="171"/>
       <c r="M108" s="172"/>
       <c r="N108" s="160" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O108" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>223282.50262000001</v>
       </c>
       <c r="P108" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="Q108" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R108" s="173"/>
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="R108" s="173">
+        <f t="shared" si="5"/>
+        <v>133612.24956780803</v>
+      </c>
       <c r="S108" s="174"/>
       <c r="T108" s="174"/>
       <c r="U108" s="66"/>
@@ -23798,21 +23506,24 @@
       <c r="L109" s="171"/>
       <c r="M109" s="172"/>
       <c r="N109" s="160" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O109" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>71918.502619000006</v>
       </c>
       <c r="P109" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="Q109" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R109" s="173"/>
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="R109" s="173">
+        <f t="shared" si="5"/>
+        <v>35463.013641428901</v>
+      </c>
       <c r="S109" s="174"/>
       <c r="T109" s="174"/>
       <c r="U109" s="66"/>
@@ -23929,21 +23640,24 @@
       <c r="L110" s="171"/>
       <c r="M110" s="172"/>
       <c r="N110" s="160" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O110" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>152012.95337999999</v>
       </c>
       <c r="P110" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="Q110" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R110" s="173"/>
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="R110" s="173">
+        <f t="shared" si="5"/>
+        <v>98473.991199564</v>
+      </c>
       <c r="S110" s="174"/>
       <c r="T110" s="174"/>
       <c r="U110" s="66"/>
@@ -24055,7 +23769,7 @@
       <c r="G111" s="160"/>
       <c r="H111" s="160"/>
       <c r="I111" s="160"/>
-      <c r="J111" s="193"/>
+      <c r="J111" s="192"/>
       <c r="K111" s="166"/>
       <c r="L111" s="171"/>
       <c r="M111" s="172"/>
@@ -24064,17 +23778,20 @@
       </c>
       <c r="O111" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>648.95338264999998</v>
       </c>
       <c r="P111" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.4965</v>
       </c>
       <c r="Q111" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R111" s="173"/>
+        <v>0.48</v>
+      </c>
+      <c r="R111" s="173">
+        <f t="shared" si="5"/>
+        <v>322.20535448572497</v>
+      </c>
       <c r="S111" s="174"/>
       <c r="T111" s="174"/>
       <c r="U111" s="66"/>
@@ -24103,14 +23820,14 @@
       <c r="AR111" s="55"/>
     </row>
     <row r="112" spans="1:118" ht="19">
-      <c r="A112" s="193"/>
-      <c r="B112" s="193"/>
-      <c r="C112" s="193"/>
-      <c r="D112" s="193"/>
-      <c r="E112" s="193"/>
-      <c r="F112" s="193"/>
-      <c r="G112" s="193"/>
-      <c r="H112" s="193"/>
+      <c r="A112" s="192"/>
+      <c r="B112" s="192"/>
+      <c r="C112" s="192"/>
+      <c r="D112" s="192"/>
+      <c r="E112" s="192"/>
+      <c r="F112" s="192"/>
+      <c r="G112" s="192"/>
+      <c r="H112" s="192"/>
       <c r="I112" s="171"/>
       <c r="J112" s="160"/>
       <c r="K112" s="160"/>
@@ -24121,17 +23838,20 @@
       </c>
       <c r="O112" s="171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112" s="172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="172">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R112" s="173"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="173">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="S112" s="174"/>
       <c r="T112" s="174"/>
       <c r="U112" s="66"/>
@@ -24251,18 +23971,21 @@
         <v>26</v>
       </c>
       <c r="O113" s="171">
-        <f t="shared" ref="O113:O120" si="7">A46</f>
-        <v>1</v>
+        <f t="shared" ref="O113:O120" si="8">A46</f>
+        <v>151364</v>
       </c>
       <c r="P113" s="172">
-        <f t="shared" ref="P113:P120" si="8">B46</f>
-        <v>1</v>
+        <f t="shared" ref="P113:P120" si="9">B46</f>
+        <v>0.64839999999999998</v>
       </c>
       <c r="Q113" s="172">
-        <f t="shared" ref="Q113:Q120" si="9">C46</f>
-        <v>1</v>
-      </c>
-      <c r="R113" s="173"/>
+        <f t="shared" ref="Q113:Q120" si="10">C46</f>
+        <v>0.6401</v>
+      </c>
+      <c r="R113" s="173">
+        <f t="shared" si="5"/>
+        <v>98144.417600000001</v>
+      </c>
       <c r="S113" s="174"/>
       <c r="T113" s="174"/>
       <c r="U113" s="66"/>
@@ -24376,24 +24099,27 @@
       <c r="I114" s="160"/>
       <c r="J114" s="160"/>
       <c r="K114" s="160"/>
-      <c r="L114" s="194"/>
+      <c r="L114" s="193"/>
       <c r="M114" s="172"/>
       <c r="N114" s="160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O114" s="171">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1513678.9513999999</v>
       </c>
       <c r="P114" s="172">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q114" s="172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R114" s="173"/>
+        <f t="shared" si="10"/>
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="R114" s="173">
+        <f t="shared" si="5"/>
+        <v>154395.25304279997</v>
+      </c>
       <c r="S114" s="174"/>
       <c r="T114" s="174"/>
       <c r="U114" s="66"/>
@@ -24507,24 +24233,27 @@
       <c r="I115" s="160"/>
       <c r="J115" s="160"/>
       <c r="K115" s="160"/>
-      <c r="L115" s="194"/>
+      <c r="L115" s="193"/>
       <c r="M115" s="172"/>
       <c r="N115" s="160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O115" s="171">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>14802.1332</v>
       </c>
       <c r="P115" s="172">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0.38640000000000002</v>
       </c>
       <c r="Q115" s="172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R115" s="173"/>
+        <f t="shared" si="10"/>
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="R115" s="173">
+        <f t="shared" si="5"/>
+        <v>5719.54426848</v>
+      </c>
       <c r="S115" s="174"/>
       <c r="T115" s="174"/>
       <c r="U115" s="66"/>
@@ -24638,24 +24367,27 @@
       <c r="I116" s="160"/>
       <c r="J116" s="160"/>
       <c r="K116" s="160"/>
-      <c r="L116" s="194"/>
+      <c r="L116" s="193"/>
       <c r="M116" s="172"/>
       <c r="N116" s="160" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O116" s="171">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>51807.466200000003</v>
       </c>
       <c r="P116" s="172">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0.3639</v>
       </c>
       <c r="Q116" s="172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R116" s="173"/>
+        <f t="shared" si="10"/>
+        <v>0.35010000000000002</v>
+      </c>
+      <c r="R116" s="173">
+        <f t="shared" si="5"/>
+        <v>18852.736950180002</v>
+      </c>
       <c r="S116" s="174"/>
       <c r="T116" s="174"/>
       <c r="U116" s="66"/>
@@ -24769,24 +24501,27 @@
       <c r="I117" s="160"/>
       <c r="J117" s="160"/>
       <c r="K117" s="160"/>
-      <c r="L117" s="194"/>
+      <c r="L117" s="193"/>
       <c r="M117" s="172"/>
       <c r="N117" s="160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O117" s="171">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>476497.23187999998</v>
       </c>
       <c r="P117" s="172">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0.35909999999999997</v>
       </c>
       <c r="Q117" s="172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R117" s="173"/>
+        <f t="shared" si="10"/>
+        <v>0.3382</v>
+      </c>
+      <c r="R117" s="173">
+        <f t="shared" si="5"/>
+        <v>171110.15596810798</v>
+      </c>
       <c r="S117" s="174"/>
       <c r="T117" s="174"/>
       <c r="U117" s="66"/>
@@ -24900,21 +24635,12 @@
       <c r="I118" s="160"/>
       <c r="J118" s="160"/>
       <c r="K118" s="160"/>
-      <c r="L118" s="194"/>
+      <c r="L118" s="193"/>
       <c r="M118" s="172"/>
       <c r="N118" s="160"/>
-      <c r="O118" s="171">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P118" s="172">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q118" s="172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+      <c r="O118" s="171"/>
+      <c r="P118" s="172"/>
+      <c r="Q118" s="172"/>
       <c r="R118" s="173"/>
       <c r="S118" s="174"/>
       <c r="T118" s="174"/>
@@ -25029,21 +24755,12 @@
       <c r="I119" s="160"/>
       <c r="J119" s="160"/>
       <c r="K119" s="160"/>
-      <c r="L119" s="194"/>
+      <c r="L119" s="193"/>
       <c r="M119" s="172"/>
       <c r="N119" s="160"/>
-      <c r="O119" s="171">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P119" s="172">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q119" s="172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+      <c r="O119" s="171"/>
+      <c r="P119" s="172"/>
+      <c r="Q119" s="172"/>
       <c r="R119" s="173"/>
       <c r="S119" s="174"/>
       <c r="T119" s="174"/>
@@ -25158,21 +24875,12 @@
       <c r="I120" s="171"/>
       <c r="J120" s="160"/>
       <c r="K120" s="160"/>
-      <c r="L120" s="194"/>
+      <c r="L120" s="193"/>
       <c r="M120" s="172"/>
       <c r="N120" s="160"/>
-      <c r="O120" s="171">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P120" s="172">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Q120" s="172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+      <c r="O120" s="171"/>
+      <c r="P120" s="172"/>
+      <c r="Q120" s="172"/>
       <c r="R120" s="173"/>
       <c r="S120" s="174"/>
       <c r="T120" s="174"/>
@@ -25887,11 +25595,11 @@
       <c r="I126" s="63"/>
       <c r="J126" s="63"/>
       <c r="K126" s="72"/>
-      <c r="L126" s="196"/>
-      <c r="M126" s="196"/>
+      <c r="L126" s="195"/>
+      <c r="M126" s="195"/>
       <c r="N126" s="63"/>
-      <c r="O126" s="196"/>
-      <c r="P126" s="196"/>
+      <c r="O126" s="195"/>
+      <c r="P126" s="195"/>
       <c r="Q126" s="63"/>
       <c r="R126" s="63"/>
       <c r="S126" s="64"/>
@@ -26014,9 +25722,9 @@
       <c r="P127" s="74"/>
       <c r="Q127" s="75"/>
       <c r="R127" s="75"/>
-      <c r="S127" s="197"/>
-      <c r="T127" s="197"/>
-      <c r="U127" s="197"/>
+      <c r="S127" s="196"/>
+      <c r="T127" s="196"/>
+      <c r="U127" s="196"/>
       <c r="V127" s="64"/>
       <c r="W127" s="64"/>
       <c r="X127" s="64"/>
@@ -32007,8 +31715,8 @@
       <c r="I177" s="61"/>
       <c r="J177" s="61"/>
       <c r="K177" s="73"/>
-      <c r="L177" s="198"/>
-      <c r="M177" s="198"/>
+      <c r="L177" s="197"/>
+      <c r="M177" s="197"/>
       <c r="N177" s="75"/>
       <c r="O177" s="75"/>
       <c r="P177" s="75"/>
@@ -47621,8 +47329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T62" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -47630,7 +47338,10 @@
     <col min="2" max="2" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.5" customWidth="1"/>
     <col min="22" max="22" width="25.5" customWidth="1"/>
     <col min="23" max="23" width="13.83203125" customWidth="1"/>
@@ -47670,7 +47381,7 @@
       <c r="B5" s="11"/>
       <c r="K5" s="13">
         <f>+Utilidad!O95</f>
-        <v>1</v>
+        <v>1667568</v>
       </c>
       <c r="R5" s="12"/>
     </row>
@@ -47678,7 +47389,7 @@
       <c r="B6" s="11"/>
       <c r="K6" s="14">
         <f>+Utilidad!P95</f>
-        <v>1</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="R6" s="12"/>
     </row>
@@ -47686,19 +47397,19 @@
       <c r="B7" s="11"/>
       <c r="F7" s="62"/>
       <c r="H7" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="15">
-        <f>+Utilidad!Q95</f>
-        <v>1</v>
+        <f>+Utilidad!R95</f>
+        <v>250301.95680000001</v>
       </c>
       <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="11"/>
       <c r="H8" s="19">
-        <f>Flujos!B11</f>
-        <v>1</v>
+        <f>Utilidad!O78</f>
+        <v>24274.569074999999</v>
       </c>
       <c r="R8" s="12"/>
     </row>
@@ -47706,15 +47417,15 @@
       <c r="B9" s="11"/>
       <c r="C9" s="16">
         <f>Utilidad!O68</f>
-        <v>1</v>
+        <v>13202.36645</v>
       </c>
       <c r="H9" s="15">
-        <f>Flujos!B11*Flujos!C11</f>
-        <v>1</v>
+        <f>Utilidad!R78</f>
+        <v>8651.456418329999</v>
       </c>
       <c r="N9" s="13">
         <f>+Utilidad!O96</f>
-        <v>1</v>
+        <v>1042380.0522</v>
       </c>
       <c r="R9" s="12"/>
     </row>
@@ -47722,31 +47433,31 @@
       <c r="B10" s="11"/>
       <c r="C10" s="17">
         <f>Utilidad!P68</f>
-        <v>1</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="N10" s="14">
         <f>+Utilidad!P96</f>
-        <v>1</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="11"/>
       <c r="C11" s="18">
-        <f>Utilidad!Q68</f>
-        <v>1</v>
+        <f>Utilidad!R68</f>
+        <v>7735.2665030549997</v>
       </c>
       <c r="F11" s="13">
         <f>Utilidad!O70</f>
-        <v>1</v>
+        <v>6423.5110500000001</v>
       </c>
       <c r="K11" s="13">
         <f>+Utilidad!O97</f>
-        <v>1</v>
+        <v>625187.94782999996</v>
       </c>
       <c r="N11" s="15">
-        <f>+Utilidad!Q96</f>
-        <v>1</v>
+        <f>+Utilidad!R96</f>
+        <v>54620.714735280002</v>
       </c>
       <c r="R11" s="12"/>
     </row>
@@ -47754,31 +47465,36 @@
       <c r="B12" s="11"/>
       <c r="E12" s="19">
         <f>+Utilidad!O69</f>
-        <v>1</v>
+        <v>6778.8554000000004</v>
       </c>
       <c r="F12" s="14">
-        <f>Utilidad!P69</f>
-        <v>1</v>
-      </c>
+        <f>Utilidad!P70</f>
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="K12" s="14">
         <f>+Utilidad!P97</f>
-        <v>1</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="R12" s="12"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="11"/>
       <c r="E13" s="15">
-        <f>+Utilidad!Q69</f>
-        <v>1</v>
+        <f>+Utilidad!R69</f>
+        <v>3987.32274628</v>
+      </c>
+      <c r="F13" s="15">
+        <f>Utilidad!R70</f>
+        <v>3747.4763465700003</v>
       </c>
       <c r="H13" s="23">
         <f>Flujos!B10</f>
-        <v>1</v>
+        <v>37005.332999999999</v>
       </c>
       <c r="K13" s="15">
-        <f>+Utilidad!Q97</f>
-        <v>1</v>
+        <f>+Utilidad!R97</f>
+        <v>195558.790081224</v>
       </c>
       <c r="R13" s="12"/>
     </row>
@@ -47786,81 +47502,93 @@
       <c r="B14" s="11"/>
       <c r="H14" s="7">
         <f>Flujos!C10</f>
-        <v>1</v>
+        <v>0.35489999999999999</v>
       </c>
       <c r="L14" s="13">
         <f>+Utilidad!O98</f>
-        <v>1</v>
+        <v>96883.249754000004</v>
       </c>
       <c r="R14" s="12"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="11"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="24">
+        <f>H13*H14</f>
+        <v>13133.192681699999</v>
+      </c>
       <c r="L15" s="14">
         <f>+Utilidad!P98</f>
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="R15" s="20">
-        <f>+N9+L14+L29+L36+L41+N45</f>
-        <v>6</v>
+        <f>+N9+L14+L29+L36+L41+N45+L22</f>
+        <v>1513678.9514020002</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="11"/>
       <c r="H16" s="24"/>
       <c r="L16" s="15">
-        <f>+Utilidad!Q98</f>
-        <v>1</v>
+        <f>+Utilidad!R98</f>
+        <v>5619.2284857320001</v>
       </c>
       <c r="R16" s="21">
-        <f>+IF(R15&lt;&gt;0,(N9*N10+L14*L15+L29*L30+L36*L37+L41*L42+N45*N46)/R15,0)</f>
-        <v>1</v>
+        <f>+IF(R15&lt;&gt;0,(N9*N10+L14*L15+L29*L30+L36*L37+L41*L42+N45*N46+L22*L23)/R15,0)</f>
+        <v>0.10198763179482423</v>
       </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="11"/>
+      <c r="C17" s="2"/>
       <c r="G17" s="24"/>
       <c r="K17" s="13">
         <f>+Utilidad!O99</f>
-        <v>1</v>
+        <v>528304.69808</v>
       </c>
       <c r="R17" s="22">
-        <f>+N11+L16+L31+L38+L43+N47</f>
-        <v>6</v>
+        <f>R15*R16</f>
+        <v>154376.53155116283</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="11"/>
+      <c r="G18" s="23">
+        <f>Flujos!B12</f>
+        <v>12730.763924999999</v>
+      </c>
       <c r="I18" s="23">
-        <f>Flujos!B49</f>
-        <v>1</v>
+        <f>Utilidad!O116</f>
+        <v>51807.466200000003</v>
       </c>
       <c r="K18" s="14">
         <f>+Utilidad!P99</f>
-        <v>1</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="11"/>
+      <c r="G19" s="7">
+        <f>Flujos!C12</f>
+        <v>0.35210000000000002</v>
+      </c>
       <c r="I19" s="7">
-        <f>Flujos!C49</f>
-        <v>1</v>
+        <f>Utilidad!P116</f>
+        <v>0.3639</v>
       </c>
       <c r="K19" s="15"/>
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="11"/>
-      <c r="G20" s="23">
-        <f>Flujos!B12</f>
-        <v>1</v>
+      <c r="G20" s="24">
+        <f>G18*G19</f>
+        <v>4482.5019779924996</v>
       </c>
       <c r="I20" s="24"/>
       <c r="K20" s="13">
-        <f>Flujos!B50</f>
-        <v>1</v>
+        <f>Utilidad!O117</f>
+        <v>476497.23187999998</v>
       </c>
       <c r="R20" s="12"/>
     </row>
@@ -47868,15 +47596,11 @@
       <c r="B21" s="11"/>
       <c r="C21" s="16">
         <f>+Utilidad!O71</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <f>Flujos!C12</f>
-        <v>1</v>
+        <v>7852.2802756999999</v>
       </c>
       <c r="K21" s="14">
-        <f>Flujos!C50</f>
-        <v>1</v>
+        <f>Utilidad!P117</f>
+        <v>0.35909999999999997</v>
       </c>
       <c r="R21" s="12"/>
     </row>
@@ -47884,74 +47608,90 @@
       <c r="B22" s="11"/>
       <c r="C22" s="17">
         <f>+Utilidad!P71</f>
-        <v>1</v>
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="L22" s="13">
+        <f>+Utilidad!O100</f>
+        <v>94163.869506999996</v>
       </c>
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="11"/>
       <c r="C23" s="18">
-        <f>C21*C22</f>
-        <v>1</v>
+        <f>+Utilidad!R71</f>
+        <v>3403.1782714883802</v>
       </c>
       <c r="F23" s="13">
         <f>Utilidad!O73</f>
-        <v>1</v>
-      </c>
-      <c r="R23" s="12"/>
+        <v>1155.9128879</v>
+      </c>
+      <c r="L23" s="14">
+        <f>+Utilidad!P100</f>
+        <v>0.3775</v>
+      </c>
+      <c r="R23" s="12">
+        <f>R16*R17</f>
+        <v>15744.49685760206</v>
+      </c>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="11"/>
       <c r="E24" s="19">
         <f>+Utilidad!O72</f>
-        <v>1</v>
+        <v>6696.3673878</v>
       </c>
       <c r="F24" s="14">
         <f>Utilidad!P73</f>
-        <v>1</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="G24" s="23">
         <f>+Utilidad!O101</f>
-        <v>1</v>
+        <v>34480.284368000001</v>
       </c>
       <c r="I24" s="23"/>
       <c r="K24" s="13">
         <f>Utilidad!O102</f>
-        <v>1</v>
+        <v>416813.64674</v>
+      </c>
+      <c r="L24" s="15">
+        <f>+Utilidad!R100</f>
+        <v>35546.860738892501</v>
       </c>
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="11"/>
       <c r="E25" s="15">
-        <f>+Utilidad!Q72</f>
-        <v>1</v>
+        <f>+Utilidad!R72</f>
+        <v>2902.2056258725202</v>
       </c>
       <c r="F25" s="15">
-        <f>Utilidad!Q73</f>
-        <v>1</v>
+        <f>Utilidad!R73</f>
+        <v>500.39468917190999</v>
       </c>
       <c r="G25" s="7">
         <f>+Utilidad!P101</f>
-        <v>1</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="I25" s="7"/>
       <c r="K25" s="14">
         <f>Utilidad!P102</f>
-        <v>1</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="R25" s="12"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="11"/>
+      <c r="C26" s="2"/>
       <c r="G26" s="24">
-        <f>+Utilidad!Q101</f>
-        <v>1</v>
+        <f>+Utilidad!R101</f>
+        <v>15460.959510611201</v>
       </c>
       <c r="I26" s="24"/>
       <c r="K26" s="15">
-        <f>Utilidad!Q102</f>
-        <v>1</v>
+        <f>Utilidad!R102</f>
+        <v>151011.58421390201</v>
       </c>
       <c r="R26" s="12"/>
     </row>
@@ -47968,11 +47708,11 @@
       <c r="B29" s="11"/>
       <c r="H29" s="23">
         <f>Flujos!B48</f>
-        <v>1</v>
+        <v>14802.1332</v>
       </c>
       <c r="L29" s="13">
         <f>+Utilidad!O103</f>
-        <v>1</v>
+        <v>108297.44338</v>
       </c>
       <c r="N29" s="2"/>
       <c r="R29" s="12"/>
@@ -47981,11 +47721,11 @@
       <c r="B30" s="11"/>
       <c r="H30" s="7">
         <f>Flujos!C48</f>
-        <v>1</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="L30" s="14">
         <f>+Utilidad!P103</f>
-        <v>1</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="R30" s="12"/>
     </row>
@@ -47993,16 +47733,16 @@
       <c r="B31" s="11"/>
       <c r="C31" s="16">
         <f>+Utilidad!O74</f>
-        <v>1</v>
+        <v>2893.7873199999999</v>
       </c>
       <c r="H31" s="23"/>
       <c r="K31" s="13">
         <f>+Utilidad!O104</f>
-        <v>1</v>
+        <v>323318.33656000003</v>
       </c>
       <c r="L31" s="15">
-        <f>+Utilidad!Q103</f>
-        <v>1</v>
+        <f>+Utilidad!R103</f>
+        <v>6205.4435056739994</v>
       </c>
       <c r="R31" s="12"/>
     </row>
@@ -48010,27 +47750,28 @@
       <c r="B32" s="11"/>
       <c r="C32" s="17">
         <f>+Utilidad!P74</f>
-        <v>1</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="K32" s="14">
         <f>+Utilidad!P104</f>
-        <v>1</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="R32" s="12"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="11"/>
       <c r="C33" s="18">
-        <f>+Utilidad!Q74</f>
-        <v>1</v>
+        <f>+Utilidad!R74</f>
+        <v>1355.73935942</v>
       </c>
       <c r="F33" s="13">
         <f>+Utilidad!O76</f>
-        <v>1</v>
-      </c>
+        <v>6965.6073299999998</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="K33" s="15">
-        <f>+Utilidad!Q104</f>
-        <v>1</v>
+        <f>+Utilidad!R104</f>
+        <v>150537.01750233601</v>
       </c>
       <c r="R33" s="12"/>
     </row>
@@ -48038,31 +47779,33 @@
       <c r="B34" s="11"/>
       <c r="E34" s="19">
         <f>+Utilidad!O75</f>
-        <v>1</v>
+        <v>-4071.8200099999999</v>
       </c>
       <c r="F34" s="14">
         <f>+Utilidad!P76</f>
-        <v>1</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="R34" s="12"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="11"/>
+      <c r="C35" s="2"/>
       <c r="E35" s="15">
-        <f>+Utilidad!Q75</f>
-        <v>1</v>
+        <f>+Utilidad!R75</f>
+        <v>-1906.018946681</v>
       </c>
       <c r="F35" s="15">
-        <f>+Utilidad!Q76</f>
-        <v>1</v>
+        <f>+Utilidad!R76</f>
+        <v>3261.993912639</v>
       </c>
       <c r="R35" s="12"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="11"/>
+      <c r="H36" s="2"/>
       <c r="L36" s="13">
         <f>+Utilidad!O105</f>
-        <v>1</v>
+        <v>74739.665452000001</v>
       </c>
       <c r="R36" s="12"/>
     </row>
@@ -48070,7 +47813,7 @@
       <c r="B37" s="11"/>
       <c r="L37" s="14">
         <f>+Utilidad!P105</f>
-        <v>1</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="R37" s="12"/>
     </row>
@@ -48078,11 +47821,11 @@
       <c r="B38" s="11"/>
       <c r="K38" s="13">
         <f>+Utilidad!O106</f>
-        <v>1</v>
+        <v>248578.67111</v>
       </c>
       <c r="L38" s="15">
-        <f>+Utilidad!Q105</f>
-        <v>1</v>
+        <f>+Utilidad!R105</f>
+        <v>6704.1479910444004</v>
       </c>
       <c r="R38" s="12"/>
     </row>
@@ -48090,99 +47833,75 @@
       <c r="B39" s="11"/>
       <c r="K39" s="14">
         <f>+Utilidad!P106</f>
-        <v>1</v>
+        <v>0.5786</v>
       </c>
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="11"/>
       <c r="K40" s="15">
-        <f>+Utilidad!Q106</f>
-        <v>1</v>
+        <f>+Utilidad!R106</f>
+        <v>143827.619104246</v>
       </c>
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="11"/>
-      <c r="C41" s="16">
-        <f>+Utilidad!O77</f>
-        <v>1</v>
-      </c>
+      <c r="C41" s="16"/>
       <c r="L41" s="13">
         <f>+Utilidad!O107</f>
-        <v>1</v>
+        <v>25296.16849</v>
       </c>
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="11"/>
-      <c r="C42" s="17">
-        <f>+Utilidad!P77</f>
-        <v>1</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="L42" s="14">
         <f>+Utilidad!P107</f>
-        <v>1</v>
+        <v>0.40389999999999998</v>
       </c>
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="11"/>
-      <c r="C43" s="18">
-        <f>+Utilidad!Q77</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="13">
-        <f>+Utilidad!O79</f>
-        <v>1</v>
-      </c>
+      <c r="C43" s="18"/>
+      <c r="F43" s="13"/>
       <c r="L43" s="15">
-        <f>+Utilidad!Q107</f>
-        <v>1</v>
+        <f>+Utilidad!R107</f>
+        <v>10217.122453111</v>
       </c>
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="2:18">
       <c r="B44" s="11"/>
-      <c r="E44" s="19">
-        <f>+Utilidad!O78</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="14">
-        <f>+Utilidad!P79</f>
-        <v>1</v>
-      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="14"/>
       <c r="K44" s="50">
         <f>K38-L41</f>
-        <v>0</v>
+        <v>223282.50261999998</v>
       </c>
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="2:18">
       <c r="B45" s="11"/>
-      <c r="E45" s="15">
-        <f>+Utilidad!Q78</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="15">
-        <f>+Utilidad!Q79</f>
-        <v>1</v>
-      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
       <c r="I45" s="13">
         <f>Utilidad!O111</f>
-        <v>1</v>
+        <v>648.95338264999998</v>
       </c>
       <c r="K45" s="3">
         <f>Utilidad!P108</f>
-        <v>1</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="L45" s="15">
         <f>K44*K45</f>
-        <v>0</v>
+        <v>133612.249567808</v>
       </c>
       <c r="N45" s="13">
         <f>Utilidad!O109</f>
-        <v>1</v>
+        <v>71918.502619000006</v>
       </c>
       <c r="R45" s="12"/>
     </row>
@@ -48190,23 +47909,23 @@
       <c r="B46" s="11"/>
       <c r="I46" s="14">
         <f>Utilidad!P111</f>
-        <v>1</v>
+        <v>0.4965</v>
       </c>
       <c r="N46" s="14">
         <f>Utilidad!P109</f>
-        <v>1</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="2:18">
       <c r="B47" s="11"/>
       <c r="I47" s="15">
-        <f>Utilidad!Q111</f>
-        <v>1</v>
+        <f>Utilidad!R111</f>
+        <v>322.20535448572497</v>
       </c>
       <c r="N47" s="15">
-        <f>N45*N46</f>
-        <v>1</v>
+        <f>Utilidad!R109</f>
+        <v>35463.013641428901</v>
       </c>
       <c r="R47" s="12"/>
     </row>
@@ -48218,15 +47937,15 @@
       <c r="B49" s="11"/>
       <c r="K49" s="13">
         <f>Utilidad!O110</f>
-        <v>1</v>
+        <v>152012.95337999999</v>
       </c>
       <c r="L49" s="14">
         <f>Utilidad!P110</f>
-        <v>1</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="M49" s="15">
         <f>K49*L49</f>
-        <v>1</v>
+        <v>98473.991199564</v>
       </c>
       <c r="R49" s="12"/>
     </row>
@@ -48239,7 +47958,7 @@
       <c r="B51" s="11"/>
       <c r="C51" s="16">
         <f>+Utilidad!O80</f>
-        <v>1</v>
+        <v>4912.6787609000003</v>
       </c>
       <c r="R51" s="12"/>
     </row>
@@ -48247,19 +47966,19 @@
       <c r="B52" s="11"/>
       <c r="C52" s="17">
         <f>+Utilidad!P80</f>
-        <v>1</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="R52" s="12"/>
     </row>
     <row r="53" spans="2:25">
       <c r="B53" s="11"/>
       <c r="C53" s="18">
-        <f>+Utilidad!Q80</f>
-        <v>1</v>
+        <f>+Utilidad!R80</f>
+        <v>2534.9422406244003</v>
       </c>
       <c r="F53" s="13">
         <f>+Utilidad!O82</f>
-        <v>1</v>
+        <v>2315.4829215999998</v>
       </c>
       <c r="R53" s="12"/>
     </row>
@@ -48267,66 +47986,70 @@
       <c r="B54" s="11"/>
       <c r="E54" s="19">
         <f>+Utilidad!O81</f>
-        <v>1</v>
+        <v>2597.1958393</v>
       </c>
       <c r="F54" s="14">
         <f>+Utilidad!P82</f>
-        <v>1</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="H54" s="13">
         <f>+Utilidad!O94</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="13">
         <f>+Utilidad!O92</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="12"/>
     </row>
     <row r="55" spans="2:25" ht="16">
       <c r="B55" s="11"/>
+      <c r="C55" s="2">
+        <f>C53-E55</f>
+        <v>1192.9711504580901</v>
+      </c>
       <c r="E55" s="15">
-        <f>+Utilidad!Q81</f>
-        <v>1</v>
+        <f>+Utilidad!R81</f>
+        <v>1341.9710901663102</v>
       </c>
       <c r="F55" s="15">
-        <f>+Utilidad!Q82</f>
-        <v>1</v>
+        <f>+Utilidad!R82</f>
+        <v>1192.9368012083198</v>
       </c>
       <c r="H55" s="14">
         <f>+Utilidad!P94</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="14">
         <f>+Utilidad!P92</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="12"/>
       <c r="T55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:25" ht="19">
       <c r="B56" s="11"/>
       <c r="H56" s="15">
-        <f>+Utilidad!Q94</f>
-        <v>1</v>
+        <f>+Utilidad!R94</f>
+        <v>0</v>
       </c>
       <c r="J56" s="15">
-        <f>+Utilidad!Q92</f>
-        <v>1</v>
+        <f>+Utilidad!R92</f>
+        <v>0</v>
       </c>
       <c r="R56" s="12"/>
       <c r="T56" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U56" s="44"/>
       <c r="V56" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W56" s="40"/>
       <c r="X56" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y56" s="41"/>
     </row>
@@ -48338,21 +48061,21 @@
       </c>
       <c r="U57" s="28">
         <f>+K5</f>
-        <v>1</v>
+        <v>1667568</v>
       </c>
       <c r="V57" s="43" t="s">
         <v>3</v>
       </c>
       <c r="W57" s="29">
         <f>+E12</f>
-        <v>1</v>
+        <v>6778.8554000000004</v>
       </c>
       <c r="X57" s="37" t="s">
         <v>26</v>
       </c>
       <c r="Y57" s="29">
         <f>+L60</f>
-        <v>1</v>
+        <v>151364</v>
       </c>
     </row>
     <row r="58" spans="2:25" ht="16">
@@ -48366,31 +48089,31 @@
       </c>
       <c r="U58" s="28">
         <f>+C9</f>
-        <v>1</v>
+        <v>13202.36645</v>
       </c>
       <c r="V58" s="43" t="s">
         <v>4</v>
       </c>
       <c r="W58" s="29">
         <f>+E24</f>
-        <v>1</v>
+        <v>6696.3673878</v>
       </c>
       <c r="X58" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y58" s="29">
         <f>+R15</f>
-        <v>6</v>
+        <v>1513678.9514020002</v>
       </c>
     </row>
     <row r="59" spans="2:25" ht="14.5" customHeight="1">
       <c r="B59" s="11"/>
       <c r="C59" s="16">
         <f>+Utilidad!O83</f>
-        <v>1</v>
+        <v>3667.1989233999998</v>
       </c>
       <c r="L59" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="R59" s="12"/>
       <c r="T59" s="43" t="s">
@@ -48398,14 +48121,14 @@
       </c>
       <c r="U59" s="28">
         <f>+C21</f>
-        <v>1</v>
+        <v>7852.2802756999999</v>
       </c>
       <c r="V59" t="s">
         <v>7</v>
       </c>
       <c r="W59" s="29">
         <f>+E34</f>
-        <v>1</v>
+        <v>-4071.8200099999999</v>
       </c>
       <c r="X59" s="38"/>
       <c r="Y59" s="29"/>
@@ -48414,15 +48137,15 @@
       <c r="B60" s="11"/>
       <c r="C60" s="17">
         <f>+Utilidad!P83</f>
-        <v>1</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="F60" s="13">
         <f>+Utilidad!O85</f>
-        <v>1</v>
+        <v>2521.3824411000001</v>
       </c>
       <c r="L60" s="13">
         <f>Utilidad!O113</f>
-        <v>1</v>
+        <v>151364</v>
       </c>
       <c r="R60" s="12"/>
       <c r="T60" s="43" t="s">
@@ -48430,14 +48153,14 @@
       </c>
       <c r="U60" s="28">
         <f>+C31</f>
-        <v>1</v>
+        <v>2893.7873199999999</v>
       </c>
       <c r="V60" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W60" s="29">
-        <f>+E44</f>
-        <v>1</v>
+        <f>H8</f>
+        <v>24274.569074999999</v>
       </c>
       <c r="X60" s="38"/>
       <c r="Y60" s="29"/>
@@ -48445,39 +48168,36 @@
     <row r="61" spans="2:25" ht="18" customHeight="1">
       <c r="B61" s="11"/>
       <c r="C61" s="18">
-        <f>+Utilidad!Q83</f>
-        <v>1</v>
+        <f>+Utilidad!R83</f>
+        <v>1547.9246655671398</v>
       </c>
       <c r="E61" s="19">
         <f>+Utilidad!O84</f>
-        <v>1</v>
+        <v>1145.8164823</v>
       </c>
       <c r="F61" s="14">
         <f>+Utilidad!P85</f>
-        <v>1</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="H61" s="19">
         <f>+Utilidad!O93</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="14">
         <f>Utilidad!P113</f>
-        <v>1</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="R61" s="12"/>
-      <c r="T61" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="U61" s="28">
-        <f>+C41</f>
-        <v>1</v>
-      </c>
+      <c r="T61" s="299" t="s">
+        <v>96</v>
+      </c>
+      <c r="U61" s="28"/>
       <c r="V61" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W61" s="29">
         <f>+E54</f>
-        <v>1</v>
+        <v>2597.1958393</v>
       </c>
       <c r="X61" s="36"/>
       <c r="Y61" s="29"/>
@@ -48485,56 +48205,60 @@
     <row r="62" spans="2:25" ht="14.5" customHeight="1">
       <c r="B62" s="11"/>
       <c r="E62" s="15">
-        <f>+Utilidad!Q84</f>
-        <v>1</v>
+        <f>+Utilidad!R84</f>
+        <v>484.45120871644002</v>
       </c>
       <c r="F62" s="15">
-        <f>+Utilidad!Q85</f>
-        <v>1</v>
+        <f>+Utilidad!R85</f>
+        <v>1063.5191136559799</v>
       </c>
       <c r="H62" s="15">
-        <f>+Utilidad!Q93</f>
-        <v>1</v>
+        <f>+Utilidad!R93</f>
+        <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f>L60*L61</f>
-        <v>1</v>
+        <f>Utilidad!R113</f>
+        <v>98144.417600000001</v>
       </c>
       <c r="R62" s="12"/>
       <c r="T62" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U62" s="28">
         <f>+C51</f>
-        <v>1</v>
+        <v>4912.6787609000003</v>
       </c>
       <c r="V62" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W62" s="29">
         <f>+E61</f>
-        <v>1</v>
+        <v>1145.8164823</v>
       </c>
       <c r="X62" s="37"/>
       <c r="Y62" s="29"/>
     </row>
     <row r="63" spans="2:25" ht="14.5" customHeight="1">
       <c r="B63" s="11"/>
+      <c r="C63" s="2">
+        <f>C61-E62</f>
+        <v>1063.4734568506997</v>
+      </c>
       <c r="L63" s="15"/>
       <c r="R63" s="12"/>
       <c r="T63" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U63" s="28">
         <f>+C59</f>
-        <v>1</v>
+        <v>3667.1989233999998</v>
       </c>
       <c r="V63" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W63" s="29">
         <f>+E69</f>
-        <v>1</v>
+        <v>-1199.0246399</v>
       </c>
       <c r="X63" s="37"/>
       <c r="Y63" s="29"/>
@@ -48544,18 +48268,18 @@
       <c r="L64" s="15"/>
       <c r="R64" s="12"/>
       <c r="T64" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U64" s="28">
         <f>+C66</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W64" s="29">
         <f>+E76</f>
-        <v>1</v>
+        <v>2109.2036739999999</v>
       </c>
       <c r="X64" s="37"/>
       <c r="Y64" s="29"/>
@@ -48563,24 +48287,21 @@
     <row r="65" spans="2:27" ht="16">
       <c r="B65" s="11"/>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L65" s="15"/>
       <c r="R65" s="12"/>
       <c r="T65" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U65" s="28">
         <f>+C73</f>
-        <v>1</v>
-      </c>
-      <c r="V65" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="W65" s="29">
-        <f>H8</f>
-        <v>1</v>
-      </c>
+        <v>3277.8028466000001</v>
+      </c>
+      <c r="V65" s="300" t="s">
+        <v>100</v>
+      </c>
+      <c r="W65" s="29"/>
       <c r="X65" s="38"/>
       <c r="Y65" s="29"/>
     </row>
@@ -48588,43 +48309,43 @@
       <c r="B66" s="11"/>
       <c r="C66" s="16">
         <f>+Utilidad!O86</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="13">
         <f>+Utilidad!O88</f>
-        <v>1</v>
+        <v>1199.0246399</v>
       </c>
       <c r="L66" s="15"/>
       <c r="R66" s="12"/>
       <c r="T66" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U66" s="30">
         <f>+SUM(U57:U65)</f>
-        <v>9</v>
+        <v>1703374.1145765998</v>
       </c>
       <c r="V66" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W66" s="31">
         <f>+SUM(W57:W65)</f>
-        <v>9</v>
+        <v>38331.163208499995</v>
       </c>
       <c r="X66" s="42"/>
       <c r="Y66" s="30">
         <f>+SUM(Y57:Y64)</f>
-        <v>7</v>
+        <v>1665042.9514020002</v>
       </c>
     </row>
     <row r="67" spans="2:27">
       <c r="B67" s="11"/>
       <c r="C67" s="17">
         <f>+Utilidad!P86</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="14">
         <f>+Utilidad!P88</f>
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="L67" s="15"/>
       <c r="R67" s="12"/>
@@ -48632,31 +48353,31 @@
     <row r="68" spans="2:27" ht="19">
       <c r="B68" s="11"/>
       <c r="C68" s="18">
-        <f>+Utilidad!Q86</f>
-        <v>1</v>
+        <f>+Utilidad!R86</f>
+        <v>0</v>
       </c>
       <c r="F68" s="15">
-        <f>+Utilidad!Q88</f>
-        <v>1</v>
+        <f>+Utilidad!R88</f>
+        <v>595.43563617433995</v>
       </c>
       <c r="L68" s="15"/>
       <c r="R68" s="12"/>
       <c r="T68" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U68" s="33"/>
       <c r="V68" s="34"/>
       <c r="W68" s="33"/>
       <c r="X68" s="35">
         <f>+U66-W66-Y66</f>
-        <v>-7</v>
+        <v>-3.3900374546647072E-5</v>
       </c>
     </row>
     <row r="69" spans="2:27">
       <c r="B69" s="11"/>
       <c r="E69" s="19">
         <f>+Utilidad!O87</f>
-        <v>1</v>
+        <v>-1199.0246399</v>
       </c>
       <c r="L69" s="15"/>
       <c r="R69" s="12"/>
@@ -48664,8 +48385,8 @@
     <row r="70" spans="2:27">
       <c r="B70" s="11"/>
       <c r="E70" s="15">
-        <f>+Utilidad!Q87</f>
-        <v>1</v>
+        <f>+Utilidad!R87</f>
+        <v>-595.43563617433995</v>
       </c>
       <c r="L70" s="15"/>
       <c r="R70" s="12"/>
@@ -48676,27 +48397,27 @@
       <c r="L71" s="15"/>
       <c r="R71" s="12"/>
       <c r="T71" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA71" s="2"/>
     </row>
     <row r="72" spans="2:27" ht="19">
       <c r="B72" s="11"/>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L72" s="15"/>
       <c r="R72" s="12"/>
       <c r="T72" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U72" s="46"/>
       <c r="V72" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W72" s="47"/>
       <c r="X72" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y72" s="45"/>
     </row>
@@ -48704,11 +48425,11 @@
       <c r="B73" s="11"/>
       <c r="C73" s="16">
         <f>+Utilidad!O89</f>
-        <v>1</v>
+        <v>3277.8028466000001</v>
       </c>
       <c r="F73" s="13">
         <f>+Utilidad!O91</f>
-        <v>1</v>
+        <v>1168.5991726</v>
       </c>
       <c r="L73" s="15"/>
       <c r="R73" s="12"/>
@@ -48717,32 +48438,32 @@
       </c>
       <c r="U73" s="28">
         <f>+K7</f>
-        <v>1</v>
+        <v>250301.95680000001</v>
       </c>
       <c r="V73" s="43" t="s">
         <v>3</v>
       </c>
       <c r="W73" s="29">
         <f>+E13</f>
-        <v>1</v>
+        <v>3987.32274628</v>
       </c>
       <c r="X73" s="37" t="s">
         <v>26</v>
       </c>
       <c r="Y73" s="29">
         <f>+L62</f>
-        <v>1</v>
+        <v>98144.417600000001</v>
       </c>
     </row>
     <row r="74" spans="2:27" ht="16">
       <c r="B74" s="11"/>
       <c r="C74" s="17">
         <f>+Utilidad!P89</f>
-        <v>1</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="F74" s="14">
         <f>+Utilidad!P91</f>
-        <v>1</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="L74" s="15"/>
       <c r="R74" s="12"/>
@@ -48751,32 +48472,32 @@
       </c>
       <c r="U74" s="28">
         <f>+C11</f>
-        <v>1</v>
+        <v>7735.2665030549997</v>
       </c>
       <c r="V74" s="43" t="s">
         <v>4</v>
       </c>
       <c r="W74" s="29">
         <f>+E25</f>
-        <v>1</v>
+        <v>2902.2056258725202</v>
       </c>
       <c r="X74" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y74" s="29">
         <f>+R17</f>
-        <v>6</v>
+        <v>154376.53155116283</v>
       </c>
     </row>
     <row r="75" spans="2:27" ht="16">
       <c r="B75" s="11"/>
       <c r="C75" s="18">
-        <f>+Utilidad!Q89</f>
-        <v>1</v>
+        <f>+Utilidad!R89</f>
+        <v>1731.99102414344</v>
       </c>
       <c r="F75" s="15">
-        <f>+Utilidad!Q91</f>
-        <v>1</v>
+        <f>+Utilidad!R91</f>
+        <v>616.90350321554001</v>
       </c>
       <c r="L75" s="15"/>
       <c r="R75" s="12"/>
@@ -48785,14 +48506,14 @@
       </c>
       <c r="U75" s="28">
         <f>+C23</f>
-        <v>1</v>
+        <v>3403.1782714883802</v>
       </c>
       <c r="V75" s="43" t="s">
         <v>7</v>
       </c>
       <c r="W75" s="29">
         <f>+E35</f>
-        <v>1</v>
+        <v>-1906.018946681</v>
       </c>
       <c r="X75" s="38"/>
       <c r="Y75" s="29"/>
@@ -48801,7 +48522,7 @@
       <c r="B76" s="11"/>
       <c r="E76" s="19">
         <f>+Utilidad!O90</f>
-        <v>1</v>
+        <v>2109.2036739999999</v>
       </c>
       <c r="L76" s="15"/>
       <c r="R76" s="12"/>
@@ -48810,14 +48531,14 @@
       </c>
       <c r="U76" s="28">
         <f>+C33</f>
-        <v>1</v>
+        <v>1355.73935942</v>
       </c>
       <c r="V76" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W76" s="29">
-        <f>+E45</f>
-        <v>1</v>
+        <f>+H9</f>
+        <v>8651.456418329999</v>
       </c>
       <c r="X76" s="38"/>
       <c r="Y76" s="29"/>
@@ -48825,24 +48546,21 @@
     <row r="77" spans="2:27" ht="16">
       <c r="B77" s="11"/>
       <c r="E77" s="15">
-        <f>+Utilidad!Q90</f>
-        <v>1</v>
+        <f>+Utilidad!R90</f>
+        <v>1115.1359824437998</v>
       </c>
       <c r="L77" s="15"/>
       <c r="R77" s="12"/>
-      <c r="T77" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="U77" s="28">
-        <f>+C43</f>
-        <v>1</v>
-      </c>
+      <c r="T77" s="299" t="s">
+        <v>96</v>
+      </c>
+      <c r="U77" s="28"/>
       <c r="V77" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W77" s="29">
         <f>+E55</f>
-        <v>1</v>
+        <v>1341.9710901663102</v>
       </c>
       <c r="X77" s="36"/>
       <c r="Y77" s="29"/>
@@ -48852,39 +48570,40 @@
       <c r="L78" s="15"/>
       <c r="R78" s="12"/>
       <c r="T78" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U78" s="28">
         <f>+C53</f>
-        <v>1</v>
+        <v>2534.9422406244003</v>
       </c>
       <c r="V78" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W78" s="29">
         <f>+E62</f>
-        <v>1</v>
+        <v>484.45120871644002</v>
       </c>
       <c r="X78" s="37"/>
       <c r="Y78" s="29"/>
     </row>
     <row r="79" spans="2:27" ht="16">
       <c r="B79" s="11"/>
+      <c r="C79" s="2"/>
       <c r="L79" s="15"/>
       <c r="R79" s="12"/>
       <c r="T79" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U79" s="28">
         <f>+C61</f>
-        <v>1</v>
+        <v>1547.9246655671398</v>
       </c>
       <c r="V79" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W79" s="29">
         <f>+E70</f>
-        <v>1</v>
+        <v>-595.43563617433995</v>
       </c>
       <c r="X79" s="37"/>
       <c r="Y79" s="29"/>
@@ -48894,18 +48613,18 @@
       <c r="L80" s="15"/>
       <c r="R80" s="12"/>
       <c r="T80" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U80" s="28">
         <f>+C68</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W80" s="29">
         <f>+E77</f>
-        <v>1</v>
+        <v>1115.1359824437998</v>
       </c>
       <c r="X80" s="37"/>
       <c r="Y80" s="29"/>
@@ -48915,19 +48634,16 @@
       <c r="L81" s="15"/>
       <c r="R81" s="12"/>
       <c r="T81" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U81" s="28">
         <f>+C75</f>
-        <v>1</v>
-      </c>
-      <c r="V81" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="W81" s="29">
-        <f>H9</f>
-        <v>1</v>
-      </c>
+        <v>1731.99102414344</v>
+      </c>
+      <c r="V81" s="300" t="s">
+        <v>100</v>
+      </c>
+      <c r="W81" s="29"/>
       <c r="X81" s="38"/>
       <c r="Y81" s="29"/>
     </row>
@@ -48936,23 +48652,23 @@
       <c r="L82" s="15"/>
       <c r="R82" s="12"/>
       <c r="T82" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U82" s="30">
         <f>+SUM(U73:U81)</f>
-        <v>9</v>
+        <v>268610.99886429834</v>
       </c>
       <c r="V82" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W82" s="31">
         <f>+SUM(W73:W81)</f>
-        <v>9</v>
+        <v>15981.088488953732</v>
       </c>
       <c r="X82" s="42"/>
       <c r="Y82" s="30">
         <f>+SUM(Y73:Y80)</f>
-        <v>7</v>
+        <v>252520.94915116281</v>
       </c>
     </row>
     <row r="83" spans="2:25" ht="16" thickBot="1">
@@ -48976,17 +48692,19 @@
     </row>
     <row r="84" spans="2:25" ht="19">
       <c r="T84" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U84" s="33"/>
       <c r="V84" s="34"/>
       <c r="W84" s="33"/>
       <c r="X84" s="35">
         <f>+U82-W82-Y82</f>
-        <v>-7</v>
+        <v>108.96122418178129</v>
       </c>
     </row>
-    <row r="89" spans="2:25" ht="16" customHeight="1"/>
+    <row r="89" spans="2:25" ht="16" customHeight="1">
+      <c r="X89" s="301"/>
+    </row>
     <row r="91" spans="2:25" ht="17" customHeight="1"/>
     <row r="93" spans="2:25" ht="14.5" customHeight="1"/>
     <row r="95" spans="2:25" ht="14.5" customHeight="1"/>
@@ -48998,7 +48716,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{CCE685B1-CC99-49D6-AE3E-2B2E7FA394B0}">
+          <x14:cfRule type="iconSet" priority="27" id="{CCE685B1-CC99-49D6-AE3E-2B2E7FA394B0}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49017,7 +48735,7 @@
           <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{DBAE93ED-C62C-4609-ADAF-77F039033AD5}">
+          <x14:cfRule type="iconSet" priority="26" id="{DBAE93ED-C62C-4609-ADAF-77F039033AD5}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49036,7 +48754,7 @@
           <xm:sqref>E24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{621FEFB6-D441-4D6A-9585-242BB888619D}">
+          <x14:cfRule type="iconSet" priority="25" id="{621FEFB6-D441-4D6A-9585-242BB888619D}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49055,7 +48773,7 @@
           <xm:sqref>E34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{31DA6A7A-9226-4EEF-8423-2EFAACB35E97}">
+          <x14:cfRule type="iconSet" priority="23" id="{31DA6A7A-9226-4EEF-8423-2EFAACB35E97}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49074,7 +48792,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{699EFC76-7DF0-4F01-BA86-7A866F05B7C6}">
+          <x14:cfRule type="iconSet" priority="22" id="{699EFC76-7DF0-4F01-BA86-7A866F05B7C6}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49093,7 +48811,7 @@
           <xm:sqref>E54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{F1F64CAE-1DBF-4E05-B6E9-77F0BE3D4C54}">
+          <x14:cfRule type="iconSet" priority="21" id="{F1F64CAE-1DBF-4E05-B6E9-77F0BE3D4C54}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49112,7 +48830,7 @@
           <xm:sqref>W66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{D4481694-8AFA-44DA-B765-DE7DB349B746}">
+          <x14:cfRule type="iconSet" priority="19" id="{D4481694-8AFA-44DA-B765-DE7DB349B746}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49131,7 +48849,7 @@
           <xm:sqref>E61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{7088627B-BC7F-4EA4-AF8D-48688CC78A65}">
+          <x14:cfRule type="iconSet" priority="18" id="{7088627B-BC7F-4EA4-AF8D-48688CC78A65}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49150,7 +48868,7 @@
           <xm:sqref>E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{EBCC8C33-A7C4-414A-BE22-68A9D9F6EEB0}">
+          <x14:cfRule type="iconSet" priority="17" id="{EBCC8C33-A7C4-414A-BE22-68A9D9F6EEB0}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49169,7 +48887,7 @@
           <xm:sqref>E70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{1C1E81C4-97C3-4B8E-9BFB-CF19F165BAF3}">
+          <x14:cfRule type="iconSet" priority="16" id="{1C1E81C4-97C3-4B8E-9BFB-CF19F165BAF3}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49188,7 +48906,7 @@
           <xm:sqref>E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{5E6CCC20-F056-487A-92B7-35650DFB296C}">
+          <x14:cfRule type="iconSet" priority="15" id="{5E6CCC20-F056-487A-92B7-35650DFB296C}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49207,7 +48925,7 @@
           <xm:sqref>E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{8D5FE150-8E01-4FEB-B59E-DF90CC41AAAA}">
+          <x14:cfRule type="iconSet" priority="14" id="{8D5FE150-8E01-4FEB-B59E-DF90CC41AAAA}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49226,7 +48944,7 @@
           <xm:sqref>E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{F85F8515-13C2-47A6-8C06-C455DF7DDF91}">
+          <x14:cfRule type="iconSet" priority="13" id="{F85F8515-13C2-47A6-8C06-C455DF7DDF91}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49245,7 +48963,7 @@
           <xm:sqref>E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{ADFCD24F-4B84-49D8-806E-DA811FFB4352}">
+          <x14:cfRule type="iconSet" priority="12" id="{ADFCD24F-4B84-49D8-806E-DA811FFB4352}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49264,7 +48982,7 @@
           <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{060097B0-0EC0-4D25-A0AD-2AF9A5C0DD8D}">
+          <x14:cfRule type="iconSet" priority="11" id="{060097B0-0EC0-4D25-A0AD-2AF9A5C0DD8D}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49283,7 +49001,7 @@
           <xm:sqref>E76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{3BE9FB0C-9F88-46AD-A3E3-0A2CFAF10562}">
+          <x14:cfRule type="iconSet" priority="10" id="{3BE9FB0C-9F88-46AD-A3E3-0A2CFAF10562}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49302,7 +49020,7 @@
           <xm:sqref>E77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{0D3FB64A-8EC3-46D6-AA25-AEE79156345F}">
+          <x14:cfRule type="iconSet" priority="9" id="{0D3FB64A-8EC3-46D6-AA25-AEE79156345F}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49321,7 +49039,7 @@
           <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{B54D047F-99ED-4897-9906-2CC31CD7751E}">
+          <x14:cfRule type="iconSet" priority="8" id="{B54D047F-99ED-4897-9906-2CC31CD7751E}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49340,7 +49058,7 @@
           <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{B02C3E46-ACEE-4E1D-A059-9A131A7471DC}">
+          <x14:cfRule type="iconSet" priority="7" id="{B02C3E46-ACEE-4E1D-A059-9A131A7471DC}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49359,7 +49077,7 @@
           <xm:sqref>W82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{8948227A-9FE4-49A2-A921-4C9A3ADF6E38}">
+          <x14:cfRule type="iconSet" priority="6" id="{8948227A-9FE4-49A2-A921-4C9A3ADF6E38}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49378,7 +49096,7 @@
           <xm:sqref>E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{DA7C07E9-748E-EA4C-98C7-DE05C0A1833A}">
+          <x14:cfRule type="iconSet" priority="5" id="{DA7C07E9-748E-EA4C-98C7-DE05C0A1833A}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49397,7 +49115,7 @@
           <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{B79BB937-1BBD-D849-98A1-CAEAE93F92B5}">
+          <x14:cfRule type="iconSet" priority="2" id="{2764A8E7-B39E-D045-82F7-A7A59C47DE90}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -49425,8 +49143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B33E5-7676-1F47-BBE6-CFF6D81A466B}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49440,15 +49158,15 @@
       </c>
       <c r="B1" s="2">
         <f>Utilidad!O68</f>
-        <v>1</v>
+        <v>13202.36645</v>
       </c>
       <c r="C1" s="3">
         <f>Utilidad!P68</f>
-        <v>1</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="D1" s="3">
         <f>Utilidad!Q68</f>
-        <v>1</v>
+        <v>0.55969999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19">
@@ -49457,15 +49175,15 @@
       </c>
       <c r="B2" s="2">
         <f>Utilidad!O69</f>
-        <v>1</v>
+        <v>6778.8554000000004</v>
       </c>
       <c r="C2" s="3">
         <f>Utilidad!P69</f>
-        <v>1</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="D2" s="3">
         <f>Utilidad!Q69</f>
-        <v>1</v>
+        <v>0.56620000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19">
@@ -49474,15 +49192,15 @@
       </c>
       <c r="B3" s="2">
         <f>Utilidad!O70</f>
-        <v>1</v>
+        <v>6423.5110500000001</v>
       </c>
       <c r="C3" s="3">
         <f>Utilidad!P70</f>
-        <v>1</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="D3" s="3">
         <f>Utilidad!Q70</f>
-        <v>1</v>
+        <v>0.55269999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19">
@@ -49491,15 +49209,15 @@
       </c>
       <c r="B4" s="2">
         <f>Utilidad!O71</f>
-        <v>1</v>
+        <v>7852.2802756999999</v>
       </c>
       <c r="C4" s="3">
         <f>Utilidad!P71</f>
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="D4" s="3">
         <f>Utilidad!Q71</f>
-        <v>1</v>
+        <v>0.4032</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19">
@@ -49508,15 +49226,15 @@
       </c>
       <c r="B5" s="2">
         <f>Utilidad!O72</f>
-        <v>1</v>
+        <v>6696.3673878</v>
       </c>
       <c r="C5" s="3">
         <f>Utilidad!P72</f>
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="D5" s="3">
         <f>Utilidad!Q72</f>
-        <v>1</v>
+        <v>0.40450000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19">
@@ -49525,15 +49243,15 @@
       </c>
       <c r="B6" s="2">
         <f>Utilidad!O73</f>
-        <v>1</v>
+        <v>1155.9128879</v>
       </c>
       <c r="C6" s="3">
         <f>Utilidad!P73</f>
-        <v>1</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="D6" s="3">
         <f>Utilidad!Q73</f>
-        <v>1</v>
+        <v>0.39579999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19">
@@ -49542,15 +49260,15 @@
       </c>
       <c r="B7" s="2">
         <f>Utilidad!O74</f>
-        <v>1</v>
+        <v>2893.7873199999999</v>
       </c>
       <c r="C7" s="3">
         <f>Utilidad!P74</f>
-        <v>1</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="D7" s="3">
         <f>Utilidad!Q74</f>
-        <v>1</v>
+        <v>0.43959999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19">
@@ -49559,15 +49277,15 @@
       </c>
       <c r="B8" s="2">
         <f>Utilidad!O75</f>
-        <v>1</v>
+        <v>-4071.8200099999999</v>
       </c>
       <c r="C8" s="3">
         <f>Utilidad!P75</f>
-        <v>1</v>
+        <v>0.46810000000000002</v>
       </c>
       <c r="D8" s="3">
         <f>Utilidad!Q75</f>
-        <v>1</v>
+        <v>0.43659999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19">
@@ -49576,15 +49294,15 @@
       </c>
       <c r="B9" s="2">
         <f>Utilidad!O76</f>
-        <v>1</v>
+        <v>6965.6073299999998</v>
       </c>
       <c r="C9" s="3">
         <f>Utilidad!P76</f>
-        <v>1</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="D9" s="3">
         <f>Utilidad!Q76</f>
-        <v>1</v>
+        <v>0.43790000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19">
@@ -49593,15 +49311,15 @@
       </c>
       <c r="B10" s="2">
         <f>Utilidad!O77</f>
-        <v>1</v>
+        <v>37005.332999999999</v>
       </c>
       <c r="C10" s="3">
         <f>Utilidad!P77</f>
-        <v>1</v>
+        <v>0.35489999999999999</v>
       </c>
       <c r="D10" s="3">
         <f>Utilidad!Q77</f>
-        <v>1</v>
+        <v>0.33629999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19">
@@ -49610,15 +49328,15 @@
       </c>
       <c r="B11" s="2">
         <f>Utilidad!O78</f>
-        <v>1</v>
+        <v>24274.569074999999</v>
       </c>
       <c r="C11" s="3">
         <f>Utilidad!P78</f>
-        <v>1</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="D11" s="3">
         <f>Utilidad!Q78</f>
-        <v>1</v>
+        <v>0.34160000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19">
@@ -49627,15 +49345,15 @@
       </c>
       <c r="B12" s="2">
         <f>Utilidad!O79</f>
-        <v>1</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="C12" s="3">
         <f>Utilidad!P79</f>
-        <v>1</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="D12" s="3">
         <f>Utilidad!Q79</f>
-        <v>1</v>
+        <v>0.32619999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19">
@@ -49644,15 +49362,15 @@
       </c>
       <c r="B13" s="2">
         <f>Utilidad!O80</f>
-        <v>1</v>
+        <v>4912.6787609000003</v>
       </c>
       <c r="C13" s="3">
         <f>Utilidad!P80</f>
-        <v>1</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D13" s="3">
         <f>Utilidad!Q80</f>
-        <v>1</v>
+        <v>0.40699999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19">
@@ -49661,15 +49379,15 @@
       </c>
       <c r="B14" s="2">
         <f>Utilidad!O81</f>
-        <v>1</v>
+        <v>2597.1958393</v>
       </c>
       <c r="C14" s="3">
         <f>Utilidad!P81</f>
-        <v>1</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="D14" s="3">
         <f>Utilidad!Q81</f>
-        <v>1</v>
+        <v>0.41160000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19">
@@ -49678,168 +49396,168 @@
       </c>
       <c r="B15" s="2">
         <f>Utilidad!O82</f>
-        <v>1</v>
+        <v>2315.4829215999998</v>
       </c>
       <c r="C15" s="3">
         <f>Utilidad!P82</f>
-        <v>1</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="D15" s="3">
         <f>Utilidad!Q82</f>
-        <v>1</v>
+        <v>0.40179999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19">
       <c r="A16" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <f>Utilidad!O83</f>
-        <v>1</v>
+        <v>3667.1989233999998</v>
       </c>
       <c r="C16" s="3">
         <f>Utilidad!P83</f>
-        <v>1</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="D16" s="3">
         <f>Utilidad!Q83</f>
-        <v>1</v>
+        <v>0.37280000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19">
       <c r="A17" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <f>Utilidad!O84</f>
-        <v>1</v>
+        <v>1145.8164823</v>
       </c>
       <c r="C17" s="3">
         <f>Utilidad!P84</f>
-        <v>1</v>
+        <v>0.42280000000000001</v>
       </c>
       <c r="D17" s="3">
         <f>Utilidad!Q84</f>
-        <v>1</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19">
       <c r="A18" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <f>Utilidad!O85</f>
-        <v>1</v>
+        <v>2521.3824411000001</v>
       </c>
       <c r="C18" s="3">
         <f>Utilidad!P85</f>
-        <v>1</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="D18" s="3">
         <f>Utilidad!Q85</f>
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19">
       <c r="A19" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <f>Utilidad!O86</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
         <f>Utilidad!P86</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
         <f>Utilidad!Q86</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19">
       <c r="A20" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2">
         <f>Utilidad!O87</f>
-        <v>1</v>
+        <v>-1199.0246399</v>
       </c>
       <c r="C20" s="3">
         <f>Utilidad!P87</f>
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="D20" s="3">
         <f>Utilidad!Q87</f>
-        <v>1</v>
+        <v>0.42920000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19">
       <c r="A21" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2">
         <f>Utilidad!O88</f>
-        <v>1</v>
+        <v>1199.0246399</v>
       </c>
       <c r="C21" s="3">
         <f>Utilidad!P88</f>
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="D21" s="3">
         <f>Utilidad!Q88</f>
-        <v>1</v>
+        <v>0.42920000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19">
       <c r="A22" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2">
         <f>Utilidad!O89</f>
-        <v>1</v>
+        <v>3277.8028466000001</v>
       </c>
       <c r="C22" s="3">
         <f>Utilidad!P89</f>
-        <v>1</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="D22" s="3">
         <f>Utilidad!Q89</f>
-        <v>1</v>
+        <v>0.43340000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19">
       <c r="A23" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2">
         <f>Utilidad!O90</f>
-        <v>1</v>
+        <v>2109.2036739999999</v>
       </c>
       <c r="C23" s="3">
         <f>Utilidad!P90</f>
-        <v>1</v>
+        <v>0.52869999999999995</v>
       </c>
       <c r="D23" s="3">
         <f>Utilidad!Q90</f>
-        <v>1</v>
+        <v>0.43569999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19">
       <c r="A24" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2">
         <f>Utilidad!O91</f>
-        <v>1</v>
+        <v>1168.5991726</v>
       </c>
       <c r="C24" s="3">
         <f>Utilidad!P91</f>
-        <v>1</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="D24" s="3">
         <f>Utilidad!Q91</f>
-        <v>1</v>
+        <v>0.42920000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19">
@@ -49848,15 +49566,15 @@
       </c>
       <c r="B25" s="2">
         <f>Utilidad!O92</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3">
         <f>Utilidad!P92</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
         <f>Utilidad!Q92</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19">
@@ -49865,15 +49583,15 @@
       </c>
       <c r="B26" s="2">
         <f>Utilidad!O93</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3">
         <f>Utilidad!P93</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
         <f>Utilidad!Q93</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19">
@@ -49882,15 +49600,15 @@
       </c>
       <c r="B27" s="2">
         <f>Utilidad!O94</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3">
         <f>Utilidad!P94</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3">
         <f>Utilidad!Q94</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19">
@@ -49899,15 +49617,15 @@
       </c>
       <c r="B28" s="2">
         <f>Utilidad!O95</f>
-        <v>1</v>
+        <v>1667568</v>
       </c>
       <c r="C28" s="3">
         <f>Utilidad!P95</f>
-        <v>1</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="D28" s="3">
         <f>Utilidad!Q95</f>
-        <v>1</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19">
@@ -49916,15 +49634,15 @@
       </c>
       <c r="B29" s="2">
         <f>Utilidad!O96</f>
-        <v>1</v>
+        <v>1042380.0522</v>
       </c>
       <c r="C29" s="3">
         <f>Utilidad!P96</f>
-        <v>1</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="D29" s="3">
         <f>Utilidad!Q96</f>
-        <v>1</v>
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19">
@@ -49933,15 +49651,15 @@
       </c>
       <c r="B30" s="2">
         <f>Utilidad!O97</f>
-        <v>1</v>
+        <v>625187.94782999996</v>
       </c>
       <c r="C30" s="3">
         <f>Utilidad!P97</f>
-        <v>1</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="D30" s="3">
         <f>Utilidad!Q97</f>
-        <v>1</v>
+        <v>0.28720000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19">
@@ -49950,15 +49668,15 @@
       </c>
       <c r="B31" s="2">
         <f>Utilidad!O98</f>
-        <v>1</v>
+        <v>96883.249754000004</v>
       </c>
       <c r="C31" s="3">
         <f>Utilidad!P98</f>
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D31" s="3">
         <f>Utilidad!Q98</f>
-        <v>1</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19">
@@ -49967,32 +49685,32 @@
       </c>
       <c r="B32" s="2">
         <f>Utilidad!O99</f>
-        <v>1</v>
+        <v>528304.69808</v>
       </c>
       <c r="C32" s="3">
         <f>Utilidad!P99</f>
-        <v>1</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="D32" s="3">
         <f>Utilidad!Q99</f>
-        <v>1</v>
+        <v>0.33929999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19">
       <c r="A33" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
         <f>Utilidad!O100</f>
-        <v>1</v>
+        <v>94163.869506999996</v>
       </c>
       <c r="C33" s="3">
         <f>Utilidad!P100</f>
-        <v>1</v>
+        <v>0.3775</v>
       </c>
       <c r="D33" s="3">
         <f>Utilidad!Q100</f>
-        <v>1</v>
+        <v>0.35870000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="40">
@@ -50001,32 +49719,32 @@
       </c>
       <c r="B34" s="2">
         <f>Utilidad!O101</f>
-        <v>1</v>
+        <v>34480.284368000001</v>
       </c>
       <c r="C34" s="3">
         <f>Utilidad!P101</f>
-        <v>1</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="D34" s="3">
         <f>Utilidad!Q101</f>
-        <v>1</v>
+        <v>0.40870000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20">
       <c r="A35" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
         <f>Utilidad!O102</f>
-        <v>1</v>
+        <v>416813.64674</v>
       </c>
       <c r="C35" s="3">
         <f>Utilidad!P102</f>
-        <v>1</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="D35" s="3">
         <f>Utilidad!Q102</f>
-        <v>1</v>
+        <v>0.33939999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19">
@@ -50035,15 +49753,15 @@
       </c>
       <c r="B36" s="2">
         <f>Utilidad!O103</f>
-        <v>1</v>
+        <v>108297.44338</v>
       </c>
       <c r="C36" s="3">
         <f>Utilidad!P103</f>
-        <v>1</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="D36" s="3">
         <f>Utilidad!Q103</f>
-        <v>1</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19">
@@ -50052,15 +49770,15 @@
       </c>
       <c r="B37" s="2">
         <f>Utilidad!O104</f>
-        <v>1</v>
+        <v>323318.33656000003</v>
       </c>
       <c r="C37" s="3">
         <f>Utilidad!P104</f>
-        <v>1</v>
+        <v>0.46560000000000001</v>
       </c>
       <c r="D37" s="3">
         <f>Utilidad!Q104</f>
-        <v>1</v>
+        <v>0.45190000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19">
@@ -50069,15 +49787,15 @@
       </c>
       <c r="B38" s="2">
         <f>Utilidad!O105</f>
-        <v>1</v>
+        <v>74739.665452000001</v>
       </c>
       <c r="C38" s="3">
         <f>Utilidad!P105</f>
-        <v>1</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="D38" s="3">
         <f>Utilidad!Q105</f>
-        <v>1</v>
+        <v>5.1400000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19">
@@ -50086,83 +49804,83 @@
       </c>
       <c r="B39" s="2">
         <f>Utilidad!O106</f>
-        <v>1</v>
+        <v>248578.67111</v>
       </c>
       <c r="C39" s="3">
         <f>Utilidad!P106</f>
-        <v>1</v>
+        <v>0.5786</v>
       </c>
       <c r="D39" s="3">
         <f>Utilidad!Q106</f>
-        <v>1</v>
+        <v>0.57230000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19">
       <c r="A40" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2">
         <f>Utilidad!O107</f>
-        <v>1</v>
+        <v>25296.16849</v>
       </c>
       <c r="C40" s="3">
         <f>Utilidad!P107</f>
-        <v>1</v>
+        <v>0.40389999999999998</v>
       </c>
       <c r="D40" s="3">
         <f>Utilidad!Q107</f>
-        <v>1</v>
+        <v>0.40310000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19">
       <c r="A41" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2">
         <f>Utilidad!O108</f>
-        <v>1</v>
+        <v>223282.50262000001</v>
       </c>
       <c r="C41" s="3">
         <f>Utilidad!P108</f>
-        <v>1</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="D41" s="3">
         <f>Utilidad!Q108</f>
-        <v>1</v>
+        <v>0.59150000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19">
       <c r="A42" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2">
         <f>Utilidad!O109</f>
-        <v>1</v>
+        <v>71918.502619000006</v>
       </c>
       <c r="C42" s="3">
         <f>Utilidad!P109</f>
-        <v>1</v>
+        <v>0.49309999999999998</v>
       </c>
       <c r="D42" s="3">
         <f>Utilidad!Q109</f>
-        <v>1</v>
+        <v>0.48909999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19">
       <c r="A43" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2">
         <f>Utilidad!O110</f>
-        <v>1</v>
+        <v>152012.95337999999</v>
       </c>
       <c r="C43" s="3">
         <f>Utilidad!P110</f>
-        <v>1</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="D43" s="3">
         <f>Utilidad!Q110</f>
-        <v>1</v>
+        <v>0.63939999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19">
@@ -50171,15 +49889,15 @@
       </c>
       <c r="B44" s="2">
         <f>Utilidad!O111</f>
-        <v>1</v>
+        <v>648.95338264999998</v>
       </c>
       <c r="C44" s="3">
         <f>Utilidad!P111</f>
-        <v>1</v>
+        <v>0.4965</v>
       </c>
       <c r="D44" s="3">
         <f>Utilidad!Q111</f>
-        <v>1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19">
@@ -50188,15 +49906,15 @@
       </c>
       <c r="B45" s="2">
         <f>Utilidad!O112</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="3">
         <f>Utilidad!P112</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
         <f>Utilidad!Q112</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19">
@@ -50205,83 +49923,83 @@
       </c>
       <c r="B46" s="2">
         <f>Utilidad!O113</f>
-        <v>1</v>
+        <v>151364</v>
       </c>
       <c r="C46" s="3">
         <f>Utilidad!P113</f>
-        <v>1</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="D46" s="3">
         <f>Utilidad!Q113</f>
-        <v>1</v>
+        <v>0.6401</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19">
       <c r="A47" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <f>Utilidad!O114</f>
-        <v>1</v>
+        <v>1513678.9513999999</v>
       </c>
       <c r="C47" s="3">
         <f>Utilidad!P114</f>
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D47" s="3">
         <f>Utilidad!Q114</f>
-        <v>1</v>
+        <v>5.8400000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19">
       <c r="A48" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2">
         <f>Utilidad!O115</f>
-        <v>1</v>
+        <v>14802.1332</v>
       </c>
       <c r="C48" s="3">
         <f>Utilidad!P115</f>
-        <v>1</v>
+        <v>0.38640000000000002</v>
       </c>
       <c r="D48" s="3">
         <f>Utilidad!Q115</f>
-        <v>1</v>
+        <v>0.38450000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19">
       <c r="A49" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2">
         <f>Utilidad!O118</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3">
         <f>Utilidad!P118</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
         <f>Utilidad!Q118</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19">
       <c r="A50" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2">
         <f>Utilidad!O119</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="3">
         <f>Utilidad!P119</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="3">
         <f>Utilidad!Q119</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19">
@@ -50314,8 +50032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F528B85-A256-6641-B1D0-8807EAEE4050}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C3" zoomScale="130" zoomScaleNormal="60" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:E33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="125" zoomScaleNormal="60" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -50372,75 +50090,75 @@
     <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="84"/>
       <c r="B3" s="87"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="216" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="290" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="291"/>
       <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="84"/>
       <c r="B4" s="87"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="218"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="219"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
+      <c r="M4" s="292"/>
+      <c r="N4" s="293"/>
       <c r="O4" s="158"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="84"/>
       <c r="B5" s="87"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="218" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="218"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="221">
+      <c r="C5" s="286"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="292" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="295">
         <v>44849</v>
       </c>
-      <c r="N5" s="222"/>
+      <c r="N5" s="296"/>
       <c r="O5" s="158"/>
     </row>
     <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="84"/>
       <c r="B6" s="87"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="224"/>
+      <c r="C6" s="288"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="297"/>
+      <c r="N6" s="298"/>
       <c r="O6" s="158"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
@@ -50463,155 +50181,155 @@
     <row r="8" spans="1:15" ht="16" thickBot="1">
       <c r="A8" s="84"/>
       <c r="B8" s="88"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="279"/>
       <c r="F8" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="H8" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="94" t="s">
-        <v>71</v>
-      </c>
       <c r="I8" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="282"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="94" t="s">
         <v>70</v>
-      </c>
-      <c r="J8" s="206"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="94" t="s">
-        <v>71</v>
       </c>
       <c r="O8" s="158"/>
     </row>
     <row r="9" spans="1:15" ht="16" thickBot="1">
       <c r="A9" s="84"/>
       <c r="B9" s="88"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="281"/>
       <c r="F9" s="95" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="I9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="208"/>
-      <c r="K9" s="209"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="263"/>
       <c r="L9" s="95" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="96" t="s">
         <v>72</v>
-      </c>
-      <c r="N9" s="96" t="s">
-        <v>73</v>
       </c>
       <c r="O9" s="158"/>
     </row>
     <row r="10" spans="1:15" ht="16" thickBot="1">
       <c r="A10" s="84"/>
       <c r="B10" s="88"/>
-      <c r="C10" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="227" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="226"/>
-      <c r="K10" s="226"/>
-      <c r="L10" s="226"/>
-      <c r="M10" s="226"/>
-      <c r="N10" s="228"/>
+      <c r="C10" s="252" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="254" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="255"/>
       <c r="O10" s="158"/>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1">
       <c r="A11" s="84"/>
       <c r="B11" s="88"/>
-      <c r="C11" s="229" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="230"/>
-      <c r="E11" s="231"/>
+      <c r="C11" s="256" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="257"/>
+      <c r="E11" s="258"/>
       <c r="F11" s="97">
         <f>Utilidad!O95</f>
-        <v>1</v>
+        <v>1667568</v>
       </c>
       <c r="G11" s="98">
         <f>Utilidad!P95</f>
-        <v>1</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="H11" s="99">
         <f t="shared" ref="H11:H19" si="0">+F11*G11</f>
-        <v>1</v>
+        <v>250301.95680000001</v>
       </c>
       <c r="I11" s="98">
         <f>Utilidad!Q95</f>
-        <v>1</v>
+        <v>0.1101</v>
       </c>
       <c r="J11" s="100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="101"/>
       <c r="L11" s="102">
         <f>Utilidad!O113</f>
-        <v>1</v>
+        <v>151364</v>
       </c>
       <c r="M11" s="103">
         <f>Utilidad!P113</f>
-        <v>1</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="N11" s="104">
         <f>+M11*L11</f>
-        <v>1</v>
+        <v>98144.417600000001</v>
       </c>
       <c r="O11" s="158"/>
     </row>
     <row r="12" spans="1:15" ht="16" thickBot="1">
       <c r="A12" s="84"/>
       <c r="B12" s="88"/>
-      <c r="C12" s="232">
+      <c r="C12" s="246">
         <f>Utilidad!K70</f>
         <v>0</v>
       </c>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="248"/>
       <c r="F12" s="105">
         <f>Utilidad!O70</f>
-        <v>1</v>
+        <v>6423.5110500000001</v>
       </c>
       <c r="G12" s="98">
         <f>Utilidad!P70</f>
-        <v>1</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="H12" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3747.4763465700003</v>
       </c>
       <c r="I12" s="107">
         <f>Utilidad!Q70</f>
-        <v>1</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="J12" s="108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="109"/>
       <c r="L12" s="110"/>
@@ -50625,250 +50343,250 @@
     <row r="13" spans="1:15" ht="16" thickBot="1">
       <c r="A13" s="84"/>
       <c r="B13" s="88"/>
-      <c r="C13" s="232">
+      <c r="C13" s="246">
         <f>Utilidad!K76</f>
         <v>0</v>
       </c>
-      <c r="D13" s="233"/>
-      <c r="E13" s="234"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="248"/>
       <c r="F13" s="105">
         <f>Utilidad!O76</f>
-        <v>1</v>
+        <v>6965.6073299999998</v>
       </c>
       <c r="G13" s="98">
         <f>Utilidad!P76</f>
-        <v>1</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="H13" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3261.993912639</v>
       </c>
       <c r="I13" s="107">
         <f>Utilidad!Q76</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="235"/>
-      <c r="K13" s="236"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="240"/>
-      <c r="N13" s="241"/>
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="J13" s="259"/>
+      <c r="K13" s="260"/>
+      <c r="L13" s="264"/>
+      <c r="M13" s="265"/>
+      <c r="N13" s="266"/>
       <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1">
       <c r="A14" s="84"/>
       <c r="B14" s="88"/>
-      <c r="C14" s="232">
+      <c r="C14" s="246">
         <f>Utilidad!K79</f>
         <v>0</v>
       </c>
-      <c r="D14" s="233"/>
-      <c r="E14" s="234"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="248"/>
       <c r="F14" s="105">
         <f>Utilidad!O79</f>
-        <v>1</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="G14" s="107">
         <f>Utilidad!P79</f>
-        <v>1</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="H14" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4482.5019779924996</v>
       </c>
       <c r="I14" s="107">
         <f>Utilidad!Q79</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="237"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="242"/>
-      <c r="M14" s="243"/>
-      <c r="N14" s="244"/>
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="J14" s="261"/>
+      <c r="K14" s="262"/>
+      <c r="L14" s="267"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="269"/>
       <c r="O14" s="158"/>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
       <c r="A15" s="84"/>
       <c r="B15" s="88"/>
-      <c r="C15" s="232">
+      <c r="C15" s="246">
         <f>Utilidad!K82</f>
         <v>0</v>
       </c>
-      <c r="D15" s="248"/>
-      <c r="E15" s="249"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="274"/>
       <c r="F15" s="105">
         <f>Utilidad!O82</f>
-        <v>1</v>
+        <v>2315.4829215999998</v>
       </c>
       <c r="G15" s="107">
         <f>Utilidad!P82</f>
-        <v>1</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="H15" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1192.9368012083198</v>
       </c>
       <c r="I15" s="107">
         <f>Utilidad!Q82</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="237"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="243"/>
-      <c r="N15" s="244"/>
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="J15" s="261"/>
+      <c r="K15" s="262"/>
+      <c r="L15" s="267"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="269"/>
       <c r="O15" s="158"/>
     </row>
     <row r="16" spans="1:15" ht="16" thickBot="1">
       <c r="A16" s="84"/>
       <c r="B16" s="88"/>
-      <c r="C16" s="232">
+      <c r="C16" s="246">
         <f>Utilidad!K85</f>
         <v>0</v>
       </c>
-      <c r="D16" s="248"/>
-      <c r="E16" s="249"/>
+      <c r="D16" s="273"/>
+      <c r="E16" s="274"/>
       <c r="F16" s="105">
         <f>Utilidad!O85</f>
-        <v>1</v>
+        <v>2521.3824411000001</v>
       </c>
       <c r="G16" s="107">
         <f>Utilidad!P85</f>
-        <v>1</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="H16" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1063.5191136559799</v>
       </c>
       <c r="I16" s="107">
         <f>Utilidad!Q85</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="237"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="243"/>
-      <c r="N16" s="244"/>
+        <v>0.37</v>
+      </c>
+      <c r="J16" s="261"/>
+      <c r="K16" s="262"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="269"/>
       <c r="O16" s="158"/>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
       <c r="A17" s="84"/>
       <c r="B17" s="88"/>
-      <c r="C17" s="232">
+      <c r="C17" s="246">
         <f>Utilidad!K88</f>
         <v>0</v>
       </c>
-      <c r="D17" s="248"/>
-      <c r="E17" s="249"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="274"/>
       <c r="F17" s="105">
         <f>Utilidad!O88</f>
-        <v>1</v>
+        <v>1199.0246399</v>
       </c>
       <c r="G17" s="107">
         <f>Utilidad!P88</f>
-        <v>1</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="H17" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>595.43563617433995</v>
       </c>
       <c r="I17" s="107">
         <f>Utilidad!Q88</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="237"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="242"/>
-      <c r="M17" s="243"/>
-      <c r="N17" s="244"/>
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="J17" s="261"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="268"/>
+      <c r="N17" s="269"/>
       <c r="O17" s="158"/>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
-      <c r="C18" s="232">
+      <c r="C18" s="246">
         <f>Utilidad!K91</f>
         <v>0</v>
       </c>
-      <c r="D18" s="248"/>
-      <c r="E18" s="249"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="274"/>
       <c r="F18" s="105">
         <f>Utilidad!O91</f>
-        <v>1</v>
+        <v>1168.5991726</v>
       </c>
       <c r="G18" s="107">
         <f>Utilidad!P91</f>
-        <v>1</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="H18" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>616.90350321554001</v>
       </c>
       <c r="I18" s="107">
         <f>Utilidad!Q91</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="237"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="243"/>
-      <c r="N18" s="244"/>
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="J18" s="261"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="268"/>
+      <c r="N18" s="269"/>
       <c r="O18" s="158"/>
     </row>
     <row r="19" spans="1:15" ht="16" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="88"/>
-      <c r="C19" s="250">
+      <c r="C19" s="275">
         <f>Utilidad!K73</f>
         <v>0</v>
       </c>
-      <c r="D19" s="251"/>
-      <c r="E19" s="252"/>
+      <c r="D19" s="276"/>
+      <c r="E19" s="277"/>
       <c r="F19" s="105">
         <f>Utilidad!O73</f>
-        <v>1</v>
+        <v>1155.9128879</v>
       </c>
       <c r="G19" s="107">
         <f>Utilidad!P73</f>
-        <v>1</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="H19" s="106">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>500.39468917190999</v>
       </c>
       <c r="I19" s="107">
         <f>Utilidad!Q73</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="208"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="246"/>
-      <c r="N19" s="247"/>
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="J19" s="207"/>
+      <c r="K19" s="263"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="271"/>
+      <c r="N19" s="272"/>
       <c r="O19" s="158"/>
     </row>
     <row r="20" spans="1:15" ht="16" thickBot="1">
       <c r="A20" s="84"/>
       <c r="B20" s="88"/>
-      <c r="C20" s="256" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="257"/>
-      <c r="E20" s="257"/>
+      <c r="C20" s="222" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
       <c r="F20" s="113">
         <f>SUM(F11:F19)</f>
-        <v>9</v>
+        <v>1702048.2843681003</v>
       </c>
       <c r="G20" s="114">
         <f>+H20/F20</f>
-        <v>1</v>
+        <v>0.15614311369509379</v>
       </c>
       <c r="H20" s="115">
         <f>SUM(H11:H19)</f>
-        <v>9</v>
+        <v>265763.11878062761</v>
       </c>
       <c r="I20" s="116"/>
-      <c r="J20" s="258"/>
-      <c r="K20" s="259"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="241"/>
       <c r="L20" s="117"/>
       <c r="M20" s="118"/>
       <c r="N20" s="119"/>
@@ -50877,87 +50595,87 @@
     <row r="21" spans="1:15" ht="16" thickBot="1">
       <c r="A21" s="84"/>
       <c r="B21" s="88"/>
-      <c r="C21" s="260" t="s">
+      <c r="C21" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="244" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="262" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="263"/>
-      <c r="K21" s="263"/>
-      <c r="L21" s="263"/>
-      <c r="M21" s="263"/>
-      <c r="N21" s="264"/>
+      <c r="J21" s="228"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="228"/>
+      <c r="N21" s="245"/>
       <c r="O21" s="158"/>
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
       <c r="A22" s="84"/>
       <c r="B22" s="88"/>
-      <c r="C22" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="233"/>
-      <c r="E22" s="234"/>
+      <c r="C22" s="246" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="247"/>
+      <c r="E22" s="248"/>
       <c r="F22" s="120"/>
       <c r="G22" s="121"/>
       <c r="H22" s="120">
         <f>+F22*G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="265" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="266"/>
-      <c r="K22" s="267"/>
+      <c r="I22" s="249" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
       <c r="L22" s="122">
         <f>Utilidad!O114</f>
-        <v>1</v>
+        <v>1513678.9513999999</v>
       </c>
       <c r="M22" s="111">
         <f>Utilidad!P114</f>
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N22" s="112">
         <f>+L22*M22</f>
-        <v>1</v>
+        <v>154395.25304279997</v>
       </c>
       <c r="O22" s="158"/>
     </row>
     <row r="23" spans="1:15" ht="16" thickBot="1">
       <c r="A23" s="84"/>
       <c r="B23" s="88"/>
-      <c r="C23" s="256" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="257"/>
-      <c r="E23" s="257"/>
+      <c r="C23" s="222" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
       <c r="F23" s="123"/>
       <c r="G23" s="124"/>
       <c r="H23" s="113">
         <f>SUM(H21:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="288" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="289"/>
-      <c r="K23" s="290"/>
+      <c r="I23" s="224" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="225"/>
+      <c r="K23" s="226"/>
       <c r="L23" s="125">
         <f>L22</f>
-        <v>1</v>
+        <v>1513678.9513999999</v>
       </c>
       <c r="M23" s="114">
         <f>M22</f>
-        <v>1</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N23" s="126">
         <f>N22</f>
-        <v>1</v>
+        <v>154395.25304279997</v>
       </c>
       <c r="O23" s="158"/>
     </row>
@@ -50981,19 +50699,19 @@
     <row r="25" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A25" s="84"/>
       <c r="B25" s="88"/>
-      <c r="C25" s="291" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="263"/>
-      <c r="E25" s="292"/>
+      <c r="C25" s="227" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="228"/>
+      <c r="E25" s="229"/>
       <c r="F25" s="131" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="133" t="s">
         <v>84</v>
-      </c>
-      <c r="H25" s="133" t="s">
-        <v>85</v>
       </c>
       <c r="I25" s="134"/>
       <c r="J25" s="135"/>
@@ -51006,11 +50724,11 @@
     <row r="26" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A26" s="84"/>
       <c r="B26" s="88"/>
-      <c r="C26" s="293" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="294"/>
-      <c r="E26" s="295"/>
+      <c r="C26" s="230" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="231"/>
+      <c r="E26" s="232"/>
       <c r="F26" s="138">
         <f>+'[1]Informacion Planta'!L49</f>
         <v>-5.4250001106993295E-2</v>
@@ -51034,11 +50752,11 @@
     <row r="27" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A27" s="84"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="296" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="297"/>
-      <c r="E27" s="297"/>
+      <c r="C27" s="233" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="234"/>
+      <c r="E27" s="234"/>
       <c r="F27" s="144">
         <f>SUM(F26:F26)</f>
         <v>-5.4250001106993295E-2</v>
@@ -51079,20 +50797,20 @@
     <row r="29" spans="1:15" ht="16" thickBot="1">
       <c r="A29" s="84"/>
       <c r="B29" s="88"/>
-      <c r="C29" s="253" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="254"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="254"/>
-      <c r="G29" s="254"/>
-      <c r="H29" s="254"/>
-      <c r="I29" s="254"/>
-      <c r="J29" s="254"/>
-      <c r="K29" s="254"/>
-      <c r="L29" s="254"/>
-      <c r="M29" s="254"/>
-      <c r="N29" s="255"/>
+      <c r="C29" s="237" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="238"/>
+      <c r="I29" s="238"/>
+      <c r="J29" s="238"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="238"/>
+      <c r="N29" s="239"/>
       <c r="O29" s="158"/>
     </row>
     <row r="30" spans="1:15" ht="16" thickBot="1">
@@ -51115,67 +50833,67 @@
     <row r="31" spans="1:15" ht="16" thickBot="1">
       <c r="A31" s="84"/>
       <c r="B31" s="88"/>
-      <c r="C31" s="268" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="298"/>
-      <c r="E31" s="299"/>
+      <c r="C31" s="201" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="235"/>
+      <c r="E31" s="236"/>
       <c r="F31" s="154"/>
       <c r="G31" s="154"/>
-      <c r="H31" s="268" t="s">
+      <c r="H31" s="201" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="235"/>
+      <c r="J31" s="236"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="298"/>
-      <c r="J31" s="299"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="268" t="s">
-        <v>90</v>
-      </c>
-      <c r="M31" s="269"/>
-      <c r="N31" s="270"/>
+      <c r="M31" s="202"/>
+      <c r="N31" s="203"/>
       <c r="O31" s="158"/>
     </row>
     <row r="32" spans="1:15" ht="16" thickBot="1">
       <c r="A32" s="84"/>
       <c r="B32" s="88"/>
-      <c r="C32" s="271">
+      <c r="C32" s="204">
         <f>Utilidad!I105</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="272"/>
-      <c r="E32" s="273"/>
+        <v>0.11504866580773521</v>
+      </c>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206"/>
       <c r="F32" s="154"/>
       <c r="G32" s="154"/>
-      <c r="H32" s="276">
+      <c r="H32" s="210">
         <f>Utilidad!I94</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="277"/>
-      <c r="J32" s="278"/>
+        <v>0.47536130253454256</v>
+      </c>
+      <c r="I32" s="211"/>
+      <c r="J32" s="212"/>
       <c r="K32" s="154"/>
-      <c r="L32" s="282">
+      <c r="L32" s="216">
         <f>Utilidad!I104</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="283"/>
-      <c r="N32" s="284"/>
+        <v>0.64298315605996326</v>
+      </c>
+      <c r="M32" s="217"/>
+      <c r="N32" s="218"/>
       <c r="O32" s="158"/>
     </row>
     <row r="33" spans="1:15" ht="16" thickBot="1">
       <c r="A33" s="84"/>
       <c r="B33" s="88"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="275"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="209"/>
       <c r="F33" s="154"/>
       <c r="G33" s="154"/>
-      <c r="H33" s="279"/>
-      <c r="I33" s="280"/>
-      <c r="J33" s="281"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="215"/>
       <c r="K33" s="154"/>
-      <c r="L33" s="285"/>
-      <c r="M33" s="286"/>
-      <c r="N33" s="287"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="220"/>
+      <c r="N33" s="221"/>
       <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" ht="16" thickBot="1">
@@ -51246,24 +50964,13 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="L32:N33"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:N4"/>
+    <mergeCell ref="E5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="C11:E11"/>
@@ -51277,13 +50984,24 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:N4"/>
-    <mergeCell ref="E5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="L32:N33"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A95887-8845-4743-9B51-01885CCAEA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2176114-3269-DF4A-89CF-3F42E8BC04F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilidad" sheetId="10" r:id="rId1"/>
@@ -554,7 +554,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.000_ ;\-#,##0.000\ "/>
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2137,6 +2137,15 @@
     <xf numFmtId="10" fontId="28" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2158,237 +2167,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2405,6 +2183,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2452,13 +2236,229 @@
     <xf numFmtId="167" fontId="17" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9227,8 +9227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AB0D6-E0E9-6D42-9B21-33D1777F9FE2}">
   <dimension ref="A1:DN306"/>
   <sheetViews>
-    <sheetView topLeftCell="L71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -9246,7 +9246,7 @@
         <v>13202.36645</v>
       </c>
       <c r="B1" s="160">
-        <v>0.58589999999999998</v>
+        <v>0.58178940276000002</v>
       </c>
       <c r="C1" s="160">
         <v>0.55969999999999998</v>
@@ -9372,7 +9372,7 @@
         <v>6778.8554000000004</v>
       </c>
       <c r="B2" s="160">
-        <v>0.58819999999999995</v>
+        <v>0.58760508580000004</v>
       </c>
       <c r="C2" s="160">
         <v>0.56620000000000004</v>
@@ -9629,7 +9629,7 @@
         <v>6423.5110500000001</v>
       </c>
       <c r="B3" s="160">
-        <v>0.58340000000000003</v>
+        <v>0.57565200000000005</v>
       </c>
       <c r="C3" s="160">
         <v>0.55269999999999997</v>
@@ -9755,7 +9755,7 @@
         <v>7852.2802756999999</v>
       </c>
       <c r="B4" s="160">
-        <v>0.43340000000000001</v>
+        <v>0.43262724945999997</v>
       </c>
       <c r="C4" s="160">
         <v>0.4032</v>
@@ -9881,7 +9881,7 @@
         <v>6696.3673878</v>
       </c>
       <c r="B5" s="160">
-        <v>0.43340000000000001</v>
+        <v>0.43399571370000001</v>
       </c>
       <c r="C5" s="160">
         <v>0.40450000000000003</v>
@@ -10007,7 +10007,7 @@
         <v>1155.9128879</v>
       </c>
       <c r="B6" s="160">
-        <v>0.43290000000000001</v>
+        <v>0.42469954192999998</v>
       </c>
       <c r="C6" s="160">
         <v>0.39579999999999999</v>
@@ -10133,7 +10133,7 @@
         <v>2893.7873199999999</v>
       </c>
       <c r="B7" s="160">
-        <v>0.46850000000000003</v>
+        <v>0.46181945569999999</v>
       </c>
       <c r="C7" s="160">
         <v>0.43959999999999999</v>
@@ -10259,7 +10259,7 @@
         <v>-4071.8200099999999</v>
       </c>
       <c r="B8" s="160">
-        <v>0.46810000000000002</v>
+        <v>0.45872746572</v>
       </c>
       <c r="C8" s="160">
         <v>0.43659999999999999</v>
@@ -10385,7 +10385,7 @@
         <v>6965.6073299999998</v>
       </c>
       <c r="B9" s="160">
-        <v>0.46829999999999999</v>
+        <v>0.46001199999999998</v>
       </c>
       <c r="C9" s="160">
         <v>0.43790000000000001</v>
@@ -10508,10 +10508,10 @@
     </row>
     <row r="10" spans="1:118" ht="18.5" customHeight="1">
       <c r="A10" s="160">
-        <v>37005.332999999999</v>
+        <v>0</v>
       </c>
       <c r="B10" s="160">
-        <v>0.35489999999999999</v>
+        <v>0</v>
       </c>
       <c r="C10" s="160">
         <v>0.33629999999999999</v>
@@ -10634,10 +10634,10 @@
     </row>
     <row r="11" spans="1:118" ht="18.5" customHeight="1">
       <c r="A11" s="160">
-        <v>24274.569074999999</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="B11" s="160">
-        <v>0.35639999999999999</v>
+        <v>0.34741</v>
       </c>
       <c r="C11" s="160">
         <v>0.34160000000000001</v>
@@ -10763,7 +10763,7 @@
         <v>12730.763924999999</v>
       </c>
       <c r="B12" s="160">
-        <v>0.35210000000000002</v>
+        <v>0.34741</v>
       </c>
       <c r="C12" s="160">
         <v>0.32619999999999999</v>
@@ -10889,7 +10889,7 @@
         <v>4912.6787609000003</v>
       </c>
       <c r="B13" s="160">
-        <v>0.51600000000000001</v>
+        <v>0.51258839217999996</v>
       </c>
       <c r="C13" s="160">
         <v>0.40699999999999997</v>
@@ -11015,7 +11015,7 @@
         <v>2597.1958393</v>
       </c>
       <c r="B14" s="160">
-        <v>0.51670000000000005</v>
+        <v>0.51840121938999995</v>
       </c>
       <c r="C14" s="160">
         <v>0.41160000000000002</v>
@@ -11141,7 +11141,7 @@
         <v>2315.4829215999998</v>
       </c>
       <c r="B15" s="160">
-        <v>0.51519999999999999</v>
+        <v>0.50606834812000001</v>
       </c>
       <c r="C15" s="160">
         <v>0.40179999999999999</v>
@@ -11267,7 +11267,7 @@
         <v>3667.1989233999998</v>
       </c>
       <c r="B16" s="160">
-        <v>0.42209999999999998</v>
+        <v>0.41720177222999999</v>
       </c>
       <c r="C16" s="160">
         <v>0.37280000000000002</v>
@@ -11393,7 +11393,7 @@
         <v>1145.8164823</v>
       </c>
       <c r="B17" s="160">
-        <v>0.42280000000000001</v>
+        <v>0.42414045878000001</v>
       </c>
       <c r="C17" s="160">
         <v>0.379</v>
@@ -11519,7 +11519,7 @@
         <v>2521.3824411000001</v>
       </c>
       <c r="B18" s="160">
-        <v>0.42180000000000001</v>
+        <v>0.41404855702999999</v>
       </c>
       <c r="C18" s="160">
         <v>0.37</v>
@@ -11771,7 +11771,7 @@
         <v>-1199.0246399</v>
       </c>
       <c r="B20" s="160">
-        <v>0.49659999999999999</v>
+        <v>0.48705999999999999</v>
       </c>
       <c r="C20" s="160">
         <v>0.42920000000000003</v>
@@ -11897,7 +11897,7 @@
         <v>1199.0246399</v>
       </c>
       <c r="B21" s="160">
-        <v>0.49659999999999999</v>
+        <v>0.48705999999999999</v>
       </c>
       <c r="C21" s="160">
         <v>0.42920000000000003</v>
@@ -12023,7 +12023,7 @@
         <v>3277.8028466000001</v>
       </c>
       <c r="B22" s="160">
-        <v>0.52839999999999998</v>
+        <v>0.52594900052000004</v>
       </c>
       <c r="C22" s="160">
         <v>0.43340000000000001</v>
@@ -12149,7 +12149,7 @@
         <v>2109.2036739999999</v>
       </c>
       <c r="B23" s="160">
-        <v>0.52869999999999995</v>
+        <v>0.53032862207999998</v>
       </c>
       <c r="C23" s="160">
         <v>0.43569999999999998</v>
@@ -12275,7 +12275,7 @@
         <v>1168.5991726</v>
       </c>
       <c r="B24" s="160">
-        <v>0.52790000000000004</v>
+        <v>0.51804422520000004</v>
       </c>
       <c r="C24" s="160">
         <v>0.42920000000000003</v>
@@ -12779,7 +12779,7 @@
         <v>1667568</v>
       </c>
       <c r="B28" s="160">
-        <v>0.15010000000000001</v>
+        <v>0.150059</v>
       </c>
       <c r="C28" s="160">
         <v>0.1101</v>
@@ -12902,10 +12902,10 @@
     </row>
     <row r="29" spans="1:118" ht="18.5" customHeight="1">
       <c r="A29" s="160">
-        <v>1042380.0522</v>
+        <v>1067519.7242999999</v>
       </c>
       <c r="B29" s="160">
-        <v>5.2400000000000002E-2</v>
+        <v>5.1526401059999997E-2</v>
       </c>
       <c r="C29" s="160">
         <v>3.8999999999999998E-3</v>
@@ -13028,10 +13028,10 @@
     </row>
     <row r="30" spans="1:118" ht="18.5" customHeight="1">
       <c r="A30" s="160">
-        <v>625187.94782999996</v>
+        <v>600048.27572000003</v>
       </c>
       <c r="B30" s="160">
-        <v>0.31280000000000002</v>
+        <v>0.3253540506</v>
       </c>
       <c r="C30" s="160">
         <v>0.28720000000000001</v>
@@ -13154,10 +13154,10 @@
     </row>
     <row r="31" spans="1:118" ht="18.5" customHeight="1">
       <c r="A31" s="160">
-        <v>96883.249754000004</v>
+        <v>56567.444624000003</v>
       </c>
       <c r="B31" s="160">
-        <v>5.8000000000000003E-2</v>
+        <v>5.6848615137E-2</v>
       </c>
       <c r="C31" s="160">
         <v>3.2000000000000002E-3</v>
@@ -13280,10 +13280,10 @@
     </row>
     <row r="32" spans="1:118" ht="18.5" customHeight="1">
       <c r="A32" s="160">
-        <v>528304.69808</v>
+        <v>543480.83109999995</v>
       </c>
       <c r="B32" s="160">
-        <v>0.35949999999999999</v>
+        <v>0.35330106451999999</v>
       </c>
       <c r="C32" s="160">
         <v>0.33929999999999999</v>
@@ -13406,10 +13406,10 @@
     </row>
     <row r="33" spans="1:118" ht="18.5" customHeight="1">
       <c r="A33" s="160">
-        <v>94163.869506999996</v>
+        <v>0</v>
       </c>
       <c r="B33" s="160">
-        <v>0.3775</v>
+        <v>0</v>
       </c>
       <c r="C33" s="160">
         <v>0.35870000000000002</v>
@@ -13535,7 +13535,7 @@
         <v>34480.284368000001</v>
       </c>
       <c r="B34" s="160">
-        <v>0.44840000000000002</v>
+        <v>0.44143576431999998</v>
       </c>
       <c r="C34" s="160">
         <v>0.40870000000000001</v>
@@ -13658,10 +13658,10 @@
     </row>
     <row r="35" spans="1:118" ht="18.5" customHeight="1">
       <c r="A35" s="160">
-        <v>416813.64674</v>
+        <v>541917.34834999999</v>
       </c>
       <c r="B35" s="160">
-        <v>0.36230000000000001</v>
+        <v>0.35715981573</v>
       </c>
       <c r="C35" s="160">
         <v>0.33939999999999998</v>
@@ -13784,10 +13784,10 @@
     </row>
     <row r="36" spans="1:118" ht="18.5" customHeight="1">
       <c r="A36" s="160">
-        <v>108297.44338</v>
+        <v>132377.28390000001</v>
       </c>
       <c r="B36" s="160">
-        <v>5.7299999999999997E-2</v>
+        <v>5.8241999577999998E-2</v>
       </c>
       <c r="C36" s="160">
         <v>9.5999999999999992E-3</v>
@@ -13910,10 +13910,10 @@
     </row>
     <row r="37" spans="1:118" ht="18.5" customHeight="1">
       <c r="A37" s="160">
-        <v>323318.33656000003</v>
+        <v>419411.81365999999</v>
       </c>
       <c r="B37" s="160">
-        <v>0.46560000000000001</v>
+        <v>0.45248588284000002</v>
       </c>
       <c r="C37" s="160">
         <v>0.45190000000000002</v>
@@ -14036,10 +14036,10 @@
     </row>
     <row r="38" spans="1:118" ht="18.5" customHeight="1">
       <c r="A38" s="160">
-        <v>74739.665452000001</v>
+        <v>105103.90360999999</v>
       </c>
       <c r="B38" s="160">
-        <v>8.9700000000000002E-2</v>
+        <v>9.2564999676000001E-2</v>
       </c>
       <c r="C38" s="160">
         <v>5.1400000000000001E-2</v>
@@ -14162,10 +14162,10 @@
     </row>
     <row r="39" spans="1:118" ht="18.5" customHeight="1">
       <c r="A39" s="160">
-        <v>248578.67111</v>
+        <v>314307.91003999999</v>
       </c>
       <c r="B39" s="160">
-        <v>0.5786</v>
+        <v>0.57284266866</v>
       </c>
       <c r="C39" s="160">
         <v>0.57230000000000003</v>
@@ -14288,10 +14288,10 @@
     </row>
     <row r="40" spans="1:118" ht="18.5" customHeight="1">
       <c r="A40" s="160">
-        <v>25296.16849</v>
+        <v>37852.859477999998</v>
       </c>
       <c r="B40" s="160">
-        <v>0.40389999999999998</v>
+        <v>0.45334666667000001</v>
       </c>
       <c r="C40" s="160">
         <v>0.40310000000000001</v>
@@ -14414,10 +14414,10 @@
     </row>
     <row r="41" spans="1:118" ht="18.5" customHeight="1">
       <c r="A41" s="160">
-        <v>223282.50262000001</v>
+        <v>276455.05057000002</v>
       </c>
       <c r="B41" s="160">
-        <v>0.59840000000000004</v>
+        <v>0.58920433528000005</v>
       </c>
       <c r="C41" s="160">
         <v>0.59150000000000003</v>
@@ -14540,10 +14540,10 @@
     </row>
     <row r="42" spans="1:118" ht="18.5" customHeight="1">
       <c r="A42" s="160">
-        <v>71918.502619000006</v>
+        <v>125091.05057000001</v>
       </c>
       <c r="B42" s="160">
-        <v>0.49309999999999998</v>
+        <v>0.51757576909000003</v>
       </c>
       <c r="C42" s="160">
         <v>0.48909999999999998</v>
@@ -14666,10 +14666,10 @@
     </row>
     <row r="43" spans="1:118" ht="18.5" customHeight="1">
       <c r="A43" s="160">
-        <v>152012.95337999999</v>
+        <v>152661.90461999999</v>
       </c>
       <c r="B43" s="160">
-        <v>0.64780000000000004</v>
+        <v>0.64708926321000004</v>
       </c>
       <c r="C43" s="160">
         <v>0.63939999999999997</v>
@@ -14792,10 +14792,10 @@
     </row>
     <row r="44" spans="1:118" ht="18.5" customHeight="1">
       <c r="A44" s="160">
-        <v>648.95338264999998</v>
+        <v>1297.9046232000001</v>
       </c>
       <c r="B44" s="160">
-        <v>0.4965</v>
+        <v>0.49422875247999998</v>
       </c>
       <c r="C44" s="160">
         <v>0.48</v>
@@ -15170,10 +15170,10 @@
     </row>
     <row r="47" spans="1:118" ht="18.5" customHeight="1">
       <c r="A47" s="160">
-        <v>1513678.9513999999</v>
+        <v>1524512.2664999999</v>
       </c>
       <c r="B47" s="160">
-        <v>0.10199999999999999</v>
+        <v>0.10335414066</v>
       </c>
       <c r="C47" s="160">
         <v>5.8400000000000001E-2</v>
@@ -15296,10 +15296,10 @@
     </row>
     <row r="48" spans="1:118" ht="18.5" customHeight="1">
       <c r="A48" s="160">
-        <v>14802.1332</v>
+        <v>9871.7492098999992</v>
       </c>
       <c r="B48" s="160">
-        <v>0.38640000000000002</v>
+        <v>0.39878871811</v>
       </c>
       <c r="C48" s="160">
         <v>0.38450000000000001</v>
@@ -15422,10 +15422,10 @@
     </row>
     <row r="49" spans="1:118" ht="18.5" customHeight="1">
       <c r="A49" s="160">
-        <v>51807.466200000003</v>
+        <v>37745.439659999996</v>
       </c>
       <c r="B49" s="160">
-        <v>0.3639</v>
+        <v>0.36144720000000002</v>
       </c>
       <c r="C49" s="160">
         <v>0.35010000000000002</v>
@@ -15548,10 +15548,10 @@
     </row>
     <row r="50" spans="1:118" ht="18.5" customHeight="1">
       <c r="A50" s="160">
-        <v>476497.23187999998</v>
+        <v>11573.42175</v>
       </c>
       <c r="B50" s="160">
-        <v>0.35909999999999997</v>
+        <v>0.33677499999999999</v>
       </c>
       <c r="C50" s="160">
         <v>0.3382</v>
@@ -15674,10 +15674,10 @@
     </row>
     <row r="51" spans="1:118" ht="18.5" customHeight="1">
       <c r="A51" s="160">
-        <v>1</v>
+        <v>47617.188869999998</v>
       </c>
       <c r="B51" s="160">
-        <v>1</v>
+        <v>0.36918865031999998</v>
       </c>
       <c r="C51" s="160">
         <v>1</v>
@@ -15800,10 +15800,10 @@
     </row>
     <row r="52" spans="1:118" ht="18.5" customHeight="1">
       <c r="A52" s="160">
-        <v>1</v>
+        <v>495863.64223</v>
       </c>
       <c r="B52" s="160">
-        <v>1</v>
+        <v>0.35177539877000003</v>
       </c>
       <c r="C52" s="160">
         <v>1</v>
@@ -15926,10 +15926,10 @@
     </row>
     <row r="53" spans="1:118" ht="18.5" customHeight="1">
       <c r="A53" s="160">
-        <v>1</v>
+        <v>26172.017909999999</v>
       </c>
       <c r="B53" s="160">
-        <v>1</v>
+        <v>0.37235739336000001</v>
       </c>
       <c r="C53" s="160">
         <v>1</v>
@@ -17508,17 +17508,17 @@
       <c r="I66" s="160"/>
       <c r="J66" s="160"/>
       <c r="K66" s="160"/>
-      <c r="L66" s="198"/>
-      <c r="M66" s="198"/>
+      <c r="L66" s="201"/>
+      <c r="M66" s="201"/>
       <c r="N66" s="160"/>
-      <c r="O66" s="199" t="s">
+      <c r="O66" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="P66" s="199"/>
-      <c r="Q66" s="199"/>
+      <c r="P66" s="202"/>
+      <c r="Q66" s="202"/>
       <c r="R66" s="160"/>
-      <c r="S66" s="200"/>
-      <c r="T66" s="200"/>
+      <c r="S66" s="203"/>
+      <c r="T66" s="203"/>
       <c r="U66" s="64"/>
       <c r="V66" s="64"/>
       <c r="W66" s="65"/>
@@ -17526,10 +17526,10 @@
       <c r="Y66" s="64"/>
       <c r="Z66" s="64"/>
       <c r="AA66" s="64"/>
-      <c r="AB66" s="194"/>
-      <c r="AC66" s="194"/>
-      <c r="AD66" s="194"/>
-      <c r="AE66" s="194"/>
+      <c r="AB66" s="197"/>
+      <c r="AC66" s="197"/>
+      <c r="AD66" s="197"/>
+      <c r="AE66" s="197"/>
       <c r="AF66" s="64"/>
       <c r="AG66" s="64"/>
       <c r="AH66" s="64"/>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="P68" s="172">
         <f t="shared" ref="P68:Q68" si="1">B1</f>
-        <v>0.58589999999999998</v>
+        <v>0.58178940276000002</v>
       </c>
       <c r="Q68" s="172">
         <f t="shared" si="1"/>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="R68" s="173">
         <f>P68*O68</f>
-        <v>7735.2665030549997</v>
+        <v>7680.9968919641615</v>
       </c>
       <c r="S68" s="174"/>
       <c r="T68" s="174"/>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="P69" s="172">
         <f t="shared" ref="P69:P112" si="3">B2</f>
-        <v>0.58819999999999995</v>
+        <v>0.58760508580000004</v>
       </c>
       <c r="Q69" s="172">
         <f t="shared" ref="Q69:Q112" si="4">C2</f>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="R69" s="173">
         <f t="shared" ref="R69:R117" si="5">P69*O69</f>
-        <v>3987.32274628</v>
+        <v>3983.2899089427938</v>
       </c>
       <c r="S69" s="174"/>
       <c r="T69" s="174"/>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="P70" s="172">
         <f t="shared" si="3"/>
-        <v>0.58340000000000003</v>
+        <v>0.57565200000000005</v>
       </c>
       <c r="Q70" s="172">
         <f t="shared" si="4"/>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="R70" s="173">
         <f t="shared" si="5"/>
-        <v>3747.4763465700003</v>
+        <v>3697.7069829546003</v>
       </c>
       <c r="S70" s="174"/>
       <c r="T70" s="174"/>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="P71" s="172">
         <f t="shared" si="3"/>
-        <v>0.43340000000000001</v>
+        <v>0.43262724945999997</v>
       </c>
       <c r="Q71" s="172">
         <f t="shared" si="4"/>
@@ -18177,7 +18177,7 @@
       </c>
       <c r="R71" s="173">
         <f t="shared" si="5"/>
-        <v>3403.1782714883802</v>
+        <v>3397.1104176651011</v>
       </c>
       <c r="S71" s="174"/>
       <c r="T71" s="174"/>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="P72" s="172">
         <f t="shared" si="3"/>
-        <v>0.43340000000000001</v>
+        <v>0.43399571370000001</v>
       </c>
       <c r="Q72" s="172">
         <f t="shared" si="4"/>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="R72" s="173">
         <f t="shared" si="5"/>
-        <v>2902.2056258725202</v>
+        <v>2906.1947436656656</v>
       </c>
       <c r="S72" s="174"/>
       <c r="T72" s="174"/>
@@ -18437,7 +18437,7 @@
       </c>
       <c r="P73" s="172">
         <f t="shared" si="3"/>
-        <v>0.43290000000000001</v>
+        <v>0.42469954192999998</v>
       </c>
       <c r="Q73" s="172">
         <f t="shared" si="4"/>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="R73" s="173">
         <f t="shared" si="5"/>
-        <v>500.39468917190999</v>
+        <v>490.91567400211341</v>
       </c>
       <c r="S73" s="174"/>
       <c r="T73" s="174"/>
@@ -18571,7 +18571,7 @@
       </c>
       <c r="P74" s="172">
         <f t="shared" si="3"/>
-        <v>0.46850000000000003</v>
+        <v>0.46181945569999999</v>
       </c>
       <c r="Q74" s="172">
         <f t="shared" si="4"/>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="R74" s="173">
         <f t="shared" si="5"/>
-        <v>1355.73935942</v>
+        <v>1336.4072850339617</v>
       </c>
       <c r="S74" s="174"/>
       <c r="T74" s="174"/>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="P75" s="172">
         <f t="shared" si="3"/>
-        <v>0.46810000000000002</v>
+        <v>0.45872746572</v>
       </c>
       <c r="Q75" s="172">
         <f t="shared" si="4"/>
@@ -18713,7 +18713,7 @@
       </c>
       <c r="R75" s="173">
         <f t="shared" si="5"/>
-        <v>-1906.018946681</v>
+        <v>-1867.8556740552851</v>
       </c>
       <c r="S75" s="174"/>
       <c r="T75" s="174"/>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="P76" s="172">
         <f t="shared" si="3"/>
-        <v>0.46829999999999999</v>
+        <v>0.46001199999999998</v>
       </c>
       <c r="Q76" s="172">
         <f t="shared" si="4"/>
@@ -18847,7 +18847,7 @@
       </c>
       <c r="R76" s="173">
         <f t="shared" si="5"/>
-        <v>3261.993912639</v>
+        <v>3204.2629590879596</v>
       </c>
       <c r="S76" s="174"/>
       <c r="T76" s="174"/>
@@ -18969,11 +18969,11 @@
       </c>
       <c r="O77" s="171">
         <f t="shared" si="2"/>
-        <v>37005.332999999999</v>
+        <v>0</v>
       </c>
       <c r="P77" s="172">
         <f t="shared" si="3"/>
-        <v>0.35489999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="172">
         <f t="shared" si="4"/>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="R77" s="173">
         <f t="shared" si="5"/>
-        <v>13133.192681699999</v>
+        <v>0</v>
       </c>
       <c r="S77" s="174"/>
       <c r="T77" s="174"/>
@@ -19103,11 +19103,11 @@
       </c>
       <c r="O78" s="171">
         <f t="shared" si="2"/>
-        <v>24274.569074999999</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="P78" s="172">
         <f t="shared" si="3"/>
-        <v>0.35639999999999999</v>
+        <v>0.34741</v>
       </c>
       <c r="Q78" s="172">
         <f t="shared" si="4"/>
@@ -19115,7 +19115,7 @@
       </c>
       <c r="R78" s="173">
         <f t="shared" si="5"/>
-        <v>8651.456418329999</v>
+        <v>4422.7946951842496</v>
       </c>
       <c r="S78" s="174"/>
       <c r="T78" s="174"/>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="P79" s="172">
         <f t="shared" si="3"/>
-        <v>0.35210000000000002</v>
+        <v>0.34741</v>
       </c>
       <c r="Q79" s="172">
         <f t="shared" si="4"/>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="R79" s="173">
         <f t="shared" si="5"/>
-        <v>4482.5019779924996</v>
+        <v>4422.7946951842496</v>
       </c>
       <c r="S79" s="174"/>
       <c r="T79" s="174"/>
@@ -19375,7 +19375,7 @@
       </c>
       <c r="P80" s="172">
         <f t="shared" si="3"/>
-        <v>0.51600000000000001</v>
+        <v>0.51258839217999996</v>
       </c>
       <c r="Q80" s="172">
         <f t="shared" si="4"/>
@@ -19383,7 +19383,7 @@
       </c>
       <c r="R80" s="173">
         <f t="shared" si="5"/>
-        <v>2534.9422406244003</v>
+        <v>2518.1821073465658</v>
       </c>
       <c r="S80" s="174"/>
       <c r="T80" s="174"/>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="P81" s="172">
         <f t="shared" si="3"/>
-        <v>0.51670000000000005</v>
+        <v>0.51840121938999995</v>
       </c>
       <c r="Q81" s="172">
         <f t="shared" si="4"/>
@@ -19517,7 +19517,7 @@
       </c>
       <c r="R81" s="173">
         <f t="shared" si="5"/>
-        <v>1341.9710901663102</v>
+        <v>1346.3894900877544</v>
       </c>
       <c r="S81" s="174"/>
       <c r="T81" s="174"/>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="P82" s="172">
         <f t="shared" si="3"/>
-        <v>0.51519999999999999</v>
+        <v>0.50606834812000001</v>
       </c>
       <c r="Q82" s="172">
         <f t="shared" si="4"/>
@@ -19651,7 +19651,7 @@
       </c>
       <c r="R82" s="173">
         <f t="shared" si="5"/>
-        <v>1192.9368012083198</v>
+        <v>1171.7926172341834</v>
       </c>
       <c r="S82" s="174"/>
       <c r="T82" s="174"/>
@@ -19777,7 +19777,7 @@
       </c>
       <c r="P83" s="172">
         <f t="shared" si="3"/>
-        <v>0.42209999999999998</v>
+        <v>0.41720177222999999</v>
       </c>
       <c r="Q83" s="172">
         <f t="shared" si="4"/>
@@ -19785,7 +19785,7 @@
       </c>
       <c r="R83" s="173">
         <f t="shared" si="5"/>
-        <v>1547.9246655671398</v>
+        <v>1529.9618899624279</v>
       </c>
       <c r="S83" s="174"/>
       <c r="T83" s="174"/>
@@ -19911,7 +19911,7 @@
       </c>
       <c r="P84" s="172">
         <f t="shared" si="3"/>
-        <v>0.42280000000000001</v>
+        <v>0.42414045878000001</v>
       </c>
       <c r="Q84" s="172">
         <f t="shared" si="4"/>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="R84" s="173">
         <f t="shared" si="5"/>
-        <v>484.45120871644002</v>
+        <v>485.98712848040776</v>
       </c>
       <c r="S84" s="174"/>
       <c r="T84" s="174"/>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="P85" s="172">
         <f t="shared" si="3"/>
-        <v>0.42180000000000001</v>
+        <v>0.41404855702999999</v>
       </c>
       <c r="Q85" s="172">
         <f t="shared" si="4"/>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="R85" s="173">
         <f t="shared" si="5"/>
-        <v>1063.5191136559799</v>
+        <v>1043.9747614582338</v>
       </c>
       <c r="S85" s="174"/>
       <c r="T85" s="174"/>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="P87" s="172">
         <f t="shared" si="3"/>
-        <v>0.49659999999999999</v>
+        <v>0.48705999999999999</v>
       </c>
       <c r="Q87" s="172">
         <f t="shared" si="4"/>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="R87" s="173">
         <f t="shared" si="5"/>
-        <v>-595.43563617433995</v>
+        <v>-583.99694110969403</v>
       </c>
       <c r="S87" s="174"/>
       <c r="T87" s="174"/>
@@ -20470,7 +20470,7 @@
       </c>
       <c r="P88" s="172">
         <f t="shared" si="3"/>
-        <v>0.49659999999999999</v>
+        <v>0.48705999999999999</v>
       </c>
       <c r="Q88" s="172">
         <f t="shared" si="4"/>
@@ -20478,7 +20478,7 @@
       </c>
       <c r="R88" s="173">
         <f t="shared" si="5"/>
-        <v>595.43563617433995</v>
+        <v>583.99694110969403</v>
       </c>
       <c r="S88" s="174"/>
       <c r="T88" s="174"/>
@@ -20587,31 +20587,31 @@
       </c>
       <c r="B89" s="179">
         <f>+P95</f>
-        <v>0.15010000000000001</v>
+        <v>0.150059</v>
       </c>
       <c r="C89" s="179">
         <f>+P97</f>
-        <v>0.31280000000000002</v>
+        <v>0.3253540506</v>
       </c>
       <c r="D89" s="179">
         <f>+P102</f>
-        <v>0.36230000000000001</v>
+        <v>0.35715981573</v>
       </c>
       <c r="E89" s="179">
         <f>+P104</f>
-        <v>0.46560000000000001</v>
+        <v>0.45248588284000002</v>
       </c>
       <c r="F89" s="179">
         <f>+P106</f>
-        <v>0.5786</v>
+        <v>0.57284266866</v>
       </c>
       <c r="G89" s="179">
         <f>+P108</f>
-        <v>0.59840000000000004</v>
+        <v>0.58920433528000005</v>
       </c>
       <c r="H89" s="179">
         <f>+P110</f>
-        <v>0.64780000000000004</v>
+        <v>0.64708926321000004</v>
       </c>
       <c r="I89" s="180"/>
       <c r="J89" s="160"/>
@@ -20627,7 +20627,7 @@
       </c>
       <c r="P89" s="172">
         <f t="shared" si="3"/>
-        <v>0.52839999999999998</v>
+        <v>0.52594900052000004</v>
       </c>
       <c r="Q89" s="172">
         <f t="shared" si="4"/>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="R89" s="173">
         <f t="shared" si="5"/>
-        <v>1731.99102414344</v>
+        <v>1723.9571310708811</v>
       </c>
       <c r="S89" s="174"/>
       <c r="T89" s="174"/>
@@ -20744,27 +20744,27 @@
       </c>
       <c r="B90" s="179">
         <f>+P97</f>
-        <v>0.31280000000000002</v>
+        <v>0.3253540506</v>
       </c>
       <c r="C90" s="179">
         <f>+P99</f>
-        <v>0.35949999999999999</v>
+        <v>0.35330106451999999</v>
       </c>
       <c r="D90" s="179">
         <f>+P104</f>
-        <v>0.46560000000000001</v>
+        <v>0.45248588284000002</v>
       </c>
       <c r="E90" s="179">
         <f>+P106</f>
-        <v>0.5786</v>
+        <v>0.57284266866</v>
       </c>
       <c r="F90" s="179">
         <f>+P108</f>
-        <v>0.59840000000000004</v>
+        <v>0.58920433528000005</v>
       </c>
       <c r="G90" s="179">
         <f>+P110</f>
-        <v>0.64780000000000004</v>
+        <v>0.64708926321000004</v>
       </c>
       <c r="H90" s="179">
         <f>+P113</f>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="P90" s="172">
         <f t="shared" si="3"/>
-        <v>0.52869999999999995</v>
+        <v>0.53032862207999998</v>
       </c>
       <c r="Q90" s="172">
         <f t="shared" si="4"/>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="R90" s="173">
         <f t="shared" si="5"/>
-        <v>1115.1359824437998</v>
+        <v>1118.5710781184935</v>
       </c>
       <c r="S90" s="174"/>
       <c r="T90" s="174"/>
@@ -20904,31 +20904,31 @@
       </c>
       <c r="B91" s="179">
         <f>+P96</f>
-        <v>5.2400000000000002E-2</v>
+        <v>5.1526401059999997E-2</v>
       </c>
       <c r="C91" s="179">
         <f>+P98</f>
-        <v>5.8000000000000003E-2</v>
+        <v>5.6848615137E-2</v>
       </c>
       <c r="D91" s="179">
         <f>+P103</f>
-        <v>5.7299999999999997E-2</v>
+        <v>5.8241999577999998E-2</v>
       </c>
       <c r="E91" s="179">
         <f>+P105</f>
-        <v>8.9700000000000002E-2</v>
+        <v>9.2564999676000001E-2</v>
       </c>
       <c r="F91" s="179">
         <f>+P107</f>
-        <v>0.40389999999999998</v>
+        <v>0.45334666667000001</v>
       </c>
       <c r="G91" s="179">
         <f>+P109</f>
-        <v>0.49309999999999998</v>
+        <v>0.51757576909000003</v>
       </c>
       <c r="H91" s="179">
         <f>+P111</f>
-        <v>0.4965</v>
+        <v>0.49422875247999998</v>
       </c>
       <c r="I91" s="180"/>
       <c r="J91" s="160"/>
@@ -20944,7 +20944,7 @@
       </c>
       <c r="P91" s="172">
         <f t="shared" si="3"/>
-        <v>0.52790000000000004</v>
+        <v>0.51804422520000004</v>
       </c>
       <c r="Q91" s="172">
         <f t="shared" si="4"/>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="R91" s="173">
         <f t="shared" si="5"/>
-        <v>616.90350321554001</v>
+        <v>605.38605293892806</v>
       </c>
       <c r="S91" s="174"/>
       <c r="T91" s="174"/>
@@ -21332,35 +21332,35 @@
       </c>
       <c r="B94" s="182">
         <f>+IF((B90-B91)&lt;&gt;0,(B90/B89)*(B89-B91)/(B90-B91),0)</f>
-        <v>0.78187915685497944</v>
+        <v>0.78018358678480115</v>
       </c>
       <c r="C94" s="182">
         <f t="shared" ref="C94:H94" si="6">+IF((C90-C91)&lt;&gt;0,(C90/C89)*(C89-C91)/(C90-C91),0)</f>
-        <v>0.97127957823839028</v>
+        <v>0.98352808700045968</v>
       </c>
       <c r="D94" s="182">
         <f t="shared" si="6"/>
-        <v>0.9599864365614168</v>
+        <v>0.96057057912951072</v>
       </c>
       <c r="E94" s="182">
         <f t="shared" si="6"/>
-        <v>0.95547151927428087</v>
+        <v>0.94873511861277904</v>
       </c>
       <c r="F94" s="182">
         <f t="shared" si="6"/>
-        <v>0.92893741386219886</v>
+        <v>0.90469000443829217</v>
       </c>
       <c r="G94" s="182">
         <f t="shared" si="6"/>
-        <v>0.73686413067900969</v>
+        <v>0.60739260178211285</v>
       </c>
       <c r="H94" s="182">
         <f t="shared" si="6"/>
-        <v>0.99697258620405838</v>
+        <v>0.99350654378489989</v>
       </c>
       <c r="I94" s="184">
         <f>+B94*C94*D94*E94*F94*G94*H94</f>
-        <v>0.47536130253454256</v>
+        <v>0.38176653442745873</v>
       </c>
       <c r="J94" s="160"/>
       <c r="K94" s="160"/>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="P95" s="172">
         <f t="shared" si="3"/>
-        <v>0.15010000000000001</v>
+        <v>0.150059</v>
       </c>
       <c r="Q95" s="172">
         <f t="shared" si="4"/>
@@ -21517,7 +21517,7 @@
       </c>
       <c r="R95" s="173">
         <f t="shared" si="5"/>
-        <v>250301.95680000001</v>
+        <v>250233.58651200001</v>
       </c>
       <c r="S95" s="174"/>
       <c r="T95" s="174"/>
@@ -21639,11 +21639,11 @@
       </c>
       <c r="O96" s="171">
         <f t="shared" si="2"/>
-        <v>1042380.0522</v>
+        <v>1067519.7242999999</v>
       </c>
       <c r="P96" s="172">
         <f t="shared" si="3"/>
-        <v>5.2400000000000002E-2</v>
+        <v>5.1526401059999997E-2</v>
       </c>
       <c r="Q96" s="172">
         <f t="shared" si="4"/>
@@ -21651,7 +21651,7 @@
       </c>
       <c r="R96" s="173">
         <f t="shared" si="5"/>
-        <v>54620.714735280002</v>
+        <v>55005.449453742418</v>
       </c>
       <c r="S96" s="174"/>
       <c r="T96" s="174"/>
@@ -21773,11 +21773,11 @@
       </c>
       <c r="O97" s="171">
         <f t="shared" si="2"/>
-        <v>625187.94782999996</v>
+        <v>600048.27572000003</v>
       </c>
       <c r="P97" s="172">
         <f t="shared" si="3"/>
-        <v>0.31280000000000002</v>
+        <v>0.3253540506</v>
       </c>
       <c r="Q97" s="172">
         <f t="shared" si="4"/>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="R97" s="173">
         <f t="shared" si="5"/>
-        <v>195558.790081224</v>
+        <v>195228.13706104763</v>
       </c>
       <c r="S97" s="174"/>
       <c r="T97" s="174"/>
@@ -21909,11 +21909,11 @@
       </c>
       <c r="O98" s="171">
         <f t="shared" si="2"/>
-        <v>96883.249754000004</v>
+        <v>56567.444624000003</v>
       </c>
       <c r="P98" s="172">
         <f t="shared" si="3"/>
-        <v>5.8000000000000003E-2</v>
+        <v>5.6848615137E-2</v>
       </c>
       <c r="Q98" s="172">
         <f t="shared" si="4"/>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="R98" s="173">
         <f t="shared" si="5"/>
-        <v>5619.2284857320001</v>
+        <v>3215.780888713336</v>
       </c>
       <c r="S98" s="174"/>
       <c r="T98" s="174"/>
@@ -22066,11 +22066,11 @@
       </c>
       <c r="O99" s="171">
         <f t="shared" si="2"/>
-        <v>528304.69808</v>
+        <v>543480.83109999995</v>
       </c>
       <c r="P99" s="172">
         <f t="shared" si="3"/>
-        <v>0.35949999999999999</v>
+        <v>0.35330106451999999</v>
       </c>
       <c r="Q99" s="172">
         <f t="shared" si="4"/>
@@ -22078,7 +22078,7 @@
       </c>
       <c r="R99" s="173">
         <f t="shared" si="5"/>
-        <v>189925.53895975999</v>
+        <v>192012.35617384431</v>
       </c>
       <c r="S99" s="174"/>
       <c r="T99" s="174"/>
@@ -22226,11 +22226,11 @@
       </c>
       <c r="O100" s="171">
         <f t="shared" si="2"/>
-        <v>94163.869506999996</v>
+        <v>0</v>
       </c>
       <c r="P100" s="172">
         <f t="shared" si="3"/>
-        <v>0.3775</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="172">
         <f t="shared" si="4"/>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="R100" s="173">
         <f t="shared" si="5"/>
-        <v>35546.860738892501</v>
+        <v>0</v>
       </c>
       <c r="S100" s="174"/>
       <c r="T100" s="174"/>
@@ -22387,7 +22387,7 @@
       </c>
       <c r="P101" s="172">
         <f t="shared" si="3"/>
-        <v>0.44840000000000002</v>
+        <v>0.44143576431999998</v>
       </c>
       <c r="Q101" s="172">
         <f t="shared" si="4"/>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="R101" s="173">
         <f t="shared" si="5"/>
-        <v>15460.959510611201</v>
+        <v>15220.830683959028</v>
       </c>
       <c r="S101" s="174"/>
       <c r="T101" s="174"/>
@@ -22517,11 +22517,11 @@
       </c>
       <c r="O102" s="171">
         <f t="shared" si="2"/>
-        <v>416813.64674</v>
+        <v>541917.34834999999</v>
       </c>
       <c r="P102" s="172">
         <f t="shared" si="3"/>
-        <v>0.36230000000000001</v>
+        <v>0.35715981573</v>
       </c>
       <c r="Q102" s="172">
         <f t="shared" si="4"/>
@@ -22529,7 +22529,7 @@
       </c>
       <c r="R102" s="173">
         <f t="shared" si="5"/>
-        <v>151011.58421390201</v>
+        <v>193551.10027757622</v>
       </c>
       <c r="S102" s="174"/>
       <c r="T102" s="174"/>
@@ -22654,11 +22654,11 @@
       </c>
       <c r="O103" s="171">
         <f t="shared" si="2"/>
-        <v>108297.44338</v>
+        <v>132377.28390000001</v>
       </c>
       <c r="P103" s="172">
         <f t="shared" si="3"/>
-        <v>5.7299999999999997E-2</v>
+        <v>5.8241999577999998E-2</v>
       </c>
       <c r="Q103" s="172">
         <f t="shared" si="4"/>
@@ -22666,7 +22666,7 @@
       </c>
       <c r="R103" s="173">
         <f t="shared" si="5"/>
-        <v>6205.4435056739994</v>
+        <v>7709.917713040586</v>
       </c>
       <c r="S103" s="174"/>
       <c r="T103" s="174"/>
@@ -22814,11 +22814,11 @@
       </c>
       <c r="O104" s="171">
         <f t="shared" si="2"/>
-        <v>323318.33656000003</v>
+        <v>419411.81365999999</v>
       </c>
       <c r="P104" s="172">
         <f t="shared" si="3"/>
-        <v>0.46560000000000001</v>
+        <v>0.45248588284000002</v>
       </c>
       <c r="Q104" s="172">
         <f t="shared" si="4"/>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="R104" s="173">
         <f t="shared" si="5"/>
-        <v>150537.01750233601</v>
+        <v>189777.92477747067</v>
       </c>
       <c r="S104" s="174"/>
       <c r="T104" s="174"/>
@@ -22935,35 +22935,35 @@
       </c>
       <c r="B105" s="191">
         <f>O97/O95</f>
-        <v>0.37491001736061136</v>
+        <v>0.35983436700632299</v>
       </c>
       <c r="C105" s="191">
         <f>+O99/O97</f>
-        <v>0.84503340141748173</v>
+        <v>0.90572851067337101</v>
       </c>
       <c r="D105" s="191">
         <f>+O104/O102</f>
-        <v>0.77569038127410339</v>
+        <v>0.77394055557918917</v>
       </c>
       <c r="E105" s="191">
         <f>+O106/O104</f>
-        <v>0.76883567370411066</v>
+        <v>0.74940166157264365</v>
       </c>
       <c r="F105" s="191">
         <f>+O108/O106</f>
-        <v>0.89823676996484536</v>
+        <v>0.87956758878520536</v>
       </c>
       <c r="G105" s="191">
         <f>+O110/O108</f>
-        <v>0.68080996762521861</v>
+        <v>0.55221239150899548</v>
       </c>
       <c r="H105" s="191">
         <f>+O113/O110</f>
-        <v>0.99573093367656806</v>
+        <v>0.99149817616103586</v>
       </c>
       <c r="I105" s="191">
         <f>+B105*C105*D105*E105*F105*G105*H105</f>
-        <v>0.11504866580773521</v>
+        <v>9.1031189996914993E-2</v>
       </c>
       <c r="J105" s="160"/>
       <c r="K105" s="160"/>
@@ -22974,11 +22974,11 @@
       </c>
       <c r="O105" s="171">
         <f t="shared" si="2"/>
-        <v>74739.665452000001</v>
+        <v>105103.90360999999</v>
       </c>
       <c r="P105" s="172">
         <f t="shared" si="3"/>
-        <v>8.9700000000000002E-2</v>
+        <v>9.2564999676000001E-2</v>
       </c>
       <c r="Q105" s="172">
         <f t="shared" si="4"/>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="R105" s="173">
         <f t="shared" si="5"/>
-        <v>6704.1479910444004</v>
+        <v>9728.9428036059853</v>
       </c>
       <c r="S105" s="174"/>
       <c r="T105" s="174"/>
@@ -23108,11 +23108,11 @@
       </c>
       <c r="O106" s="171">
         <f t="shared" si="2"/>
-        <v>248578.67111</v>
+        <v>314307.91003999999</v>
       </c>
       <c r="P106" s="172">
         <f t="shared" si="3"/>
-        <v>0.5786</v>
+        <v>0.57284266866</v>
       </c>
       <c r="Q106" s="172">
         <f t="shared" si="4"/>
@@ -23120,7 +23120,7 @@
       </c>
       <c r="R106" s="173">
         <f t="shared" si="5"/>
-        <v>143827.619104246</v>
+        <v>180048.98196826081</v>
       </c>
       <c r="S106" s="174"/>
       <c r="T106" s="174"/>
@@ -23242,11 +23242,11 @@
       </c>
       <c r="O107" s="171">
         <f t="shared" si="2"/>
-        <v>25296.16849</v>
+        <v>37852.859477999998</v>
       </c>
       <c r="P107" s="172">
         <f t="shared" si="3"/>
-        <v>0.40389999999999998</v>
+        <v>0.45334666667000001</v>
       </c>
       <c r="Q107" s="172">
         <f t="shared" si="4"/>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="R107" s="173">
         <f t="shared" si="5"/>
-        <v>10217.122453111</v>
+        <v>17160.467668279216</v>
       </c>
       <c r="S107" s="174"/>
       <c r="T107" s="174"/>
@@ -23376,11 +23376,11 @@
       </c>
       <c r="O108" s="171">
         <f t="shared" si="2"/>
-        <v>223282.50262000001</v>
+        <v>276455.05057000002</v>
       </c>
       <c r="P108" s="172">
         <f t="shared" si="3"/>
-        <v>0.59840000000000004</v>
+        <v>0.58920433528000005</v>
       </c>
       <c r="Q108" s="172">
         <f t="shared" si="4"/>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="R108" s="173">
         <f t="shared" si="5"/>
-        <v>133612.24956780803</v>
+        <v>162888.51430589566</v>
       </c>
       <c r="S108" s="174"/>
       <c r="T108" s="174"/>
@@ -23510,11 +23510,11 @@
       </c>
       <c r="O109" s="171">
         <f t="shared" si="2"/>
-        <v>71918.502619000006</v>
+        <v>125091.05057000001</v>
       </c>
       <c r="P109" s="172">
         <f t="shared" si="3"/>
-        <v>0.49309999999999998</v>
+        <v>0.51757576909000003</v>
       </c>
       <c r="Q109" s="172">
         <f t="shared" si="4"/>
@@ -23522,7 +23522,7 @@
       </c>
       <c r="R109" s="173">
         <f t="shared" si="5"/>
-        <v>35463.013641428901</v>
+        <v>64744.096705043841</v>
       </c>
       <c r="S109" s="174"/>
       <c r="T109" s="174"/>
@@ -23644,11 +23644,11 @@
       </c>
       <c r="O110" s="171">
         <f t="shared" si="2"/>
-        <v>152012.95337999999</v>
+        <v>152661.90461999999</v>
       </c>
       <c r="P110" s="172">
         <f t="shared" si="3"/>
-        <v>0.64780000000000004</v>
+        <v>0.64708926321000004</v>
       </c>
       <c r="Q110" s="172">
         <f t="shared" si="4"/>
@@ -23656,7 +23656,7 @@
       </c>
       <c r="R110" s="173">
         <f t="shared" si="5"/>
-        <v>98473.991199564</v>
+        <v>98785.879380791099</v>
       </c>
       <c r="S110" s="174"/>
       <c r="T110" s="174"/>
@@ -23778,11 +23778,11 @@
       </c>
       <c r="O111" s="171">
         <f t="shared" si="2"/>
-        <v>648.95338264999998</v>
+        <v>1297.9046232000001</v>
       </c>
       <c r="P111" s="172">
         <f t="shared" si="3"/>
-        <v>0.4965</v>
+        <v>0.49422875247999998</v>
       </c>
       <c r="Q111" s="172">
         <f t="shared" si="4"/>
@@ -23790,7 +23790,7 @@
       </c>
       <c r="R111" s="173">
         <f t="shared" si="5"/>
-        <v>322.20535448572497</v>
+        <v>641.46178276216051</v>
       </c>
       <c r="S111" s="174"/>
       <c r="T111" s="174"/>
@@ -23971,15 +23971,15 @@
         <v>26</v>
       </c>
       <c r="O113" s="171">
-        <f t="shared" ref="O113:O120" si="8">A46</f>
+        <f t="shared" ref="O113:O117" si="8">A46</f>
         <v>151364</v>
       </c>
       <c r="P113" s="172">
-        <f t="shared" ref="P113:P120" si="9">B46</f>
+        <f t="shared" ref="P113:P117" si="9">B46</f>
         <v>0.64839999999999998</v>
       </c>
       <c r="Q113" s="172">
-        <f t="shared" ref="Q113:Q120" si="10">C46</f>
+        <f t="shared" ref="Q113:Q117" si="10">C46</f>
         <v>0.6401</v>
       </c>
       <c r="R113" s="173">
@@ -24106,11 +24106,11 @@
       </c>
       <c r="O114" s="171">
         <f t="shared" si="8"/>
-        <v>1513678.9513999999</v>
+        <v>1524512.2664999999</v>
       </c>
       <c r="P114" s="172">
         <f t="shared" si="9"/>
-        <v>0.10199999999999999</v>
+        <v>0.10335414066</v>
       </c>
       <c r="Q114" s="172">
         <f t="shared" si="10"/>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="R114" s="173">
         <f t="shared" si="5"/>
-        <v>154395.25304279997</v>
+        <v>157564.65522973638</v>
       </c>
       <c r="S114" s="174"/>
       <c r="T114" s="174"/>
@@ -24240,11 +24240,11 @@
       </c>
       <c r="O115" s="171">
         <f t="shared" si="8"/>
-        <v>14802.1332</v>
+        <v>9871.7492098999992</v>
       </c>
       <c r="P115" s="172">
         <f t="shared" si="9"/>
-        <v>0.38640000000000002</v>
+        <v>0.39878871811</v>
       </c>
       <c r="Q115" s="172">
         <f t="shared" si="10"/>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="R115" s="173">
         <f t="shared" si="5"/>
-        <v>5719.54426848</v>
+        <v>3936.742212919426</v>
       </c>
       <c r="S115" s="174"/>
       <c r="T115" s="174"/>
@@ -24374,11 +24374,11 @@
       </c>
       <c r="O116" s="171">
         <f t="shared" si="8"/>
-        <v>51807.466200000003</v>
+        <v>37745.439659999996</v>
       </c>
       <c r="P116" s="172">
         <f t="shared" si="9"/>
-        <v>0.3639</v>
+        <v>0.36144720000000002</v>
       </c>
       <c r="Q116" s="172">
         <f t="shared" si="10"/>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="R116" s="173">
         <f t="shared" si="5"/>
-        <v>18852.736950180002</v>
+        <v>13642.983477875952</v>
       </c>
       <c r="S116" s="174"/>
       <c r="T116" s="174"/>
@@ -24508,11 +24508,11 @@
       </c>
       <c r="O117" s="171">
         <f t="shared" si="8"/>
-        <v>476497.23187999998</v>
+        <v>11573.42175</v>
       </c>
       <c r="P117" s="172">
         <f t="shared" si="9"/>
-        <v>0.35909999999999997</v>
+        <v>0.33677499999999999</v>
       </c>
       <c r="Q117" s="172">
         <f t="shared" si="10"/>
@@ -24520,7 +24520,7 @@
       </c>
       <c r="R117" s="173">
         <f t="shared" si="5"/>
-        <v>171110.15596810798</v>
+        <v>3897.6391098562499</v>
       </c>
       <c r="S117" s="174"/>
       <c r="T117" s="174"/>
@@ -25595,11 +25595,11 @@
       <c r="I126" s="63"/>
       <c r="J126" s="63"/>
       <c r="K126" s="72"/>
-      <c r="L126" s="195"/>
-      <c r="M126" s="195"/>
+      <c r="L126" s="198"/>
+      <c r="M126" s="198"/>
       <c r="N126" s="63"/>
-      <c r="O126" s="195"/>
-      <c r="P126" s="195"/>
+      <c r="O126" s="198"/>
+      <c r="P126" s="198"/>
       <c r="Q126" s="63"/>
       <c r="R126" s="63"/>
       <c r="S126" s="64"/>
@@ -25722,9 +25722,9 @@
       <c r="P127" s="74"/>
       <c r="Q127" s="75"/>
       <c r="R127" s="75"/>
-      <c r="S127" s="196"/>
-      <c r="T127" s="196"/>
-      <c r="U127" s="196"/>
+      <c r="S127" s="199"/>
+      <c r="T127" s="199"/>
+      <c r="U127" s="199"/>
       <c r="V127" s="64"/>
       <c r="W127" s="64"/>
       <c r="X127" s="64"/>
@@ -31715,8 +31715,8 @@
       <c r="I177" s="61"/>
       <c r="J177" s="61"/>
       <c r="K177" s="73"/>
-      <c r="L177" s="197"/>
-      <c r="M177" s="197"/>
+      <c r="L177" s="200"/>
+      <c r="M177" s="200"/>
       <c r="N177" s="75"/>
       <c r="O177" s="75"/>
       <c r="P177" s="75"/>
@@ -47329,8 +47329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T62" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X89" sqref="X89"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -47389,7 +47389,7 @@
       <c r="B6" s="11"/>
       <c r="K6" s="14">
         <f>+Utilidad!P95</f>
-        <v>0.15010000000000001</v>
+        <v>0.150059</v>
       </c>
       <c r="R6" s="12"/>
     </row>
@@ -47401,7 +47401,7 @@
       </c>
       <c r="K7" s="15">
         <f>+Utilidad!R95</f>
-        <v>250301.95680000001</v>
+        <v>250233.58651200001</v>
       </c>
       <c r="R7" s="12"/>
     </row>
@@ -47409,7 +47409,7 @@
       <c r="B8" s="11"/>
       <c r="H8" s="19">
         <f>Utilidad!O78</f>
-        <v>24274.569074999999</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="R8" s="12"/>
     </row>
@@ -47421,11 +47421,11 @@
       </c>
       <c r="H9" s="15">
         <f>Utilidad!R78</f>
-        <v>8651.456418329999</v>
+        <v>4422.7946951842496</v>
       </c>
       <c r="N9" s="13">
         <f>+Utilidad!O96</f>
-        <v>1042380.0522</v>
+        <v>1067519.7242999999</v>
       </c>
       <c r="R9" s="12"/>
     </row>
@@ -47433,11 +47433,11 @@
       <c r="B10" s="11"/>
       <c r="C10" s="17">
         <f>Utilidad!P68</f>
-        <v>0.58589999999999998</v>
+        <v>0.58178940276000002</v>
       </c>
       <c r="N10" s="14">
         <f>+Utilidad!P96</f>
-        <v>5.2400000000000002E-2</v>
+        <v>5.1526401059999997E-2</v>
       </c>
       <c r="R10" s="12"/>
     </row>
@@ -47445,7 +47445,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="18">
         <f>Utilidad!R68</f>
-        <v>7735.2665030549997</v>
+        <v>7680.9968919641615</v>
       </c>
       <c r="F11" s="13">
         <f>Utilidad!O70</f>
@@ -47453,11 +47453,11 @@
       </c>
       <c r="K11" s="13">
         <f>+Utilidad!O97</f>
-        <v>625187.94782999996</v>
+        <v>600048.27572000003</v>
       </c>
       <c r="N11" s="15">
         <f>+Utilidad!R96</f>
-        <v>54620.714735280002</v>
+        <v>55005.449453742418</v>
       </c>
       <c r="R11" s="12"/>
     </row>
@@ -47469,12 +47469,12 @@
       </c>
       <c r="F12" s="14">
         <f>Utilidad!P70</f>
-        <v>0.58340000000000003</v>
+        <v>0.57565200000000005</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" s="14">
         <f>+Utilidad!P97</f>
-        <v>0.31280000000000002</v>
+        <v>0.3253540506</v>
       </c>
       <c r="R12" s="12"/>
     </row>
@@ -47482,19 +47482,19 @@
       <c r="B13" s="11"/>
       <c r="E13" s="15">
         <f>+Utilidad!R69</f>
-        <v>3987.32274628</v>
+        <v>3983.2899089427938</v>
       </c>
       <c r="F13" s="15">
         <f>Utilidad!R70</f>
-        <v>3747.4763465700003</v>
+        <v>3697.7069829546003</v>
       </c>
       <c r="H13" s="23">
         <f>Flujos!B10</f>
-        <v>37005.332999999999</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
         <f>+Utilidad!R97</f>
-        <v>195558.790081224</v>
+        <v>195228.13706104763</v>
       </c>
       <c r="R13" s="12"/>
     </row>
@@ -47502,11 +47502,11 @@
       <c r="B14" s="11"/>
       <c r="H14" s="7">
         <f>Flujos!C10</f>
-        <v>0.35489999999999999</v>
+        <v>0</v>
       </c>
       <c r="L14" s="13">
         <f>+Utilidad!O98</f>
-        <v>96883.249754000004</v>
+        <v>56567.444624000003</v>
       </c>
       <c r="R14" s="12"/>
     </row>
@@ -47514,15 +47514,15 @@
       <c r="B15" s="11"/>
       <c r="H15" s="24">
         <f>H13*H14</f>
-        <v>13133.192681699999</v>
+        <v>0</v>
       </c>
       <c r="L15" s="14">
         <f>+Utilidad!P98</f>
-        <v>5.8000000000000003E-2</v>
+        <v>5.6848615137E-2</v>
       </c>
       <c r="R15" s="20">
         <f>+N9+L14+L29+L36+L41+N45+L22</f>
-        <v>1513678.9514020002</v>
+        <v>1524512.2664819998</v>
       </c>
     </row>
     <row r="16" spans="2:18">
@@ -47530,11 +47530,11 @@
       <c r="H16" s="24"/>
       <c r="L16" s="15">
         <f>+Utilidad!R98</f>
-        <v>5619.2284857320001</v>
+        <v>3215.780888713336</v>
       </c>
       <c r="R16" s="21">
         <f>+IF(R15&lt;&gt;0,(N9*N10+L14*L15+L29*L30+L36*L37+L41*L42+N45*N46+L22*L23)/R15,0)</f>
-        <v>0.10198763179482423</v>
+        <v>0.10335414066298414</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -47543,11 +47543,11 @@
       <c r="G17" s="24"/>
       <c r="K17" s="13">
         <f>+Utilidad!O99</f>
-        <v>528304.69808</v>
+        <v>543480.83109999995</v>
       </c>
       <c r="R17" s="22">
         <f>R15*R16</f>
-        <v>154376.53155116283</v>
+        <v>157564.65523242537</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -47558,11 +47558,11 @@
       </c>
       <c r="I18" s="23">
         <f>Utilidad!O116</f>
-        <v>51807.466200000003</v>
+        <v>37745.439659999996</v>
       </c>
       <c r="K18" s="14">
         <f>+Utilidad!P99</f>
-        <v>0.35949999999999999</v>
+        <v>0.35330106451999999</v>
       </c>
       <c r="R18" s="12"/>
     </row>
@@ -47570,11 +47570,11 @@
       <c r="B19" s="11"/>
       <c r="G19" s="7">
         <f>Flujos!C12</f>
-        <v>0.35210000000000002</v>
+        <v>0.34741</v>
       </c>
       <c r="I19" s="7">
         <f>Utilidad!P116</f>
-        <v>0.3639</v>
+        <v>0.36144720000000002</v>
       </c>
       <c r="K19" s="15"/>
       <c r="R19" s="12"/>
@@ -47583,12 +47583,12 @@
       <c r="B20" s="11"/>
       <c r="G20" s="24">
         <f>G18*G19</f>
-        <v>4482.5019779924996</v>
+        <v>4422.7946951842496</v>
       </c>
       <c r="I20" s="24"/>
       <c r="K20" s="13">
         <f>Utilidad!O117</f>
-        <v>476497.23187999998</v>
+        <v>11573.42175</v>
       </c>
       <c r="R20" s="12"/>
     </row>
@@ -47600,7 +47600,7 @@
       </c>
       <c r="K21" s="14">
         <f>Utilidad!P117</f>
-        <v>0.35909999999999997</v>
+        <v>0.33677499999999999</v>
       </c>
       <c r="R21" s="12"/>
     </row>
@@ -47608,11 +47608,11 @@
       <c r="B22" s="11"/>
       <c r="C22" s="17">
         <f>+Utilidad!P71</f>
-        <v>0.43340000000000001</v>
+        <v>0.43262724945999997</v>
       </c>
       <c r="L22" s="13">
         <f>+Utilidad!O100</f>
-        <v>94163.869506999996</v>
+        <v>0</v>
       </c>
       <c r="R22" s="12"/>
     </row>
@@ -47620,7 +47620,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="18">
         <f>+Utilidad!R71</f>
-        <v>3403.1782714883802</v>
+        <v>3397.1104176651011</v>
       </c>
       <c r="F23" s="13">
         <f>Utilidad!O73</f>
@@ -47628,11 +47628,11 @@
       </c>
       <c r="L23" s="14">
         <f>+Utilidad!P100</f>
-        <v>0.3775</v>
+        <v>0</v>
       </c>
       <c r="R23" s="12">
         <f>R16*R17</f>
-        <v>15744.49685760206</v>
+        <v>16284.959540406691</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -47643,7 +47643,7 @@
       </c>
       <c r="F24" s="14">
         <f>Utilidad!P73</f>
-        <v>0.43290000000000001</v>
+        <v>0.42469954192999998</v>
       </c>
       <c r="G24" s="23">
         <f>+Utilidad!O101</f>
@@ -47652,11 +47652,11 @@
       <c r="I24" s="23"/>
       <c r="K24" s="13">
         <f>Utilidad!O102</f>
-        <v>416813.64674</v>
+        <v>541917.34834999999</v>
       </c>
       <c r="L24" s="15">
         <f>+Utilidad!R100</f>
-        <v>35546.860738892501</v>
+        <v>0</v>
       </c>
       <c r="R24" s="12"/>
     </row>
@@ -47664,20 +47664,20 @@
       <c r="B25" s="11"/>
       <c r="E25" s="15">
         <f>+Utilidad!R72</f>
-        <v>2902.2056258725202</v>
+        <v>2906.1947436656656</v>
       </c>
       <c r="F25" s="15">
         <f>Utilidad!R73</f>
-        <v>500.39468917190999</v>
+        <v>490.91567400211341</v>
       </c>
       <c r="G25" s="7">
         <f>+Utilidad!P101</f>
-        <v>0.44840000000000002</v>
+        <v>0.44143576431999998</v>
       </c>
       <c r="I25" s="7"/>
       <c r="K25" s="14">
         <f>Utilidad!P102</f>
-        <v>0.36230000000000001</v>
+        <v>0.35715981573</v>
       </c>
       <c r="R25" s="12"/>
     </row>
@@ -47686,12 +47686,12 @@
       <c r="C26" s="2"/>
       <c r="G26" s="24">
         <f>+Utilidad!R101</f>
-        <v>15460.959510611201</v>
+        <v>15220.830683959028</v>
       </c>
       <c r="I26" s="24"/>
       <c r="K26" s="15">
         <f>Utilidad!R102</f>
-        <v>151011.58421390201</v>
+        <v>193551.10027757622</v>
       </c>
       <c r="R26" s="12"/>
     </row>
@@ -47708,11 +47708,11 @@
       <c r="B29" s="11"/>
       <c r="H29" s="23">
         <f>Flujos!B48</f>
-        <v>14802.1332</v>
+        <v>9871.7492098999992</v>
       </c>
       <c r="L29" s="13">
         <f>+Utilidad!O103</f>
-        <v>108297.44338</v>
+        <v>132377.28390000001</v>
       </c>
       <c r="N29" s="2"/>
       <c r="R29" s="12"/>
@@ -47721,11 +47721,11 @@
       <c r="B30" s="11"/>
       <c r="H30" s="7">
         <f>Flujos!C48</f>
-        <v>0.38640000000000002</v>
+        <v>0.39878871811</v>
       </c>
       <c r="L30" s="14">
         <f>+Utilidad!P103</f>
-        <v>5.7299999999999997E-2</v>
+        <v>5.8241999577999998E-2</v>
       </c>
       <c r="R30" s="12"/>
     </row>
@@ -47738,11 +47738,11 @@
       <c r="H31" s="23"/>
       <c r="K31" s="13">
         <f>+Utilidad!O104</f>
-        <v>323318.33656000003</v>
+        <v>419411.81365999999</v>
       </c>
       <c r="L31" s="15">
         <f>+Utilidad!R103</f>
-        <v>6205.4435056739994</v>
+        <v>7709.917713040586</v>
       </c>
       <c r="R31" s="12"/>
     </row>
@@ -47750,11 +47750,11 @@
       <c r="B32" s="11"/>
       <c r="C32" s="17">
         <f>+Utilidad!P74</f>
-        <v>0.46850000000000003</v>
+        <v>0.46181945569999999</v>
       </c>
       <c r="K32" s="14">
         <f>+Utilidad!P104</f>
-        <v>0.46560000000000001</v>
+        <v>0.45248588284000002</v>
       </c>
       <c r="R32" s="12"/>
     </row>
@@ -47762,7 +47762,7 @@
       <c r="B33" s="11"/>
       <c r="C33" s="18">
         <f>+Utilidad!R74</f>
-        <v>1355.73935942</v>
+        <v>1336.4072850339617</v>
       </c>
       <c r="F33" s="13">
         <f>+Utilidad!O76</f>
@@ -47771,7 +47771,7 @@
       <c r="H33" s="2"/>
       <c r="K33" s="15">
         <f>+Utilidad!R104</f>
-        <v>150537.01750233601</v>
+        <v>189777.92477747067</v>
       </c>
       <c r="R33" s="12"/>
     </row>
@@ -47783,7 +47783,7 @@
       </c>
       <c r="F34" s="14">
         <f>+Utilidad!P76</f>
-        <v>0.46829999999999999</v>
+        <v>0.46001199999999998</v>
       </c>
       <c r="R34" s="12"/>
     </row>
@@ -47792,11 +47792,11 @@
       <c r="C35" s="2"/>
       <c r="E35" s="15">
         <f>+Utilidad!R75</f>
-        <v>-1906.018946681</v>
+        <v>-1867.8556740552851</v>
       </c>
       <c r="F35" s="15">
         <f>+Utilidad!R76</f>
-        <v>3261.993912639</v>
+        <v>3204.2629590879596</v>
       </c>
       <c r="R35" s="12"/>
     </row>
@@ -47805,7 +47805,7 @@
       <c r="H36" s="2"/>
       <c r="L36" s="13">
         <f>+Utilidad!O105</f>
-        <v>74739.665452000001</v>
+        <v>105103.90360999999</v>
       </c>
       <c r="R36" s="12"/>
     </row>
@@ -47813,7 +47813,7 @@
       <c r="B37" s="11"/>
       <c r="L37" s="14">
         <f>+Utilidad!P105</f>
-        <v>8.9700000000000002E-2</v>
+        <v>9.2564999676000001E-2</v>
       </c>
       <c r="R37" s="12"/>
     </row>
@@ -47821,11 +47821,11 @@
       <c r="B38" s="11"/>
       <c r="K38" s="13">
         <f>+Utilidad!O106</f>
-        <v>248578.67111</v>
+        <v>314307.91003999999</v>
       </c>
       <c r="L38" s="15">
         <f>+Utilidad!R105</f>
-        <v>6704.1479910444004</v>
+        <v>9728.9428036059853</v>
       </c>
       <c r="R38" s="12"/>
     </row>
@@ -47833,7 +47833,7 @@
       <c r="B39" s="11"/>
       <c r="K39" s="14">
         <f>+Utilidad!P106</f>
-        <v>0.5786</v>
+        <v>0.57284266866</v>
       </c>
       <c r="R39" s="12"/>
     </row>
@@ -47841,7 +47841,7 @@
       <c r="B40" s="11"/>
       <c r="K40" s="15">
         <f>+Utilidad!R106</f>
-        <v>143827.619104246</v>
+        <v>180048.98196826081</v>
       </c>
       <c r="R40" s="12"/>
     </row>
@@ -47850,7 +47850,7 @@
       <c r="C41" s="16"/>
       <c r="L41" s="13">
         <f>+Utilidad!O107</f>
-        <v>25296.16849</v>
+        <v>37852.859477999998</v>
       </c>
       <c r="R41" s="12"/>
     </row>
@@ -47859,7 +47859,7 @@
       <c r="C42" s="17"/>
       <c r="L42" s="14">
         <f>+Utilidad!P107</f>
-        <v>0.40389999999999998</v>
+        <v>0.45334666667000001</v>
       </c>
       <c r="R42" s="12"/>
     </row>
@@ -47869,7 +47869,7 @@
       <c r="F43" s="13"/>
       <c r="L43" s="15">
         <f>+Utilidad!R107</f>
-        <v>10217.122453111</v>
+        <v>17160.467668279216</v>
       </c>
       <c r="R43" s="12"/>
     </row>
@@ -47879,7 +47879,7 @@
       <c r="F44" s="14"/>
       <c r="K44" s="50">
         <f>K38-L41</f>
-        <v>223282.50261999998</v>
+        <v>276455.05056200002</v>
       </c>
       <c r="R44" s="12"/>
     </row>
@@ -47889,19 +47889,19 @@
       <c r="F45" s="15"/>
       <c r="I45" s="13">
         <f>Utilidad!O111</f>
-        <v>648.95338264999998</v>
+        <v>1297.9046232000001</v>
       </c>
       <c r="K45" s="3">
         <f>Utilidad!P108</f>
-        <v>0.59840000000000004</v>
+        <v>0.58920433528000005</v>
       </c>
       <c r="L45" s="15">
         <f>K44*K45</f>
-        <v>133612.249567808</v>
+        <v>162888.51430118203</v>
       </c>
       <c r="N45" s="13">
         <f>Utilidad!O109</f>
-        <v>71918.502619000006</v>
+        <v>125091.05057000001</v>
       </c>
       <c r="R45" s="12"/>
     </row>
@@ -47909,11 +47909,11 @@
       <c r="B46" s="11"/>
       <c r="I46" s="14">
         <f>Utilidad!P111</f>
-        <v>0.4965</v>
+        <v>0.49422875247999998</v>
       </c>
       <c r="N46" s="14">
         <f>Utilidad!P109</f>
-        <v>0.49309999999999998</v>
+        <v>0.51757576909000003</v>
       </c>
       <c r="R46" s="12"/>
     </row>
@@ -47921,11 +47921,11 @@
       <c r="B47" s="11"/>
       <c r="I47" s="15">
         <f>Utilidad!R111</f>
-        <v>322.20535448572497</v>
+        <v>641.46178276216051</v>
       </c>
       <c r="N47" s="15">
         <f>Utilidad!R109</f>
-        <v>35463.013641428901</v>
+        <v>64744.096705043841</v>
       </c>
       <c r="R47" s="12"/>
     </row>
@@ -47937,15 +47937,15 @@
       <c r="B49" s="11"/>
       <c r="K49" s="13">
         <f>Utilidad!O110</f>
-        <v>152012.95337999999</v>
+        <v>152661.90461999999</v>
       </c>
       <c r="L49" s="14">
         <f>Utilidad!P110</f>
-        <v>0.64780000000000004</v>
+        <v>0.64708926321000004</v>
       </c>
       <c r="M49" s="15">
         <f>K49*L49</f>
-        <v>98473.991199564</v>
+        <v>98785.879380791099</v>
       </c>
       <c r="R49" s="12"/>
     </row>
@@ -47966,7 +47966,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="17">
         <f>+Utilidad!P80</f>
-        <v>0.51600000000000001</v>
+        <v>0.51258839217999996</v>
       </c>
       <c r="R52" s="12"/>
     </row>
@@ -47974,7 +47974,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="18">
         <f>+Utilidad!R80</f>
-        <v>2534.9422406244003</v>
+        <v>2518.1821073465658</v>
       </c>
       <c r="F53" s="13">
         <f>+Utilidad!O82</f>
@@ -47990,7 +47990,7 @@
       </c>
       <c r="F54" s="14">
         <f>+Utilidad!P82</f>
-        <v>0.51519999999999999</v>
+        <v>0.50606834812000001</v>
       </c>
       <c r="H54" s="13">
         <f>+Utilidad!O94</f>
@@ -48006,15 +48006,15 @@
       <c r="B55" s="11"/>
       <c r="C55" s="2">
         <f>C53-E55</f>
-        <v>1192.9711504580901</v>
+        <v>1171.7926172588113</v>
       </c>
       <c r="E55" s="15">
         <f>+Utilidad!R81</f>
-        <v>1341.9710901663102</v>
+        <v>1346.3894900877544</v>
       </c>
       <c r="F55" s="15">
         <f>+Utilidad!R82</f>
-        <v>1192.9368012083198</v>
+        <v>1171.7926172341834</v>
       </c>
       <c r="H55" s="14">
         <f>+Utilidad!P94</f>
@@ -48103,7 +48103,7 @@
       </c>
       <c r="Y58" s="29">
         <f>+R15</f>
-        <v>1513678.9514020002</v>
+        <v>1524512.2664819998</v>
       </c>
     </row>
     <row r="59" spans="2:25" ht="14.5" customHeight="1">
@@ -48137,7 +48137,7 @@
       <c r="B60" s="11"/>
       <c r="C60" s="17">
         <f>+Utilidad!P83</f>
-        <v>0.42209999999999998</v>
+        <v>0.41720177222999999</v>
       </c>
       <c r="F60" s="13">
         <f>+Utilidad!O85</f>
@@ -48160,7 +48160,7 @@
       </c>
       <c r="W60" s="29">
         <f>H8</f>
-        <v>24274.569074999999</v>
+        <v>12730.763924999999</v>
       </c>
       <c r="X60" s="38"/>
       <c r="Y60" s="29"/>
@@ -48169,7 +48169,7 @@
       <c r="B61" s="11"/>
       <c r="C61" s="18">
         <f>+Utilidad!R83</f>
-        <v>1547.9246655671398</v>
+        <v>1529.9618899624279</v>
       </c>
       <c r="E61" s="19">
         <f>+Utilidad!O84</f>
@@ -48177,7 +48177,7 @@
       </c>
       <c r="F61" s="14">
         <f>+Utilidad!P85</f>
-        <v>0.42180000000000001</v>
+        <v>0.41404855702999999</v>
       </c>
       <c r="H61" s="19">
         <f>+Utilidad!O93</f>
@@ -48188,7 +48188,7 @@
         <v>0.64839999999999998</v>
       </c>
       <c r="R61" s="12"/>
-      <c r="T61" s="299" t="s">
+      <c r="T61" s="194" t="s">
         <v>96</v>
       </c>
       <c r="U61" s="28"/>
@@ -48206,11 +48206,11 @@
       <c r="B62" s="11"/>
       <c r="E62" s="15">
         <f>+Utilidad!R84</f>
-        <v>484.45120871644002</v>
+        <v>485.98712848040776</v>
       </c>
       <c r="F62" s="15">
         <f>+Utilidad!R85</f>
-        <v>1063.5191136559799</v>
+        <v>1043.9747614582338</v>
       </c>
       <c r="H62" s="15">
         <f>+Utilidad!R93</f>
@@ -48242,7 +48242,7 @@
       <c r="B63" s="11"/>
       <c r="C63" s="2">
         <f>C61-E62</f>
-        <v>1063.4734568506997</v>
+        <v>1043.9747614820201</v>
       </c>
       <c r="L63" s="15"/>
       <c r="R63" s="12"/>
@@ -48298,7 +48298,7 @@
         <f>+C73</f>
         <v>3277.8028466000001</v>
       </c>
-      <c r="V65" s="300" t="s">
+      <c r="V65" s="195" t="s">
         <v>100</v>
       </c>
       <c r="W65" s="29"/>
@@ -48329,12 +48329,12 @@
       </c>
       <c r="W66" s="31">
         <f>+SUM(W57:W65)</f>
-        <v>38331.163208499995</v>
+        <v>26787.358058500002</v>
       </c>
       <c r="X66" s="42"/>
       <c r="Y66" s="30">
         <f>+SUM(Y57:Y64)</f>
-        <v>1665042.9514020002</v>
+        <v>1675876.2664819998</v>
       </c>
     </row>
     <row r="67" spans="2:27">
@@ -48345,7 +48345,7 @@
       </c>
       <c r="F67" s="14">
         <f>+Utilidad!P88</f>
-        <v>0.49659999999999999</v>
+        <v>0.48705999999999999</v>
       </c>
       <c r="L67" s="15"/>
       <c r="R67" s="12"/>
@@ -48358,7 +48358,7 @@
       </c>
       <c r="F68" s="15">
         <f>+Utilidad!R88</f>
-        <v>595.43563617433995</v>
+        <v>583.99694110969403</v>
       </c>
       <c r="L68" s="15"/>
       <c r="R68" s="12"/>
@@ -48370,7 +48370,7 @@
       <c r="W68" s="33"/>
       <c r="X68" s="35">
         <f>+U66-W66-Y66</f>
-        <v>-3.3900374546647072E-5</v>
+        <v>710.49003609991632</v>
       </c>
     </row>
     <row r="69" spans="2:27">
@@ -48386,7 +48386,7 @@
       <c r="B70" s="11"/>
       <c r="E70" s="15">
         <f>+Utilidad!R87</f>
-        <v>-595.43563617433995</v>
+        <v>-583.99694110969403</v>
       </c>
       <c r="L70" s="15"/>
       <c r="R70" s="12"/>
@@ -48438,14 +48438,14 @@
       </c>
       <c r="U73" s="28">
         <f>+K7</f>
-        <v>250301.95680000001</v>
+        <v>250233.58651200001</v>
       </c>
       <c r="V73" s="43" t="s">
         <v>3</v>
       </c>
       <c r="W73" s="29">
         <f>+E13</f>
-        <v>3987.32274628</v>
+        <v>3983.2899089427938</v>
       </c>
       <c r="X73" s="37" t="s">
         <v>26</v>
@@ -48459,11 +48459,11 @@
       <c r="B74" s="11"/>
       <c r="C74" s="17">
         <f>+Utilidad!P89</f>
-        <v>0.52839999999999998</v>
+        <v>0.52594900052000004</v>
       </c>
       <c r="F74" s="14">
         <f>+Utilidad!P91</f>
-        <v>0.52790000000000004</v>
+        <v>0.51804422520000004</v>
       </c>
       <c r="L74" s="15"/>
       <c r="R74" s="12"/>
@@ -48472,32 +48472,32 @@
       </c>
       <c r="U74" s="28">
         <f>+C11</f>
-        <v>7735.2665030549997</v>
+        <v>7680.9968919641615</v>
       </c>
       <c r="V74" s="43" t="s">
         <v>4</v>
       </c>
       <c r="W74" s="29">
         <f>+E25</f>
-        <v>2902.2056258725202</v>
+        <v>2906.1947436656656</v>
       </c>
       <c r="X74" s="37" t="s">
         <v>43</v>
       </c>
       <c r="Y74" s="29">
         <f>+R17</f>
-        <v>154376.53155116283</v>
+        <v>157564.65523242537</v>
       </c>
     </row>
     <row r="75" spans="2:27" ht="16">
       <c r="B75" s="11"/>
       <c r="C75" s="18">
         <f>+Utilidad!R89</f>
-        <v>1731.99102414344</v>
+        <v>1723.9571310708811</v>
       </c>
       <c r="F75" s="15">
         <f>+Utilidad!R91</f>
-        <v>616.90350321554001</v>
+        <v>605.38605293892806</v>
       </c>
       <c r="L75" s="15"/>
       <c r="R75" s="12"/>
@@ -48506,14 +48506,14 @@
       </c>
       <c r="U75" s="28">
         <f>+C23</f>
-        <v>3403.1782714883802</v>
+        <v>3397.1104176651011</v>
       </c>
       <c r="V75" s="43" t="s">
         <v>7</v>
       </c>
       <c r="W75" s="29">
         <f>+E35</f>
-        <v>-1906.018946681</v>
+        <v>-1867.8556740552851</v>
       </c>
       <c r="X75" s="38"/>
       <c r="Y75" s="29"/>
@@ -48531,14 +48531,14 @@
       </c>
       <c r="U76" s="28">
         <f>+C33</f>
-        <v>1355.73935942</v>
+        <v>1336.4072850339617</v>
       </c>
       <c r="V76" s="43" t="s">
         <v>98</v>
       </c>
       <c r="W76" s="29">
         <f>+H9</f>
-        <v>8651.456418329999</v>
+        <v>4422.7946951842496</v>
       </c>
       <c r="X76" s="38"/>
       <c r="Y76" s="29"/>
@@ -48547,11 +48547,11 @@
       <c r="B77" s="11"/>
       <c r="E77" s="15">
         <f>+Utilidad!R90</f>
-        <v>1115.1359824437998</v>
+        <v>1118.5710781184935</v>
       </c>
       <c r="L77" s="15"/>
       <c r="R77" s="12"/>
-      <c r="T77" s="299" t="s">
+      <c r="T77" s="194" t="s">
         <v>96</v>
       </c>
       <c r="U77" s="28"/>
@@ -48560,7 +48560,7 @@
       </c>
       <c r="W77" s="29">
         <f>+E55</f>
-        <v>1341.9710901663102</v>
+        <v>1346.3894900877544</v>
       </c>
       <c r="X77" s="36"/>
       <c r="Y77" s="29"/>
@@ -48574,14 +48574,14 @@
       </c>
       <c r="U78" s="28">
         <f>+C53</f>
-        <v>2534.9422406244003</v>
+        <v>2518.1821073465658</v>
       </c>
       <c r="V78" s="43" t="s">
         <v>48</v>
       </c>
       <c r="W78" s="29">
         <f>+E62</f>
-        <v>484.45120871644002</v>
+        <v>485.98712848040776</v>
       </c>
       <c r="X78" s="37"/>
       <c r="Y78" s="29"/>
@@ -48596,14 +48596,14 @@
       </c>
       <c r="U79" s="28">
         <f>+C61</f>
-        <v>1547.9246655671398</v>
+        <v>1529.9618899624279</v>
       </c>
       <c r="V79" s="43" t="s">
         <v>53</v>
       </c>
       <c r="W79" s="29">
         <f>+E70</f>
-        <v>-595.43563617433995</v>
+        <v>-583.99694110969403</v>
       </c>
       <c r="X79" s="37"/>
       <c r="Y79" s="29"/>
@@ -48624,7 +48624,7 @@
       </c>
       <c r="W80" s="29">
         <f>+E77</f>
-        <v>1115.1359824437998</v>
+        <v>1118.5710781184935</v>
       </c>
       <c r="X80" s="37"/>
       <c r="Y80" s="29"/>
@@ -48638,9 +48638,9 @@
       </c>
       <c r="U81" s="28">
         <f>+C75</f>
-        <v>1731.99102414344</v>
-      </c>
-      <c r="V81" s="300" t="s">
+        <v>1723.9571310708811</v>
+      </c>
+      <c r="V81" s="195" t="s">
         <v>100</v>
       </c>
       <c r="W81" s="29"/>
@@ -48656,19 +48656,19 @@
       </c>
       <c r="U82" s="30">
         <f>+SUM(U73:U81)</f>
-        <v>268610.99886429834</v>
+        <v>268420.20223504311</v>
       </c>
       <c r="V82" s="39" t="s">
         <v>41</v>
       </c>
       <c r="W82" s="31">
         <f>+SUM(W73:W81)</f>
-        <v>15981.088488953732</v>
+        <v>11811.374429314386</v>
       </c>
       <c r="X82" s="42"/>
       <c r="Y82" s="30">
         <f>+SUM(Y73:Y80)</f>
-        <v>252520.94915116281</v>
+        <v>255709.07283242536</v>
       </c>
     </row>
     <row r="83" spans="2:25" ht="16" thickBot="1">
@@ -48699,11 +48699,11 @@
       <c r="W84" s="33"/>
       <c r="X84" s="35">
         <f>+U82-W82-Y82</f>
-        <v>108.96122418178129</v>
+        <v>899.75497330335202</v>
       </c>
     </row>
     <row r="89" spans="2:25" ht="16" customHeight="1">
-      <c r="X89" s="301"/>
+      <c r="X89" s="196"/>
     </row>
     <row r="91" spans="2:25" ht="17" customHeight="1"/>
     <row r="93" spans="2:25" ht="14.5" customHeight="1"/>
@@ -49143,8 +49143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B33E5-7676-1F47-BBE6-CFF6D81A466B}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49157,15 +49157,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <f>Utilidad!O68</f>
+        <f>Utilidad!A1</f>
         <v>13202.36645</v>
       </c>
       <c r="C1" s="3">
-        <f>Utilidad!P68</f>
-        <v>0.58589999999999998</v>
+        <f>IF(Utilidad!B1&gt;1,Utilidad!B1/100,Utilidad!B1)</f>
+        <v>0.58178940276000002</v>
       </c>
       <c r="D1" s="3">
-        <f>Utilidad!Q68</f>
+        <f>IF(Utilidad!C1&gt;1,Utilidad!C1/100,Utilidad!C1)</f>
         <v>0.55969999999999998</v>
       </c>
     </row>
@@ -49174,15 +49174,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <f>Utilidad!O69</f>
+        <f>Utilidad!A2</f>
         <v>6778.8554000000004</v>
       </c>
       <c r="C2" s="3">
-        <f>Utilidad!P69</f>
-        <v>0.58819999999999995</v>
+        <f>IF(Utilidad!B2&gt;1,Utilidad!B2/100,Utilidad!B2)</f>
+        <v>0.58760508580000004</v>
       </c>
       <c r="D2" s="3">
-        <f>Utilidad!Q69</f>
+        <f>IF(Utilidad!C2&gt;1,Utilidad!C2/100,Utilidad!C2)</f>
         <v>0.56620000000000004</v>
       </c>
     </row>
@@ -49191,15 +49191,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>Utilidad!O70</f>
+        <f>Utilidad!A3</f>
         <v>6423.5110500000001</v>
       </c>
       <c r="C3" s="3">
-        <f>Utilidad!P70</f>
-        <v>0.58340000000000003</v>
+        <f>IF(Utilidad!B3&gt;1,Utilidad!B3/100,Utilidad!B3)</f>
+        <v>0.57565200000000005</v>
       </c>
       <c r="D3" s="3">
-        <f>Utilidad!Q70</f>
+        <f>IF(Utilidad!C3&gt;1,Utilidad!C3/100,Utilidad!C3)</f>
         <v>0.55269999999999997</v>
       </c>
     </row>
@@ -49208,15 +49208,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>Utilidad!O71</f>
+        <f>Utilidad!A4</f>
         <v>7852.2802756999999</v>
       </c>
       <c r="C4" s="3">
-        <f>Utilidad!P71</f>
-        <v>0.43340000000000001</v>
+        <f>IF(Utilidad!B4&gt;1,Utilidad!B4/100,Utilidad!B4)</f>
+        <v>0.43262724945999997</v>
       </c>
       <c r="D4" s="3">
-        <f>Utilidad!Q71</f>
+        <f>IF(Utilidad!C4&gt;1,Utilidad!C4/100,Utilidad!C4)</f>
         <v>0.4032</v>
       </c>
     </row>
@@ -49225,15 +49225,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>Utilidad!O72</f>
+        <f>Utilidad!A5</f>
         <v>6696.3673878</v>
       </c>
       <c r="C5" s="3">
-        <f>Utilidad!P72</f>
-        <v>0.43340000000000001</v>
+        <f>IF(Utilidad!B5&gt;1,Utilidad!B5/100,Utilidad!B5)</f>
+        <v>0.43399571370000001</v>
       </c>
       <c r="D5" s="3">
-        <f>Utilidad!Q72</f>
+        <f>IF(Utilidad!C5&gt;1,Utilidad!C5/100,Utilidad!C5)</f>
         <v>0.40450000000000003</v>
       </c>
     </row>
@@ -49242,15 +49242,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>Utilidad!O73</f>
+        <f>Utilidad!A6</f>
         <v>1155.9128879</v>
       </c>
       <c r="C6" s="3">
-        <f>Utilidad!P73</f>
-        <v>0.43290000000000001</v>
+        <f>IF(Utilidad!B6&gt;1,Utilidad!B6/100,Utilidad!B6)</f>
+        <v>0.42469954192999998</v>
       </c>
       <c r="D6" s="3">
-        <f>Utilidad!Q73</f>
+        <f>IF(Utilidad!C6&gt;1,Utilidad!C6/100,Utilidad!C6)</f>
         <v>0.39579999999999999</v>
       </c>
     </row>
@@ -49259,15 +49259,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f>Utilidad!O74</f>
+        <f>Utilidad!A7</f>
         <v>2893.7873199999999</v>
       </c>
       <c r="C7" s="3">
-        <f>Utilidad!P74</f>
-        <v>0.46850000000000003</v>
+        <f>IF(Utilidad!B7&gt;1,Utilidad!B7/100,Utilidad!B7)</f>
+        <v>0.46181945569999999</v>
       </c>
       <c r="D7" s="3">
-        <f>Utilidad!Q74</f>
+        <f>IF(Utilidad!C7&gt;1,Utilidad!C7/100,Utilidad!C7)</f>
         <v>0.43959999999999999</v>
       </c>
     </row>
@@ -49276,15 +49276,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f>Utilidad!O75</f>
+        <f>Utilidad!A8</f>
         <v>-4071.8200099999999</v>
       </c>
       <c r="C8" s="3">
-        <f>Utilidad!P75</f>
-        <v>0.46810000000000002</v>
+        <f>IF(Utilidad!B8&gt;1,Utilidad!B8/100,Utilidad!B8)</f>
+        <v>0.45872746572</v>
       </c>
       <c r="D8" s="3">
-        <f>Utilidad!Q75</f>
+        <f>IF(Utilidad!C8&gt;1,Utilidad!C8/100,Utilidad!C8)</f>
         <v>0.43659999999999999</v>
       </c>
     </row>
@@ -49293,15 +49293,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f>Utilidad!O76</f>
+        <f>Utilidad!A9</f>
         <v>6965.6073299999998</v>
       </c>
       <c r="C9" s="3">
-        <f>Utilidad!P76</f>
-        <v>0.46829999999999999</v>
+        <f>IF(Utilidad!B9&gt;1,Utilidad!B9/100,Utilidad!B9)</f>
+        <v>0.46001199999999998</v>
       </c>
       <c r="D9" s="3">
-        <f>Utilidad!Q76</f>
+        <f>IF(Utilidad!C9&gt;1,Utilidad!C9/100,Utilidad!C9)</f>
         <v>0.43790000000000001</v>
       </c>
     </row>
@@ -49310,15 +49310,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f>Utilidad!O77</f>
-        <v>37005.332999999999</v>
+        <f>Utilidad!A10</f>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <f>Utilidad!P77</f>
-        <v>0.35489999999999999</v>
+        <f>IF(Utilidad!B10&gt;1,Utilidad!B10/100,Utilidad!B10)</f>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <f>Utilidad!Q77</f>
+        <f>IF(Utilidad!C10&gt;1,Utilidad!C10/100,Utilidad!C10)</f>
         <v>0.33629999999999999</v>
       </c>
     </row>
@@ -49327,15 +49327,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f>Utilidad!O78</f>
-        <v>24274.569074999999</v>
+        <f>Utilidad!A11</f>
+        <v>12730.763924999999</v>
       </c>
       <c r="C11" s="3">
-        <f>Utilidad!P78</f>
-        <v>0.35639999999999999</v>
+        <f>IF(Utilidad!B11&gt;1,Utilidad!B11/100,Utilidad!B11)</f>
+        <v>0.34741</v>
       </c>
       <c r="D11" s="3">
-        <f>Utilidad!Q78</f>
+        <f>IF(Utilidad!C11&gt;1,Utilidad!C11/100,Utilidad!C11)</f>
         <v>0.34160000000000001</v>
       </c>
     </row>
@@ -49344,15 +49344,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f>Utilidad!O79</f>
+        <f>Utilidad!A12</f>
         <v>12730.763924999999</v>
       </c>
       <c r="C12" s="3">
-        <f>Utilidad!P79</f>
-        <v>0.35210000000000002</v>
+        <f>IF(Utilidad!B12&gt;1,Utilidad!B12/100,Utilidad!B12)</f>
+        <v>0.34741</v>
       </c>
       <c r="D12" s="3">
-        <f>Utilidad!Q79</f>
+        <f>IF(Utilidad!C12&gt;1,Utilidad!C12/100,Utilidad!C12)</f>
         <v>0.32619999999999999</v>
       </c>
     </row>
@@ -49361,15 +49361,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f>Utilidad!O80</f>
+        <f>Utilidad!A13</f>
         <v>4912.6787609000003</v>
       </c>
       <c r="C13" s="3">
-        <f>Utilidad!P80</f>
-        <v>0.51600000000000001</v>
+        <f>IF(Utilidad!B13&gt;1,Utilidad!B13/100,Utilidad!B13)</f>
+        <v>0.51258839217999996</v>
       </c>
       <c r="D13" s="3">
-        <f>Utilidad!Q80</f>
+        <f>IF(Utilidad!C13&gt;1,Utilidad!C13/100,Utilidad!C13)</f>
         <v>0.40699999999999997</v>
       </c>
     </row>
@@ -49378,15 +49378,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f>Utilidad!O81</f>
+        <f>Utilidad!A14</f>
         <v>2597.1958393</v>
       </c>
       <c r="C14" s="3">
-        <f>Utilidad!P81</f>
-        <v>0.51670000000000005</v>
+        <f>IF(Utilidad!B14&gt;1,Utilidad!B14/100,Utilidad!B14)</f>
+        <v>0.51840121938999995</v>
       </c>
       <c r="D14" s="3">
-        <f>Utilidad!Q81</f>
+        <f>IF(Utilidad!C14&gt;1,Utilidad!C14/100,Utilidad!C14)</f>
         <v>0.41160000000000002</v>
       </c>
     </row>
@@ -49395,15 +49395,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f>Utilidad!O82</f>
+        <f>Utilidad!A15</f>
         <v>2315.4829215999998</v>
       </c>
       <c r="C15" s="3">
-        <f>Utilidad!P82</f>
-        <v>0.51519999999999999</v>
+        <f>IF(Utilidad!B15&gt;1,Utilidad!B15/100,Utilidad!B15)</f>
+        <v>0.50606834812000001</v>
       </c>
       <c r="D15" s="3">
-        <f>Utilidad!Q82</f>
+        <f>IF(Utilidad!C15&gt;1,Utilidad!C15/100,Utilidad!C15)</f>
         <v>0.40179999999999999</v>
       </c>
     </row>
@@ -49412,15 +49412,15 @@
         <v>47</v>
       </c>
       <c r="B16" s="2">
-        <f>Utilidad!O83</f>
+        <f>Utilidad!A16</f>
         <v>3667.1989233999998</v>
       </c>
       <c r="C16" s="3">
-        <f>Utilidad!P83</f>
-        <v>0.42209999999999998</v>
+        <f>IF(Utilidad!B16&gt;1,Utilidad!B16/100,Utilidad!B16)</f>
+        <v>0.41720177222999999</v>
       </c>
       <c r="D16" s="3">
-        <f>Utilidad!Q83</f>
+        <f>IF(Utilidad!C16&gt;1,Utilidad!C16/100,Utilidad!C16)</f>
         <v>0.37280000000000002</v>
       </c>
     </row>
@@ -49429,15 +49429,15 @@
         <v>48</v>
       </c>
       <c r="B17" s="2">
-        <f>Utilidad!O84</f>
+        <f>Utilidad!A17</f>
         <v>1145.8164823</v>
       </c>
       <c r="C17" s="3">
-        <f>Utilidad!P84</f>
-        <v>0.42280000000000001</v>
+        <f>IF(Utilidad!B17&gt;1,Utilidad!B17/100,Utilidad!B17)</f>
+        <v>0.42414045878000001</v>
       </c>
       <c r="D17" s="3">
-        <f>Utilidad!Q84</f>
+        <f>IF(Utilidad!C17&gt;1,Utilidad!C17/100,Utilidad!C17)</f>
         <v>0.379</v>
       </c>
     </row>
@@ -49446,15 +49446,15 @@
         <v>49</v>
       </c>
       <c r="B18" s="2">
-        <f>Utilidad!O85</f>
+        <f>Utilidad!A18</f>
         <v>2521.3824411000001</v>
       </c>
       <c r="C18" s="3">
-        <f>Utilidad!P85</f>
-        <v>0.42180000000000001</v>
+        <f>IF(Utilidad!B18&gt;1,Utilidad!B18/100,Utilidad!B18)</f>
+        <v>0.41404855702999999</v>
       </c>
       <c r="D18" s="3">
-        <f>Utilidad!Q85</f>
+        <f>IF(Utilidad!C18&gt;1,Utilidad!C18/100,Utilidad!C18)</f>
         <v>0.37</v>
       </c>
     </row>
@@ -49463,15 +49463,15 @@
         <v>52</v>
       </c>
       <c r="B19" s="2">
-        <f>Utilidad!O86</f>
+        <f>Utilidad!A19</f>
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <f>Utilidad!P86</f>
+        <f>IF(Utilidad!B19&gt;1,Utilidad!B19/100,Utilidad!B19)</f>
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <f>Utilidad!Q86</f>
+        <f>IF(Utilidad!C19&gt;1,Utilidad!C19/100,Utilidad!C19)</f>
         <v>0</v>
       </c>
     </row>
@@ -49480,15 +49480,15 @@
         <v>53</v>
       </c>
       <c r="B20" s="2">
-        <f>Utilidad!O87</f>
+        <f>Utilidad!A20</f>
         <v>-1199.0246399</v>
       </c>
       <c r="C20" s="3">
-        <f>Utilidad!P87</f>
-        <v>0.49659999999999999</v>
+        <f>IF(Utilidad!B20&gt;1,Utilidad!B20/100,Utilidad!B20)</f>
+        <v>0.48705999999999999</v>
       </c>
       <c r="D20" s="3">
-        <f>Utilidad!Q87</f>
+        <f>IF(Utilidad!C20&gt;1,Utilidad!C20/100,Utilidad!C20)</f>
         <v>0.42920000000000003</v>
       </c>
     </row>
@@ -49497,15 +49497,15 @@
         <v>54</v>
       </c>
       <c r="B21" s="2">
-        <f>Utilidad!O88</f>
+        <f>Utilidad!A21</f>
         <v>1199.0246399</v>
       </c>
       <c r="C21" s="3">
-        <f>Utilidad!P88</f>
-        <v>0.49659999999999999</v>
+        <f>IF(Utilidad!B21&gt;1,Utilidad!B21/100,Utilidad!B21)</f>
+        <v>0.48705999999999999</v>
       </c>
       <c r="D21" s="3">
-        <f>Utilidad!Q88</f>
+        <f>IF(Utilidad!C21&gt;1,Utilidad!C21/100,Utilidad!C21)</f>
         <v>0.42920000000000003</v>
       </c>
     </row>
@@ -49514,15 +49514,15 @@
         <v>55</v>
       </c>
       <c r="B22" s="2">
-        <f>Utilidad!O89</f>
+        <f>Utilidad!A22</f>
         <v>3277.8028466000001</v>
       </c>
       <c r="C22" s="3">
-        <f>Utilidad!P89</f>
-        <v>0.52839999999999998</v>
+        <f>IF(Utilidad!B22&gt;1,Utilidad!B22/100,Utilidad!B22)</f>
+        <v>0.52594900052000004</v>
       </c>
       <c r="D22" s="3">
-        <f>Utilidad!Q89</f>
+        <f>IF(Utilidad!C22&gt;1,Utilidad!C22/100,Utilidad!C22)</f>
         <v>0.43340000000000001</v>
       </c>
     </row>
@@ -49531,15 +49531,15 @@
         <v>56</v>
       </c>
       <c r="B23" s="2">
-        <f>Utilidad!O90</f>
+        <f>Utilidad!A23</f>
         <v>2109.2036739999999</v>
       </c>
       <c r="C23" s="3">
-        <f>Utilidad!P90</f>
-        <v>0.52869999999999995</v>
+        <f>IF(Utilidad!B23&gt;1,Utilidad!B23/100,Utilidad!B23)</f>
+        <v>0.53032862207999998</v>
       </c>
       <c r="D23" s="3">
-        <f>Utilidad!Q90</f>
+        <f>IF(Utilidad!C23&gt;1,Utilidad!C23/100,Utilidad!C23)</f>
         <v>0.43569999999999998</v>
       </c>
     </row>
@@ -49548,15 +49548,15 @@
         <v>57</v>
       </c>
       <c r="B24" s="2">
-        <f>Utilidad!O91</f>
+        <f>Utilidad!A24</f>
         <v>1168.5991726</v>
       </c>
       <c r="C24" s="3">
-        <f>Utilidad!P91</f>
-        <v>0.52790000000000004</v>
+        <f>IF(Utilidad!B24&gt;1,Utilidad!B24/100,Utilidad!B24)</f>
+        <v>0.51804422520000004</v>
       </c>
       <c r="D24" s="3">
-        <f>Utilidad!Q91</f>
+        <f>IF(Utilidad!C24&gt;1,Utilidad!C24/100,Utilidad!C24)</f>
         <v>0.42920000000000003</v>
       </c>
     </row>
@@ -49565,15 +49565,15 @@
         <v>34</v>
       </c>
       <c r="B25" s="2">
-        <f>Utilidad!O92</f>
+        <f>Utilidad!A25</f>
         <v>0</v>
       </c>
       <c r="C25" s="3">
-        <f>Utilidad!P92</f>
+        <f>IF(Utilidad!B25&gt;1,Utilidad!B25/100,Utilidad!B25)</f>
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <f>Utilidad!Q92</f>
+        <f>IF(Utilidad!C25&gt;1,Utilidad!C25/100,Utilidad!C25)</f>
         <v>0</v>
       </c>
     </row>
@@ -49582,15 +49582,15 @@
         <v>15</v>
       </c>
       <c r="B26" s="2">
-        <f>Utilidad!O93</f>
+        <f>Utilidad!A26</f>
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <f>Utilidad!P93</f>
+        <f>IF(Utilidad!B26&gt;1,Utilidad!B26/100,Utilidad!B26)</f>
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <f>Utilidad!Q93</f>
+        <f>IF(Utilidad!C26&gt;1,Utilidad!C26/100,Utilidad!C26)</f>
         <v>0</v>
       </c>
     </row>
@@ -49599,15 +49599,15 @@
         <v>16</v>
       </c>
       <c r="B27" s="2">
-        <f>Utilidad!O94</f>
+        <f>Utilidad!A27</f>
         <v>0</v>
       </c>
       <c r="C27" s="3">
-        <f>Utilidad!P94</f>
+        <f>IF(Utilidad!B27&gt;1,Utilidad!B27/100,Utilidad!B27)</f>
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <f>Utilidad!Q94</f>
+        <f>IF(Utilidad!C27&gt;1,Utilidad!C27/100,Utilidad!C27)</f>
         <v>0</v>
       </c>
     </row>
@@ -49616,15 +49616,15 @@
         <v>17</v>
       </c>
       <c r="B28" s="2">
-        <f>Utilidad!O95</f>
+        <f>Utilidad!A28</f>
         <v>1667568</v>
       </c>
       <c r="C28" s="3">
-        <f>Utilidad!P95</f>
-        <v>0.15010000000000001</v>
+        <f>IF(Utilidad!B28&gt;1,Utilidad!B28/100,Utilidad!B28)</f>
+        <v>0.150059</v>
       </c>
       <c r="D28" s="3">
-        <f>Utilidad!Q95</f>
+        <f>IF(Utilidad!C28&gt;1,Utilidad!C28/100,Utilidad!C28)</f>
         <v>0.1101</v>
       </c>
     </row>
@@ -49633,15 +49633,15 @@
         <v>18</v>
       </c>
       <c r="B29" s="2">
-        <f>Utilidad!O96</f>
-        <v>1042380.0522</v>
+        <f>Utilidad!A29</f>
+        <v>1067519.7242999999</v>
       </c>
       <c r="C29" s="3">
-        <f>Utilidad!P96</f>
-        <v>5.2400000000000002E-2</v>
+        <f>IF(Utilidad!B29&gt;1,Utilidad!B29/100,Utilidad!B29)</f>
+        <v>5.1526401059999997E-2</v>
       </c>
       <c r="D29" s="3">
-        <f>Utilidad!Q96</f>
+        <f>IF(Utilidad!C29&gt;1,Utilidad!C29/100,Utilidad!C29)</f>
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
@@ -49650,15 +49650,15 @@
         <v>19</v>
       </c>
       <c r="B30" s="2">
-        <f>Utilidad!O97</f>
-        <v>625187.94782999996</v>
+        <f>Utilidad!A30</f>
+        <v>600048.27572000003</v>
       </c>
       <c r="C30" s="3">
-        <f>Utilidad!P97</f>
-        <v>0.31280000000000002</v>
+        <f>IF(Utilidad!B30&gt;1,Utilidad!B30/100,Utilidad!B30)</f>
+        <v>0.3253540506</v>
       </c>
       <c r="D30" s="3">
-        <f>Utilidad!Q97</f>
+        <f>IF(Utilidad!C30&gt;1,Utilidad!C30/100,Utilidad!C30)</f>
         <v>0.28720000000000001</v>
       </c>
     </row>
@@ -49667,15 +49667,15 @@
         <v>32</v>
       </c>
       <c r="B31" s="2">
-        <f>Utilidad!O98</f>
-        <v>96883.249754000004</v>
+        <f>Utilidad!A31</f>
+        <v>56567.444624000003</v>
       </c>
       <c r="C31" s="3">
-        <f>Utilidad!P98</f>
-        <v>5.8000000000000003E-2</v>
+        <f>IF(Utilidad!B31&gt;1,Utilidad!B31/100,Utilidad!B31)</f>
+        <v>5.6848615137E-2</v>
       </c>
       <c r="D31" s="3">
-        <f>Utilidad!Q98</f>
+        <f>IF(Utilidad!C31&gt;1,Utilidad!C31/100,Utilidad!C31)</f>
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
@@ -49684,15 +49684,15 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <f>Utilidad!O99</f>
-        <v>528304.69808</v>
+        <f>Utilidad!A32</f>
+        <v>543480.83109999995</v>
       </c>
       <c r="C32" s="3">
-        <f>Utilidad!P99</f>
-        <v>0.35949999999999999</v>
+        <f>IF(Utilidad!B32&gt;1,Utilidad!B32/100,Utilidad!B32)</f>
+        <v>0.35330106451999999</v>
       </c>
       <c r="D32" s="3">
-        <f>Utilidad!Q99</f>
+        <f>IF(Utilidad!C32&gt;1,Utilidad!C32/100,Utilidad!C32)</f>
         <v>0.33929999999999999</v>
       </c>
     </row>
@@ -49701,15 +49701,15 @@
         <v>44</v>
       </c>
       <c r="B33" s="2">
-        <f>Utilidad!O100</f>
-        <v>94163.869506999996</v>
+        <f>Utilidad!A33</f>
+        <v>0</v>
       </c>
       <c r="C33" s="3">
-        <f>Utilidad!P100</f>
-        <v>0.3775</v>
+        <f>IF(Utilidad!B33&gt;1,Utilidad!B33/100,Utilidad!B33)</f>
+        <v>0</v>
       </c>
       <c r="D33" s="3">
-        <f>Utilidad!Q100</f>
+        <f>IF(Utilidad!C33&gt;1,Utilidad!C33/100,Utilidad!C33)</f>
         <v>0.35870000000000002</v>
       </c>
     </row>
@@ -49718,15 +49718,15 @@
         <v>20</v>
       </c>
       <c r="B34" s="2">
-        <f>Utilidad!O101</f>
+        <f>Utilidad!A34</f>
         <v>34480.284368000001</v>
       </c>
       <c r="C34" s="3">
-        <f>Utilidad!P101</f>
-        <v>0.44840000000000002</v>
+        <f>IF(Utilidad!B34&gt;1,Utilidad!B34/100,Utilidad!B34)</f>
+        <v>0.44143576431999998</v>
       </c>
       <c r="D34" s="3">
-        <f>Utilidad!Q101</f>
+        <f>IF(Utilidad!C34&gt;1,Utilidad!C34/100,Utilidad!C34)</f>
         <v>0.40870000000000001</v>
       </c>
     </row>
@@ -49735,15 +49735,15 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <f>Utilidad!O102</f>
-        <v>416813.64674</v>
+        <f>Utilidad!A35</f>
+        <v>541917.34834999999</v>
       </c>
       <c r="C35" s="3">
-        <f>Utilidad!P102</f>
-        <v>0.36230000000000001</v>
+        <f>IF(Utilidad!B35&gt;1,Utilidad!B35/100,Utilidad!B35)</f>
+        <v>0.35715981573</v>
       </c>
       <c r="D35" s="3">
-        <f>Utilidad!Q102</f>
+        <f>IF(Utilidad!C35&gt;1,Utilidad!C35/100,Utilidad!C35)</f>
         <v>0.33939999999999998</v>
       </c>
     </row>
@@ -49752,15 +49752,15 @@
         <v>21</v>
       </c>
       <c r="B36" s="2">
-        <f>Utilidad!O103</f>
-        <v>108297.44338</v>
+        <f>Utilidad!A36</f>
+        <v>132377.28390000001</v>
       </c>
       <c r="C36" s="3">
-        <f>Utilidad!P103</f>
-        <v>5.7299999999999997E-2</v>
+        <f>IF(Utilidad!B36&gt;1,Utilidad!B36/100,Utilidad!B36)</f>
+        <v>5.8241999577999998E-2</v>
       </c>
       <c r="D36" s="3">
-        <f>Utilidad!Q103</f>
+        <f>IF(Utilidad!C36&gt;1,Utilidad!C36/100,Utilidad!C36)</f>
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
@@ -49769,15 +49769,15 @@
         <v>22</v>
       </c>
       <c r="B37" s="2">
-        <f>Utilidad!O104</f>
-        <v>323318.33656000003</v>
+        <f>Utilidad!A37</f>
+        <v>419411.81365999999</v>
       </c>
       <c r="C37" s="3">
-        <f>Utilidad!P104</f>
-        <v>0.46560000000000001</v>
+        <f>IF(Utilidad!B37&gt;1,Utilidad!B37/100,Utilidad!B37)</f>
+        <v>0.45248588284000002</v>
       </c>
       <c r="D37" s="3">
-        <f>Utilidad!Q104</f>
+        <f>IF(Utilidad!C37&gt;1,Utilidad!C37/100,Utilidad!C37)</f>
         <v>0.45190000000000002</v>
       </c>
     </row>
@@ -49786,15 +49786,15 @@
         <v>23</v>
       </c>
       <c r="B38" s="2">
-        <f>Utilidad!O105</f>
-        <v>74739.665452000001</v>
+        <f>Utilidad!A38</f>
+        <v>105103.90360999999</v>
       </c>
       <c r="C38" s="3">
-        <f>Utilidad!P105</f>
-        <v>8.9700000000000002E-2</v>
+        <f>IF(Utilidad!B38&gt;1,Utilidad!B38/100,Utilidad!B38)</f>
+        <v>9.2564999676000001E-2</v>
       </c>
       <c r="D38" s="3">
-        <f>Utilidad!Q105</f>
+        <f>IF(Utilidad!C38&gt;1,Utilidad!C38/100,Utilidad!C38)</f>
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
@@ -49803,15 +49803,15 @@
         <v>24</v>
       </c>
       <c r="B39" s="2">
-        <f>Utilidad!O106</f>
-        <v>248578.67111</v>
+        <f>Utilidad!A39</f>
+        <v>314307.91003999999</v>
       </c>
       <c r="C39" s="3">
-        <f>Utilidad!P106</f>
-        <v>0.5786</v>
+        <f>IF(Utilidad!B39&gt;1,Utilidad!B39/100,Utilidad!B39)</f>
+        <v>0.57284266866</v>
       </c>
       <c r="D39" s="3">
-        <f>Utilidad!Q106</f>
+        <f>IF(Utilidad!C39&gt;1,Utilidad!C39/100,Utilidad!C39)</f>
         <v>0.57230000000000003</v>
       </c>
     </row>
@@ -49820,15 +49820,15 @@
         <v>62</v>
       </c>
       <c r="B40" s="2">
-        <f>Utilidad!O107</f>
-        <v>25296.16849</v>
+        <f>Utilidad!A40</f>
+        <v>37852.859477999998</v>
       </c>
       <c r="C40" s="3">
-        <f>Utilidad!P107</f>
-        <v>0.40389999999999998</v>
+        <f>IF(Utilidad!B40&gt;1,Utilidad!B40/100,Utilidad!B40)</f>
+        <v>0.45334666667000001</v>
       </c>
       <c r="D40" s="3">
-        <f>Utilidad!Q107</f>
+        <f>IF(Utilidad!C40&gt;1,Utilidad!C40/100,Utilidad!C40)</f>
         <v>0.40310000000000001</v>
       </c>
     </row>
@@ -49837,15 +49837,15 @@
         <v>63</v>
       </c>
       <c r="B41" s="2">
-        <f>Utilidad!O108</f>
-        <v>223282.50262000001</v>
+        <f>Utilidad!A41</f>
+        <v>276455.05057000002</v>
       </c>
       <c r="C41" s="3">
-        <f>Utilidad!P108</f>
-        <v>0.59840000000000004</v>
+        <f>IF(Utilidad!B41&gt;1,Utilidad!B41/100,Utilidad!B41)</f>
+        <v>0.58920433528000005</v>
       </c>
       <c r="D41" s="3">
-        <f>Utilidad!Q108</f>
+        <f>IF(Utilidad!C41&gt;1,Utilidad!C41/100,Utilidad!C41)</f>
         <v>0.59150000000000003</v>
       </c>
     </row>
@@ -49854,15 +49854,15 @@
         <v>64</v>
       </c>
       <c r="B42" s="2">
-        <f>Utilidad!O109</f>
-        <v>71918.502619000006</v>
+        <f>Utilidad!A42</f>
+        <v>125091.05057000001</v>
       </c>
       <c r="C42" s="3">
-        <f>Utilidad!P109</f>
-        <v>0.49309999999999998</v>
+        <f>IF(Utilidad!B42&gt;1,Utilidad!B42/100,Utilidad!B42)</f>
+        <v>0.51757576909000003</v>
       </c>
       <c r="D42" s="3">
-        <f>Utilidad!Q109</f>
+        <f>IF(Utilidad!C42&gt;1,Utilidad!C42/100,Utilidad!C42)</f>
         <v>0.48909999999999998</v>
       </c>
     </row>
@@ -49871,15 +49871,15 @@
         <v>65</v>
       </c>
       <c r="B43" s="2">
-        <f>Utilidad!O110</f>
-        <v>152012.95337999999</v>
+        <f>Utilidad!A43</f>
+        <v>152661.90461999999</v>
       </c>
       <c r="C43" s="3">
-        <f>Utilidad!P110</f>
-        <v>0.64780000000000004</v>
+        <f>IF(Utilidad!B43&gt;1,Utilidad!B43/100,Utilidad!B43)</f>
+        <v>0.64708926321000004</v>
       </c>
       <c r="D43" s="3">
-        <f>Utilidad!Q110</f>
+        <f>IF(Utilidad!C43&gt;1,Utilidad!C43/100,Utilidad!C43)</f>
         <v>0.63939999999999997</v>
       </c>
     </row>
@@ -49888,15 +49888,15 @@
         <v>25</v>
       </c>
       <c r="B44" s="2">
-        <f>Utilidad!O111</f>
-        <v>648.95338264999998</v>
+        <f>Utilidad!A44</f>
+        <v>1297.9046232000001</v>
       </c>
       <c r="C44" s="3">
-        <f>Utilidad!P111</f>
-        <v>0.4965</v>
+        <f>IF(Utilidad!B44&gt;1,Utilidad!B44/100,Utilidad!B44)</f>
+        <v>0.49422875247999998</v>
       </c>
       <c r="D44" s="3">
-        <f>Utilidad!Q111</f>
+        <f>IF(Utilidad!C44&gt;1,Utilidad!C44/100,Utilidad!C44)</f>
         <v>0.48</v>
       </c>
     </row>
@@ -49905,15 +49905,15 @@
         <v>31</v>
       </c>
       <c r="B45" s="2">
-        <f>Utilidad!O112</f>
+        <f>Utilidad!A45</f>
         <v>0</v>
       </c>
       <c r="C45" s="3">
-        <f>Utilidad!P112</f>
+        <f>IF(Utilidad!B45&gt;1,Utilidad!B45/100,Utilidad!B45)</f>
         <v>0</v>
       </c>
       <c r="D45" s="3">
-        <f>Utilidad!Q112</f>
+        <f>IF(Utilidad!C45&gt;1,Utilidad!C45/100,Utilidad!C45)</f>
         <v>0</v>
       </c>
     </row>
@@ -49922,15 +49922,15 @@
         <v>26</v>
       </c>
       <c r="B46" s="2">
-        <f>Utilidad!O113</f>
+        <f>Utilidad!A46</f>
         <v>151364</v>
       </c>
       <c r="C46" s="3">
-        <f>Utilidad!P113</f>
+        <f>IF(Utilidad!B46&gt;1,Utilidad!B46/100,Utilidad!B46)</f>
         <v>0.64839999999999998</v>
       </c>
       <c r="D46" s="3">
-        <f>Utilidad!Q113</f>
+        <f>IF(Utilidad!C46&gt;1,Utilidad!C46/100,Utilidad!C46)</f>
         <v>0.6401</v>
       </c>
     </row>
@@ -49939,15 +49939,15 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <f>Utilidad!O114</f>
-        <v>1513678.9513999999</v>
+        <f>Utilidad!A47</f>
+        <v>1524512.2664999999</v>
       </c>
       <c r="C47" s="3">
-        <f>Utilidad!P114</f>
-        <v>0.10199999999999999</v>
+        <f>IF(Utilidad!B47&gt;1,Utilidad!B47/100,Utilidad!B47)</f>
+        <v>0.10335414066</v>
       </c>
       <c r="D47" s="3">
-        <f>Utilidad!Q114</f>
+        <f>IF(Utilidad!C47&gt;1,Utilidad!C47/100,Utilidad!C47)</f>
         <v>5.8400000000000001E-2</v>
       </c>
     </row>
@@ -49956,15 +49956,15 @@
         <v>61</v>
       </c>
       <c r="B48" s="2">
-        <f>Utilidad!O115</f>
-        <v>14802.1332</v>
+        <f>Utilidad!A48</f>
+        <v>9871.7492098999992</v>
       </c>
       <c r="C48" s="3">
-        <f>Utilidad!P115</f>
-        <v>0.38640000000000002</v>
+        <f>IF(Utilidad!B48&gt;1,Utilidad!B48/100,Utilidad!B48)</f>
+        <v>0.39878871811</v>
       </c>
       <c r="D48" s="3">
-        <f>Utilidad!Q115</f>
+        <f>IF(Utilidad!C48&gt;1,Utilidad!C48/100,Utilidad!C48)</f>
         <v>0.38450000000000001</v>
       </c>
     </row>
@@ -49973,16 +49973,16 @@
         <v>59</v>
       </c>
       <c r="B49" s="2">
-        <f>Utilidad!O118</f>
-        <v>0</v>
+        <f>Utilidad!A49</f>
+        <v>37745.439659999996</v>
       </c>
       <c r="C49" s="3">
-        <f>Utilidad!P118</f>
-        <v>0</v>
+        <f>IF(Utilidad!B49&gt;1,Utilidad!B49/100,Utilidad!B49)</f>
+        <v>0.36144720000000002</v>
       </c>
       <c r="D49" s="3">
-        <f>Utilidad!Q118</f>
-        <v>0</v>
+        <f>IF(Utilidad!C49&gt;1,Utilidad!C49/100,Utilidad!C49)</f>
+        <v>0.35010000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19">
@@ -49990,16 +49990,16 @@
         <v>60</v>
       </c>
       <c r="B50" s="2">
-        <f>Utilidad!O119</f>
-        <v>0</v>
+        <f>Utilidad!A50</f>
+        <v>11573.42175</v>
       </c>
       <c r="C50" s="3">
-        <f>Utilidad!P119</f>
-        <v>0</v>
+        <f>IF(Utilidad!B50&gt;1,Utilidad!B50/100,Utilidad!B50)</f>
+        <v>0.33677499999999999</v>
       </c>
       <c r="D50" s="3">
-        <f>Utilidad!Q119</f>
-        <v>0</v>
+        <f>IF(Utilidad!C50&gt;1,Utilidad!C50/100,Utilidad!C50)</f>
+        <v>0.3382</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19">
@@ -50090,75 +50090,75 @@
     <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="84"/>
       <c r="B3" s="87"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="290" t="s">
+      <c r="C3" s="212"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="290"/>
-      <c r="N3" s="291"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
       <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="84"/>
       <c r="B4" s="87"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
-      <c r="J4" s="292"/>
-      <c r="K4" s="292"/>
-      <c r="L4" s="292"/>
-      <c r="M4" s="292"/>
-      <c r="N4" s="293"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="221"/>
       <c r="O4" s="158"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="84"/>
       <c r="B5" s="87"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="292" t="s">
+      <c r="C5" s="214"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="292"/>
-      <c r="G5" s="292"/>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="295">
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="223">
         <v>44849</v>
       </c>
-      <c r="N5" s="296"/>
+      <c r="N5" s="224"/>
       <c r="O5" s="158"/>
     </row>
     <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="84"/>
       <c r="B6" s="87"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="289"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="297"/>
-      <c r="N6" s="298"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="226"/>
       <c r="O6" s="158"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
@@ -50181,9 +50181,9 @@
     <row r="8" spans="1:15" ht="16" thickBot="1">
       <c r="A8" s="84"/>
       <c r="B8" s="88"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
       <c r="F8" s="93" t="s">
         <v>68</v>
       </c>
@@ -50196,8 +50196,8 @@
       <c r="I8" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="282"/>
-      <c r="K8" s="283"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="209"/>
       <c r="L8" s="93" t="s">
         <v>68</v>
       </c>
@@ -50212,9 +50212,9 @@
     <row r="9" spans="1:15" ht="16" thickBot="1">
       <c r="A9" s="84"/>
       <c r="B9" s="88"/>
-      <c r="C9" s="280"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
       <c r="F9" s="95" t="s">
         <v>28</v>
       </c>
@@ -50227,8 +50227,8 @@
       <c r="I9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="207"/>
-      <c r="K9" s="263"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="211"/>
       <c r="L9" s="95" t="s">
         <v>28</v>
       </c>
@@ -50243,43 +50243,43 @@
     <row r="10" spans="1:15" ht="16" thickBot="1">
       <c r="A10" s="84"/>
       <c r="B10" s="88"/>
-      <c r="C10" s="252" t="s">
+      <c r="C10" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="253"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="254" t="s">
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="253"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="255"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="230"/>
       <c r="O10" s="158"/>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1">
       <c r="A11" s="84"/>
       <c r="B11" s="88"/>
-      <c r="C11" s="256" t="s">
+      <c r="C11" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="257"/>
-      <c r="E11" s="258"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="233"/>
       <c r="F11" s="97">
         <f>Utilidad!O95</f>
         <v>1667568</v>
       </c>
       <c r="G11" s="98">
         <f>Utilidad!P95</f>
-        <v>0.15010000000000001</v>
+        <v>0.150059</v>
       </c>
       <c r="H11" s="99">
         <f t="shared" ref="H11:H19" si="0">+F11*G11</f>
-        <v>250301.95680000001</v>
+        <v>250233.58651200001</v>
       </c>
       <c r="I11" s="98">
         <f>Utilidad!Q95</f>
@@ -50306,23 +50306,23 @@
     <row r="12" spans="1:15" ht="16" thickBot="1">
       <c r="A12" s="84"/>
       <c r="B12" s="88"/>
-      <c r="C12" s="246">
+      <c r="C12" s="234">
         <f>Utilidad!K70</f>
         <v>0</v>
       </c>
-      <c r="D12" s="247"/>
-      <c r="E12" s="248"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="236"/>
       <c r="F12" s="105">
         <f>Utilidad!O70</f>
         <v>6423.5110500000001</v>
       </c>
       <c r="G12" s="98">
         <f>Utilidad!P70</f>
-        <v>0.58340000000000003</v>
+        <v>0.57565200000000005</v>
       </c>
       <c r="H12" s="106">
         <f t="shared" si="0"/>
-        <v>3747.4763465700003</v>
+        <v>3697.7069829546003</v>
       </c>
       <c r="I12" s="107">
         <f>Utilidad!Q70</f>
@@ -50343,250 +50343,250 @@
     <row r="13" spans="1:15" ht="16" thickBot="1">
       <c r="A13" s="84"/>
       <c r="B13" s="88"/>
-      <c r="C13" s="246">
+      <c r="C13" s="234">
         <f>Utilidad!K76</f>
         <v>0</v>
       </c>
-      <c r="D13" s="247"/>
-      <c r="E13" s="248"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="236"/>
       <c r="F13" s="105">
         <f>Utilidad!O76</f>
         <v>6965.6073299999998</v>
       </c>
       <c r="G13" s="98">
         <f>Utilidad!P76</f>
-        <v>0.46829999999999999</v>
+        <v>0.46001199999999998</v>
       </c>
       <c r="H13" s="106">
         <f t="shared" si="0"/>
-        <v>3261.993912639</v>
+        <v>3204.2629590879596</v>
       </c>
       <c r="I13" s="107">
         <f>Utilidad!Q76</f>
         <v>0.43790000000000001</v>
       </c>
-      <c r="J13" s="259"/>
-      <c r="K13" s="260"/>
-      <c r="L13" s="264"/>
-      <c r="M13" s="265"/>
-      <c r="N13" s="266"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="242"/>
+      <c r="N13" s="243"/>
       <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1">
       <c r="A14" s="84"/>
       <c r="B14" s="88"/>
-      <c r="C14" s="246">
+      <c r="C14" s="234">
         <f>Utilidad!K79</f>
         <v>0</v>
       </c>
-      <c r="D14" s="247"/>
-      <c r="E14" s="248"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="236"/>
       <c r="F14" s="105">
         <f>Utilidad!O79</f>
         <v>12730.763924999999</v>
       </c>
       <c r="G14" s="107">
         <f>Utilidad!P79</f>
-        <v>0.35210000000000002</v>
+        <v>0.34741</v>
       </c>
       <c r="H14" s="106">
         <f t="shared" si="0"/>
-        <v>4482.5019779924996</v>
+        <v>4422.7946951842496</v>
       </c>
       <c r="I14" s="107">
         <f>Utilidad!Q79</f>
         <v>0.32619999999999999</v>
       </c>
-      <c r="J14" s="261"/>
-      <c r="K14" s="262"/>
-      <c r="L14" s="267"/>
-      <c r="M14" s="268"/>
-      <c r="N14" s="269"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="245"/>
+      <c r="N14" s="246"/>
       <c r="O14" s="158"/>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
       <c r="A15" s="84"/>
       <c r="B15" s="88"/>
-      <c r="C15" s="246">
+      <c r="C15" s="234">
         <f>Utilidad!K82</f>
         <v>0</v>
       </c>
-      <c r="D15" s="273"/>
-      <c r="E15" s="274"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="251"/>
       <c r="F15" s="105">
         <f>Utilidad!O82</f>
         <v>2315.4829215999998</v>
       </c>
       <c r="G15" s="107">
         <f>Utilidad!P82</f>
-        <v>0.51519999999999999</v>
+        <v>0.50606834812000001</v>
       </c>
       <c r="H15" s="106">
         <f t="shared" si="0"/>
-        <v>1192.9368012083198</v>
+        <v>1171.7926172341834</v>
       </c>
       <c r="I15" s="107">
         <f>Utilidad!Q82</f>
         <v>0.40179999999999999</v>
       </c>
-      <c r="J15" s="261"/>
-      <c r="K15" s="262"/>
-      <c r="L15" s="267"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="269"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="240"/>
+      <c r="L15" s="244"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="246"/>
       <c r="O15" s="158"/>
     </row>
     <row r="16" spans="1:15" ht="16" thickBot="1">
       <c r="A16" s="84"/>
       <c r="B16" s="88"/>
-      <c r="C16" s="246">
+      <c r="C16" s="234">
         <f>Utilidad!K85</f>
         <v>0</v>
       </c>
-      <c r="D16" s="273"/>
-      <c r="E16" s="274"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="251"/>
       <c r="F16" s="105">
         <f>Utilidad!O85</f>
         <v>2521.3824411000001</v>
       </c>
       <c r="G16" s="107">
         <f>Utilidad!P85</f>
-        <v>0.42180000000000001</v>
+        <v>0.41404855702999999</v>
       </c>
       <c r="H16" s="106">
         <f t="shared" si="0"/>
-        <v>1063.5191136559799</v>
+        <v>1043.9747614582338</v>
       </c>
       <c r="I16" s="107">
         <f>Utilidad!Q85</f>
         <v>0.37</v>
       </c>
-      <c r="J16" s="261"/>
-      <c r="K16" s="262"/>
-      <c r="L16" s="267"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="269"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="244"/>
+      <c r="M16" s="245"/>
+      <c r="N16" s="246"/>
       <c r="O16" s="158"/>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
       <c r="A17" s="84"/>
       <c r="B17" s="88"/>
-      <c r="C17" s="246">
+      <c r="C17" s="234">
         <f>Utilidad!K88</f>
         <v>0</v>
       </c>
-      <c r="D17" s="273"/>
-      <c r="E17" s="274"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
       <c r="F17" s="105">
         <f>Utilidad!O88</f>
         <v>1199.0246399</v>
       </c>
       <c r="G17" s="107">
         <f>Utilidad!P88</f>
-        <v>0.49659999999999999</v>
+        <v>0.48705999999999999</v>
       </c>
       <c r="H17" s="106">
         <f t="shared" si="0"/>
-        <v>595.43563617433995</v>
+        <v>583.99694110969403</v>
       </c>
       <c r="I17" s="107">
         <f>Utilidad!Q88</f>
         <v>0.42920000000000003</v>
       </c>
-      <c r="J17" s="261"/>
-      <c r="K17" s="262"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="268"/>
-      <c r="N17" s="269"/>
+      <c r="J17" s="239"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="244"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="246"/>
       <c r="O17" s="158"/>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
-      <c r="C18" s="246">
+      <c r="C18" s="234">
         <f>Utilidad!K91</f>
         <v>0</v>
       </c>
-      <c r="D18" s="273"/>
-      <c r="E18" s="274"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="251"/>
       <c r="F18" s="105">
         <f>Utilidad!O91</f>
         <v>1168.5991726</v>
       </c>
       <c r="G18" s="107">
         <f>Utilidad!P91</f>
-        <v>0.52790000000000004</v>
+        <v>0.51804422520000004</v>
       </c>
       <c r="H18" s="106">
         <f t="shared" si="0"/>
-        <v>616.90350321554001</v>
+        <v>605.38605293892806</v>
       </c>
       <c r="I18" s="107">
         <f>Utilidad!Q91</f>
         <v>0.42920000000000003</v>
       </c>
-      <c r="J18" s="261"/>
-      <c r="K18" s="262"/>
-      <c r="L18" s="267"/>
-      <c r="M18" s="268"/>
-      <c r="N18" s="269"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="244"/>
+      <c r="M18" s="245"/>
+      <c r="N18" s="246"/>
       <c r="O18" s="158"/>
     </row>
     <row r="19" spans="1:15" ht="16" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="88"/>
-      <c r="C19" s="275">
+      <c r="C19" s="252">
         <f>Utilidad!K73</f>
         <v>0</v>
       </c>
-      <c r="D19" s="276"/>
-      <c r="E19" s="277"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="254"/>
       <c r="F19" s="105">
         <f>Utilidad!O73</f>
         <v>1155.9128879</v>
       </c>
       <c r="G19" s="107">
         <f>Utilidad!P73</f>
-        <v>0.43290000000000001</v>
+        <v>0.42469954192999998</v>
       </c>
       <c r="H19" s="106">
         <f t="shared" si="0"/>
-        <v>500.39468917190999</v>
+        <v>490.91567400211341</v>
       </c>
       <c r="I19" s="107">
         <f>Utilidad!Q73</f>
         <v>0.39579999999999999</v>
       </c>
-      <c r="J19" s="207"/>
-      <c r="K19" s="263"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="272"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="247"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="249"/>
       <c r="O19" s="158"/>
     </row>
     <row r="20" spans="1:15" ht="16" thickBot="1">
       <c r="A20" s="84"/>
       <c r="B20" s="88"/>
-      <c r="C20" s="222" t="s">
+      <c r="C20" s="255" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="256"/>
       <c r="F20" s="113">
         <f>SUM(F11:F19)</f>
         <v>1702048.2843681003</v>
       </c>
       <c r="G20" s="114">
         <f>+H20/F20</f>
-        <v>0.15614311369509379</v>
+        <v>0.15596174305626243</v>
       </c>
       <c r="H20" s="115">
         <f>SUM(H11:H19)</f>
-        <v>265763.11878062761</v>
+        <v>265454.41719596996</v>
       </c>
       <c r="I20" s="116"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="241"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="258"/>
       <c r="L20" s="117"/>
       <c r="M20" s="118"/>
       <c r="N20" s="119"/>
@@ -50595,87 +50595,87 @@
     <row r="21" spans="1:15" ht="16" thickBot="1">
       <c r="A21" s="84"/>
       <c r="B21" s="88"/>
-      <c r="C21" s="242" t="s">
+      <c r="C21" s="259" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="244" t="s">
+      <c r="D21" s="260"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
+      <c r="H21" s="260"/>
+      <c r="I21" s="261" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="228"/>
-      <c r="K21" s="228"/>
-      <c r="L21" s="228"/>
-      <c r="M21" s="228"/>
-      <c r="N21" s="245"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="263"/>
       <c r="O21" s="158"/>
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
       <c r="A22" s="84"/>
       <c r="B22" s="88"/>
-      <c r="C22" s="246" t="s">
+      <c r="C22" s="234" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="247"/>
-      <c r="E22" s="248"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="236"/>
       <c r="F22" s="120"/>
       <c r="G22" s="121"/>
       <c r="H22" s="120">
         <f>+F22*G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="249" t="s">
+      <c r="I22" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="250"/>
-      <c r="K22" s="251"/>
+      <c r="J22" s="265"/>
+      <c r="K22" s="266"/>
       <c r="L22" s="122">
         <f>Utilidad!O114</f>
-        <v>1513678.9513999999</v>
+        <v>1524512.2664999999</v>
       </c>
       <c r="M22" s="111">
         <f>Utilidad!P114</f>
-        <v>0.10199999999999999</v>
+        <v>0.10335414066</v>
       </c>
       <c r="N22" s="112">
         <f>+L22*M22</f>
-        <v>154395.25304279997</v>
+        <v>157564.65522973638</v>
       </c>
       <c r="O22" s="158"/>
     </row>
     <row r="23" spans="1:15" ht="16" thickBot="1">
       <c r="A23" s="84"/>
       <c r="B23" s="88"/>
-      <c r="C23" s="222" t="s">
+      <c r="C23" s="255" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
       <c r="F23" s="123"/>
       <c r="G23" s="124"/>
       <c r="H23" s="113">
         <f>SUM(H21:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="224" t="s">
+      <c r="I23" s="287" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="225"/>
-      <c r="K23" s="226"/>
+      <c r="J23" s="288"/>
+      <c r="K23" s="289"/>
       <c r="L23" s="125">
         <f>L22</f>
-        <v>1513678.9513999999</v>
+        <v>1524512.2664999999</v>
       </c>
       <c r="M23" s="114">
         <f>M22</f>
-        <v>0.10199999999999999</v>
+        <v>0.10335414066</v>
       </c>
       <c r="N23" s="126">
         <f>N22</f>
-        <v>154395.25304279997</v>
+        <v>157564.65522973638</v>
       </c>
       <c r="O23" s="158"/>
     </row>
@@ -50699,11 +50699,11 @@
     <row r="25" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A25" s="84"/>
       <c r="B25" s="88"/>
-      <c r="C25" s="227" t="s">
+      <c r="C25" s="290" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="228"/>
-      <c r="E25" s="229"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="291"/>
       <c r="F25" s="131" t="s">
         <v>28</v>
       </c>
@@ -50724,11 +50724,11 @@
     <row r="26" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A26" s="84"/>
       <c r="B26" s="88"/>
-      <c r="C26" s="230" t="s">
+      <c r="C26" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="231"/>
-      <c r="E26" s="232"/>
+      <c r="D26" s="293"/>
+      <c r="E26" s="294"/>
       <c r="F26" s="138">
         <f>+'[1]Informacion Planta'!L49</f>
         <v>-5.4250001106993295E-2</v>
@@ -50752,11 +50752,11 @@
     <row r="27" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A27" s="84"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="233" t="s">
+      <c r="C27" s="295" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="234"/>
-      <c r="E27" s="234"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="296"/>
       <c r="F27" s="144">
         <f>SUM(F26:F26)</f>
         <v>-5.4250001106993295E-2</v>
@@ -50797,20 +50797,20 @@
     <row r="29" spans="1:15" ht="16" thickBot="1">
       <c r="A29" s="84"/>
       <c r="B29" s="88"/>
-      <c r="C29" s="237" t="s">
+      <c r="C29" s="299" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="238"/>
-      <c r="I29" s="238"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="238"/>
-      <c r="N29" s="239"/>
+      <c r="D29" s="300"/>
+      <c r="E29" s="300"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="300"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="300"/>
+      <c r="J29" s="300"/>
+      <c r="K29" s="300"/>
+      <c r="L29" s="300"/>
+      <c r="M29" s="300"/>
+      <c r="N29" s="301"/>
       <c r="O29" s="158"/>
     </row>
     <row r="30" spans="1:15" ht="16" thickBot="1">
@@ -50833,67 +50833,67 @@
     <row r="31" spans="1:15" ht="16" thickBot="1">
       <c r="A31" s="84"/>
       <c r="B31" s="88"/>
-      <c r="C31" s="201" t="s">
+      <c r="C31" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="235"/>
-      <c r="E31" s="236"/>
+      <c r="D31" s="297"/>
+      <c r="E31" s="298"/>
       <c r="F31" s="154"/>
       <c r="G31" s="154"/>
-      <c r="H31" s="201" t="s">
+      <c r="H31" s="267" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="235"/>
-      <c r="J31" s="236"/>
+      <c r="I31" s="297"/>
+      <c r="J31" s="298"/>
       <c r="K31" s="154"/>
-      <c r="L31" s="201" t="s">
+      <c r="L31" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="202"/>
-      <c r="N31" s="203"/>
+      <c r="M31" s="268"/>
+      <c r="N31" s="269"/>
       <c r="O31" s="158"/>
     </row>
     <row r="32" spans="1:15" ht="16" thickBot="1">
       <c r="A32" s="84"/>
       <c r="B32" s="88"/>
-      <c r="C32" s="204">
+      <c r="C32" s="270">
         <f>Utilidad!I105</f>
-        <v>0.11504866580773521</v>
-      </c>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
+        <v>9.1031189996914993E-2</v>
+      </c>
+      <c r="D32" s="271"/>
+      <c r="E32" s="272"/>
       <c r="F32" s="154"/>
       <c r="G32" s="154"/>
-      <c r="H32" s="210">
+      <c r="H32" s="275">
         <f>Utilidad!I94</f>
-        <v>0.47536130253454256</v>
-      </c>
-      <c r="I32" s="211"/>
-      <c r="J32" s="212"/>
+        <v>0.38176653442745873</v>
+      </c>
+      <c r="I32" s="276"/>
+      <c r="J32" s="277"/>
       <c r="K32" s="154"/>
-      <c r="L32" s="216">
+      <c r="L32" s="281">
         <f>Utilidad!I104</f>
         <v>0.64298315605996326</v>
       </c>
-      <c r="M32" s="217"/>
-      <c r="N32" s="218"/>
+      <c r="M32" s="282"/>
+      <c r="N32" s="283"/>
       <c r="O32" s="158"/>
     </row>
     <row r="33" spans="1:15" ht="16" thickBot="1">
       <c r="A33" s="84"/>
       <c r="B33" s="88"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="209"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="273"/>
+      <c r="E33" s="274"/>
       <c r="F33" s="154"/>
       <c r="G33" s="154"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="215"/>
+      <c r="H33" s="278"/>
+      <c r="I33" s="279"/>
+      <c r="J33" s="280"/>
       <c r="K33" s="154"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="220"/>
-      <c r="N33" s="221"/>
+      <c r="L33" s="284"/>
+      <c r="M33" s="285"/>
+      <c r="N33" s="286"/>
       <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" ht="16" thickBot="1">
@@ -50964,13 +50964,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:N4"/>
-    <mergeCell ref="E5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="L32:N33"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="C11:E11"/>
@@ -50984,24 +50995,13 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="L32:N33"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:N4"/>
+    <mergeCell ref="E5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2176114-3269-DF4A-89CF-3F42E8BC04F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F8CC43-05A9-D442-BD47-55F21C3D90E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Utilidad" sheetId="10" r:id="rId1"/>
     <sheet name="Diagrama Fe T" sheetId="5" r:id="rId2"/>
     <sheet name="Flujos" sheetId="13" r:id="rId3"/>
-    <sheet name="Reporte" sheetId="15" r:id="rId4"/>
+    <sheet name="Datos Extra" sheetId="16" r:id="rId4"/>
+    <sheet name="Reporte" sheetId="15" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Reporte!$A$1:$O$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Reporte!$A$1:$O$36</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Utilidad!$O$68:$P$120</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -220,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="116">
   <si>
     <t>Recepción P55</t>
   </si>
@@ -540,6 +541,48 @@
       <t>PM</t>
     </r>
   </si>
+  <si>
+    <t>Flujos</t>
+  </si>
+  <si>
+    <t>Ley FeT</t>
+  </si>
+  <si>
+    <t>Ley FeMag</t>
+  </si>
+  <si>
+    <t>Mediciones</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Max Var Ton</t>
+  </si>
+  <si>
+    <t>TMSD</t>
+  </si>
+  <si>
+    <t>%Fe T</t>
+  </si>
+  <si>
+    <t>Max Var  FeT</t>
+  </si>
+  <si>
+    <t>Max Var  FeMag</t>
+  </si>
+  <si>
+    <t>% Cambio relativo</t>
+  </si>
+  <si>
+    <t>Alim Repulpeo</t>
+  </si>
+  <si>
+    <t>Alim Hnos Araya</t>
+  </si>
+  <si>
+    <t>Producción filtrado</t>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +599,7 @@
     <numFmt numFmtId="171" formatCode="0_)"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,8 +854,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +933,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1741,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2146,6 +2209,25 @@
     <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2165,6 +2247,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2461,6 +2555,12 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="18" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2469,7 +2569,21 @@
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -17508,17 +17622,17 @@
       <c r="I66" s="160"/>
       <c r="J66" s="160"/>
       <c r="K66" s="160"/>
-      <c r="L66" s="201"/>
-      <c r="M66" s="201"/>
+      <c r="L66" s="216"/>
+      <c r="M66" s="216"/>
       <c r="N66" s="160"/>
-      <c r="O66" s="202" t="s">
+      <c r="O66" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="P66" s="202"/>
-      <c r="Q66" s="202"/>
+      <c r="P66" s="217"/>
+      <c r="Q66" s="217"/>
       <c r="R66" s="160"/>
-      <c r="S66" s="203"/>
-      <c r="T66" s="203"/>
+      <c r="S66" s="218"/>
+      <c r="T66" s="218"/>
       <c r="U66" s="64"/>
       <c r="V66" s="64"/>
       <c r="W66" s="65"/>
@@ -17526,10 +17640,10 @@
       <c r="Y66" s="64"/>
       <c r="Z66" s="64"/>
       <c r="AA66" s="64"/>
-      <c r="AB66" s="197"/>
-      <c r="AC66" s="197"/>
-      <c r="AD66" s="197"/>
-      <c r="AE66" s="197"/>
+      <c r="AB66" s="212"/>
+      <c r="AC66" s="212"/>
+      <c r="AD66" s="212"/>
+      <c r="AE66" s="212"/>
       <c r="AF66" s="64"/>
       <c r="AG66" s="64"/>
       <c r="AH66" s="64"/>
@@ -25595,11 +25709,11 @@
       <c r="I126" s="63"/>
       <c r="J126" s="63"/>
       <c r="K126" s="72"/>
-      <c r="L126" s="198"/>
-      <c r="M126" s="198"/>
+      <c r="L126" s="213"/>
+      <c r="M126" s="213"/>
       <c r="N126" s="63"/>
-      <c r="O126" s="198"/>
-      <c r="P126" s="198"/>
+      <c r="O126" s="213"/>
+      <c r="P126" s="213"/>
       <c r="Q126" s="63"/>
       <c r="R126" s="63"/>
       <c r="S126" s="64"/>
@@ -25722,9 +25836,9 @@
       <c r="P127" s="74"/>
       <c r="Q127" s="75"/>
       <c r="R127" s="75"/>
-      <c r="S127" s="199"/>
-      <c r="T127" s="199"/>
-      <c r="U127" s="199"/>
+      <c r="S127" s="214"/>
+      <c r="T127" s="214"/>
+      <c r="U127" s="214"/>
       <c r="V127" s="64"/>
       <c r="W127" s="64"/>
       <c r="X127" s="64"/>
@@ -31715,8 +31829,8 @@
       <c r="I177" s="61"/>
       <c r="J177" s="61"/>
       <c r="K177" s="73"/>
-      <c r="L177" s="200"/>
-      <c r="M177" s="200"/>
+      <c r="L177" s="215"/>
+      <c r="M177" s="215"/>
       <c r="N177" s="75"/>
       <c r="O177" s="75"/>
       <c r="P177" s="75"/>
@@ -47316,7 +47430,7 @@
     <mergeCell ref="S66:T66"/>
   </mergeCells>
   <conditionalFormatting sqref="S68:T120">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>ABS(S68)&gt;=10%</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47489,7 +47603,7 @@
         <v>3697.7069829546003</v>
       </c>
       <c r="H13" s="23">
-        <f>Flujos!B10</f>
+        <f>Flujos!C13</f>
         <v>0</v>
       </c>
       <c r="K13" s="15">
@@ -47501,7 +47615,7 @@
     <row r="14" spans="2:18">
       <c r="B14" s="11"/>
       <c r="H14" s="7">
-        <f>Flujos!C10</f>
+        <f>Flujos!D13</f>
         <v>0</v>
       </c>
       <c r="L14" s="13">
@@ -47553,7 +47667,7 @@
     <row r="18" spans="2:18">
       <c r="B18" s="11"/>
       <c r="G18" s="23">
-        <f>Flujos!B12</f>
+        <f>Flujos!C15</f>
         <v>12730.763924999999</v>
       </c>
       <c r="I18" s="23">
@@ -47569,7 +47683,7 @@
     <row r="19" spans="2:18">
       <c r="B19" s="11"/>
       <c r="G19" s="7">
-        <f>Flujos!C12</f>
+        <f>Flujos!D15</f>
         <v>0.34741</v>
       </c>
       <c r="I19" s="7">
@@ -47707,7 +47821,7 @@
     <row r="29" spans="2:18">
       <c r="B29" s="11"/>
       <c r="H29" s="23">
-        <f>Flujos!B48</f>
+        <f>Flujos!C51</f>
         <v>9871.7492098999992</v>
       </c>
       <c r="L29" s="13">
@@ -47720,7 +47834,7 @@
     <row r="30" spans="2:18">
       <c r="B30" s="11"/>
       <c r="H30" s="7">
-        <f>Flujos!C48</f>
+        <f>Flujos!D51</f>
         <v>0.39878871811</v>
       </c>
       <c r="L30" s="14">
@@ -49141,899 +49255,2978 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B33E5-7676-1F47-BBE6-CFF6D81A466B}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="B2:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19">
-      <c r="A1" s="48" t="s">
+    <row r="2" spans="2:18" ht="20" customHeight="1">
+      <c r="B2" s="219" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="G2" s="219" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="L2" s="220" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="221"/>
+      <c r="N2" s="222"/>
+      <c r="P2" s="210" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="211" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="211" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="19">
+      <c r="B3" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="197" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="197" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="197" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="205" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="205" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="205" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+    </row>
+    <row r="4" spans="2:18" ht="19">
+      <c r="B4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C4" s="198">
         <f>Utilidad!A1</f>
         <v>13202.36645</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D4" s="199">
         <f>IF(Utilidad!B1&gt;1,Utilidad!B1/100,Utilidad!B1)</f>
         <v>0.58178940276000002</v>
       </c>
-      <c r="D1" s="3">
+      <c r="E4" s="199">
         <f>IF(Utilidad!C1&gt;1,Utilidad!C1/100,Utilidad!C1)</f>
         <v>0.55969999999999998</v>
       </c>
+      <c r="G4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="198">
+        <f>Utilidad!F1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="199">
+        <f>IF(Utilidad!G1&gt;1,Utilidad!G1/100,Utilidad!G1)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="199">
+        <f>IF(Utilidad!H1&gt;1,Utilidad!H1/100,Utilidad!H1)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="207">
+        <f t="shared" ref="L4:L35" si="0">+IF(C4&lt;&gt;0,(HI4-C4)/C4,ABS(H4-C4))</f>
+        <v>-1</v>
+      </c>
+      <c r="M4" s="207">
+        <f t="shared" ref="M4:M35" si="1">+IF(D4&lt;&gt;0,(I4-D4)/D4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="N4" s="207">
+        <f t="shared" ref="N4:N35" si="2">+IF(E4&lt;&gt;0,(J4-E4)/E4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="P4" s="199">
+        <f t="shared" ref="P4:P35" si="3">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="199">
+        <f t="shared" ref="Q4:Q36" si="4">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="199">
+        <f t="shared" ref="R4:R36" si="5">+IF(M4&lt;&gt;"",ABS(M4),0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="19">
-      <c r="A2" s="48" t="s">
+    <row r="5" spans="2:18" ht="19">
+      <c r="B5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C5" s="198">
         <f>Utilidad!A2</f>
         <v>6778.8554000000004</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D5" s="199">
         <f>IF(Utilidad!B2&gt;1,Utilidad!B2/100,Utilidad!B2)</f>
         <v>0.58760508580000004</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E5" s="199">
         <f>IF(Utilidad!C2&gt;1,Utilidad!C2/100,Utilidad!C2)</f>
         <v>0.56620000000000004</v>
       </c>
+      <c r="G5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="198">
+        <f>Utilidad!F2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="199">
+        <f>IF(Utilidad!G2&gt;1,Utilidad!G2/100,Utilidad!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="199">
+        <f>IF(Utilidad!H2&gt;1,Utilidad!H2/100,Utilidad!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M5" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N5" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P5" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="48" t="s">
+    <row r="6" spans="2:18" ht="19">
+      <c r="B6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C6" s="198">
         <f>Utilidad!A3</f>
         <v>6423.5110500000001</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D6" s="199">
         <f>IF(Utilidad!B3&gt;1,Utilidad!B3/100,Utilidad!B3)</f>
         <v>0.57565200000000005</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E6" s="199">
         <f>IF(Utilidad!C3&gt;1,Utilidad!C3/100,Utilidad!C3)</f>
         <v>0.55269999999999997</v>
       </c>
+      <c r="G6" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="198">
+        <f>Utilidad!F3</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="199">
+        <f>IF(Utilidad!G3&gt;1,Utilidad!G3/100,Utilidad!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="199">
+        <f>IF(Utilidad!H3&gt;1,Utilidad!H3/100,Utilidad!H3)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M6" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N6" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P6" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="48" t="s">
+    <row r="7" spans="2:18" ht="19">
+      <c r="B7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C7" s="198">
         <f>Utilidad!A4</f>
         <v>7852.2802756999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D7" s="199">
         <f>IF(Utilidad!B4&gt;1,Utilidad!B4/100,Utilidad!B4)</f>
         <v>0.43262724945999997</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E7" s="199">
         <f>IF(Utilidad!C4&gt;1,Utilidad!C4/100,Utilidad!C4)</f>
         <v>0.4032</v>
       </c>
+      <c r="G7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="198">
+        <f>Utilidad!F4</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="199">
+        <f>IF(Utilidad!G4&gt;1,Utilidad!G4/100,Utilidad!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="199">
+        <f>IF(Utilidad!H4&gt;1,Utilidad!H4/100,Utilidad!H4)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M7" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P7" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="19">
-      <c r="A5" s="48" t="s">
+    <row r="8" spans="2:18" ht="19">
+      <c r="B8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C8" s="198">
         <f>Utilidad!A5</f>
         <v>6696.3673878</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D8" s="199">
         <f>IF(Utilidad!B5&gt;1,Utilidad!B5/100,Utilidad!B5)</f>
         <v>0.43399571370000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E8" s="199">
         <f>IF(Utilidad!C5&gt;1,Utilidad!C5/100,Utilidad!C5)</f>
         <v>0.40450000000000003</v>
       </c>
+      <c r="G8" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="198">
+        <f>Utilidad!F5</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="199">
+        <f>IF(Utilidad!G5&gt;1,Utilidad!G5/100,Utilidad!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="199">
+        <f>IF(Utilidad!H5&gt;1,Utilidad!H5/100,Utilidad!H5)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M8" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N8" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P8" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="19">
-      <c r="A6" s="48" t="s">
+    <row r="9" spans="2:18" ht="19">
+      <c r="B9" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C9" s="198">
         <f>Utilidad!A6</f>
         <v>1155.9128879</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D9" s="199">
         <f>IF(Utilidad!B6&gt;1,Utilidad!B6/100,Utilidad!B6)</f>
         <v>0.42469954192999998</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E9" s="199">
         <f>IF(Utilidad!C6&gt;1,Utilidad!C6/100,Utilidad!C6)</f>
         <v>0.39579999999999999</v>
       </c>
+      <c r="G9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="198">
+        <f>Utilidad!F6</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="199">
+        <f>IF(Utilidad!G6&gt;1,Utilidad!G6/100,Utilidad!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="199">
+        <f>IF(Utilidad!H6&gt;1,Utilidad!H6/100,Utilidad!H6)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M9" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N9" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P9" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="19">
-      <c r="A7" s="48" t="s">
+    <row r="10" spans="2:18" ht="19">
+      <c r="B10" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C10" s="198">
         <f>Utilidad!A7</f>
         <v>2893.7873199999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D10" s="199">
         <f>IF(Utilidad!B7&gt;1,Utilidad!B7/100,Utilidad!B7)</f>
         <v>0.46181945569999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E10" s="199">
         <f>IF(Utilidad!C7&gt;1,Utilidad!C7/100,Utilidad!C7)</f>
         <v>0.43959999999999999</v>
       </c>
+      <c r="G10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="198">
+        <f>Utilidad!F7</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="199">
+        <f>IF(Utilidad!G7&gt;1,Utilidad!G7/100,Utilidad!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="199">
+        <f>IF(Utilidad!H7&gt;1,Utilidad!H7/100,Utilidad!H7)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M10" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N10" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P10" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="19">
-      <c r="A8" s="48" t="s">
+    <row r="11" spans="2:18" ht="19">
+      <c r="B11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C11" s="198">
         <f>Utilidad!A8</f>
         <v>-4071.8200099999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D11" s="199">
         <f>IF(Utilidad!B8&gt;1,Utilidad!B8/100,Utilidad!B8)</f>
         <v>0.45872746572</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E11" s="199">
         <f>IF(Utilidad!C8&gt;1,Utilidad!C8/100,Utilidad!C8)</f>
         <v>0.43659999999999999</v>
       </c>
+      <c r="G11" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="198">
+        <f>Utilidad!F8</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="199">
+        <f>IF(Utilidad!G8&gt;1,Utilidad!G8/100,Utilidad!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="199">
+        <f>IF(Utilidad!H8&gt;1,Utilidad!H8/100,Utilidad!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M11" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N11" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P11" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="19">
-      <c r="A9" s="48" t="s">
+    <row r="12" spans="2:18" ht="19">
+      <c r="B12" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C12" s="198">
         <f>Utilidad!A9</f>
         <v>6965.6073299999998</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D12" s="199">
         <f>IF(Utilidad!B9&gt;1,Utilidad!B9/100,Utilidad!B9)</f>
         <v>0.46001199999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E12" s="199">
         <f>IF(Utilidad!C9&gt;1,Utilidad!C9/100,Utilidad!C9)</f>
         <v>0.43790000000000001</v>
       </c>
+      <c r="G12" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="198">
+        <f>Utilidad!F9</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="199">
+        <f>IF(Utilidad!G9&gt;1,Utilidad!G9/100,Utilidad!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="199">
+        <f>IF(Utilidad!H9&gt;1,Utilidad!H9/100,Utilidad!H9)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M12" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N12" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P12" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="19">
-      <c r="A10" s="48" t="s">
+    <row r="13" spans="2:18" ht="19">
+      <c r="B13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C13" s="198">
         <f>Utilidad!A10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D13" s="199">
         <f>IF(Utilidad!B10&gt;1,Utilidad!B10/100,Utilidad!B10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E13" s="199">
         <f>IF(Utilidad!C10&gt;1,Utilidad!C10/100,Utilidad!C10)</f>
         <v>0.33629999999999999</v>
       </c>
+      <c r="G13" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="198">
+        <f>Utilidad!F10</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="199">
+        <f>IF(Utilidad!G10&gt;1,Utilidad!G10/100,Utilidad!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="199">
+        <f>IF(Utilidad!H10&gt;1,Utilidad!H10/100,Utilidad!H10)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="207">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="207">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P13" s="199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="199">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="19">
-      <c r="A11" s="48" t="s">
+    <row r="14" spans="2:18" ht="19">
+      <c r="B14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C14" s="198">
         <f>Utilidad!A11</f>
         <v>12730.763924999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D14" s="199">
         <f>IF(Utilidad!B11&gt;1,Utilidad!B11/100,Utilidad!B11)</f>
         <v>0.34741</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E14" s="199">
         <f>IF(Utilidad!C11&gt;1,Utilidad!C11/100,Utilidad!C11)</f>
         <v>0.34160000000000001</v>
       </c>
+      <c r="G14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="198">
+        <f>Utilidad!F11</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="199">
+        <f>IF(Utilidad!G11&gt;1,Utilidad!G11/100,Utilidad!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="199">
+        <f>IF(Utilidad!H11&gt;1,Utilidad!H11/100,Utilidad!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M14" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N14" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P14" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="19">
-      <c r="A12" s="48" t="s">
+    <row r="15" spans="2:18" ht="19">
+      <c r="B15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C15" s="198">
         <f>Utilidad!A12</f>
         <v>12730.763924999999</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D15" s="199">
         <f>IF(Utilidad!B12&gt;1,Utilidad!B12/100,Utilidad!B12)</f>
         <v>0.34741</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E15" s="199">
         <f>IF(Utilidad!C12&gt;1,Utilidad!C12/100,Utilidad!C12)</f>
         <v>0.32619999999999999</v>
       </c>
+      <c r="G15" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="198">
+        <f>Utilidad!F12</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="199">
+        <f>IF(Utilidad!G12&gt;1,Utilidad!G12/100,Utilidad!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="199">
+        <f>IF(Utilidad!H12&gt;1,Utilidad!H12/100,Utilidad!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N15" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P15" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" ht="19">
-      <c r="A13" s="48" t="s">
+    <row r="16" spans="2:18" ht="19">
+      <c r="B16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C16" s="198">
         <f>Utilidad!A13</f>
         <v>4912.6787609000003</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D16" s="199">
         <f>IF(Utilidad!B13&gt;1,Utilidad!B13/100,Utilidad!B13)</f>
         <v>0.51258839217999996</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E16" s="199">
         <f>IF(Utilidad!C13&gt;1,Utilidad!C13/100,Utilidad!C13)</f>
         <v>0.40699999999999997</v>
       </c>
+      <c r="G16" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="198">
+        <f>Utilidad!F13</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="199">
+        <f>IF(Utilidad!G13&gt;1,Utilidad!G13/100,Utilidad!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="199">
+        <f>IF(Utilidad!H13&gt;1,Utilidad!H13/100,Utilidad!H13)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M16" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N16" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P16" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" ht="19">
-      <c r="A14" s="48" t="s">
+    <row r="17" spans="2:18" ht="19">
+      <c r="B17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C17" s="198">
         <f>Utilidad!A14</f>
         <v>2597.1958393</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D17" s="199">
         <f>IF(Utilidad!B14&gt;1,Utilidad!B14/100,Utilidad!B14)</f>
         <v>0.51840121938999995</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E17" s="199">
         <f>IF(Utilidad!C14&gt;1,Utilidad!C14/100,Utilidad!C14)</f>
         <v>0.41160000000000002</v>
       </c>
+      <c r="G17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="198">
+        <f>Utilidad!F14</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="199">
+        <f>IF(Utilidad!G14&gt;1,Utilidad!G14/100,Utilidad!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="199">
+        <f>IF(Utilidad!H14&gt;1,Utilidad!H14/100,Utilidad!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N17" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P17" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" ht="19">
-      <c r="A15" s="48" t="s">
+    <row r="18" spans="2:18" ht="19">
+      <c r="B18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C18" s="198">
         <f>Utilidad!A15</f>
         <v>2315.4829215999998</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D18" s="199">
         <f>IF(Utilidad!B15&gt;1,Utilidad!B15/100,Utilidad!B15)</f>
         <v>0.50606834812000001</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E18" s="199">
         <f>IF(Utilidad!C15&gt;1,Utilidad!C15/100,Utilidad!C15)</f>
         <v>0.40179999999999999</v>
       </c>
+      <c r="G18" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="198">
+        <f>Utilidad!F15</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="199">
+        <f>IF(Utilidad!G15&gt;1,Utilidad!G15/100,Utilidad!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="199">
+        <f>IF(Utilidad!H15&gt;1,Utilidad!H15/100,Utilidad!H15)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M18" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N18" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P18" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" ht="19">
-      <c r="A16" s="48" t="s">
+    <row r="19" spans="2:18" ht="19">
+      <c r="B19" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C19" s="198">
         <f>Utilidad!A16</f>
         <v>3667.1989233999998</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D19" s="199">
         <f>IF(Utilidad!B16&gt;1,Utilidad!B16/100,Utilidad!B16)</f>
         <v>0.41720177222999999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E19" s="199">
         <f>IF(Utilidad!C16&gt;1,Utilidad!C16/100,Utilidad!C16)</f>
         <v>0.37280000000000002</v>
       </c>
+      <c r="G19" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="198">
+        <f>Utilidad!F16</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="199">
+        <f>IF(Utilidad!G16&gt;1,Utilidad!G16/100,Utilidad!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="199">
+        <f>IF(Utilidad!H16&gt;1,Utilidad!H16/100,Utilidad!H16)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M19" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N19" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P19" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" ht="19">
-      <c r="A17" s="48" t="s">
+    <row r="20" spans="2:18" ht="19">
+      <c r="B20" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C20" s="198">
         <f>Utilidad!A17</f>
         <v>1145.8164823</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D20" s="199">
         <f>IF(Utilidad!B17&gt;1,Utilidad!B17/100,Utilidad!B17)</f>
         <v>0.42414045878000001</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E20" s="199">
         <f>IF(Utilidad!C17&gt;1,Utilidad!C17/100,Utilidad!C17)</f>
         <v>0.379</v>
       </c>
+      <c r="G20" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="198">
+        <f>Utilidad!F17</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="199">
+        <f>IF(Utilidad!G17&gt;1,Utilidad!G17/100,Utilidad!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="199">
+        <f>IF(Utilidad!H17&gt;1,Utilidad!H17/100,Utilidad!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M20" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N20" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P20" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="19">
-      <c r="A18" s="48" t="s">
+    <row r="21" spans="2:18" ht="19">
+      <c r="B21" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C21" s="198">
         <f>Utilidad!A18</f>
         <v>2521.3824411000001</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D21" s="199">
         <f>IF(Utilidad!B18&gt;1,Utilidad!B18/100,Utilidad!B18)</f>
         <v>0.41404855702999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E21" s="199">
         <f>IF(Utilidad!C18&gt;1,Utilidad!C18/100,Utilidad!C18)</f>
         <v>0.37</v>
       </c>
+      <c r="G21" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="198">
+        <f>Utilidad!F18</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="199">
+        <f>IF(Utilidad!G18&gt;1,Utilidad!G18/100,Utilidad!G18)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="199">
+        <f>IF(Utilidad!H18&gt;1,Utilidad!H18/100,Utilidad!H18)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M21" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N21" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P21" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="19">
-      <c r="A19" s="48" t="s">
+    <row r="22" spans="2:18" ht="19">
+      <c r="B22" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C22" s="198">
         <f>Utilidad!A19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D22" s="199">
         <f>IF(Utilidad!B19&gt;1,Utilidad!B19/100,Utilidad!B19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E22" s="199">
         <f>IF(Utilidad!C19&gt;1,Utilidad!C19/100,Utilidad!C19)</f>
         <v>0</v>
       </c>
+      <c r="G22" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="198">
+        <f>Utilidad!F19</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="199">
+        <f>IF(Utilidad!G19&gt;1,Utilidad!G19/100,Utilidad!G19)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="199">
+        <f>IF(Utilidad!H19&gt;1,Utilidad!H19/100,Utilidad!H19)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="207">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="207">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="207">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="199">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="19">
-      <c r="A20" s="48" t="s">
+    <row r="23" spans="2:18" ht="19">
+      <c r="B23" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C23" s="198">
         <f>Utilidad!A20</f>
         <v>-1199.0246399</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D23" s="199">
         <f>IF(Utilidad!B20&gt;1,Utilidad!B20/100,Utilidad!B20)</f>
         <v>0.48705999999999999</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E23" s="199">
         <f>IF(Utilidad!C20&gt;1,Utilidad!C20/100,Utilidad!C20)</f>
         <v>0.42920000000000003</v>
       </c>
+      <c r="G23" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="198">
+        <f>Utilidad!F20</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="199">
+        <f>IF(Utilidad!G20&gt;1,Utilidad!G20/100,Utilidad!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="199">
+        <f>IF(Utilidad!H20&gt;1,Utilidad!H20/100,Utilidad!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M23" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N23" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P23" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" ht="19">
-      <c r="A21" s="48" t="s">
+    <row r="24" spans="2:18" ht="19">
+      <c r="B24" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C24" s="198">
         <f>Utilidad!A21</f>
         <v>1199.0246399</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D24" s="199">
         <f>IF(Utilidad!B21&gt;1,Utilidad!B21/100,Utilidad!B21)</f>
         <v>0.48705999999999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E24" s="199">
         <f>IF(Utilidad!C21&gt;1,Utilidad!C21/100,Utilidad!C21)</f>
         <v>0.42920000000000003</v>
       </c>
+      <c r="G24" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="198">
+        <f>Utilidad!F21</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="199">
+        <f>IF(Utilidad!G21&gt;1,Utilidad!G21/100,Utilidad!G21)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="199">
+        <f>IF(Utilidad!H21&gt;1,Utilidad!H21/100,Utilidad!H21)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M24" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P24" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" ht="19">
-      <c r="A22" s="48" t="s">
+    <row r="25" spans="2:18" ht="19">
+      <c r="B25" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C25" s="198">
         <f>Utilidad!A22</f>
         <v>3277.8028466000001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D25" s="199">
         <f>IF(Utilidad!B22&gt;1,Utilidad!B22/100,Utilidad!B22)</f>
         <v>0.52594900052000004</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E25" s="199">
         <f>IF(Utilidad!C22&gt;1,Utilidad!C22/100,Utilidad!C22)</f>
         <v>0.43340000000000001</v>
       </c>
+      <c r="G25" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="198">
+        <f>Utilidad!F22</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="199">
+        <f>IF(Utilidad!G22&gt;1,Utilidad!G22/100,Utilidad!G22)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="199">
+        <f>IF(Utilidad!H22&gt;1,Utilidad!H22/100,Utilidad!H22)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M25" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N25" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P25" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" ht="19">
-      <c r="A23" s="48" t="s">
+    <row r="26" spans="2:18" ht="19">
+      <c r="B26" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C26" s="198">
         <f>Utilidad!A23</f>
         <v>2109.2036739999999</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D26" s="199">
         <f>IF(Utilidad!B23&gt;1,Utilidad!B23/100,Utilidad!B23)</f>
         <v>0.53032862207999998</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E26" s="199">
         <f>IF(Utilidad!C23&gt;1,Utilidad!C23/100,Utilidad!C23)</f>
         <v>0.43569999999999998</v>
       </c>
+      <c r="G26" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="198">
+        <f>Utilidad!F23</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="199">
+        <f>IF(Utilidad!G23&gt;1,Utilidad!G23/100,Utilidad!G23)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="199">
+        <f>IF(Utilidad!H23&gt;1,Utilidad!H23/100,Utilidad!H23)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M26" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N26" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P26" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" ht="19">
-      <c r="A24" s="48" t="s">
+    <row r="27" spans="2:18" ht="19">
+      <c r="B27" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C27" s="198">
         <f>Utilidad!A24</f>
         <v>1168.5991726</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D27" s="199">
         <f>IF(Utilidad!B24&gt;1,Utilidad!B24/100,Utilidad!B24)</f>
         <v>0.51804422520000004</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E27" s="199">
         <f>IF(Utilidad!C24&gt;1,Utilidad!C24/100,Utilidad!C24)</f>
         <v>0.42920000000000003</v>
       </c>
+      <c r="G27" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="198">
+        <f>Utilidad!F24</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="199">
+        <f>IF(Utilidad!G24&gt;1,Utilidad!G24/100,Utilidad!G24)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="199">
+        <f>IF(Utilidad!H24&gt;1,Utilidad!H24/100,Utilidad!H24)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M27" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N27" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P27" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" ht="19">
-      <c r="A25" s="48" t="s">
+    <row r="28" spans="2:18" ht="19">
+      <c r="B28" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C28" s="198">
         <f>Utilidad!A25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D28" s="199">
         <f>IF(Utilidad!B25&gt;1,Utilidad!B25/100,Utilidad!B25)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E28" s="199">
         <f>IF(Utilidad!C25&gt;1,Utilidad!C25/100,Utilidad!C25)</f>
         <v>0</v>
       </c>
+      <c r="G28" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="198">
+        <f>Utilidad!F25</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="199">
+        <f>IF(Utilidad!G25&gt;1,Utilidad!G25/100,Utilidad!G25)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="199">
+        <f>IF(Utilidad!H25&gt;1,Utilidad!H25/100,Utilidad!H25)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="207">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="207">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="207">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="199">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" ht="19">
-      <c r="A26" s="48" t="s">
+    <row r="29" spans="2:18" ht="19">
+      <c r="B29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C29" s="198">
         <f>Utilidad!A26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D29" s="199">
         <f>IF(Utilidad!B26&gt;1,Utilidad!B26/100,Utilidad!B26)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E29" s="199">
         <f>IF(Utilidad!C26&gt;1,Utilidad!C26/100,Utilidad!C26)</f>
         <v>0</v>
       </c>
+      <c r="G29" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="198">
+        <f>Utilidad!F26</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="199">
+        <f>IF(Utilidad!G26&gt;1,Utilidad!G26/100,Utilidad!G26)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="199">
+        <f>IF(Utilidad!H26&gt;1,Utilidad!H26/100,Utilidad!H26)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="207">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="207">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="207">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="199">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" ht="19">
-      <c r="A27" s="48" t="s">
+    <row r="30" spans="2:18" ht="19">
+      <c r="B30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C30" s="198">
         <f>Utilidad!A27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D30" s="199">
         <f>IF(Utilidad!B27&gt;1,Utilidad!B27/100,Utilidad!B27)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E30" s="199">
         <f>IF(Utilidad!C27&gt;1,Utilidad!C27/100,Utilidad!C27)</f>
         <v>0</v>
       </c>
+      <c r="G30" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="198">
+        <f>Utilidad!F27</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="199">
+        <f>IF(Utilidad!G27&gt;1,Utilidad!G27/100,Utilidad!G27)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="199">
+        <f>IF(Utilidad!H27&gt;1,Utilidad!H27/100,Utilidad!H27)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="207">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="207">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="207">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="199">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" ht="19">
-      <c r="A28" s="48" t="s">
+    <row r="31" spans="2:18" ht="19">
+      <c r="B31" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C31" s="198">
         <f>Utilidad!A28</f>
         <v>1667568</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D31" s="199">
         <f>IF(Utilidad!B28&gt;1,Utilidad!B28/100,Utilidad!B28)</f>
         <v>0.150059</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E31" s="199">
         <f>IF(Utilidad!C28&gt;1,Utilidad!C28/100,Utilidad!C28)</f>
         <v>0.1101</v>
       </c>
+      <c r="G31" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="198">
+        <f>Utilidad!F28</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="199">
+        <f>IF(Utilidad!G28&gt;1,Utilidad!G28/100,Utilidad!G28)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="199">
+        <f>IF(Utilidad!H28&gt;1,Utilidad!H28/100,Utilidad!H28)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M31" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P31" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" ht="19">
-      <c r="A29" s="48" t="s">
+    <row r="32" spans="2:18" ht="19">
+      <c r="B32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C32" s="198">
         <f>Utilidad!A29</f>
         <v>1067519.7242999999</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D32" s="199">
         <f>IF(Utilidad!B29&gt;1,Utilidad!B29/100,Utilidad!B29)</f>
         <v>5.1526401059999997E-2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E32" s="199">
         <f>IF(Utilidad!C29&gt;1,Utilidad!C29/100,Utilidad!C29)</f>
         <v>3.8999999999999998E-3</v>
       </c>
+      <c r="G32" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="198">
+        <f>Utilidad!F29</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="199">
+        <f>IF(Utilidad!G29&gt;1,Utilidad!G29/100,Utilidad!G29)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="199">
+        <f>IF(Utilidad!H29&gt;1,Utilidad!H29/100,Utilidad!H29)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M32" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P32" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" ht="19">
-      <c r="A30" s="48" t="s">
+    <row r="33" spans="2:18" ht="19">
+      <c r="B33" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C33" s="198">
         <f>Utilidad!A30</f>
         <v>600048.27572000003</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D33" s="199">
         <f>IF(Utilidad!B30&gt;1,Utilidad!B30/100,Utilidad!B30)</f>
         <v>0.3253540506</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E33" s="199">
         <f>IF(Utilidad!C30&gt;1,Utilidad!C30/100,Utilidad!C30)</f>
         <v>0.28720000000000001</v>
       </c>
+      <c r="G33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="198">
+        <f>Utilidad!F30</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="199">
+        <f>IF(Utilidad!G30&gt;1,Utilidad!G30/100,Utilidad!G30)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="199">
+        <f>IF(Utilidad!H30&gt;1,Utilidad!H30/100,Utilidad!H30)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M33" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N33" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P33" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" ht="19">
-      <c r="A31" s="48" t="s">
+    <row r="34" spans="2:18" ht="19">
+      <c r="B34" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C34" s="198">
         <f>Utilidad!A31</f>
         <v>56567.444624000003</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D34" s="199">
         <f>IF(Utilidad!B31&gt;1,Utilidad!B31/100,Utilidad!B31)</f>
         <v>5.6848615137E-2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E34" s="199">
         <f>IF(Utilidad!C31&gt;1,Utilidad!C31/100,Utilidad!C31)</f>
         <v>3.2000000000000002E-3</v>
       </c>
+      <c r="G34" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="198">
+        <f>Utilidad!F31</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="199">
+        <f>IF(Utilidad!G31&gt;1,Utilidad!G31/100,Utilidad!G31)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="199">
+        <f>IF(Utilidad!H31&gt;1,Utilidad!H31/100,Utilidad!H31)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M34" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N34" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P34" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" ht="19">
-      <c r="A32" s="48" t="s">
+    <row r="35" spans="2:18" ht="19">
+      <c r="B35" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C35" s="198">
         <f>Utilidad!A32</f>
         <v>543480.83109999995</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D35" s="199">
         <f>IF(Utilidad!B32&gt;1,Utilidad!B32/100,Utilidad!B32)</f>
         <v>0.35330106451999999</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E35" s="199">
         <f>IF(Utilidad!C32&gt;1,Utilidad!C32/100,Utilidad!C32)</f>
         <v>0.33929999999999999</v>
       </c>
+      <c r="G35" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="198">
+        <f>Utilidad!F32</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="199">
+        <f>IF(Utilidad!G32&gt;1,Utilidad!G32/100,Utilidad!G32)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="199">
+        <f>IF(Utilidad!H32&gt;1,Utilidad!H32/100,Utilidad!H32)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="207">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M35" s="207">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N35" s="207">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P35" s="199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="199">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" ht="19">
-      <c r="A33" s="48" t="s">
+    <row r="36" spans="2:18" ht="19">
+      <c r="B36" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C36" s="198">
         <f>Utilidad!A33</f>
         <v>0</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D36" s="199">
         <f>IF(Utilidad!B33&gt;1,Utilidad!B33/100,Utilidad!B33)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E36" s="199">
         <f>IF(Utilidad!C33&gt;1,Utilidad!C33/100,Utilidad!C33)</f>
         <v>0.35870000000000002</v>
       </c>
+      <c r="G36" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="198">
+        <f>Utilidad!F33</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="199">
+        <f>IF(Utilidad!G33&gt;1,Utilidad!G33/100,Utilidad!G33)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="199">
+        <f>IF(Utilidad!H33&gt;1,Utilidad!H33/100,Utilidad!H33)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="207">
+        <f t="shared" ref="L36:L53" si="6">+IF(C36&lt;&gt;0,(HI36-C36)/C36,ABS(H36-C36))</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="207">
+        <f t="shared" ref="M36:M53" si="7">+IF(D36&lt;&gt;0,(I36-D36)/D36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="207">
+        <f t="shared" ref="N36:N53" si="8">+IF(E36&lt;&gt;0,(J36-E36)/E36,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="P36" s="199">
+        <f t="shared" ref="P36:P53" si="9">+IF(L36&lt;&gt;"",ABS(L36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="199">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" ht="40">
-      <c r="A34" s="49" t="s">
+    <row r="37" spans="2:18" ht="40">
+      <c r="B37" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C37" s="198">
         <f>Utilidad!A34</f>
         <v>34480.284368000001</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D37" s="199">
         <f>IF(Utilidad!B34&gt;1,Utilidad!B34/100,Utilidad!B34)</f>
         <v>0.44143576431999998</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E37" s="199">
         <f>IF(Utilidad!C34&gt;1,Utilidad!C34/100,Utilidad!C34)</f>
         <v>0.40870000000000001</v>
       </c>
+      <c r="G37" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="198">
+        <f>Utilidad!F34</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="199">
+        <f>IF(Utilidad!G34&gt;1,Utilidad!G34/100,Utilidad!G34)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="199">
+        <f>IF(Utilidad!H34&gt;1,Utilidad!H34/100,Utilidad!H34)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M37" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N37" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P37" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="199"/>
+      <c r="R37" s="199"/>
     </row>
-    <row r="35" spans="1:4" ht="20">
-      <c r="A35" s="49" t="s">
+    <row r="38" spans="2:18" ht="20">
+      <c r="B38" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C38" s="198">
         <f>Utilidad!A35</f>
         <v>541917.34834999999</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D38" s="199">
         <f>IF(Utilidad!B35&gt;1,Utilidad!B35/100,Utilidad!B35)</f>
         <v>0.35715981573</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E38" s="199">
         <f>IF(Utilidad!C35&gt;1,Utilidad!C35/100,Utilidad!C35)</f>
         <v>0.33939999999999998</v>
       </c>
+      <c r="G38" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="198">
+        <f>Utilidad!F35</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="199">
+        <f>IF(Utilidad!G35&gt;1,Utilidad!G35/100,Utilidad!G35)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="199">
+        <f>IF(Utilidad!H35&gt;1,Utilidad!H35/100,Utilidad!H35)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M38" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N38" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P38" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="199">
+        <f t="shared" ref="Q38:Q53" si="10">+IF(L38&lt;&gt;"",ABS(L38),0)</f>
+        <v>1</v>
+      </c>
+      <c r="R38" s="199">
+        <f t="shared" ref="R38:R53" si="11">+IF(M38&lt;&gt;"",ABS(M38),0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" ht="19">
-      <c r="A36" s="48" t="s">
+    <row r="39" spans="2:18" ht="19">
+      <c r="B39" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C39" s="198">
         <f>Utilidad!A36</f>
         <v>132377.28390000001</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D39" s="199">
         <f>IF(Utilidad!B36&gt;1,Utilidad!B36/100,Utilidad!B36)</f>
         <v>5.8241999577999998E-2</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E39" s="199">
         <f>IF(Utilidad!C36&gt;1,Utilidad!C36/100,Utilidad!C36)</f>
         <v>9.5999999999999992E-3</v>
       </c>
+      <c r="G39" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="198">
+        <f>Utilidad!F36</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="199">
+        <f>IF(Utilidad!G36&gt;1,Utilidad!G36/100,Utilidad!G36)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="199">
+        <f>IF(Utilidad!H36&gt;1,Utilidad!H36/100,Utilidad!H36)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M39" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N39" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P39" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" ht="19">
-      <c r="A37" s="48" t="s">
+    <row r="40" spans="2:18" ht="19">
+      <c r="B40" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C40" s="198">
         <f>Utilidad!A37</f>
         <v>419411.81365999999</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D40" s="199">
         <f>IF(Utilidad!B37&gt;1,Utilidad!B37/100,Utilidad!B37)</f>
         <v>0.45248588284000002</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E40" s="199">
         <f>IF(Utilidad!C37&gt;1,Utilidad!C37/100,Utilidad!C37)</f>
         <v>0.45190000000000002</v>
       </c>
+      <c r="G40" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="198">
+        <f>Utilidad!F37</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="199">
+        <f>IF(Utilidad!G37&gt;1,Utilidad!G37/100,Utilidad!G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="199">
+        <f>IF(Utilidad!H37&gt;1,Utilidad!H37/100,Utilidad!H37)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M40" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N40" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P40" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" ht="19">
-      <c r="A38" s="48" t="s">
+    <row r="41" spans="2:18" ht="19">
+      <c r="B41" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C41" s="198">
         <f>Utilidad!A38</f>
         <v>105103.90360999999</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D41" s="199">
         <f>IF(Utilidad!B38&gt;1,Utilidad!B38/100,Utilidad!B38)</f>
         <v>9.2564999676000001E-2</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E41" s="199">
         <f>IF(Utilidad!C38&gt;1,Utilidad!C38/100,Utilidad!C38)</f>
         <v>5.1400000000000001E-2</v>
       </c>
+      <c r="G41" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="198">
+        <f>Utilidad!F38</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="199">
+        <f>IF(Utilidad!G38&gt;1,Utilidad!G38/100,Utilidad!G38)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="199">
+        <f>IF(Utilidad!H38&gt;1,Utilidad!H38/100,Utilidad!H38)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M41" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N41" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P41" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" ht="19">
-      <c r="A39" s="48" t="s">
+    <row r="42" spans="2:18" ht="19">
+      <c r="B42" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C42" s="198">
         <f>Utilidad!A39</f>
         <v>314307.91003999999</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D42" s="199">
         <f>IF(Utilidad!B39&gt;1,Utilidad!B39/100,Utilidad!B39)</f>
         <v>0.57284266866</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E42" s="199">
         <f>IF(Utilidad!C39&gt;1,Utilidad!C39/100,Utilidad!C39)</f>
         <v>0.57230000000000003</v>
       </c>
+      <c r="G42" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="198">
+        <f>Utilidad!F39</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="199">
+        <f>IF(Utilidad!G39&gt;1,Utilidad!G39/100,Utilidad!G39)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="199">
+        <f>IF(Utilidad!H39&gt;1,Utilidad!H39/100,Utilidad!H39)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M42" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N42" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P42" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" ht="19">
-      <c r="A40" s="48" t="s">
+    <row r="43" spans="2:18" ht="19">
+      <c r="B43" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C43" s="198">
         <f>Utilidad!A40</f>
         <v>37852.859477999998</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D43" s="199">
         <f>IF(Utilidad!B40&gt;1,Utilidad!B40/100,Utilidad!B40)</f>
         <v>0.45334666667000001</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E43" s="199">
         <f>IF(Utilidad!C40&gt;1,Utilidad!C40/100,Utilidad!C40)</f>
         <v>0.40310000000000001</v>
       </c>
+      <c r="G43" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="198">
+        <f>Utilidad!F40</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="199">
+        <f>IF(Utilidad!G40&gt;1,Utilidad!G40/100,Utilidad!G40)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="199">
+        <f>IF(Utilidad!H40&gt;1,Utilidad!H40/100,Utilidad!H40)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M43" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N43" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P43" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" ht="19">
-      <c r="A41" s="48" t="s">
+    <row r="44" spans="2:18" ht="19">
+      <c r="B44" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C44" s="198">
         <f>Utilidad!A41</f>
         <v>276455.05057000002</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D44" s="199">
         <f>IF(Utilidad!B41&gt;1,Utilidad!B41/100,Utilidad!B41)</f>
         <v>0.58920433528000005</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E44" s="199">
         <f>IF(Utilidad!C41&gt;1,Utilidad!C41/100,Utilidad!C41)</f>
         <v>0.59150000000000003</v>
       </c>
+      <c r="G44" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="198">
+        <f>Utilidad!F41</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="199">
+        <f>IF(Utilidad!G41&gt;1,Utilidad!G41/100,Utilidad!G41)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="199">
+        <f>IF(Utilidad!H41&gt;1,Utilidad!H41/100,Utilidad!H41)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M44" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N44" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P44" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" ht="19">
-      <c r="A42" s="48" t="s">
+    <row r="45" spans="2:18" ht="19">
+      <c r="B45" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C45" s="198">
         <f>Utilidad!A42</f>
         <v>125091.05057000001</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D45" s="199">
         <f>IF(Utilidad!B42&gt;1,Utilidad!B42/100,Utilidad!B42)</f>
         <v>0.51757576909000003</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E45" s="199">
         <f>IF(Utilidad!C42&gt;1,Utilidad!C42/100,Utilidad!C42)</f>
         <v>0.48909999999999998</v>
       </c>
+      <c r="G45" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="198">
+        <f>Utilidad!F42</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="199">
+        <f>IF(Utilidad!G42&gt;1,Utilidad!G42/100,Utilidad!G42)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="199">
+        <f>IF(Utilidad!H42&gt;1,Utilidad!H42/100,Utilidad!H42)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M45" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N45" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P45" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" ht="19">
-      <c r="A43" s="48" t="s">
+    <row r="46" spans="2:18" ht="19">
+      <c r="B46" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C46" s="198">
         <f>Utilidad!A43</f>
         <v>152661.90461999999</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D46" s="199">
         <f>IF(Utilidad!B43&gt;1,Utilidad!B43/100,Utilidad!B43)</f>
         <v>0.64708926321000004</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E46" s="199">
         <f>IF(Utilidad!C43&gt;1,Utilidad!C43/100,Utilidad!C43)</f>
         <v>0.63939999999999997</v>
       </c>
+      <c r="G46" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="198">
+        <f>Utilidad!F43</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="199">
+        <f>IF(Utilidad!G43&gt;1,Utilidad!G43/100,Utilidad!G43)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="199">
+        <f>IF(Utilidad!H43&gt;1,Utilidad!H43/100,Utilidad!H43)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M46" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N46" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P46" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" ht="19">
-      <c r="A44" s="48" t="s">
+    <row r="47" spans="2:18" ht="19">
+      <c r="B47" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C47" s="198">
         <f>Utilidad!A44</f>
         <v>1297.9046232000001</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D47" s="199">
         <f>IF(Utilidad!B44&gt;1,Utilidad!B44/100,Utilidad!B44)</f>
         <v>0.49422875247999998</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E47" s="199">
         <f>IF(Utilidad!C44&gt;1,Utilidad!C44/100,Utilidad!C44)</f>
         <v>0.48</v>
       </c>
+      <c r="G47" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="198">
+        <f>Utilidad!F44</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="199">
+        <f>IF(Utilidad!G44&gt;1,Utilidad!G44/100,Utilidad!G44)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="199">
+        <f>IF(Utilidad!H44&gt;1,Utilidad!H44/100,Utilidad!H44)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M47" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N47" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P47" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R47" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" ht="19">
-      <c r="A45" s="48" t="s">
+    <row r="48" spans="2:18" ht="19">
+      <c r="B48" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C48" s="198">
         <f>Utilidad!A45</f>
         <v>0</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D48" s="199">
         <f>IF(Utilidad!B45&gt;1,Utilidad!B45/100,Utilidad!B45)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E48" s="199">
         <f>IF(Utilidad!C45&gt;1,Utilidad!C45/100,Utilidad!C45)</f>
         <v>0</v>
       </c>
+      <c r="G48" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="198">
+        <f>Utilidad!F45</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="199">
+        <f>IF(Utilidad!G45&gt;1,Utilidad!G45/100,Utilidad!G45)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="199">
+        <f>IF(Utilidad!H45&gt;1,Utilidad!H45/100,Utilidad!H45)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="207">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="207">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="207">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="199">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="199">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="199">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" ht="19">
-      <c r="A46" s="48" t="s">
+    <row r="49" spans="2:18" ht="19">
+      <c r="B49" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="2">
+      <c r="C49" s="198">
         <f>Utilidad!A46</f>
         <v>151364</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D49" s="199">
         <f>IF(Utilidad!B46&gt;1,Utilidad!B46/100,Utilidad!B46)</f>
         <v>0.64839999999999998</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E49" s="199">
         <f>IF(Utilidad!C46&gt;1,Utilidad!C46/100,Utilidad!C46)</f>
         <v>0.6401</v>
       </c>
+      <c r="G49" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="198">
+        <f>Utilidad!F46</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="199">
+        <f>IF(Utilidad!G46&gt;1,Utilidad!G46/100,Utilidad!G46)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="199">
+        <f>IF(Utilidad!H46&gt;1,Utilidad!H46/100,Utilidad!H46)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M49" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N49" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P49" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" ht="19">
-      <c r="A47" s="48" t="s">
+    <row r="50" spans="2:18" ht="19">
+      <c r="B50" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C50" s="198">
         <f>Utilidad!A47</f>
         <v>1524512.2664999999</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D50" s="199">
         <f>IF(Utilidad!B47&gt;1,Utilidad!B47/100,Utilidad!B47)</f>
         <v>0.10335414066</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E50" s="199">
         <f>IF(Utilidad!C47&gt;1,Utilidad!C47/100,Utilidad!C47)</f>
         <v>5.8400000000000001E-2</v>
       </c>
+      <c r="G50" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="198">
+        <f>Utilidad!F47</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="199">
+        <f>IF(Utilidad!G47&gt;1,Utilidad!G47/100,Utilidad!G47)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="199">
+        <f>IF(Utilidad!H47&gt;1,Utilidad!H47/100,Utilidad!H47)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M50" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N50" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P50" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R50" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:4" ht="19">
-      <c r="A48" s="48" t="s">
+    <row r="51" spans="2:18" ht="19">
+      <c r="B51" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C51" s="198">
         <f>Utilidad!A48</f>
         <v>9871.7492098999992</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D51" s="199">
         <f>IF(Utilidad!B48&gt;1,Utilidad!B48/100,Utilidad!B48)</f>
         <v>0.39878871811</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E51" s="199">
         <f>IF(Utilidad!C48&gt;1,Utilidad!C48/100,Utilidad!C48)</f>
         <v>0.38450000000000001</v>
       </c>
+      <c r="G51" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="198">
+        <f>Utilidad!F48</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="199">
+        <f>IF(Utilidad!G48&gt;1,Utilidad!G48/100,Utilidad!G48)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="199">
+        <f>IF(Utilidad!H48&gt;1,Utilidad!H48/100,Utilidad!H48)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M51" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N51" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P51" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R51" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" ht="19">
-      <c r="A49" s="48" t="s">
+    <row r="52" spans="2:18" ht="19">
+      <c r="B52" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C52" s="198">
         <f>Utilidad!A49</f>
         <v>37745.439659999996</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D52" s="199">
         <f>IF(Utilidad!B49&gt;1,Utilidad!B49/100,Utilidad!B49)</f>
         <v>0.36144720000000002</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E52" s="199">
         <f>IF(Utilidad!C49&gt;1,Utilidad!C49/100,Utilidad!C49)</f>
         <v>0.35010000000000002</v>
       </c>
+      <c r="G52" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="198">
+        <f>Utilidad!F49</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="199">
+        <f>IF(Utilidad!G49&gt;1,Utilidad!G49/100,Utilidad!G49)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="199">
+        <f>IF(Utilidad!H49&gt;1,Utilidad!H49/100,Utilidad!H49)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M52" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N52" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="P52" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R52" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" ht="19">
-      <c r="A50" s="48" t="s">
+    <row r="53" spans="2:18" ht="19">
+      <c r="B53" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C53" s="198">
         <f>Utilidad!A50</f>
         <v>11573.42175</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D53" s="199">
         <f>IF(Utilidad!B50&gt;1,Utilidad!B50/100,Utilidad!B50)</f>
         <v>0.33677499999999999</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E53" s="199">
         <f>IF(Utilidad!C50&gt;1,Utilidad!C50/100,Utilidad!C50)</f>
         <v>0.3382</v>
       </c>
+      <c r="G53" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="198">
+        <f>Utilidad!F50</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="199">
+        <f>IF(Utilidad!G50&gt;1,Utilidad!G50/100,Utilidad!G50)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="199">
+        <f>IF(Utilidad!H50&gt;1,Utilidad!H50/100,Utilidad!H50)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="207">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M53" s="207">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N53" s="207">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O53" s="209"/>
+      <c r="P53" s="199">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R53" s="199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" ht="19">
-      <c r="A51" s="48"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+    <row r="54" spans="2:18">
+      <c r="D54" s="3"/>
+      <c r="M54" s="203"/>
+      <c r="N54" s="203"/>
+      <c r="O54" s="204"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="201"/>
     </row>
-    <row r="52" spans="1:4">
-      <c r="D52" s="3"/>
+    <row r="55" spans="2:18">
+      <c r="D55" s="3"/>
+      <c r="M55" s="200"/>
+      <c r="N55" s="200"/>
+      <c r="O55" s="201"/>
+      <c r="P55" s="202"/>
+      <c r="Q55" s="201"/>
     </row>
-    <row r="53" spans="1:4">
-      <c r="D53" s="3"/>
+    <row r="56" spans="2:18" ht="16">
+      <c r="D56" s="3"/>
+      <c r="M56" s="200"/>
+      <c r="N56" s="200"/>
+      <c r="O56" s="201"/>
+      <c r="P56" s="208"/>
+      <c r="Q56" s="201"/>
     </row>
-    <row r="54" spans="1:4">
-      <c r="D54" s="3"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:N2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M54:N56 L4:M53">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ABS(L4)&gt;=10%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N53">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ABS(N4)&gt;=10%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF35B6A0-6FCA-C849-9CF3-CFCFDB97FCAC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="323"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="321" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="321">
+        <v>100</v>
+      </c>
+      <c r="C1" s="322">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="D56" s="3"/>
+    <row r="2" spans="1:3">
+      <c r="A2" s="321" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="321">
+        <v>100</v>
+      </c>
+      <c r="C2" s="322">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F528B85-A256-6641-B1D0-8807EAEE4050}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="125" zoomScaleNormal="60" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32:N33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="125" zoomScaleNormal="60" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -50090,75 +52283,75 @@
     <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="84"/>
       <c r="B3" s="87"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="218" t="s">
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="219"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="84"/>
       <c r="B4" s="87"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="221"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="240"/>
       <c r="O4" s="158"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="84"/>
       <c r="B5" s="87"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="220" t="s">
+      <c r="C5" s="233"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="239" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="223">
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="242">
         <v>44849</v>
       </c>
-      <c r="N5" s="224"/>
+      <c r="N5" s="243"/>
       <c r="O5" s="158"/>
     </row>
     <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="84"/>
       <c r="B6" s="87"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="226"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="244"/>
+      <c r="N6" s="245"/>
       <c r="O6" s="158"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
@@ -50181,9 +52374,9 @@
     <row r="8" spans="1:15" ht="16" thickBot="1">
       <c r="A8" s="84"/>
       <c r="B8" s="88"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
       <c r="F8" s="93" t="s">
         <v>68</v>
       </c>
@@ -50196,8 +52389,8 @@
       <c r="I8" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="208"/>
-      <c r="K8" s="209"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="228"/>
       <c r="L8" s="93" t="s">
         <v>68</v>
       </c>
@@ -50212,9 +52405,9 @@
     <row r="9" spans="1:15" ht="16" thickBot="1">
       <c r="A9" s="84"/>
       <c r="B9" s="88"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
       <c r="F9" s="95" t="s">
         <v>28</v>
       </c>
@@ -50227,8 +52420,8 @@
       <c r="I9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="210"/>
-      <c r="K9" s="211"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="230"/>
       <c r="L9" s="95" t="s">
         <v>28</v>
       </c>
@@ -50243,32 +52436,32 @@
     <row r="10" spans="1:15" ht="16" thickBot="1">
       <c r="A10" s="84"/>
       <c r="B10" s="88"/>
-      <c r="C10" s="227" t="s">
+      <c r="C10" s="246" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="229" t="s">
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="228"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="228"/>
-      <c r="N10" s="230"/>
+      <c r="J10" s="247"/>
+      <c r="K10" s="247"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="247"/>
+      <c r="N10" s="249"/>
       <c r="O10" s="158"/>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1">
       <c r="A11" s="84"/>
       <c r="B11" s="88"/>
-      <c r="C11" s="231" t="s">
+      <c r="C11" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="232"/>
-      <c r="E11" s="233"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="252"/>
       <c r="F11" s="97">
         <f>Utilidad!O95</f>
         <v>1667568</v>
@@ -50306,12 +52499,11 @@
     <row r="12" spans="1:15" ht="16" thickBot="1">
       <c r="A12" s="84"/>
       <c r="B12" s="88"/>
-      <c r="C12" s="234">
-        <f>Utilidad!K70</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="235"/>
-      <c r="E12" s="236"/>
+      <c r="C12" s="253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="254"/>
+      <c r="E12" s="255"/>
       <c r="F12" s="105">
         <f>Utilidad!O70</f>
         <v>6423.5110500000001</v>
@@ -50332,23 +52524,28 @@
         <v>77</v>
       </c>
       <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="111"/>
+      <c r="L12" s="110">
+        <f>'Datos Extra'!B2</f>
+        <v>100</v>
+      </c>
+      <c r="M12" s="324">
+        <f>'Datos Extra'!C2</f>
+        <v>0.5</v>
+      </c>
       <c r="N12" s="112">
         <f>+M12*L12</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O12" s="158"/>
     </row>
     <row r="13" spans="1:15" ht="16" thickBot="1">
       <c r="A13" s="84"/>
       <c r="B13" s="88"/>
-      <c r="C13" s="234">
-        <f>Utilidad!K76</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="236"/>
+      <c r="C13" s="253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="254"/>
+      <c r="E13" s="255"/>
       <c r="F13" s="105">
         <f>Utilidad!O76</f>
         <v>6965.6073299999998</v>
@@ -50365,22 +52562,21 @@
         <f>Utilidad!Q76</f>
         <v>0.43790000000000001</v>
       </c>
-      <c r="J13" s="237"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="242"/>
-      <c r="N13" s="243"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="260"/>
+      <c r="M13" s="261"/>
+      <c r="N13" s="262"/>
       <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1">
       <c r="A14" s="84"/>
       <c r="B14" s="88"/>
-      <c r="C14" s="234">
-        <f>Utilidad!K79</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="236"/>
+      <c r="C14" s="253" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="254"/>
+      <c r="E14" s="255"/>
       <c r="F14" s="105">
         <f>Utilidad!O79</f>
         <v>12730.763924999999</v>
@@ -50397,22 +52593,21 @@
         <f>Utilidad!Q79</f>
         <v>0.32619999999999999</v>
       </c>
-      <c r="J14" s="239"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="244"/>
-      <c r="M14" s="245"/>
-      <c r="N14" s="246"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="264"/>
+      <c r="N14" s="265"/>
       <c r="O14" s="158"/>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
       <c r="A15" s="84"/>
       <c r="B15" s="88"/>
-      <c r="C15" s="234">
-        <f>Utilidad!K82</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="250"/>
-      <c r="E15" s="251"/>
+      <c r="C15" s="253" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="269"/>
+      <c r="E15" s="270"/>
       <c r="F15" s="105">
         <f>Utilidad!O82</f>
         <v>2315.4829215999998</v>
@@ -50429,22 +52624,21 @@
         <f>Utilidad!Q82</f>
         <v>0.40179999999999999</v>
       </c>
-      <c r="J15" s="239"/>
-      <c r="K15" s="240"/>
-      <c r="L15" s="244"/>
-      <c r="M15" s="245"/>
-      <c r="N15" s="246"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="264"/>
+      <c r="N15" s="265"/>
       <c r="O15" s="158"/>
     </row>
     <row r="16" spans="1:15" ht="16" thickBot="1">
       <c r="A16" s="84"/>
       <c r="B16" s="88"/>
-      <c r="C16" s="234">
-        <f>Utilidad!K85</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="250"/>
-      <c r="E16" s="251"/>
+      <c r="C16" s="253" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="269"/>
+      <c r="E16" s="270"/>
       <c r="F16" s="105">
         <f>Utilidad!O85</f>
         <v>2521.3824411000001</v>
@@ -50461,22 +52655,21 @@
         <f>Utilidad!Q85</f>
         <v>0.37</v>
       </c>
-      <c r="J16" s="239"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="244"/>
-      <c r="M16" s="245"/>
-      <c r="N16" s="246"/>
+      <c r="J16" s="258"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="264"/>
+      <c r="N16" s="265"/>
       <c r="O16" s="158"/>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
       <c r="A17" s="84"/>
       <c r="B17" s="88"/>
-      <c r="C17" s="234">
-        <f>Utilidad!K88</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="250"/>
-      <c r="E17" s="251"/>
+      <c r="C17" s="253" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="269"/>
+      <c r="E17" s="270"/>
       <c r="F17" s="105">
         <f>Utilidad!O88</f>
         <v>1199.0246399</v>
@@ -50493,22 +52686,21 @@
         <f>Utilidad!Q88</f>
         <v>0.42920000000000003</v>
       </c>
-      <c r="J17" s="239"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="244"/>
-      <c r="M17" s="245"/>
-      <c r="N17" s="246"/>
+      <c r="J17" s="258"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="264"/>
+      <c r="N17" s="265"/>
       <c r="O17" s="158"/>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
-      <c r="C18" s="234">
-        <f>Utilidad!K91</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="250"/>
-      <c r="E18" s="251"/>
+      <c r="C18" s="253" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="269"/>
+      <c r="E18" s="270"/>
       <c r="F18" s="105">
         <f>Utilidad!O91</f>
         <v>1168.5991726</v>
@@ -50525,22 +52717,21 @@
         <f>Utilidad!Q91</f>
         <v>0.42920000000000003</v>
       </c>
-      <c r="J18" s="239"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="244"/>
-      <c r="M18" s="245"/>
-      <c r="N18" s="246"/>
+      <c r="J18" s="258"/>
+      <c r="K18" s="259"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="264"/>
+      <c r="N18" s="265"/>
       <c r="O18" s="158"/>
     </row>
     <row r="19" spans="1:15" ht="16" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="88"/>
-      <c r="C19" s="252">
-        <f>Utilidad!K73</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="253"/>
-      <c r="E19" s="254"/>
+      <c r="C19" s="271" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="272"/>
+      <c r="E19" s="273"/>
       <c r="F19" s="105">
         <f>Utilidad!O73</f>
         <v>1155.9128879</v>
@@ -50557,21 +52748,21 @@
         <f>Utilidad!Q73</f>
         <v>0.39579999999999999</v>
       </c>
-      <c r="J19" s="210"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="248"/>
-      <c r="N19" s="249"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="266"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="268"/>
       <c r="O19" s="158"/>
     </row>
     <row r="20" spans="1:15" ht="16" thickBot="1">
       <c r="A20" s="84"/>
       <c r="B20" s="88"/>
-      <c r="C20" s="255" t="s">
+      <c r="C20" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="256"/>
+      <c r="D20" s="275"/>
+      <c r="E20" s="275"/>
       <c r="F20" s="113">
         <f>SUM(F11:F19)</f>
         <v>1702048.2843681003</v>
@@ -50585,8 +52776,8 @@
         <v>265454.41719596996</v>
       </c>
       <c r="I20" s="116"/>
-      <c r="J20" s="257"/>
-      <c r="K20" s="258"/>
+      <c r="J20" s="276"/>
+      <c r="K20" s="277"/>
       <c r="L20" s="117"/>
       <c r="M20" s="118"/>
       <c r="N20" s="119"/>
@@ -50595,43 +52786,49 @@
     <row r="21" spans="1:15" ht="16" thickBot="1">
       <c r="A21" s="84"/>
       <c r="B21" s="88"/>
-      <c r="C21" s="259" t="s">
+      <c r="C21" s="278" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="261" t="s">
+      <c r="D21" s="279"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="280" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="262"/>
-      <c r="K21" s="262"/>
-      <c r="L21" s="262"/>
-      <c r="M21" s="262"/>
-      <c r="N21" s="263"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="281"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="281"/>
+      <c r="N21" s="282"/>
       <c r="O21" s="158"/>
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
       <c r="A22" s="84"/>
       <c r="B22" s="88"/>
-      <c r="C22" s="234" t="s">
+      <c r="C22" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="235"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="121"/>
+      <c r="D22" s="254"/>
+      <c r="E22" s="255"/>
+      <c r="F22" s="120">
+        <f>'Datos Extra'!B1</f>
+        <v>100</v>
+      </c>
+      <c r="G22" s="121">
+        <f>'Datos Extra'!C1</f>
+        <v>0.5</v>
+      </c>
       <c r="H22" s="120">
         <f>+F22*G22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="264" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="283" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="265"/>
-      <c r="K22" s="266"/>
+      <c r="J22" s="284"/>
+      <c r="K22" s="285"/>
       <c r="L22" s="122">
         <f>Utilidad!O114</f>
         <v>1524512.2664999999</v>
@@ -50649,22 +52846,28 @@
     <row r="23" spans="1:15" ht="16" thickBot="1">
       <c r="A23" s="84"/>
       <c r="B23" s="88"/>
-      <c r="C23" s="255" t="s">
+      <c r="C23" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="124"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="123">
+        <f>SUM(F21:F22)</f>
+        <v>100</v>
+      </c>
+      <c r="G23" s="124">
+        <f>G22</f>
+        <v>0.5</v>
+      </c>
       <c r="H23" s="113">
         <f>SUM(H21:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="287" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="306" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="288"/>
-      <c r="K23" s="289"/>
+      <c r="J23" s="307"/>
+      <c r="K23" s="308"/>
       <c r="L23" s="125">
         <f>L22</f>
         <v>1524512.2664999999</v>
@@ -50699,11 +52902,11 @@
     <row r="25" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A25" s="84"/>
       <c r="B25" s="88"/>
-      <c r="C25" s="290" t="s">
+      <c r="C25" s="309" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="262"/>
-      <c r="E25" s="291"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="310"/>
       <c r="F25" s="131" t="s">
         <v>28</v>
       </c>
@@ -50724,11 +52927,11 @@
     <row r="26" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A26" s="84"/>
       <c r="B26" s="88"/>
-      <c r="C26" s="292" t="s">
+      <c r="C26" s="311" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="293"/>
-      <c r="E26" s="294"/>
+      <c r="D26" s="312"/>
+      <c r="E26" s="313"/>
       <c r="F26" s="138">
         <f>+'[1]Informacion Planta'!L49</f>
         <v>-5.4250001106993295E-2</v>
@@ -50752,11 +52955,11 @@
     <row r="27" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A27" s="84"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="295" t="s">
+      <c r="C27" s="314" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="296"/>
-      <c r="E27" s="296"/>
+      <c r="D27" s="315"/>
+      <c r="E27" s="315"/>
       <c r="F27" s="144">
         <f>SUM(F26:F26)</f>
         <v>-5.4250001106993295E-2</v>
@@ -50797,20 +53000,20 @@
     <row r="29" spans="1:15" ht="16" thickBot="1">
       <c r="A29" s="84"/>
       <c r="B29" s="88"/>
-      <c r="C29" s="299" t="s">
+      <c r="C29" s="318" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="300"/>
-      <c r="E29" s="300"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="300"/>
-      <c r="H29" s="300"/>
-      <c r="I29" s="300"/>
-      <c r="J29" s="300"/>
-      <c r="K29" s="300"/>
-      <c r="L29" s="300"/>
-      <c r="M29" s="300"/>
-      <c r="N29" s="301"/>
+      <c r="D29" s="319"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="319"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="319"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="319"/>
+      <c r="K29" s="319"/>
+      <c r="L29" s="319"/>
+      <c r="M29" s="319"/>
+      <c r="N29" s="320"/>
       <c r="O29" s="158"/>
     </row>
     <row r="30" spans="1:15" ht="16" thickBot="1">
@@ -50833,67 +53036,67 @@
     <row r="31" spans="1:15" ht="16" thickBot="1">
       <c r="A31" s="84"/>
       <c r="B31" s="88"/>
-      <c r="C31" s="267" t="s">
+      <c r="C31" s="286" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="297"/>
-      <c r="E31" s="298"/>
+      <c r="D31" s="316"/>
+      <c r="E31" s="317"/>
       <c r="F31" s="154"/>
       <c r="G31" s="154"/>
-      <c r="H31" s="267" t="s">
+      <c r="H31" s="286" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="297"/>
-      <c r="J31" s="298"/>
+      <c r="I31" s="316"/>
+      <c r="J31" s="317"/>
       <c r="K31" s="154"/>
-      <c r="L31" s="267" t="s">
+      <c r="L31" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="268"/>
-      <c r="N31" s="269"/>
+      <c r="M31" s="287"/>
+      <c r="N31" s="288"/>
       <c r="O31" s="158"/>
     </row>
     <row r="32" spans="1:15" ht="16" thickBot="1">
       <c r="A32" s="84"/>
       <c r="B32" s="88"/>
-      <c r="C32" s="270">
+      <c r="C32" s="289">
         <f>Utilidad!I105</f>
         <v>9.1031189996914993E-2</v>
       </c>
-      <c r="D32" s="271"/>
-      <c r="E32" s="272"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="291"/>
       <c r="F32" s="154"/>
       <c r="G32" s="154"/>
-      <c r="H32" s="275">
+      <c r="H32" s="294">
         <f>Utilidad!I94</f>
         <v>0.38176653442745873</v>
       </c>
-      <c r="I32" s="276"/>
-      <c r="J32" s="277"/>
+      <c r="I32" s="295"/>
+      <c r="J32" s="296"/>
       <c r="K32" s="154"/>
-      <c r="L32" s="281">
+      <c r="L32" s="300">
         <f>Utilidad!I104</f>
         <v>0.64298315605996326</v>
       </c>
-      <c r="M32" s="282"/>
-      <c r="N32" s="283"/>
+      <c r="M32" s="301"/>
+      <c r="N32" s="302"/>
       <c r="O32" s="158"/>
     </row>
     <row r="33" spans="1:15" ht="16" thickBot="1">
       <c r="A33" s="84"/>
       <c r="B33" s="88"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="274"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="293"/>
       <c r="F33" s="154"/>
       <c r="G33" s="154"/>
-      <c r="H33" s="278"/>
-      <c r="I33" s="279"/>
-      <c r="J33" s="280"/>
+      <c r="H33" s="297"/>
+      <c r="I33" s="298"/>
+      <c r="J33" s="299"/>
       <c r="K33" s="154"/>
-      <c r="L33" s="284"/>
-      <c r="M33" s="285"/>
-      <c r="N33" s="286"/>
+      <c r="L33" s="303"/>
+      <c r="M33" s="304"/>
+      <c r="N33" s="305"/>
       <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" ht="16" thickBot="1">

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB80348-FA39-D04D-839C-A548ACA5972D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76D652-4E6F-CE4A-BBCF-6A5F59FACE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="20" windowWidth="28040" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2251,6 +2251,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2578,7 +2579,6 @@
     <xf numFmtId="167" fontId="17" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9359,8 +9359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AB0D6-E0E9-6D42-9B21-33D1777F9FE2}">
   <dimension ref="A1:DN306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E54" sqref="A54:E54"/>
+    <sheetView tabSelected="1" topLeftCell="L97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68:Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -17952,17 +17952,17 @@
       <c r="I66" s="160"/>
       <c r="J66" s="160"/>
       <c r="K66" s="160"/>
-      <c r="L66" s="223"/>
-      <c r="M66" s="223"/>
+      <c r="L66" s="224"/>
+      <c r="M66" s="224"/>
       <c r="N66" s="160"/>
-      <c r="O66" s="224" t="s">
+      <c r="O66" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="P66" s="224"/>
-      <c r="Q66" s="224"/>
+      <c r="P66" s="225"/>
+      <c r="Q66" s="225"/>
       <c r="R66" s="160"/>
-      <c r="S66" s="225"/>
-      <c r="T66" s="225"/>
+      <c r="S66" s="226"/>
+      <c r="T66" s="226"/>
       <c r="U66" s="64"/>
       <c r="V66" s="64"/>
       <c r="W66" s="65"/>
@@ -17970,10 +17970,10 @@
       <c r="Y66" s="64"/>
       <c r="Z66" s="64"/>
       <c r="AA66" s="64"/>
-      <c r="AB66" s="219"/>
-      <c r="AC66" s="219"/>
-      <c r="AD66" s="219"/>
-      <c r="AE66" s="219"/>
+      <c r="AB66" s="220"/>
+      <c r="AC66" s="220"/>
+      <c r="AD66" s="220"/>
+      <c r="AE66" s="220"/>
       <c r="AF66" s="64"/>
       <c r="AG66" s="64"/>
       <c r="AH66" s="64"/>
@@ -18210,11 +18210,11 @@
         <v>13202.36645</v>
       </c>
       <c r="P68" s="172">
-        <f>D1</f>
+        <f>IF(D1&gt;1,D1/100,D1)</f>
         <v>0.58287488751860594</v>
       </c>
       <c r="Q68" s="172">
-        <f>F1</f>
+        <f>IF(F1&gt;1,F1/100,F1)</f>
         <v>0.58768039000000005</v>
       </c>
       <c r="R68" s="173">
@@ -18344,11 +18344,11 @@
         <v>6649.0874999999996</v>
       </c>
       <c r="P69" s="172">
-        <f t="shared" ref="P69:P117" si="2">D2</f>
+        <f t="shared" ref="P69:P117" si="2">IF(D2&gt;1,D2/100,D2)</f>
         <v>0.58810555248509877</v>
       </c>
       <c r="Q69" s="172">
-        <f t="shared" ref="Q69:Q117" si="3">F2</f>
+        <f t="shared" ref="Q69:Q117" si="3">IF(F2&gt;1,F2/100,F2)</f>
         <v>0.59307511000000002</v>
       </c>
       <c r="R69" s="173">
@@ -26039,11 +26039,11 @@
       <c r="I126" s="63"/>
       <c r="J126" s="63"/>
       <c r="K126" s="72"/>
-      <c r="L126" s="220"/>
-      <c r="M126" s="220"/>
+      <c r="L126" s="221"/>
+      <c r="M126" s="221"/>
       <c r="N126" s="63"/>
-      <c r="O126" s="220"/>
-      <c r="P126" s="220"/>
+      <c r="O126" s="221"/>
+      <c r="P126" s="221"/>
       <c r="Q126" s="63"/>
       <c r="R126" s="63"/>
       <c r="S126" s="64"/>
@@ -26166,9 +26166,9 @@
       <c r="P127" s="74"/>
       <c r="Q127" s="75"/>
       <c r="R127" s="75"/>
-      <c r="S127" s="221"/>
-      <c r="T127" s="221"/>
-      <c r="U127" s="221"/>
+      <c r="S127" s="222"/>
+      <c r="T127" s="222"/>
+      <c r="U127" s="222"/>
       <c r="V127" s="64"/>
       <c r="W127" s="64"/>
       <c r="X127" s="64"/>
@@ -32159,8 +32159,8 @@
       <c r="I177" s="61"/>
       <c r="J177" s="61"/>
       <c r="K177" s="73"/>
-      <c r="L177" s="222"/>
-      <c r="M177" s="222"/>
+      <c r="L177" s="223"/>
+      <c r="M177" s="223"/>
       <c r="N177" s="75"/>
       <c r="O177" s="75"/>
       <c r="P177" s="75"/>
@@ -47773,8 +47773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="T67" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49587,8 +49587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B33E5-7676-1F47-BBE6-CFF6D81A466B}">
   <dimension ref="B2:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49608,23 +49608,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="20" customHeight="1">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="G2" s="226" t="s">
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="G2" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="L2" s="227" t="s">
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="L2" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="230"/>
       <c r="P2" s="209" t="s">
         <v>107</v>
       </c>
@@ -49709,23 +49709,23 @@
         <v>-1</v>
       </c>
       <c r="M4" s="206">
-        <f t="shared" ref="M4:M35" si="1">+IF(D4&lt;&gt;0,(I4-D4)/D4,0)</f>
+        <f>+IF(D4&lt;&gt;0,(I4-D4)/D4,0)</f>
         <v>4.1405909449001195E-2</v>
       </c>
       <c r="N4" s="206">
-        <f t="shared" ref="N4:N35" si="2">+IF(E4&lt;&gt;0,(J4-E4)/E4,0)</f>
+        <f t="shared" ref="N4:N35" si="1">+IF(E4&lt;&gt;0,(J4-E4)/E4,0)</f>
         <v>-5.6169373942468997E-3</v>
       </c>
       <c r="P4" s="198">
-        <f t="shared" ref="P4:P35" si="3">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
+        <f t="shared" ref="P4:P35" si="2">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
         <v>1</v>
       </c>
       <c r="Q4" s="198">
-        <f t="shared" ref="Q4:Q36" si="4">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
+        <f t="shared" ref="Q4:Q36" si="3">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
         <v>1</v>
       </c>
       <c r="R4" s="198">
-        <f t="shared" ref="R4:R36" si="5">+IF(M4&lt;&gt;"",ABS(M4),0)</f>
+        <f t="shared" ref="R4:R36" si="4">+IF(M4&lt;&gt;"",ABS(M4),0)</f>
         <v>4.1405909449001195E-2</v>
       </c>
     </row>
@@ -49765,23 +49765,23 @@
         <v>-1</v>
       </c>
       <c r="M5" s="206">
+        <f t="shared" ref="M5:M35" si="5">+IF(D5&lt;&gt;0,(I5-D5)/D5,0)</f>
+        <v>3.8688718624335448E-2</v>
+      </c>
+      <c r="N5" s="206">
         <f t="shared" si="1"/>
-        <v>3.8688718624335448E-2</v>
-      </c>
-      <c r="N5" s="206">
+        <v>3.5111844331642077E-3</v>
+      </c>
+      <c r="P5" s="198">
         <f t="shared" si="2"/>
-        <v>3.5111844331642077E-3</v>
-      </c>
-      <c r="P5" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="198">
+      <c r="R5" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="198">
-        <f t="shared" si="5"/>
         <v>3.8688718624335448E-2</v>
       </c>
     </row>
@@ -49821,23 +49821,23 @@
         <v>-1</v>
       </c>
       <c r="M6" s="206">
+        <f t="shared" si="5"/>
+        <v>4.4993216102714416E-2</v>
+      </c>
+      <c r="N6" s="206">
         <f t="shared" si="1"/>
-        <v>4.4993216102714416E-2</v>
-      </c>
-      <c r="N6" s="206">
+        <v>-1.9876379018612493E-2</v>
+      </c>
+      <c r="P6" s="198">
         <f t="shared" si="2"/>
-        <v>-1.9876379018612493E-2</v>
-      </c>
-      <c r="P6" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="198">
+      <c r="R6" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="198">
-        <f t="shared" si="5"/>
         <v>4.4993216102714416E-2</v>
       </c>
     </row>
@@ -49877,23 +49877,23 @@
         <v>-1</v>
       </c>
       <c r="M7" s="206">
+        <f t="shared" si="5"/>
+        <v>7.4513148388496306E-2</v>
+      </c>
+      <c r="N7" s="206">
         <f t="shared" si="1"/>
-        <v>7.4513148388496306E-2</v>
-      </c>
-      <c r="N7" s="206">
+        <v>-9.4688806237575279E-4</v>
+      </c>
+      <c r="P7" s="198">
         <f t="shared" si="2"/>
-        <v>-9.4688806237575279E-4</v>
-      </c>
-      <c r="P7" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="198">
+      <c r="R7" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R7" s="198">
-        <f t="shared" si="5"/>
         <v>7.4513148388496306E-2</v>
       </c>
     </row>
@@ -49933,23 +49933,23 @@
         <v>-1</v>
       </c>
       <c r="M8" s="206">
+        <f t="shared" si="5"/>
+        <v>7.1447232006110917E-2</v>
+      </c>
+      <c r="N8" s="206">
         <f t="shared" si="1"/>
-        <v>7.1447232006110917E-2</v>
-      </c>
-      <c r="N8" s="206">
+        <v>1.0355390133619307E-3</v>
+      </c>
+      <c r="P8" s="198">
         <f t="shared" si="2"/>
-        <v>1.0355390133619307E-3</v>
-      </c>
-      <c r="P8" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="198">
+      <c r="R8" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="198">
-        <f t="shared" si="5"/>
         <v>7.1447232006110917E-2</v>
       </c>
     </row>
@@ -49989,23 +49989,23 @@
         <v>-1</v>
       </c>
       <c r="M9" s="206">
+        <f t="shared" si="5"/>
+        <v>9.2342680552733189E-2</v>
+      </c>
+      <c r="N9" s="206">
         <f t="shared" si="1"/>
-        <v>9.2342680552733189E-2</v>
-      </c>
-      <c r="N9" s="206">
+        <v>-2.0011105272296652E-2</v>
+      </c>
+      <c r="P9" s="198">
         <f t="shared" si="2"/>
-        <v>-2.0011105272296652E-2</v>
-      </c>
-      <c r="P9" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="198">
+      <c r="R9" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="198">
-        <f t="shared" si="5"/>
         <v>9.2342680552733189E-2</v>
       </c>
     </row>
@@ -50045,23 +50045,23 @@
         <v>-1</v>
       </c>
       <c r="M10" s="206">
+        <f t="shared" si="5"/>
+        <v>6.1975877151343402E-2</v>
+      </c>
+      <c r="N10" s="206">
         <f t="shared" si="1"/>
-        <v>6.1975877151343402E-2</v>
-      </c>
-      <c r="N10" s="206">
+        <v>-6.2950612072603339E-4</v>
+      </c>
+      <c r="P10" s="198">
         <f t="shared" si="2"/>
-        <v>-6.2950612072603339E-4</v>
-      </c>
-      <c r="P10" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="198">
+      <c r="R10" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R10" s="198">
-        <f t="shared" si="5"/>
         <v>6.1975877151343402E-2</v>
       </c>
     </row>
@@ -50101,23 +50101,23 @@
         <v>-1</v>
       </c>
       <c r="M11" s="206">
+        <f t="shared" si="5"/>
+        <v>6.6659994289587285E-2</v>
+      </c>
+      <c r="N11" s="206">
         <f t="shared" si="1"/>
-        <v>6.6659994289587285E-2</v>
-      </c>
-      <c r="N11" s="206">
+        <v>4.1831996623043844E-4</v>
+      </c>
+      <c r="P11" s="198">
         <f t="shared" si="2"/>
-        <v>4.1831996623043844E-4</v>
-      </c>
-      <c r="P11" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="198">
+      <c r="R11" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R11" s="198">
-        <f t="shared" si="5"/>
         <v>6.6659994289587285E-2</v>
       </c>
     </row>
@@ -50157,23 +50157,23 @@
         <v>-1</v>
       </c>
       <c r="M12" s="206">
+        <f t="shared" si="5"/>
+        <v>6.456070493435509E-2</v>
+      </c>
+      <c r="N12" s="206">
         <f t="shared" si="1"/>
-        <v>6.456070493435509E-2</v>
-      </c>
-      <c r="N12" s="206">
+        <v>-2.0007809202194977E-2</v>
+      </c>
+      <c r="P12" s="198">
         <f t="shared" si="2"/>
-        <v>-2.0007809202194977E-2</v>
-      </c>
-      <c r="P12" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="198">
+      <c r="R12" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="198">
-        <f t="shared" si="5"/>
         <v>6.456070493435509E-2</v>
       </c>
     </row>
@@ -50213,23 +50213,23 @@
         <v>-1</v>
       </c>
       <c r="M13" s="206">
+        <f t="shared" si="5"/>
+        <v>4.7194594972213781E-2</v>
+      </c>
+      <c r="N13" s="206">
         <f t="shared" si="1"/>
-        <v>4.7194594972213781E-2</v>
-      </c>
-      <c r="N13" s="206">
+        <v>0</v>
+      </c>
+      <c r="P13" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="198">
+      <c r="R13" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="198">
-        <f t="shared" si="5"/>
         <v>4.7194594972213781E-2</v>
       </c>
     </row>
@@ -50269,23 +50269,23 @@
         <v>-1</v>
       </c>
       <c r="M14" s="206">
+        <f t="shared" si="5"/>
+        <v>3.8943150119865148E-2</v>
+      </c>
+      <c r="N14" s="206">
         <f t="shared" si="1"/>
-        <v>3.8943150119865148E-2</v>
-      </c>
-      <c r="N14" s="206">
+        <v>2.3530117181555232E-2</v>
+      </c>
+      <c r="P14" s="198">
         <f t="shared" si="2"/>
-        <v>2.3530117181555232E-2</v>
-      </c>
-      <c r="P14" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="198">
+      <c r="R14" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="198">
-        <f t="shared" si="5"/>
         <v>3.8943150119865148E-2</v>
       </c>
     </row>
@@ -50325,23 +50325,23 @@
         <v>-1</v>
       </c>
       <c r="M15" s="206">
+        <f t="shared" si="5"/>
+        <v>6.4134133408705982E-2</v>
+      </c>
+      <c r="N15" s="206">
         <f t="shared" si="1"/>
-        <v>6.4134133408705982E-2</v>
-      </c>
-      <c r="N15" s="206">
+        <v>-2.0077583320651377E-2</v>
+      </c>
+      <c r="P15" s="198">
         <f t="shared" si="2"/>
-        <v>-2.0077583320651377E-2</v>
-      </c>
-      <c r="P15" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="198">
+      <c r="R15" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="198">
-        <f t="shared" si="5"/>
         <v>6.4134133408705982E-2</v>
       </c>
     </row>
@@ -50381,23 +50381,23 @@
         <v>4912.678760896395</v>
       </c>
       <c r="M16" s="206">
+        <f t="shared" si="5"/>
+        <v>0.26582729656006804</v>
+      </c>
+      <c r="N16" s="206">
         <f t="shared" si="1"/>
-        <v>0.26582729656006804</v>
-      </c>
-      <c r="N16" s="206">
+        <v>0</v>
+      </c>
+      <c r="P16" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="198">
+        <v>4912.678760896395</v>
+      </c>
+      <c r="Q16" s="198">
         <f t="shared" si="3"/>
         <v>4912.678760896395</v>
       </c>
-      <c r="Q16" s="198">
+      <c r="R16" s="198">
         <f t="shared" si="4"/>
-        <v>4912.678760896395</v>
-      </c>
-      <c r="R16" s="198">
-        <f t="shared" si="5"/>
         <v>0.26582729656006804</v>
       </c>
     </row>
@@ -50437,23 +50437,23 @@
         <v>2568.8886123594707</v>
       </c>
       <c r="M17" s="206">
+        <f t="shared" si="5"/>
+        <v>0.25508053750246568</v>
+      </c>
+      <c r="N17" s="206">
         <f t="shared" si="1"/>
-        <v>0.25508053750246568</v>
-      </c>
-      <c r="N17" s="206">
+        <v>0</v>
+      </c>
+      <c r="P17" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="198">
+        <v>2568.8886123594707</v>
+      </c>
+      <c r="Q17" s="198">
         <f t="shared" si="3"/>
         <v>2568.8886123594707</v>
       </c>
-      <c r="Q17" s="198">
+      <c r="R17" s="198">
         <f t="shared" si="4"/>
-        <v>2568.8886123594707</v>
-      </c>
-      <c r="R17" s="198">
-        <f t="shared" si="5"/>
         <v>0.25508053750246568</v>
       </c>
     </row>
@@ -50493,23 +50493,23 @@
         <v>2343.7901485370808</v>
       </c>
       <c r="M18" s="206">
+        <f t="shared" si="5"/>
+        <v>0.27839190510251716</v>
+      </c>
+      <c r="N18" s="206">
         <f t="shared" si="1"/>
-        <v>0.27839190510251716</v>
-      </c>
-      <c r="N18" s="206">
+        <v>0</v>
+      </c>
+      <c r="P18" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="198">
+        <v>2343.7901485370808</v>
+      </c>
+      <c r="Q18" s="198">
         <f t="shared" si="3"/>
         <v>2343.7901485370808</v>
       </c>
-      <c r="Q18" s="198">
+      <c r="R18" s="198">
         <f t="shared" si="4"/>
-        <v>2343.7901485370808</v>
-      </c>
-      <c r="R18" s="198">
-        <f t="shared" si="5"/>
         <v>0.27839190510251716</v>
       </c>
     </row>
@@ -50549,23 +50549,23 @@
         <v>-1</v>
       </c>
       <c r="M19" s="206">
+        <f t="shared" si="5"/>
+        <v>0.12996610608242118</v>
+      </c>
+      <c r="N19" s="206">
         <f t="shared" si="1"/>
-        <v>0.12996610608242118</v>
-      </c>
-      <c r="N19" s="206">
+        <v>0</v>
+      </c>
+      <c r="P19" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="198">
+      <c r="R19" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="198">
-        <f t="shared" si="5"/>
         <v>0.12996610608242118</v>
       </c>
     </row>
@@ -50605,23 +50605,23 @@
         <v>-1</v>
       </c>
       <c r="M20" s="206">
+        <f t="shared" si="5"/>
+        <v>0.11508558067220598</v>
+      </c>
+      <c r="N20" s="206">
         <f t="shared" si="1"/>
-        <v>0.11508558067220598</v>
-      </c>
-      <c r="N20" s="206">
+        <v>0</v>
+      </c>
+      <c r="P20" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="198">
+      <c r="R20" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="198">
-        <f t="shared" si="5"/>
         <v>0.11508558067220598</v>
       </c>
     </row>
@@ -50661,23 +50661,23 @@
         <v>2549.3734813806341</v>
       </c>
       <c r="M21" s="206">
+        <f t="shared" si="5"/>
+        <v>0.13689833089338854</v>
+      </c>
+      <c r="N21" s="206">
         <f t="shared" si="1"/>
-        <v>0.13689833089338854</v>
-      </c>
-      <c r="N21" s="206">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="198">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="P21" s="198">
+        <v>2549.3734813806341</v>
+      </c>
+      <c r="Q21" s="198">
         <f t="shared" si="3"/>
         <v>2549.3734813806341</v>
       </c>
-      <c r="Q21" s="198">
+      <c r="R21" s="198">
         <f t="shared" si="4"/>
-        <v>2549.3734813806341</v>
-      </c>
-      <c r="R21" s="198">
-        <f t="shared" si="5"/>
         <v>0.13689833089338854</v>
       </c>
     </row>
@@ -50717,23 +50717,23 @@
         <v>0</v>
       </c>
       <c r="M22" s="206">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="206">
+      <c r="P22" s="198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="198">
+      <c r="Q22" s="198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="198">
+      <c r="R22" s="198">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="198">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -50773,23 +50773,23 @@
         <v>1212.3252477726548</v>
       </c>
       <c r="M23" s="206">
+        <f t="shared" si="5"/>
+        <v>0.15554628864634357</v>
+      </c>
+      <c r="N23" s="206">
         <f t="shared" si="1"/>
-        <v>0.15554628864634357</v>
-      </c>
-      <c r="N23" s="206">
+        <v>0</v>
+      </c>
+      <c r="P23" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="198">
+        <v>1212.3252477726548</v>
+      </c>
+      <c r="Q23" s="198">
         <f t="shared" si="3"/>
         <v>1212.3252477726548</v>
       </c>
-      <c r="Q23" s="198">
+      <c r="R23" s="198">
         <f t="shared" si="4"/>
-        <v>1212.3252477726548</v>
-      </c>
-      <c r="R23" s="198">
-        <f t="shared" si="5"/>
         <v>0.15554628864634357</v>
       </c>
     </row>
@@ -50829,23 +50829,23 @@
         <v>1212.3252477726548</v>
       </c>
       <c r="M24" s="206">
+        <f t="shared" si="5"/>
+        <v>0.15554628864634357</v>
+      </c>
+      <c r="N24" s="206">
         <f t="shared" si="1"/>
-        <v>0.15554628864634357</v>
-      </c>
-      <c r="N24" s="206">
+        <v>0</v>
+      </c>
+      <c r="P24" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="198">
+        <v>1212.3252477726548</v>
+      </c>
+      <c r="Q24" s="198">
         <f t="shared" si="3"/>
         <v>1212.3252477726548</v>
       </c>
-      <c r="Q24" s="198">
+      <c r="R24" s="198">
         <f t="shared" si="4"/>
-        <v>1212.3252477726548</v>
-      </c>
-      <c r="R24" s="198">
-        <f t="shared" si="5"/>
         <v>0.15554628864634357</v>
       </c>
     </row>
@@ -50885,23 +50885,23 @@
         <v>-1</v>
       </c>
       <c r="M25" s="206">
+        <f t="shared" si="5"/>
+        <v>0.21859916896124978</v>
+      </c>
+      <c r="N25" s="206">
         <f t="shared" si="1"/>
-        <v>0.21859916896124978</v>
-      </c>
-      <c r="N25" s="206">
+        <v>3.1111128702707055E-5</v>
+      </c>
+      <c r="P25" s="198">
         <f t="shared" si="2"/>
-        <v>3.1111128702707055E-5</v>
-      </c>
-      <c r="P25" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="198">
+      <c r="R25" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="198">
-        <f t="shared" si="5"/>
         <v>0.21859916896124978</v>
       </c>
     </row>
@@ -50941,23 +50941,23 @@
         <v>-1</v>
       </c>
       <c r="M26" s="206">
+        <f t="shared" si="5"/>
+        <v>0.21347444333081025</v>
+      </c>
+      <c r="N26" s="206">
         <f t="shared" si="1"/>
-        <v>0.21347444333081025</v>
-      </c>
-      <c r="N26" s="206">
+        <v>3.1111128702707055E-5</v>
+      </c>
+      <c r="P26" s="198">
         <f t="shared" si="2"/>
-        <v>3.1111128702707055E-5</v>
-      </c>
-      <c r="P26" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="198">
+      <c r="R26" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="198">
-        <f t="shared" si="5"/>
         <v>0.21347444333081025</v>
       </c>
     </row>
@@ -50997,23 +50997,23 @@
         <v>1182.3390945940303</v>
       </c>
       <c r="M27" s="206">
+        <f t="shared" si="5"/>
+        <v>0.22817050741333572</v>
+      </c>
+      <c r="N27" s="206">
         <f t="shared" si="1"/>
-        <v>0.22817050741333572</v>
-      </c>
-      <c r="N27" s="206">
+        <v>0</v>
+      </c>
+      <c r="P27" s="198">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="198">
+        <v>1182.3390945940303</v>
+      </c>
+      <c r="Q27" s="198">
         <f t="shared" si="3"/>
         <v>1182.3390945940303</v>
       </c>
-      <c r="Q27" s="198">
+      <c r="R27" s="198">
         <f t="shared" si="4"/>
-        <v>1182.3390945940303</v>
-      </c>
-      <c r="R27" s="198">
-        <f t="shared" si="5"/>
         <v>0.22817050741333572</v>
       </c>
     </row>
@@ -51053,23 +51053,23 @@
         <v>0</v>
       </c>
       <c r="M28" s="206">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="206">
+      <c r="P28" s="198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="198">
+      <c r="Q28" s="198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="198">
+      <c r="R28" s="198">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="198">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -51109,23 +51109,23 @@
         <v>0</v>
       </c>
       <c r="M29" s="206">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N29" s="206">
+      <c r="P29" s="198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="198">
+      <c r="Q29" s="198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="198">
+      <c r="R29" s="198">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="198">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -51165,23 +51165,23 @@
         <v>0</v>
       </c>
       <c r="M30" s="206">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="206">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="206">
+      <c r="P30" s="198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="198">
+      <c r="Q30" s="198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="198">
+      <c r="R30" s="198">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="198">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -51221,23 +51221,23 @@
         <v>-1</v>
       </c>
       <c r="M31" s="206">
+        <f t="shared" si="5"/>
+        <v>0.37698455949137133</v>
+      </c>
+      <c r="N31" s="206">
         <f t="shared" si="1"/>
-        <v>0.37698455949137133</v>
-      </c>
-      <c r="N31" s="206">
+        <v>-6.9712187180349522E-2</v>
+      </c>
+      <c r="P31" s="198">
         <f t="shared" si="2"/>
-        <v>-6.9712187180349522E-2</v>
-      </c>
-      <c r="P31" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="198">
+      <c r="R31" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R31" s="198">
-        <f t="shared" si="5"/>
         <v>0.37698455949137133</v>
       </c>
     </row>
@@ -51277,23 +51277,23 @@
         <v>-1</v>
       </c>
       <c r="M32" s="206">
+        <f t="shared" si="5"/>
+        <v>18.284271481736848</v>
+      </c>
+      <c r="N32" s="206">
         <f t="shared" si="1"/>
-        <v>18.284271481736848</v>
-      </c>
-      <c r="N32" s="206">
+        <v>0.32764212192287095</v>
+      </c>
+      <c r="P32" s="198">
         <f t="shared" si="2"/>
-        <v>0.32764212192287095</v>
-      </c>
-      <c r="P32" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q32" s="198">
+      <c r="R32" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="198">
-        <f t="shared" si="5"/>
         <v>18.284271481736848</v>
       </c>
     </row>
@@ -51333,23 +51333,23 @@
         <v>-1</v>
       </c>
       <c r="M33" s="206">
+        <f t="shared" si="5"/>
+        <v>8.406576855266909E-2</v>
+      </c>
+      <c r="N33" s="206">
         <f t="shared" si="1"/>
-        <v>8.406576855266909E-2</v>
-      </c>
-      <c r="N33" s="206">
+        <v>6.8854740371322082E-2</v>
+      </c>
+      <c r="P33" s="198">
         <f t="shared" si="2"/>
-        <v>6.8854740371322082E-2</v>
-      </c>
-      <c r="P33" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="198">
+      <c r="R33" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="198">
-        <f t="shared" si="5"/>
         <v>8.406576855266909E-2</v>
       </c>
     </row>
@@ -51389,23 +51389,23 @@
         <v>-1</v>
       </c>
       <c r="M34" s="206">
+        <f t="shared" si="5"/>
+        <v>17.502707162735504</v>
+      </c>
+      <c r="N34" s="206">
         <f t="shared" si="1"/>
-        <v>17.502707162735504</v>
-      </c>
-      <c r="N34" s="206">
+        <v>0.3089999979994234</v>
+      </c>
+      <c r="P34" s="198">
         <f t="shared" si="2"/>
-        <v>0.3089999979994234</v>
-      </c>
-      <c r="P34" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q34" s="198">
+      <c r="R34" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R34" s="198">
-        <f t="shared" si="5"/>
         <v>17.502707162735504</v>
       </c>
     </row>
@@ -51445,23 +51445,23 @@
         <v>-1</v>
       </c>
       <c r="M35" s="206">
+        <f t="shared" si="5"/>
+        <v>6.0449229319372015E-2</v>
+      </c>
+      <c r="N35" s="206">
         <f t="shared" si="1"/>
-        <v>6.0449229319372015E-2</v>
-      </c>
-      <c r="N35" s="206">
+        <v>-3.824924930048406E-2</v>
+      </c>
+      <c r="P35" s="198">
         <f t="shared" si="2"/>
-        <v>-3.824924930048406E-2</v>
-      </c>
-      <c r="P35" s="198">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="198">
+      <c r="R35" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R35" s="198">
-        <f t="shared" si="5"/>
         <v>6.0449229319372015E-2</v>
       </c>
     </row>
@@ -51497,7 +51497,7 @@
         <v>0.39069999999999999</v>
       </c>
       <c r="L36" s="206">
-        <f t="shared" ref="L36:L53" si="6">+IF(C36&lt;&gt;0,(HI36-C36)/C36,ABS(H36-C36))</f>
+        <f t="shared" ref="L36:L52" si="6">+IF(C36&lt;&gt;0,(HI36-C36)/C36,ABS(H36-C36))</f>
         <v>-1</v>
       </c>
       <c r="M36" s="206">
@@ -51513,11 +51513,11 @@
         <v>1</v>
       </c>
       <c r="Q36" s="198">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="198">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R36" s="198">
-        <f t="shared" si="5"/>
         <v>2.5150588595015993E-2</v>
       </c>
     </row>
@@ -52443,7 +52443,7 @@
         <v>0.32195351</v>
       </c>
       <c r="L53" s="206">
-        <f t="shared" si="6"/>
+        <f>+IF(C53&lt;&gt;0,(HI53-C53)/C53,ABS(H53-C53))</f>
         <v>-1</v>
       </c>
       <c r="M53" s="206">
@@ -52517,7 +52517,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -52537,10 +52537,10 @@
       <c r="C1" s="214">
         <v>0.65690000000000004</v>
       </c>
-      <c r="D1" s="328">
+      <c r="D1" s="219">
         <v>0.6421</v>
       </c>
-      <c r="E1" s="328">
+      <c r="E1" s="219">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -52554,10 +52554,10 @@
       <c r="C2" s="216">
         <v>0.64990000000000003</v>
       </c>
-      <c r="D2" s="328">
+      <c r="D2" s="219">
         <v>0.64906712440000003</v>
       </c>
-      <c r="E2" s="328">
+      <c r="E2" s="219">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -52571,7 +52571,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B7" zoomScale="125" zoomScaleNormal="60" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -52628,75 +52628,75 @@
     <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="84"/>
       <c r="B3" s="87"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="319" t="s">
+      <c r="C3" s="314"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="320" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
+      <c r="K3" s="320"/>
+      <c r="L3" s="320"/>
+      <c r="M3" s="320"/>
+      <c r="N3" s="321"/>
       <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="84"/>
       <c r="B4" s="87"/>
-      <c r="C4" s="315"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321"/>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321"/>
-      <c r="J4" s="321"/>
-      <c r="K4" s="321"/>
-      <c r="L4" s="321"/>
-      <c r="M4" s="321"/>
-      <c r="N4" s="322"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
+      <c r="K4" s="322"/>
+      <c r="L4" s="322"/>
+      <c r="M4" s="322"/>
+      <c r="N4" s="323"/>
       <c r="O4" s="158"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="84"/>
       <c r="B5" s="87"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="321" t="s">
+      <c r="C5" s="316"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="322" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="324">
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="322"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="325">
         <v>44849</v>
       </c>
-      <c r="N5" s="325"/>
+      <c r="N5" s="326"/>
       <c r="O5" s="158"/>
     </row>
     <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="84"/>
       <c r="B6" s="87"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="318"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="323"/>
-      <c r="L6" s="323"/>
-      <c r="M6" s="326"/>
-      <c r="N6" s="327"/>
+      <c r="C6" s="318"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="327"/>
+      <c r="N6" s="328"/>
       <c r="O6" s="158"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
@@ -52719,9 +52719,9 @@
     <row r="8" spans="1:15" ht="16" thickBot="1">
       <c r="A8" s="84"/>
       <c r="B8" s="88"/>
-      <c r="C8" s="307"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
+      <c r="C8" s="308"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
       <c r="F8" s="93" t="s">
         <v>68</v>
       </c>
@@ -52734,8 +52734,8 @@
       <c r="I8" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="311"/>
-      <c r="K8" s="312"/>
+      <c r="J8" s="312"/>
+      <c r="K8" s="313"/>
       <c r="L8" s="93" t="s">
         <v>68</v>
       </c>
@@ -52750,9 +52750,9 @@
     <row r="9" spans="1:15" ht="16" thickBot="1">
       <c r="A9" s="84"/>
       <c r="B9" s="88"/>
-      <c r="C9" s="309"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="310"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
       <c r="F9" s="95" t="s">
         <v>28</v>
       </c>
@@ -52765,8 +52765,8 @@
       <c r="I9" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="236"/>
-      <c r="K9" s="292"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="293"/>
       <c r="L9" s="95" t="s">
         <v>28</v>
       </c>
@@ -52781,32 +52781,32 @@
     <row r="10" spans="1:15" ht="16" thickBot="1">
       <c r="A10" s="84"/>
       <c r="B10" s="88"/>
-      <c r="C10" s="281" t="s">
+      <c r="C10" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="282"/>
-      <c r="G10" s="282"/>
-      <c r="H10" s="282"/>
-      <c r="I10" s="283" t="s">
+      <c r="D10" s="283"/>
+      <c r="E10" s="283"/>
+      <c r="F10" s="283"/>
+      <c r="G10" s="283"/>
+      <c r="H10" s="283"/>
+      <c r="I10" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="282"/>
-      <c r="K10" s="282"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="282"/>
-      <c r="N10" s="284"/>
+      <c r="J10" s="283"/>
+      <c r="K10" s="283"/>
+      <c r="L10" s="283"/>
+      <c r="M10" s="283"/>
+      <c r="N10" s="285"/>
       <c r="O10" s="158"/>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1">
       <c r="A11" s="84"/>
       <c r="B11" s="88"/>
-      <c r="C11" s="285" t="s">
+      <c r="C11" s="286" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="286"/>
-      <c r="E11" s="287"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="288"/>
       <c r="F11" s="97">
         <f>Utilidad!O95</f>
         <v>1667565.55403242</v>
@@ -52844,11 +52844,11 @@
     <row r="12" spans="1:15" ht="16" thickBot="1">
       <c r="A12" s="84"/>
       <c r="B12" s="88"/>
-      <c r="C12" s="275" t="s">
+      <c r="C12" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="276"/>
-      <c r="E12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="278"/>
       <c r="F12" s="105">
         <f>Utilidad!O70</f>
         <v>6553.2789499999999</v>
@@ -52886,11 +52886,11 @@
     <row r="13" spans="1:15" ht="16" thickBot="1">
       <c r="A13" s="84"/>
       <c r="B13" s="88"/>
-      <c r="C13" s="275" t="s">
+      <c r="C13" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="276"/>
-      <c r="E13" s="277"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="278"/>
       <c r="F13" s="105">
         <f>Utilidad!O76</f>
         <v>7063.5460122175045</v>
@@ -52907,21 +52907,21 @@
         <f>Utilidad!Q76</f>
         <v>0.46432030000000002</v>
       </c>
-      <c r="J13" s="288"/>
-      <c r="K13" s="289"/>
-      <c r="L13" s="293"/>
-      <c r="M13" s="294"/>
-      <c r="N13" s="295"/>
+      <c r="J13" s="289"/>
+      <c r="K13" s="290"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="295"/>
+      <c r="N13" s="296"/>
       <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1">
       <c r="A14" s="84"/>
       <c r="B14" s="88"/>
-      <c r="C14" s="275" t="s">
+      <c r="C14" s="276" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="276"/>
-      <c r="E14" s="277"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="278"/>
       <c r="F14" s="105">
         <f>Utilidad!O79</f>
         <v>12987.951075000003</v>
@@ -52938,21 +52938,21 @@
         <f>Utilidad!Q79</f>
         <v>0.32195351</v>
       </c>
-      <c r="J14" s="290"/>
-      <c r="K14" s="291"/>
-      <c r="L14" s="296"/>
-      <c r="M14" s="297"/>
-      <c r="N14" s="298"/>
+      <c r="J14" s="291"/>
+      <c r="K14" s="292"/>
+      <c r="L14" s="297"/>
+      <c r="M14" s="298"/>
+      <c r="N14" s="299"/>
       <c r="O14" s="158"/>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
       <c r="A15" s="84"/>
       <c r="B15" s="88"/>
-      <c r="C15" s="275" t="s">
+      <c r="C15" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="302"/>
-      <c r="E15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="304"/>
       <c r="F15" s="105">
         <f>Utilidad!O82</f>
         <v>2343.7901485370808</v>
@@ -52969,21 +52969,21 @@
         <f>Utilidad!Q82</f>
         <v>0</v>
       </c>
-      <c r="J15" s="290"/>
-      <c r="K15" s="291"/>
-      <c r="L15" s="296"/>
-      <c r="M15" s="297"/>
-      <c r="N15" s="298"/>
+      <c r="J15" s="291"/>
+      <c r="K15" s="292"/>
+      <c r="L15" s="297"/>
+      <c r="M15" s="298"/>
+      <c r="N15" s="299"/>
       <c r="O15" s="158"/>
     </row>
     <row r="16" spans="1:15" ht="16" thickBot="1">
       <c r="A16" s="84"/>
       <c r="B16" s="88"/>
-      <c r="C16" s="275" t="s">
+      <c r="C16" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="302"/>
-      <c r="E16" s="303"/>
+      <c r="D16" s="303"/>
+      <c r="E16" s="304"/>
       <c r="F16" s="105">
         <f>Utilidad!O85</f>
         <v>2549.3734813806341</v>
@@ -53000,21 +53000,21 @@
         <f>Utilidad!Q85</f>
         <v>0</v>
       </c>
-      <c r="J16" s="290"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="296"/>
-      <c r="M16" s="297"/>
-      <c r="N16" s="298"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="292"/>
+      <c r="L16" s="297"/>
+      <c r="M16" s="298"/>
+      <c r="N16" s="299"/>
       <c r="O16" s="158"/>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
       <c r="A17" s="84"/>
       <c r="B17" s="88"/>
-      <c r="C17" s="275" t="s">
+      <c r="C17" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="302"/>
-      <c r="E17" s="303"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="304"/>
       <c r="F17" s="105">
         <f>Utilidad!O88</f>
         <v>1212.3252477726548</v>
@@ -53031,21 +53031,21 @@
         <f>Utilidad!Q88</f>
         <v>0</v>
       </c>
-      <c r="J17" s="290"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="296"/>
-      <c r="M17" s="297"/>
-      <c r="N17" s="298"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="292"/>
+      <c r="L17" s="297"/>
+      <c r="M17" s="298"/>
+      <c r="N17" s="299"/>
       <c r="O17" s="158"/>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
-      <c r="C18" s="275" t="s">
+      <c r="C18" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="302"/>
-      <c r="E18" s="303"/>
+      <c r="D18" s="303"/>
+      <c r="E18" s="304"/>
       <c r="F18" s="105">
         <f>Utilidad!O91</f>
         <v>1182.3390945940303</v>
@@ -53062,21 +53062,21 @@
         <f>Utilidad!Q91</f>
         <v>0</v>
       </c>
-      <c r="J18" s="290"/>
-      <c r="K18" s="291"/>
-      <c r="L18" s="296"/>
-      <c r="M18" s="297"/>
-      <c r="N18" s="298"/>
+      <c r="J18" s="291"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="297"/>
+      <c r="M18" s="298"/>
+      <c r="N18" s="299"/>
       <c r="O18" s="158"/>
     </row>
     <row r="19" spans="1:15" ht="16" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="88"/>
-      <c r="C19" s="304" t="s">
+      <c r="C19" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="305"/>
-      <c r="E19" s="306"/>
+      <c r="D19" s="306"/>
+      <c r="E19" s="307"/>
       <c r="F19" s="105">
         <f>Utilidad!O73</f>
         <v>1170.581619720929</v>
@@ -53093,21 +53093,21 @@
         <f>Utilidad!Q73</f>
         <v>0.39119431999999998</v>
       </c>
-      <c r="J19" s="236"/>
-      <c r="K19" s="292"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="300"/>
-      <c r="N19" s="301"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="300"/>
+      <c r="M19" s="301"/>
+      <c r="N19" s="302"/>
       <c r="O19" s="158"/>
     </row>
     <row r="20" spans="1:15" ht="16" thickBot="1">
       <c r="A20" s="84"/>
       <c r="B20" s="88"/>
-      <c r="C20" s="251" t="s">
+      <c r="C20" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="253"/>
       <c r="F20" s="113">
         <f>SUM(F11:F19)</f>
         <v>1702628.7396616428</v>
@@ -53121,8 +53121,8 @@
         <v>268406.0310593493</v>
       </c>
       <c r="I20" s="116"/>
-      <c r="J20" s="269"/>
-      <c r="K20" s="270"/>
+      <c r="J20" s="270"/>
+      <c r="K20" s="271"/>
       <c r="L20" s="117"/>
       <c r="M20" s="118"/>
       <c r="N20" s="119"/>
@@ -53131,32 +53131,32 @@
     <row r="21" spans="1:15" ht="16" thickBot="1">
       <c r="A21" s="84"/>
       <c r="B21" s="88"/>
-      <c r="C21" s="271" t="s">
+      <c r="C21" s="272" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="272"/>
-      <c r="E21" s="272"/>
-      <c r="F21" s="272"/>
-      <c r="G21" s="272"/>
-      <c r="H21" s="272"/>
-      <c r="I21" s="273" t="s">
+      <c r="D21" s="273"/>
+      <c r="E21" s="273"/>
+      <c r="F21" s="273"/>
+      <c r="G21" s="273"/>
+      <c r="H21" s="273"/>
+      <c r="I21" s="274" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="257"/>
-      <c r="K21" s="257"/>
-      <c r="L21" s="257"/>
-      <c r="M21" s="257"/>
-      <c r="N21" s="274"/>
+      <c r="J21" s="258"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="258"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="275"/>
       <c r="O21" s="158"/>
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
       <c r="A22" s="84"/>
       <c r="B22" s="88"/>
-      <c r="C22" s="275" t="s">
+      <c r="C22" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="276"/>
-      <c r="E22" s="277"/>
+      <c r="D22" s="277"/>
+      <c r="E22" s="278"/>
       <c r="F22" s="120">
         <f>'Datos Extra'!B1</f>
         <v>123507</v>
@@ -53169,11 +53169,11 @@
         <f>+F22*G22</f>
         <v>81131.748300000007</v>
       </c>
-      <c r="I22" s="278" t="s">
+      <c r="I22" s="279" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="279"/>
-      <c r="K22" s="280"/>
+      <c r="J22" s="280"/>
+      <c r="K22" s="281"/>
       <c r="L22" s="122">
         <f>Utilidad!O114</f>
         <v>1526877.3044061151</v>
@@ -53191,11 +53191,11 @@
     <row r="23" spans="1:15" ht="16" thickBot="1">
       <c r="A23" s="84"/>
       <c r="B23" s="88"/>
-      <c r="C23" s="251" t="s">
+      <c r="C23" s="252" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="252"/>
-      <c r="E23" s="252"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
       <c r="F23" s="123">
         <f>SUM(F21:F22)</f>
         <v>123507</v>
@@ -53208,11 +53208,11 @@
         <f>SUM(H21:H22)</f>
         <v>81131.748300000007</v>
       </c>
-      <c r="I23" s="253" t="s">
+      <c r="I23" s="254" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="254"/>
-      <c r="K23" s="255"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="256"/>
       <c r="L23" s="125">
         <f>L22</f>
         <v>1526877.3044061151</v>
@@ -53247,11 +53247,11 @@
     <row r="25" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A25" s="84"/>
       <c r="B25" s="88"/>
-      <c r="C25" s="256" t="s">
+      <c r="C25" s="257" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="257"/>
-      <c r="E25" s="258"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="259"/>
       <c r="F25" s="131" t="s">
         <v>28</v>
       </c>
@@ -53272,11 +53272,11 @@
     <row r="26" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A26" s="84"/>
       <c r="B26" s="88"/>
-      <c r="C26" s="259" t="s">
+      <c r="C26" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="260"/>
-      <c r="E26" s="261"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="262"/>
       <c r="F26" s="138">
         <f>+'[1]Informacion Planta'!L49</f>
         <v>-5.4250001106993295E-2</v>
@@ -53300,11 +53300,11 @@
     <row r="27" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A27" s="84"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="262" t="s">
+      <c r="C27" s="263" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="263"/>
-      <c r="E27" s="263"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="264"/>
       <c r="F27" s="144">
         <f>SUM(F26:F26)</f>
         <v>-5.4250001106993295E-2</v>
@@ -53345,20 +53345,20 @@
     <row r="29" spans="1:15" ht="16" thickBot="1">
       <c r="A29" s="84"/>
       <c r="B29" s="88"/>
-      <c r="C29" s="266" t="s">
+      <c r="C29" s="267" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="267"/>
-      <c r="E29" s="267"/>
-      <c r="F29" s="267"/>
-      <c r="G29" s="267"/>
-      <c r="H29" s="267"/>
-      <c r="I29" s="267"/>
-      <c r="J29" s="267"/>
-      <c r="K29" s="267"/>
-      <c r="L29" s="267"/>
-      <c r="M29" s="267"/>
-      <c r="N29" s="268"/>
+      <c r="D29" s="268"/>
+      <c r="E29" s="268"/>
+      <c r="F29" s="268"/>
+      <c r="G29" s="268"/>
+      <c r="H29" s="268"/>
+      <c r="I29" s="268"/>
+      <c r="J29" s="268"/>
+      <c r="K29" s="268"/>
+      <c r="L29" s="268"/>
+      <c r="M29" s="268"/>
+      <c r="N29" s="269"/>
       <c r="O29" s="158"/>
     </row>
     <row r="30" spans="1:15" ht="16" thickBot="1">
@@ -53381,67 +53381,67 @@
     <row r="31" spans="1:15" ht="16" thickBot="1">
       <c r="A31" s="84"/>
       <c r="B31" s="88"/>
-      <c r="C31" s="230" t="s">
+      <c r="C31" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="264"/>
-      <c r="E31" s="265"/>
+      <c r="D31" s="265"/>
+      <c r="E31" s="266"/>
       <c r="F31" s="154"/>
       <c r="G31" s="154"/>
-      <c r="H31" s="230" t="s">
+      <c r="H31" s="231" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="264"/>
-      <c r="J31" s="265"/>
+      <c r="I31" s="265"/>
+      <c r="J31" s="266"/>
       <c r="K31" s="154"/>
-      <c r="L31" s="230" t="s">
+      <c r="L31" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="231"/>
-      <c r="N31" s="232"/>
+      <c r="M31" s="232"/>
+      <c r="N31" s="233"/>
       <c r="O31" s="158"/>
     </row>
     <row r="32" spans="1:15" ht="16" thickBot="1">
       <c r="A32" s="84"/>
       <c r="B32" s="88"/>
-      <c r="C32" s="233">
+      <c r="C32" s="234">
         <f>Utilidad!I105</f>
         <v>0.10728922525454682</v>
       </c>
-      <c r="D32" s="234"/>
-      <c r="E32" s="235"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="236"/>
       <c r="F32" s="154"/>
       <c r="G32" s="154"/>
-      <c r="H32" s="239">
+      <c r="H32" s="240">
         <f>Utilidad!I94</f>
         <v>0.43688004059317631</v>
       </c>
-      <c r="I32" s="240"/>
-      <c r="J32" s="241"/>
+      <c r="I32" s="241"/>
+      <c r="J32" s="242"/>
       <c r="K32" s="154"/>
-      <c r="L32" s="245">
+      <c r="L32" s="246">
         <f>Utilidad!I104</f>
         <v>0.54198261471536646</v>
       </c>
-      <c r="M32" s="246"/>
-      <c r="N32" s="247"/>
+      <c r="M32" s="247"/>
+      <c r="N32" s="248"/>
       <c r="O32" s="158"/>
     </row>
     <row r="33" spans="1:15" ht="16" thickBot="1">
       <c r="A33" s="84"/>
       <c r="B33" s="88"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="238"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="239"/>
       <c r="F33" s="154"/>
       <c r="G33" s="154"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="243"/>
-      <c r="J33" s="244"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="245"/>
       <c r="K33" s="154"/>
-      <c r="L33" s="248"/>
-      <c r="M33" s="249"/>
-      <c r="N33" s="250"/>
+      <c r="L33" s="249"/>
+      <c r="M33" s="250"/>
+      <c r="N33" s="251"/>
       <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" ht="16" thickBot="1">

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76D652-4E6F-CE4A-BBCF-6A5F59FACE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D6FE2-8D12-2044-947D-B42E4EE87531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="20" windowWidth="28040" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilidad" sheetId="10" r:id="rId1"/>
@@ -9359,8 +9359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AB0D6-E0E9-6D42-9B21-33D1777F9FE2}">
   <dimension ref="A1:DN306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68:Q117"/>
+    <sheetView topLeftCell="L90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -18210,11 +18210,11 @@
         <v>13202.36645</v>
       </c>
       <c r="P68" s="172">
-        <f>IF(D1&gt;1,D1/100,D1)</f>
+        <f>IF(D$1&gt;1,D1/100,D1)</f>
         <v>0.58287488751860594</v>
       </c>
       <c r="Q68" s="172">
-        <f>IF(F1&gt;1,F1/100,F1)</f>
+        <f>IF(F$1&gt;1,F1/100,F1)</f>
         <v>0.58768039000000005</v>
       </c>
       <c r="R68" s="173">
@@ -18344,11 +18344,11 @@
         <v>6649.0874999999996</v>
       </c>
       <c r="P69" s="172">
-        <f t="shared" ref="P69:P117" si="2">IF(D2&gt;1,D2/100,D2)</f>
+        <f t="shared" ref="P69:P117" si="2">IF(D$1&gt;1,D2/100,D2)</f>
         <v>0.58810555248509877</v>
       </c>
       <c r="Q69" s="172">
-        <f t="shared" ref="Q69:Q117" si="3">IF(F2&gt;1,F2/100,F2)</f>
+        <f t="shared" ref="Q69:Q117" si="3">IF(F$1&gt;1,F2/100,F2)</f>
         <v>0.59307511000000002</v>
       </c>
       <c r="R69" s="173">
@@ -47773,8 +47773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49587,8 +49587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B33E5-7676-1F47-BBE6-CFF6D81A466B}">
   <dimension ref="B2:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49705,7 +49705,7 @@
         <v>0.58768039000000005</v>
       </c>
       <c r="L4" s="206">
-        <f t="shared" ref="L4:L35" si="0">+IF(C4&lt;&gt;0,(HI4-C4)/C4,ABS(H4-C4))</f>
+        <f>+IF(C4&lt;&gt;0,(HI4-C4)/C4,ABS(H4-C4))</f>
         <v>-1</v>
       </c>
       <c r="M4" s="206">
@@ -49713,20 +49713,20 @@
         <v>4.1405909449001195E-2</v>
       </c>
       <c r="N4" s="206">
-        <f t="shared" ref="N4:N35" si="1">+IF(E4&lt;&gt;0,(J4-E4)/E4,0)</f>
+        <f t="shared" ref="N4:N35" si="0">+IF(E4&lt;&gt;0,(J4-E4)/E4,0)</f>
         <v>-5.6169373942468997E-3</v>
       </c>
       <c r="P4" s="198">
-        <f t="shared" ref="P4:P35" si="2">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
+        <f t="shared" ref="P4:P35" si="1">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
         <v>1</v>
       </c>
       <c r="Q4" s="198">
-        <f t="shared" ref="Q4:Q36" si="3">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
-        <v>1</v>
+        <f>+IF(L4&lt;&gt;"",ABS(M4),0)</f>
+        <v>4.1405909449001195E-2</v>
       </c>
       <c r="R4" s="198">
-        <f t="shared" ref="R4:R36" si="4">+IF(M4&lt;&gt;"",ABS(M4),0)</f>
-        <v>4.1405909449001195E-2</v>
+        <f>+IF(M4&lt;&gt;"",ABS(N4),0)</f>
+        <v>5.6169373942468997E-3</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="19">
@@ -49761,28 +49761,28 @@
         <v>0.59307511000000002</v>
       </c>
       <c r="L5" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L5:L53" si="2">+IF(C5&lt;&gt;0,(HI5-C5)/C5,ABS(H5-C5))</f>
         <v>-1</v>
       </c>
       <c r="M5" s="206">
-        <f t="shared" ref="M5:M35" si="5">+IF(D5&lt;&gt;0,(I5-D5)/D5,0)</f>
+        <f t="shared" ref="M5:M53" si="3">+IF(D5&lt;&gt;0,(I5-D5)/D5,0)</f>
         <v>3.8688718624335448E-2</v>
       </c>
       <c r="N5" s="206">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N5:N53" si="4">+IF(E5&lt;&gt;0,(J5-E5)/E5,0)</f>
         <v>3.5111844331642077E-3</v>
       </c>
       <c r="P5" s="198">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P5:P53" si="5">+IF(L5&lt;&gt;"",ABS(L5),0)</f>
         <v>1</v>
       </c>
       <c r="Q5" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="Q5:Q53" si="6">+IF(L5&lt;&gt;"",ABS(M5),0)</f>
+        <v>3.8688718624335448E-2</v>
       </c>
       <c r="R5" s="198">
-        <f t="shared" si="4"/>
-        <v>3.8688718624335448E-2</v>
+        <f t="shared" ref="R5:R53" si="7">+IF(M5&lt;&gt;"",ABS(N5),0)</f>
+        <v>3.5111844331642077E-3</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="19">
@@ -49817,28 +49817,28 @@
         <v>0.57925305999999999</v>
       </c>
       <c r="L6" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M6" s="206">
+        <f t="shared" si="3"/>
+        <v>4.4993216102714416E-2</v>
+      </c>
+      <c r="N6" s="206">
+        <f t="shared" si="4"/>
+        <v>-1.9876379018612493E-2</v>
+      </c>
+      <c r="P6" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="198">
+        <f t="shared" si="6"/>
         <v>4.4993216102714416E-2</v>
       </c>
-      <c r="N6" s="206">
-        <f t="shared" si="1"/>
-        <v>-1.9876379018612493E-2</v>
-      </c>
-      <c r="P6" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R6" s="198">
-        <f t="shared" si="4"/>
-        <v>4.4993216102714416E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.9876379018612493E-2</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="19">
@@ -49873,28 +49873,28 @@
         <v>0.39880441999999999</v>
       </c>
       <c r="L7" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M7" s="206">
+        <f t="shared" si="3"/>
+        <v>7.4513148388496306E-2</v>
+      </c>
+      <c r="N7" s="206">
+        <f t="shared" si="4"/>
+        <v>-9.4688806237575279E-4</v>
+      </c>
+      <c r="P7" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="198">
+        <f t="shared" si="6"/>
         <v>7.4513148388496306E-2</v>
       </c>
-      <c r="N7" s="206">
-        <f t="shared" si="1"/>
-        <v>-9.4688806237575279E-4</v>
-      </c>
-      <c r="P7" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R7" s="198">
-        <f t="shared" si="4"/>
-        <v>7.4513148388496306E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.4688806237575279E-4</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="19">
@@ -49929,28 +49929,28 @@
         <v>0.39959577000000002</v>
       </c>
       <c r="L8" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M8" s="206">
+        <f t="shared" si="3"/>
+        <v>7.1447232006110917E-2</v>
+      </c>
+      <c r="N8" s="206">
+        <f t="shared" si="4"/>
+        <v>1.0355390133619307E-3</v>
+      </c>
+      <c r="P8" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="198">
+        <f t="shared" si="6"/>
         <v>7.1447232006110917E-2</v>
       </c>
-      <c r="N8" s="206">
-        <f t="shared" si="1"/>
+      <c r="R8" s="198">
+        <f t="shared" si="7"/>
         <v>1.0355390133619307E-3</v>
-      </c>
-      <c r="P8" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="198">
-        <f t="shared" si="4"/>
-        <v>7.1447232006110917E-2</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="19">
@@ -49985,28 +49985,28 @@
         <v>0.39119431999999998</v>
       </c>
       <c r="L9" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M9" s="206">
+        <f t="shared" si="3"/>
+        <v>9.2342680552733189E-2</v>
+      </c>
+      <c r="N9" s="206">
+        <f t="shared" si="4"/>
+        <v>-2.0011105272296652E-2</v>
+      </c>
+      <c r="P9" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="198">
+        <f t="shared" si="6"/>
         <v>9.2342680552733189E-2</v>
       </c>
-      <c r="N9" s="206">
-        <f t="shared" si="1"/>
-        <v>-2.0011105272296652E-2</v>
-      </c>
-      <c r="P9" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R9" s="198">
-        <f t="shared" si="4"/>
-        <v>9.2342680552733189E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.0011105272296652E-2</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="19">
@@ -50041,28 +50041,28 @@
         <v>0.47350174</v>
       </c>
       <c r="L10" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M10" s="206">
+        <f t="shared" si="3"/>
+        <v>6.1975877151343402E-2</v>
+      </c>
+      <c r="N10" s="206">
+        <f t="shared" si="4"/>
+        <v>-6.2950612072603339E-4</v>
+      </c>
+      <c r="P10" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="198">
+        <f t="shared" si="6"/>
         <v>6.1975877151343402E-2</v>
       </c>
-      <c r="N10" s="206">
-        <f t="shared" si="1"/>
-        <v>-6.2950612072603339E-4</v>
-      </c>
-      <c r="P10" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R10" s="198">
-        <f t="shared" si="4"/>
-        <v>6.1975877151343402E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.2950612072603339E-4</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="19">
@@ -50097,28 +50097,28 @@
         <v>0.47399819999999998</v>
       </c>
       <c r="L11" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M11" s="206">
+        <f t="shared" si="3"/>
+        <v>6.6659994289587285E-2</v>
+      </c>
+      <c r="N11" s="206">
+        <f t="shared" si="4"/>
+        <v>4.1831996623043844E-4</v>
+      </c>
+      <c r="P11" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="198">
+        <f t="shared" si="6"/>
         <v>6.6659994289587285E-2</v>
       </c>
-      <c r="N11" s="206">
-        <f t="shared" si="1"/>
+      <c r="R11" s="198">
+        <f t="shared" si="7"/>
         <v>4.1831996623043844E-4</v>
-      </c>
-      <c r="P11" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R11" s="198">
-        <f t="shared" si="4"/>
-        <v>6.6659994289587285E-2</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="19">
@@ -50153,28 +50153,28 @@
         <v>0.46432030000000002</v>
       </c>
       <c r="L12" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M12" s="206">
+        <f t="shared" si="3"/>
+        <v>6.456070493435509E-2</v>
+      </c>
+      <c r="N12" s="206">
+        <f t="shared" si="4"/>
+        <v>-2.0007809202194977E-2</v>
+      </c>
+      <c r="P12" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="198">
+        <f t="shared" si="6"/>
         <v>6.456070493435509E-2</v>
       </c>
-      <c r="N12" s="206">
-        <f t="shared" si="1"/>
-        <v>-2.0007809202194977E-2</v>
-      </c>
-      <c r="P12" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R12" s="198">
-        <f t="shared" si="4"/>
-        <v>6.456070493435509E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.0007809202194977E-2</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="19">
@@ -50209,28 +50209,28 @@
         <v>0.33520926000000001</v>
       </c>
       <c r="L13" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M13" s="206">
+        <f t="shared" si="3"/>
+        <v>4.7194594972213781E-2</v>
+      </c>
+      <c r="N13" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="198">
+        <f t="shared" si="6"/>
         <v>4.7194594972213781E-2</v>
       </c>
-      <c r="N13" s="206">
-        <f t="shared" si="1"/>
+      <c r="R13" s="198">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="P13" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="198">
-        <f t="shared" si="4"/>
-        <v>4.7194594972213781E-2</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="19">
@@ -50265,28 +50265,28 @@
         <v>0.33628081999999998</v>
       </c>
       <c r="L14" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M14" s="206">
+        <f t="shared" si="3"/>
+        <v>3.8943150119865148E-2</v>
+      </c>
+      <c r="N14" s="206">
+        <f t="shared" si="4"/>
+        <v>2.3530117181555232E-2</v>
+      </c>
+      <c r="P14" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="198">
+        <f t="shared" si="6"/>
         <v>3.8943150119865148E-2</v>
       </c>
-      <c r="N14" s="206">
-        <f t="shared" si="1"/>
+      <c r="R14" s="198">
+        <f t="shared" si="7"/>
         <v>2.3530117181555232E-2</v>
-      </c>
-      <c r="P14" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="198">
-        <f t="shared" si="4"/>
-        <v>3.8943150119865148E-2</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="19">
@@ -50321,28 +50321,28 @@
         <v>0.32195351</v>
       </c>
       <c r="L15" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M15" s="206">
+        <f t="shared" si="3"/>
+        <v>6.4134133408705982E-2</v>
+      </c>
+      <c r="N15" s="206">
+        <f t="shared" si="4"/>
+        <v>-2.0077583320651377E-2</v>
+      </c>
+      <c r="P15" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="198">
+        <f t="shared" si="6"/>
         <v>6.4134133408705982E-2</v>
       </c>
-      <c r="N15" s="206">
-        <f t="shared" si="1"/>
-        <v>-2.0077583320651377E-2</v>
-      </c>
-      <c r="P15" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R15" s="198">
-        <f t="shared" si="4"/>
-        <v>6.4134133408705982E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.0077583320651377E-2</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="19">
@@ -50377,28 +50377,28 @@
         <v>0</v>
       </c>
       <c r="L16" s="206">
-        <f t="shared" si="0"/>
-        <v>4912.678760896395</v>
-      </c>
-      <c r="M16" s="206">
-        <f t="shared" si="5"/>
-        <v>0.26582729656006804</v>
-      </c>
-      <c r="N16" s="206">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="198">
         <f t="shared" si="2"/>
         <v>4912.678760896395</v>
       </c>
+      <c r="M16" s="206">
+        <f t="shared" si="3"/>
+        <v>0.26582729656006804</v>
+      </c>
+      <c r="N16" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="198">
+        <f t="shared" si="5"/>
+        <v>4912.678760896395</v>
+      </c>
       <c r="Q16" s="198">
-        <f t="shared" si="3"/>
-        <v>4912.678760896395</v>
+        <f t="shared" si="6"/>
+        <v>0.26582729656006804</v>
       </c>
       <c r="R16" s="198">
-        <f t="shared" si="4"/>
-        <v>0.26582729656006804</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="19">
@@ -50433,28 +50433,28 @@
         <v>0</v>
       </c>
       <c r="L17" s="206">
-        <f t="shared" si="0"/>
-        <v>2568.8886123594707</v>
-      </c>
-      <c r="M17" s="206">
-        <f t="shared" si="5"/>
-        <v>0.25508053750246568</v>
-      </c>
-      <c r="N17" s="206">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="198">
         <f t="shared" si="2"/>
         <v>2568.8886123594707</v>
       </c>
+      <c r="M17" s="206">
+        <f t="shared" si="3"/>
+        <v>0.25508053750246568</v>
+      </c>
+      <c r="N17" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="198">
+        <f t="shared" si="5"/>
+        <v>2568.8886123594707</v>
+      </c>
       <c r="Q17" s="198">
-        <f t="shared" si="3"/>
-        <v>2568.8886123594707</v>
+        <f t="shared" si="6"/>
+        <v>0.25508053750246568</v>
       </c>
       <c r="R17" s="198">
-        <f t="shared" si="4"/>
-        <v>0.25508053750246568</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="19">
@@ -50489,28 +50489,28 @@
         <v>0</v>
       </c>
       <c r="L18" s="206">
-        <f t="shared" si="0"/>
-        <v>2343.7901485370808</v>
-      </c>
-      <c r="M18" s="206">
-        <f t="shared" si="5"/>
-        <v>0.27839190510251716</v>
-      </c>
-      <c r="N18" s="206">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="198">
         <f t="shared" si="2"/>
         <v>2343.7901485370808</v>
       </c>
+      <c r="M18" s="206">
+        <f t="shared" si="3"/>
+        <v>0.27839190510251716</v>
+      </c>
+      <c r="N18" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="198">
+        <f t="shared" si="5"/>
+        <v>2343.7901485370808</v>
+      </c>
       <c r="Q18" s="198">
-        <f t="shared" si="3"/>
-        <v>2343.7901485370808</v>
+        <f t="shared" si="6"/>
+        <v>0.27839190510251716</v>
       </c>
       <c r="R18" s="198">
-        <f t="shared" si="4"/>
-        <v>0.27839190510251716</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="19">
@@ -50545,28 +50545,28 @@
         <v>0.31759999999999999</v>
       </c>
       <c r="L19" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M19" s="206">
+        <f t="shared" si="3"/>
+        <v>0.12996610608242118</v>
+      </c>
+      <c r="N19" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="198">
+        <f t="shared" si="6"/>
         <v>0.12996610608242118</v>
       </c>
-      <c r="N19" s="206">
-        <f t="shared" si="1"/>
+      <c r="R19" s="198">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="P19" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="198">
-        <f t="shared" si="4"/>
-        <v>0.12996610608242118</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="19">
@@ -50601,28 +50601,28 @@
         <v>0.31759999999999999</v>
       </c>
       <c r="L20" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M20" s="206">
+        <f t="shared" si="3"/>
+        <v>0.11508558067220598</v>
+      </c>
+      <c r="N20" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="198">
+        <f t="shared" si="6"/>
         <v>0.11508558067220598</v>
       </c>
-      <c r="N20" s="206">
-        <f t="shared" si="1"/>
+      <c r="R20" s="198">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="P20" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="198">
-        <f t="shared" si="4"/>
-        <v>0.11508558067220598</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="19">
@@ -50657,28 +50657,28 @@
         <v>0</v>
       </c>
       <c r="L21" s="206">
-        <f t="shared" si="0"/>
-        <v>2549.3734813806341</v>
-      </c>
-      <c r="M21" s="206">
-        <f t="shared" si="5"/>
-        <v>0.13689833089338854</v>
-      </c>
-      <c r="N21" s="206">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="P21" s="198">
         <f t="shared" si="2"/>
         <v>2549.3734813806341</v>
       </c>
+      <c r="M21" s="206">
+        <f t="shared" si="3"/>
+        <v>0.13689833089338854</v>
+      </c>
+      <c r="N21" s="206">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="P21" s="198">
+        <f t="shared" si="5"/>
+        <v>2549.3734813806341</v>
+      </c>
       <c r="Q21" s="198">
-        <f t="shared" si="3"/>
-        <v>2549.3734813806341</v>
+        <f t="shared" si="6"/>
+        <v>0.13689833089338854</v>
       </c>
       <c r="R21" s="198">
-        <f t="shared" si="4"/>
-        <v>0.13689833089338854</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="19">
@@ -50713,27 +50713,27 @@
         <v>0</v>
       </c>
       <c r="L22" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N22" s="206">
-        <f t="shared" si="1"/>
+      <c r="Q22" s="198">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P22" s="198">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R22" s="198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50769,28 +50769,28 @@
         <v>0</v>
       </c>
       <c r="L23" s="206">
-        <f t="shared" si="0"/>
-        <v>1212.3252477726548</v>
-      </c>
-      <c r="M23" s="206">
-        <f t="shared" si="5"/>
-        <v>0.15554628864634357</v>
-      </c>
-      <c r="N23" s="206">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="198">
         <f t="shared" si="2"/>
         <v>1212.3252477726548</v>
       </c>
+      <c r="M23" s="206">
+        <f t="shared" si="3"/>
+        <v>0.15554628864634357</v>
+      </c>
+      <c r="N23" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="198">
+        <f t="shared" si="5"/>
+        <v>1212.3252477726548</v>
+      </c>
       <c r="Q23" s="198">
-        <f t="shared" si="3"/>
-        <v>1212.3252477726548</v>
+        <f t="shared" si="6"/>
+        <v>0.15554628864634357</v>
       </c>
       <c r="R23" s="198">
-        <f t="shared" si="4"/>
-        <v>0.15554628864634357</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="19">
@@ -50825,28 +50825,28 @@
         <v>0</v>
       </c>
       <c r="L24" s="206">
-        <f t="shared" si="0"/>
-        <v>1212.3252477726548</v>
-      </c>
-      <c r="M24" s="206">
-        <f t="shared" si="5"/>
-        <v>0.15554628864634357</v>
-      </c>
-      <c r="N24" s="206">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="198">
         <f t="shared" si="2"/>
         <v>1212.3252477726548</v>
       </c>
+      <c r="M24" s="206">
+        <f t="shared" si="3"/>
+        <v>0.15554628864634357</v>
+      </c>
+      <c r="N24" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="198">
+        <f t="shared" si="5"/>
+        <v>1212.3252477726548</v>
+      </c>
       <c r="Q24" s="198">
-        <f t="shared" si="3"/>
-        <v>1212.3252477726548</v>
+        <f t="shared" si="6"/>
+        <v>0.15554628864634357</v>
       </c>
       <c r="R24" s="198">
-        <f t="shared" si="4"/>
-        <v>0.15554628864634357</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="19">
@@ -50881,28 +50881,28 @@
         <v>0.52139999999999997</v>
       </c>
       <c r="L25" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M25" s="206">
+        <f t="shared" si="3"/>
+        <v>0.21859916896124978</v>
+      </c>
+      <c r="N25" s="206">
+        <f t="shared" si="4"/>
+        <v>3.1111128702707055E-5</v>
+      </c>
+      <c r="P25" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="198">
+        <f t="shared" si="6"/>
         <v>0.21859916896124978</v>
       </c>
-      <c r="N25" s="206">
-        <f t="shared" si="1"/>
+      <c r="R25" s="198">
+        <f t="shared" si="7"/>
         <v>3.1111128702707055E-5</v>
-      </c>
-      <c r="P25" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="198">
-        <f t="shared" si="4"/>
-        <v>0.21859916896124978</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="19">
@@ -50937,28 +50937,28 @@
         <v>0.52139999999999997</v>
       </c>
       <c r="L26" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M26" s="206">
+        <f t="shared" si="3"/>
+        <v>0.21347444333081025</v>
+      </c>
+      <c r="N26" s="206">
+        <f t="shared" si="4"/>
+        <v>3.1111128702707055E-5</v>
+      </c>
+      <c r="P26" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="198">
+        <f t="shared" si="6"/>
         <v>0.21347444333081025</v>
       </c>
-      <c r="N26" s="206">
-        <f t="shared" si="1"/>
+      <c r="R26" s="198">
+        <f t="shared" si="7"/>
         <v>3.1111128702707055E-5</v>
-      </c>
-      <c r="P26" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="198">
-        <f t="shared" si="4"/>
-        <v>0.21347444333081025</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="19">
@@ -50993,28 +50993,28 @@
         <v>0</v>
       </c>
       <c r="L27" s="206">
-        <f t="shared" si="0"/>
-        <v>1182.3390945940303</v>
-      </c>
-      <c r="M27" s="206">
-        <f t="shared" si="5"/>
-        <v>0.22817050741333572</v>
-      </c>
-      <c r="N27" s="206">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="198">
         <f t="shared" si="2"/>
         <v>1182.3390945940303</v>
       </c>
+      <c r="M27" s="206">
+        <f t="shared" si="3"/>
+        <v>0.22817050741333572</v>
+      </c>
+      <c r="N27" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="198">
+        <f t="shared" si="5"/>
+        <v>1182.3390945940303</v>
+      </c>
       <c r="Q27" s="198">
-        <f t="shared" si="3"/>
-        <v>1182.3390945940303</v>
+        <f t="shared" si="6"/>
+        <v>0.22817050741333572</v>
       </c>
       <c r="R27" s="198">
-        <f t="shared" si="4"/>
-        <v>0.22817050741333572</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="19">
@@ -51049,27 +51049,27 @@
         <v>0</v>
       </c>
       <c r="L28" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="206">
-        <f t="shared" si="1"/>
+      <c r="Q28" s="198">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P28" s="198">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R28" s="198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51105,27 +51105,27 @@
         <v>0</v>
       </c>
       <c r="L29" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="206">
-        <f t="shared" si="1"/>
+      <c r="Q29" s="198">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P29" s="198">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R29" s="198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51161,27 +51161,27 @@
         <v>0</v>
       </c>
       <c r="L30" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="206">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="198">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="198">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R30" s="198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51217,28 +51217,28 @@
         <v>0.11931789</v>
       </c>
       <c r="L31" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M31" s="206">
+        <f t="shared" si="3"/>
+        <v>0.37698455949137133</v>
+      </c>
+      <c r="N31" s="206">
+        <f t="shared" si="4"/>
+        <v>-6.9712187180349522E-2</v>
+      </c>
+      <c r="P31" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="198">
+        <f t="shared" si="6"/>
         <v>0.37698455949137133</v>
       </c>
-      <c r="N31" s="206">
-        <f t="shared" si="1"/>
-        <v>-6.9712187180349522E-2</v>
-      </c>
-      <c r="P31" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R31" s="198">
-        <f t="shared" si="4"/>
-        <v>0.37698455949137133</v>
+        <f t="shared" si="7"/>
+        <v>6.9712187180349522E-2</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="19">
@@ -51273,28 +51273,28 @@
         <v>4.2042E-3</v>
       </c>
       <c r="L32" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M32" s="206">
+        <f t="shared" si="3"/>
+        <v>18.284271481736848</v>
+      </c>
+      <c r="N32" s="206">
+        <f t="shared" si="4"/>
+        <v>0.32764212192287095</v>
+      </c>
+      <c r="P32" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="198">
+        <f t="shared" si="6"/>
         <v>18.284271481736848</v>
       </c>
-      <c r="N32" s="206">
-        <f t="shared" si="1"/>
+      <c r="R32" s="198">
+        <f t="shared" si="7"/>
         <v>0.32764212192287095</v>
-      </c>
-      <c r="P32" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="198">
-        <f t="shared" si="4"/>
-        <v>18.284271481736848</v>
       </c>
     </row>
     <row r="33" spans="2:18" ht="19">
@@ -51329,28 +51329,28 @@
         <v>0.31623848999999998</v>
       </c>
       <c r="L33" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M33" s="206">
+        <f t="shared" si="3"/>
+        <v>8.406576855266909E-2</v>
+      </c>
+      <c r="N33" s="206">
+        <f t="shared" si="4"/>
+        <v>6.8854740371322082E-2</v>
+      </c>
+      <c r="P33" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="198">
+        <f t="shared" si="6"/>
         <v>8.406576855266909E-2</v>
       </c>
-      <c r="N33" s="206">
-        <f t="shared" si="1"/>
+      <c r="R33" s="198">
+        <f t="shared" si="7"/>
         <v>6.8854740371322082E-2</v>
-      </c>
-      <c r="P33" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="198">
-        <f t="shared" si="4"/>
-        <v>8.406576855266909E-2</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="19">
@@ -51385,28 +51385,28 @@
         <v>3.4034E-3</v>
       </c>
       <c r="L34" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M34" s="206">
+        <f t="shared" si="3"/>
+        <v>17.502707162735504</v>
+      </c>
+      <c r="N34" s="206">
+        <f t="shared" si="4"/>
+        <v>0.3089999979994234</v>
+      </c>
+      <c r="P34" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="198">
+        <f t="shared" si="6"/>
         <v>17.502707162735504</v>
       </c>
-      <c r="N34" s="206">
-        <f t="shared" si="1"/>
+      <c r="R34" s="198">
+        <f t="shared" si="7"/>
         <v>0.3089999979994234</v>
-      </c>
-      <c r="P34" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R34" s="198">
-        <f t="shared" si="4"/>
-        <v>17.502707162735504</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="19">
@@ -51441,28 +51441,28 @@
         <v>0.37580089999999999</v>
       </c>
       <c r="L35" s="206">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M35" s="206">
+        <f t="shared" si="3"/>
+        <v>6.0449229319372015E-2</v>
+      </c>
+      <c r="N35" s="206">
+        <f t="shared" si="4"/>
+        <v>-3.824924930048406E-2</v>
+      </c>
+      <c r="P35" s="198">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="198">
+        <f t="shared" si="6"/>
         <v>6.0449229319372015E-2</v>
       </c>
-      <c r="N35" s="206">
-        <f t="shared" si="1"/>
-        <v>-3.824924930048406E-2</v>
-      </c>
-      <c r="P35" s="198">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="R35" s="198">
-        <f t="shared" si="4"/>
-        <v>6.0449229319372015E-2</v>
+        <f t="shared" si="7"/>
+        <v>3.824924930048406E-2</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="19">
@@ -51497,28 +51497,28 @@
         <v>0.39069999999999999</v>
       </c>
       <c r="L36" s="206">
-        <f t="shared" ref="L36:L52" si="6">+IF(C36&lt;&gt;0,(HI36-C36)/C36,ABS(H36-C36))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M36" s="206">
-        <f t="shared" ref="M36:M53" si="7">+IF(D36&lt;&gt;0,(I36-D36)/D36,0)</f>
+        <f t="shared" si="3"/>
         <v>2.5150588595015993E-2</v>
       </c>
       <c r="N36" s="206">
-        <f t="shared" ref="N36:N53" si="8">+IF(E36&lt;&gt;0,(J36-E36)/E36,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P36" s="198">
-        <f t="shared" ref="P36:P53" si="9">+IF(L36&lt;&gt;"",ABS(L36),0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q36" s="198">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2.5150588595015993E-2</v>
       </c>
       <c r="R36" s="198">
-        <f t="shared" si="4"/>
-        <v>2.5150588595015993E-2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:18" ht="40">
@@ -51553,23 +51553,29 @@
         <v>0.45987637999999997</v>
       </c>
       <c r="L37" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M37" s="206">
+        <f t="shared" si="3"/>
+        <v>8.8118294530985297E-2</v>
+      </c>
+      <c r="N37" s="206">
+        <f t="shared" si="4"/>
+        <v>-1.9950929709099601E-2</v>
+      </c>
+      <c r="P37" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M37" s="206">
+        <v>8.8118294530985297E-2</v>
+      </c>
+      <c r="R37" s="198">
         <f t="shared" si="7"/>
-        <v>8.8118294530985297E-2</v>
-      </c>
-      <c r="N37" s="206">
-        <f t="shared" si="8"/>
-        <v>-1.9950929709099601E-2</v>
-      </c>
-      <c r="P37" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q37" s="198"/>
-      <c r="R37" s="198"/>
+        <v>1.9950929709099601E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:18" ht="20">
       <c r="B38" s="49" t="s">
@@ -51603,28 +51609,28 @@
         <v>0.37829288</v>
       </c>
       <c r="L38" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M38" s="206">
+        <f t="shared" si="3"/>
+        <v>7.7848175002371414E-2</v>
+      </c>
+      <c r="N38" s="206">
+        <f t="shared" si="4"/>
+        <v>4.8774281121721982E-2</v>
+      </c>
+      <c r="P38" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M38" s="206">
+        <v>7.7848175002371414E-2</v>
+      </c>
+      <c r="R38" s="198">
         <f t="shared" si="7"/>
-        <v>7.7848175002371414E-2</v>
-      </c>
-      <c r="N38" s="206">
-        <f t="shared" si="8"/>
         <v>4.8774281121721982E-2</v>
-      </c>
-      <c r="P38" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="198">
-        <f t="shared" ref="Q38:Q53" si="10">+IF(L38&lt;&gt;"",ABS(L38),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R38" s="198">
-        <f t="shared" ref="R38:R53" si="11">+IF(M38&lt;&gt;"",ABS(M38),0)</f>
-        <v>7.7848175002371414E-2</v>
       </c>
     </row>
     <row r="39" spans="2:18" ht="19">
@@ -51659,28 +51665,28 @@
         <v>4.2042E-3</v>
       </c>
       <c r="L39" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M39" s="206">
+        <f t="shared" si="3"/>
+        <v>4.8067846415892053</v>
+      </c>
+      <c r="N39" s="206">
+        <f t="shared" si="4"/>
+        <v>-7.9372265978025533E-2</v>
+      </c>
+      <c r="P39" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M39" s="206">
+        <v>4.8067846415892053</v>
+      </c>
+      <c r="R39" s="198">
         <f t="shared" si="7"/>
-        <v>4.8067846415892053</v>
-      </c>
-      <c r="N39" s="206">
-        <f t="shared" si="8"/>
-        <v>-7.9372265978025533E-2</v>
-      </c>
-      <c r="P39" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R39" s="198">
-        <f t="shared" si="11"/>
-        <v>4.8067846415892053</v>
+        <v>7.9372265978025533E-2</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="19">
@@ -51715,28 +51721,28 @@
         <v>0.46826595999999998</v>
       </c>
       <c r="L40" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M40" s="206">
+        <f t="shared" si="3"/>
+        <v>3.0630918774821748E-2</v>
+      </c>
+      <c r="N40" s="206">
+        <f t="shared" si="4"/>
+        <v>-3.1945810274666944E-3</v>
+      </c>
+      <c r="P40" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M40" s="206">
+        <v>3.0630918774821748E-2</v>
+      </c>
+      <c r="R40" s="198">
         <f t="shared" si="7"/>
-        <v>3.0630918774821748E-2</v>
-      </c>
-      <c r="N40" s="206">
-        <f t="shared" si="8"/>
-        <v>-3.1945810274666944E-3</v>
-      </c>
-      <c r="P40" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R40" s="198">
-        <f t="shared" si="11"/>
-        <v>3.0630918774821748E-2</v>
+        <v>3.1945810274666944E-3</v>
       </c>
     </row>
     <row r="41" spans="2:18" ht="19">
@@ -51771,28 +51777,28 @@
         <v>3.88388E-2</v>
       </c>
       <c r="L41" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M41" s="206">
+        <f t="shared" si="3"/>
+        <v>0.71563483407779982</v>
+      </c>
+      <c r="N41" s="206">
+        <f t="shared" si="4"/>
+        <v>-1.5076936574834492E-2</v>
+      </c>
+      <c r="P41" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M41" s="206">
+        <v>0.71563483407779982</v>
+      </c>
+      <c r="R41" s="198">
         <f t="shared" si="7"/>
-        <v>0.71563483407779982</v>
-      </c>
-      <c r="N41" s="206">
-        <f t="shared" si="8"/>
-        <v>-1.5076936574834492E-2</v>
-      </c>
-      <c r="P41" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R41" s="198">
-        <f t="shared" si="11"/>
-        <v>0.71563483407779982</v>
+        <v>1.5076936574834492E-2</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="19">
@@ -51827,28 +51833,28 @@
         <v>0.55072894999999999</v>
       </c>
       <c r="L42" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M42" s="206">
+        <f t="shared" si="3"/>
+        <v>2.4822966646868973E-2</v>
+      </c>
+      <c r="N42" s="206">
+        <f t="shared" si="4"/>
+        <v>-5.9333357079846182E-2</v>
+      </c>
+      <c r="P42" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M42" s="206">
+        <v>2.4822966646868973E-2</v>
+      </c>
+      <c r="R42" s="198">
         <f t="shared" si="7"/>
-        <v>2.4822966646868973E-2</v>
-      </c>
-      <c r="N42" s="206">
-        <f t="shared" si="8"/>
-        <v>-5.9333357079846182E-2</v>
-      </c>
-      <c r="P42" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R42" s="198">
-        <f t="shared" si="11"/>
-        <v>2.4822966646868973E-2</v>
+        <v>5.9333357079846182E-2</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="19">
@@ -51883,28 +51889,28 @@
         <v>0</v>
       </c>
       <c r="L43" s="206">
+        <f t="shared" si="2"/>
+        <v>19755.202906564547</v>
+      </c>
+      <c r="M43" s="206">
+        <f t="shared" si="3"/>
+        <v>-1.334027785204772E-2</v>
+      </c>
+      <c r="N43" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="198">
+        <f t="shared" si="5"/>
+        <v>19755.202906564547</v>
+      </c>
+      <c r="Q43" s="198">
         <f t="shared" si="6"/>
-        <v>19755.202906564547</v>
-      </c>
-      <c r="M43" s="206">
+        <v>1.334027785204772E-2</v>
+      </c>
+      <c r="R43" s="198">
         <f t="shared" si="7"/>
-        <v>-1.334027785204772E-2</v>
-      </c>
-      <c r="N43" s="206">
-        <f t="shared" si="8"/>
         <v>0</v>
-      </c>
-      <c r="P43" s="198">
-        <f t="shared" si="9"/>
-        <v>19755.202906564547</v>
-      </c>
-      <c r="Q43" s="198">
-        <f t="shared" si="10"/>
-        <v>19755.202906564547</v>
-      </c>
-      <c r="R43" s="198">
-        <f t="shared" si="11"/>
-        <v>1.334027785204772E-2</v>
       </c>
     </row>
     <row r="44" spans="2:18" ht="19">
@@ -51939,28 +51945,28 @@
         <v>0.55072894999999999</v>
       </c>
       <c r="L44" s="206">
+        <f t="shared" si="2"/>
+        <v>206802.74841701213</v>
+      </c>
+      <c r="M44" s="206">
+        <f t="shared" si="3"/>
+        <v>2.204578199984919E-2</v>
+      </c>
+      <c r="N44" s="206">
+        <f t="shared" si="4"/>
+        <v>-5.9333357079846182E-2</v>
+      </c>
+      <c r="P44" s="198">
+        <f t="shared" si="5"/>
+        <v>206802.74841701213</v>
+      </c>
+      <c r="Q44" s="198">
         <f t="shared" si="6"/>
-        <v>206802.74841701213</v>
-      </c>
-      <c r="M44" s="206">
+        <v>2.204578199984919E-2</v>
+      </c>
+      <c r="R44" s="198">
         <f t="shared" si="7"/>
-        <v>2.204578199984919E-2</v>
-      </c>
-      <c r="N44" s="206">
-        <f t="shared" si="8"/>
-        <v>-5.9333357079846182E-2</v>
-      </c>
-      <c r="P44" s="198">
-        <f t="shared" si="9"/>
-        <v>206802.74841701213</v>
-      </c>
-      <c r="Q44" s="198">
-        <f t="shared" si="10"/>
-        <v>206802.74841701213</v>
-      </c>
-      <c r="R44" s="198">
-        <f t="shared" si="11"/>
-        <v>2.204578199984919E-2</v>
+        <v>5.9333357079846182E-2</v>
       </c>
     </row>
     <row r="45" spans="2:18" ht="19">
@@ -51995,28 +52001,28 @@
         <v>0.46483469999999999</v>
       </c>
       <c r="L45" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M45" s="206">
+        <f t="shared" si="3"/>
+        <v>-8.8127808020676251E-3</v>
+      </c>
+      <c r="N45" s="206">
+        <f t="shared" si="4"/>
+        <v>1.4996801947047682E-2</v>
+      </c>
+      <c r="P45" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M45" s="206">
+        <v>8.8127808020676251E-3</v>
+      </c>
+      <c r="R45" s="198">
         <f t="shared" si="7"/>
-        <v>-8.8127808020676251E-3</v>
-      </c>
-      <c r="N45" s="206">
-        <f t="shared" si="8"/>
         <v>1.4996801947047682E-2</v>
-      </c>
-      <c r="P45" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R45" s="198">
-        <f t="shared" si="11"/>
-        <v>8.8127808020676251E-3</v>
       </c>
     </row>
     <row r="46" spans="2:18" ht="19">
@@ -52051,28 +52057,28 @@
         <v>0.63746409999999998</v>
       </c>
       <c r="L46" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M46" s="206">
+        <f t="shared" si="3"/>
+        <v>1.3061618788612879E-2</v>
+      </c>
+      <c r="N46" s="206">
+        <f t="shared" si="4"/>
+        <v>-6.6101303740881039E-3</v>
+      </c>
+      <c r="P46" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M46" s="206">
+        <v>1.3061618788612879E-2</v>
+      </c>
+      <c r="R46" s="198">
         <f t="shared" si="7"/>
-        <v>1.3061618788612879E-2</v>
-      </c>
-      <c r="N46" s="206">
-        <f t="shared" si="8"/>
-        <v>-6.6101303740881039E-3</v>
-      </c>
-      <c r="P46" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q46" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R46" s="198">
-        <f t="shared" si="11"/>
-        <v>1.3061618788612879E-2</v>
+        <v>6.6101303740881039E-3</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="19">
@@ -52107,28 +52113,28 @@
         <v>0.46496517999999998</v>
       </c>
       <c r="L47" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M47" s="206">
+        <f t="shared" si="3"/>
+        <v>3.4409070685484613E-2</v>
+      </c>
+      <c r="N47" s="206">
+        <f t="shared" si="4"/>
+        <v>1.995870006678226E-2</v>
+      </c>
+      <c r="P47" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M47" s="206">
+        <v>3.4409070685484613E-2</v>
+      </c>
+      <c r="R47" s="198">
         <f t="shared" si="7"/>
-        <v>3.4409070685484613E-2</v>
-      </c>
-      <c r="N47" s="206">
-        <f t="shared" si="8"/>
         <v>1.995870006678226E-2</v>
-      </c>
-      <c r="P47" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R47" s="198">
-        <f t="shared" si="11"/>
-        <v>3.4409070685484613E-2</v>
       </c>
     </row>
     <row r="48" spans="2:18" ht="19">
@@ -52163,27 +52169,27 @@
         <v>0</v>
       </c>
       <c r="L48" s="206">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="198">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="198">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M48" s="206">
+      <c r="R48" s="198">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="206">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="198">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="198">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="198">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -52219,28 +52225,28 @@
         <v>0.64250503000000003</v>
       </c>
       <c r="L49" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M49" s="206">
+        <f t="shared" si="3"/>
+        <v>1.2966723949382869E-2</v>
+      </c>
+      <c r="N49" s="206">
+        <f t="shared" si="4"/>
+        <v>2.441392349890228E-4</v>
+      </c>
+      <c r="P49" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M49" s="206">
+        <v>1.2966723949382869E-2</v>
+      </c>
+      <c r="R49" s="198">
         <f t="shared" si="7"/>
-        <v>1.2966723949382869E-2</v>
-      </c>
-      <c r="N49" s="206">
-        <f t="shared" si="8"/>
         <v>2.441392349890228E-4</v>
-      </c>
-      <c r="P49" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R49" s="198">
-        <f t="shared" si="11"/>
-        <v>1.2966723949382869E-2</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="19">
@@ -52275,28 +52281,28 @@
         <v>5.9816920000000003E-2</v>
       </c>
       <c r="L50" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M50" s="206">
+        <f t="shared" si="3"/>
+        <v>0.81055853866942196</v>
+      </c>
+      <c r="N50" s="206">
+        <f t="shared" si="4"/>
+        <v>2.6512857892153907E-2</v>
+      </c>
+      <c r="P50" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M50" s="206">
+        <v>0.81055853866942196</v>
+      </c>
+      <c r="R50" s="198">
         <f t="shared" si="7"/>
-        <v>0.81055853866942196</v>
-      </c>
-      <c r="N50" s="206">
-        <f t="shared" si="8"/>
         <v>2.6512857892153907E-2</v>
-      </c>
-      <c r="P50" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q50" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R50" s="198">
-        <f t="shared" si="11"/>
-        <v>0.81055853866942196</v>
       </c>
     </row>
     <row r="51" spans="2:18" ht="19">
@@ -52331,28 +52337,28 @@
         <v>0.38447167792999998</v>
       </c>
       <c r="L51" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M51" s="206">
+        <f t="shared" si="3"/>
+        <v>-4.3637149209278941E-2</v>
+      </c>
+      <c r="N51" s="206">
+        <f t="shared" si="4"/>
+        <v>5.3347062821917771E-2</v>
+      </c>
+      <c r="P51" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M51" s="206">
+        <v>4.3637149209278941E-2</v>
+      </c>
+      <c r="R51" s="198">
         <f t="shared" si="7"/>
-        <v>-4.3637149209278941E-2</v>
-      </c>
-      <c r="N51" s="206">
-        <f t="shared" si="8"/>
         <v>5.3347062821917771E-2</v>
-      </c>
-      <c r="P51" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q51" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R51" s="198">
-        <f t="shared" si="11"/>
-        <v>4.3637149209278941E-2</v>
       </c>
     </row>
     <row r="52" spans="2:18" ht="19">
@@ -52387,28 +52393,28 @@
         <v>0.33520926280000002</v>
       </c>
       <c r="L52" s="206">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="M52" s="206">
+        <f t="shared" si="3"/>
+        <v>3.009419718703641E-2</v>
+      </c>
+      <c r="N52" s="206">
+        <f t="shared" si="4"/>
+        <v>1.7635891924711572E-2</v>
+      </c>
+      <c r="P52" s="198">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="198">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="M52" s="206">
+        <v>3.009419718703641E-2</v>
+      </c>
+      <c r="R52" s="198">
         <f t="shared" si="7"/>
-        <v>3.009419718703641E-2</v>
-      </c>
-      <c r="N52" s="206">
-        <f t="shared" si="8"/>
         <v>1.7635891924711572E-2</v>
-      </c>
-      <c r="P52" s="198">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="R52" s="198">
-        <f t="shared" si="11"/>
-        <v>3.009419718703641E-2</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="19">
@@ -52443,29 +52449,29 @@
         <v>0.32195351</v>
       </c>
       <c r="L53" s="206">
-        <f>+IF(C53&lt;&gt;0,(HI53-C53)/C53,ABS(H53-C53))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="M53" s="206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6.1835453079170967E-2</v>
       </c>
       <c r="N53" s="206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>-2.2606223436551387E-2</v>
       </c>
       <c r="O53" s="208"/>
       <c r="P53" s="198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q53" s="198">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>6.1835453079170967E-2</v>
       </c>
       <c r="R53" s="198">
-        <f t="shared" si="11"/>
-        <v>6.1835453079170967E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.2606223436551387E-2</v>
       </c>
     </row>
     <row r="54" spans="2:18">
@@ -52517,7 +52523,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D6FE2-8D12-2044-947D-B42E4EE87531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811748A-BD18-7446-97BF-ABCE9BBB8A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilidad" sheetId="10" r:id="rId1"/>
@@ -2285,237 +2285,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2532,6 +2301,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2578,6 +2353,231 @@
     </xf>
     <xf numFmtId="167" fontId="17" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -47773,7 +47773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AA95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E31" zoomScale="114" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
@@ -49587,8 +49587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B33E5-7676-1F47-BBE6-CFF6D81A466B}">
   <dimension ref="B2:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49705,20 +49705,20 @@
         <v>0.58768039000000005</v>
       </c>
       <c r="L4" s="206">
-        <f>+IF(C4&lt;&gt;0,(HI4-C4)/C4,ABS(H4-C4))</f>
-        <v>-1</v>
+        <f>+IF(C4&lt;&gt;0,(H4-C4)/C4,ABS(H4-C4))</f>
+        <v>3.0676983540621161</v>
       </c>
       <c r="M4" s="206">
         <f>+IF(D4&lt;&gt;0,(I4-D4)/D4,0)</f>
         <v>4.1405909449001195E-2</v>
       </c>
       <c r="N4" s="206">
-        <f t="shared" ref="N4:N35" si="0">+IF(E4&lt;&gt;0,(J4-E4)/E4,0)</f>
+        <f>+IF(E4&lt;&gt;0,(J4-E4)/E4,0)</f>
         <v>-5.6169373942468997E-3</v>
       </c>
       <c r="P4" s="198">
-        <f t="shared" ref="P4:P35" si="1">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
-        <v>1</v>
+        <f t="shared" ref="P4" si="0">+IF(L4&lt;&gt;"",ABS(L4),0)</f>
+        <v>3.0676983540621161</v>
       </c>
       <c r="Q4" s="198">
         <f>+IF(L4&lt;&gt;"",ABS(M4),0)</f>
@@ -49761,27 +49761,27 @@
         <v>0.59307511000000002</v>
       </c>
       <c r="L5" s="206">
-        <f t="shared" ref="L5:L53" si="2">+IF(C5&lt;&gt;0,(HI5-C5)/C5,ABS(H5-C5))</f>
-        <v>-1</v>
+        <f t="shared" ref="L5:L53" si="1">+IF(C5&lt;&gt;0,(H5-C5)/C5,ABS(H5-C5))</f>
+        <v>2.3098560156911696</v>
       </c>
       <c r="M5" s="206">
-        <f t="shared" ref="M5:M53" si="3">+IF(D5&lt;&gt;0,(I5-D5)/D5,0)</f>
+        <f t="shared" ref="M5:M53" si="2">+IF(D5&lt;&gt;0,(I5-D5)/D5,0)</f>
         <v>3.8688718624335448E-2</v>
       </c>
       <c r="N5" s="206">
-        <f t="shared" ref="N5:N53" si="4">+IF(E5&lt;&gt;0,(J5-E5)/E5,0)</f>
+        <f t="shared" ref="N5:N53" si="3">+IF(E5&lt;&gt;0,(J5-E5)/E5,0)</f>
         <v>3.5111844331642077E-3</v>
       </c>
       <c r="P5" s="198">
-        <f t="shared" ref="P5:P53" si="5">+IF(L5&lt;&gt;"",ABS(L5),0)</f>
-        <v>1</v>
+        <f t="shared" ref="P5:P53" si="4">+IF(L5&lt;&gt;"",ABS(L5),0)</f>
+        <v>2.3098560156911696</v>
       </c>
       <c r="Q5" s="198">
-        <f t="shared" ref="Q5:Q53" si="6">+IF(L5&lt;&gt;"",ABS(M5),0)</f>
+        <f t="shared" ref="Q5:Q53" si="5">+IF(L5&lt;&gt;"",ABS(M5),0)</f>
         <v>3.8688718624335448E-2</v>
       </c>
       <c r="R5" s="198">
-        <f t="shared" ref="R5:R53" si="7">+IF(M5&lt;&gt;"",ABS(N5),0)</f>
+        <f t="shared" ref="R5:R53" si="6">+IF(M5&lt;&gt;"",ABS(N5),0)</f>
         <v>3.5111844331642077E-3</v>
       </c>
     </row>
@@ -49817,27 +49817,27 @@
         <v>0.57925305999999999</v>
       </c>
       <c r="L6" s="206">
+        <f t="shared" si="1"/>
+        <v>4.2986403861625098</v>
+      </c>
+      <c r="M6" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M6" s="206">
+        <v>4.4993216102714416E-2</v>
+      </c>
+      <c r="N6" s="206">
         <f t="shared" si="3"/>
+        <v>-1.9876379018612493E-2</v>
+      </c>
+      <c r="P6" s="198">
+        <f t="shared" si="4"/>
+        <v>4.2986403861625098</v>
+      </c>
+      <c r="Q6" s="198">
+        <f t="shared" si="5"/>
         <v>4.4993216102714416E-2</v>
       </c>
-      <c r="N6" s="206">
-        <f t="shared" si="4"/>
-        <v>-1.9876379018612493E-2</v>
-      </c>
-      <c r="P6" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="198">
+      <c r="R6" s="198">
         <f t="shared" si="6"/>
-        <v>4.4993216102714416E-2</v>
-      </c>
-      <c r="R6" s="198">
-        <f t="shared" si="7"/>
         <v>1.9876379018612493E-2</v>
       </c>
     </row>
@@ -49873,27 +49873,27 @@
         <v>0.39880441999999999</v>
       </c>
       <c r="L7" s="206">
+        <f t="shared" si="1"/>
+        <v>1.0544440895650886</v>
+      </c>
+      <c r="M7" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M7" s="206">
+        <v>7.4513148388496306E-2</v>
+      </c>
+      <c r="N7" s="206">
         <f t="shared" si="3"/>
+        <v>-9.4688806237575279E-4</v>
+      </c>
+      <c r="P7" s="198">
+        <f t="shared" si="4"/>
+        <v>1.0544440895650886</v>
+      </c>
+      <c r="Q7" s="198">
+        <f t="shared" si="5"/>
         <v>7.4513148388496306E-2</v>
       </c>
-      <c r="N7" s="206">
-        <f t="shared" si="4"/>
-        <v>-9.4688806237575279E-4</v>
-      </c>
-      <c r="P7" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="198">
+      <c r="R7" s="198">
         <f t="shared" si="6"/>
-        <v>7.4513148388496306E-2</v>
-      </c>
-      <c r="R7" s="198">
-        <f t="shared" si="7"/>
         <v>9.4688806237575279E-4</v>
       </c>
     </row>
@@ -49929,27 +49929,27 @@
         <v>0.39959577000000002</v>
       </c>
       <c r="L8" s="206">
+        <f t="shared" si="1"/>
+        <v>0.93222302835738957</v>
+      </c>
+      <c r="M8" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M8" s="206">
+        <v>7.1447232006110917E-2</v>
+      </c>
+      <c r="N8" s="206">
         <f t="shared" si="3"/>
+        <v>1.0355390133619307E-3</v>
+      </c>
+      <c r="P8" s="198">
+        <f t="shared" si="4"/>
+        <v>0.93222302835738957</v>
+      </c>
+      <c r="Q8" s="198">
+        <f t="shared" si="5"/>
         <v>7.1447232006110917E-2</v>
       </c>
-      <c r="N8" s="206">
-        <f t="shared" si="4"/>
-        <v>1.0355390133619307E-3</v>
-      </c>
-      <c r="P8" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="198">
+      <c r="R8" s="198">
         <f t="shared" si="6"/>
-        <v>7.1447232006110917E-2</v>
-      </c>
-      <c r="R8" s="198">
-        <f t="shared" si="7"/>
         <v>1.0355390133619307E-3</v>
       </c>
     </row>
@@ -49985,27 +49985,27 @@
         <v>0.39119431999999998</v>
       </c>
       <c r="L9" s="206">
+        <f t="shared" si="1"/>
+        <v>2.2153718080032188</v>
+      </c>
+      <c r="M9" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M9" s="206">
+        <v>9.2342680552733189E-2</v>
+      </c>
+      <c r="N9" s="206">
         <f t="shared" si="3"/>
+        <v>-2.0011105272296652E-2</v>
+      </c>
+      <c r="P9" s="198">
+        <f t="shared" si="4"/>
+        <v>2.2153718080032188</v>
+      </c>
+      <c r="Q9" s="198">
+        <f t="shared" si="5"/>
         <v>9.2342680552733189E-2</v>
       </c>
-      <c r="N9" s="206">
-        <f t="shared" si="4"/>
-        <v>-2.0011105272296652E-2</v>
-      </c>
-      <c r="P9" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="198">
+      <c r="R9" s="198">
         <f t="shared" si="6"/>
-        <v>9.2342680552733189E-2</v>
-      </c>
-      <c r="R9" s="198">
-        <f t="shared" si="7"/>
         <v>2.0011105272296652E-2</v>
       </c>
     </row>
@@ -50041,27 +50041,27 @@
         <v>0.47350174</v>
       </c>
       <c r="L10" s="206">
+        <f t="shared" si="1"/>
+        <v>-0.5148647088628181</v>
+      </c>
+      <c r="M10" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M10" s="206">
+        <v>6.1975877151343402E-2</v>
+      </c>
+      <c r="N10" s="206">
         <f t="shared" si="3"/>
+        <v>-6.2950612072603339E-4</v>
+      </c>
+      <c r="P10" s="198">
+        <f t="shared" si="4"/>
+        <v>0.5148647088628181</v>
+      </c>
+      <c r="Q10" s="198">
+        <f t="shared" si="5"/>
         <v>6.1975877151343402E-2</v>
       </c>
-      <c r="N10" s="206">
-        <f t="shared" si="4"/>
-        <v>-6.2950612072603339E-4</v>
-      </c>
-      <c r="P10" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="198">
+      <c r="R10" s="198">
         <f t="shared" si="6"/>
-        <v>6.1975877151343402E-2</v>
-      </c>
-      <c r="R10" s="198">
-        <f t="shared" si="7"/>
         <v>6.2950612072603339E-4</v>
       </c>
     </row>
@@ -50097,27 +50097,27 @@
         <v>0.47399819999999998</v>
       </c>
       <c r="L11" s="206">
+        <f t="shared" si="1"/>
+        <v>-0.26277966141448417</v>
+      </c>
+      <c r="M11" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M11" s="206">
+        <v>6.6659994289587285E-2</v>
+      </c>
+      <c r="N11" s="206">
         <f t="shared" si="3"/>
+        <v>4.1831996623043844E-4</v>
+      </c>
+      <c r="P11" s="198">
+        <f t="shared" si="4"/>
+        <v>0.26277966141448417</v>
+      </c>
+      <c r="Q11" s="198">
+        <f t="shared" si="5"/>
         <v>6.6659994289587285E-2</v>
       </c>
-      <c r="N11" s="206">
-        <f t="shared" si="4"/>
-        <v>4.1831996623043844E-4</v>
-      </c>
-      <c r="P11" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="198">
+      <c r="R11" s="198">
         <f t="shared" si="6"/>
-        <v>6.6659994289587285E-2</v>
-      </c>
-      <c r="R11" s="198">
-        <f t="shared" si="7"/>
         <v>4.1831996623043844E-4</v>
       </c>
     </row>
@@ -50153,27 +50153,27 @@
         <v>0.46432030000000002</v>
       </c>
       <c r="L12" s="206">
+        <f t="shared" si="1"/>
+        <v>21.87025223072952</v>
+      </c>
+      <c r="M12" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M12" s="206">
+        <v>6.456070493435509E-2</v>
+      </c>
+      <c r="N12" s="206">
         <f t="shared" si="3"/>
+        <v>-2.0007809202194977E-2</v>
+      </c>
+      <c r="P12" s="198">
+        <f t="shared" si="4"/>
+        <v>21.87025223072952</v>
+      </c>
+      <c r="Q12" s="198">
+        <f t="shared" si="5"/>
         <v>6.456070493435509E-2</v>
       </c>
-      <c r="N12" s="206">
-        <f t="shared" si="4"/>
-        <v>-2.0007809202194977E-2</v>
-      </c>
-      <c r="P12" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="198">
+      <c r="R12" s="198">
         <f t="shared" si="6"/>
-        <v>6.456070493435509E-2</v>
-      </c>
-      <c r="R12" s="198">
-        <f t="shared" si="7"/>
         <v>2.0007809202194977E-2</v>
       </c>
     </row>
@@ -50209,27 +50209,27 @@
         <v>0.33520926000000001</v>
       </c>
       <c r="L13" s="206">
+        <f t="shared" si="1"/>
+        <v>2.1938594386522126</v>
+      </c>
+      <c r="M13" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M13" s="206">
+        <v>4.7194594972213781E-2</v>
+      </c>
+      <c r="N13" s="206">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="198">
+        <f t="shared" si="4"/>
+        <v>2.1938594386522126</v>
+      </c>
+      <c r="Q13" s="198">
+        <f t="shared" si="5"/>
         <v>4.7194594972213781E-2</v>
       </c>
-      <c r="N13" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="198">
+      <c r="R13" s="198">
         <f t="shared" si="6"/>
-        <v>4.7194594972213781E-2</v>
-      </c>
-      <c r="R13" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50265,27 +50265,27 @@
         <v>0.33628081999999998</v>
       </c>
       <c r="L14" s="206">
+        <f t="shared" si="1"/>
+        <v>1.2472089793925221</v>
+      </c>
+      <c r="M14" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M14" s="206">
+        <v>3.8943150119865148E-2</v>
+      </c>
+      <c r="N14" s="206">
         <f t="shared" si="3"/>
+        <v>2.3530117181555232E-2</v>
+      </c>
+      <c r="P14" s="198">
+        <f t="shared" si="4"/>
+        <v>1.2472089793925221</v>
+      </c>
+      <c r="Q14" s="198">
+        <f t="shared" si="5"/>
         <v>3.8943150119865148E-2</v>
       </c>
-      <c r="N14" s="206">
-        <f t="shared" si="4"/>
-        <v>2.3530117181555232E-2</v>
-      </c>
-      <c r="P14" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="198">
+      <c r="R14" s="198">
         <f t="shared" si="6"/>
-        <v>3.8943150119865148E-2</v>
-      </c>
-      <c r="R14" s="198">
-        <f t="shared" si="7"/>
         <v>2.3530117181555232E-2</v>
       </c>
     </row>
@@ -50321,27 +50321,27 @@
         <v>0.32195351</v>
       </c>
       <c r="L15" s="206">
+        <f t="shared" si="1"/>
+        <v>13.451119721212953</v>
+      </c>
+      <c r="M15" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="206">
+        <v>6.4134133408705982E-2</v>
+      </c>
+      <c r="N15" s="206">
         <f t="shared" si="3"/>
+        <v>-2.0077583320651377E-2</v>
+      </c>
+      <c r="P15" s="198">
+        <f t="shared" si="4"/>
+        <v>13.451119721212953</v>
+      </c>
+      <c r="Q15" s="198">
+        <f t="shared" si="5"/>
         <v>6.4134133408705982E-2</v>
       </c>
-      <c r="N15" s="206">
-        <f t="shared" si="4"/>
-        <v>-2.0077583320651377E-2</v>
-      </c>
-      <c r="P15" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="198">
+      <c r="R15" s="198">
         <f t="shared" si="6"/>
-        <v>6.4134133408705982E-2</v>
-      </c>
-      <c r="R15" s="198">
-        <f t="shared" si="7"/>
         <v>2.0077583320651377E-2</v>
       </c>
     </row>
@@ -50377,27 +50377,27 @@
         <v>0</v>
       </c>
       <c r="L16" s="206">
+        <f>+IF(C16&lt;&gt;0,(H16-C16)/C16,ABS(H16-C16))</f>
+        <v>4912.678760896395</v>
+      </c>
+      <c r="M16" s="206">
         <f t="shared" si="2"/>
+        <v>0.26582729656006804</v>
+      </c>
+      <c r="N16" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="198">
+        <f t="shared" si="4"/>
         <v>4912.678760896395</v>
       </c>
-      <c r="M16" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="198">
+        <f t="shared" si="5"/>
         <v>0.26582729656006804</v>
       </c>
-      <c r="N16" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="198">
-        <f t="shared" si="5"/>
-        <v>4912.678760896395</v>
-      </c>
-      <c r="Q16" s="198">
+      <c r="R16" s="198">
         <f t="shared" si="6"/>
-        <v>0.26582729656006804</v>
-      </c>
-      <c r="R16" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50433,27 +50433,27 @@
         <v>0</v>
       </c>
       <c r="L17" s="206">
+        <f t="shared" si="1"/>
+        <v>2568.8886123594707</v>
+      </c>
+      <c r="M17" s="206">
         <f t="shared" si="2"/>
+        <v>0.25508053750246568</v>
+      </c>
+      <c r="N17" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="198">
+        <f t="shared" si="4"/>
         <v>2568.8886123594707</v>
       </c>
-      <c r="M17" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q17" s="198">
+        <f t="shared" si="5"/>
         <v>0.25508053750246568</v>
       </c>
-      <c r="N17" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="198">
-        <f t="shared" si="5"/>
-        <v>2568.8886123594707</v>
-      </c>
-      <c r="Q17" s="198">
+      <c r="R17" s="198">
         <f t="shared" si="6"/>
-        <v>0.25508053750246568</v>
-      </c>
-      <c r="R17" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50489,27 +50489,27 @@
         <v>0</v>
       </c>
       <c r="L18" s="206">
+        <f t="shared" si="1"/>
+        <v>2343.7901485370808</v>
+      </c>
+      <c r="M18" s="206">
         <f t="shared" si="2"/>
+        <v>0.27839190510251716</v>
+      </c>
+      <c r="N18" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="198">
+        <f t="shared" si="4"/>
         <v>2343.7901485370808</v>
       </c>
-      <c r="M18" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="198">
+        <f t="shared" si="5"/>
         <v>0.27839190510251716</v>
       </c>
-      <c r="N18" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="198">
-        <f t="shared" si="5"/>
-        <v>2343.7901485370808</v>
-      </c>
-      <c r="Q18" s="198">
+      <c r="R18" s="198">
         <f t="shared" si="6"/>
-        <v>0.27839190510251716</v>
-      </c>
-      <c r="R18" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50545,27 +50545,27 @@
         <v>0.31759999999999999</v>
       </c>
       <c r="L19" s="206">
+        <f t="shared" si="1"/>
+        <v>66.911091174606028</v>
+      </c>
+      <c r="M19" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M19" s="206">
+        <v>0.12996610608242118</v>
+      </c>
+      <c r="N19" s="206">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="198">
+        <f t="shared" si="4"/>
+        <v>66.911091174606028</v>
+      </c>
+      <c r="Q19" s="198">
+        <f t="shared" si="5"/>
         <v>0.12996610608242118</v>
       </c>
-      <c r="N19" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="198">
+      <c r="R19" s="198">
         <f t="shared" si="6"/>
-        <v>0.12996610608242118</v>
-      </c>
-      <c r="R19" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50601,27 +50601,27 @@
         <v>0.31759999999999999</v>
       </c>
       <c r="L20" s="206">
+        <f t="shared" si="1"/>
+        <v>19.700471149039352</v>
+      </c>
+      <c r="M20" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M20" s="206">
+        <v>0.11508558067220598</v>
+      </c>
+      <c r="N20" s="206">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="198">
+        <f t="shared" si="4"/>
+        <v>19.700471149039352</v>
+      </c>
+      <c r="Q20" s="198">
+        <f t="shared" si="5"/>
         <v>0.11508558067220598</v>
       </c>
-      <c r="N20" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="198">
+      <c r="R20" s="198">
         <f t="shared" si="6"/>
-        <v>0.11508558067220598</v>
-      </c>
-      <c r="R20" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50657,27 +50657,27 @@
         <v>0</v>
       </c>
       <c r="L21" s="206">
+        <f t="shared" si="1"/>
+        <v>2549.3734813806341</v>
+      </c>
+      <c r="M21" s="206">
         <f t="shared" si="2"/>
+        <v>0.13689833089338854</v>
+      </c>
+      <c r="N21" s="206">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P21" s="198">
+        <f t="shared" si="4"/>
         <v>2549.3734813806341</v>
       </c>
-      <c r="M21" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q21" s="198">
+        <f t="shared" si="5"/>
         <v>0.13689833089338854</v>
       </c>
-      <c r="N21" s="206">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="P21" s="198">
-        <f t="shared" si="5"/>
-        <v>2549.3734813806341</v>
-      </c>
-      <c r="Q21" s="198">
+      <c r="R21" s="198">
         <f t="shared" si="6"/>
-        <v>0.13689833089338854</v>
-      </c>
-      <c r="R21" s="198">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -50713,27 +50713,27 @@
         <v>0</v>
       </c>
       <c r="L22" s="206">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="206">
+      <c r="N22" s="206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N22" s="206">
+      <c r="P22" s="198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P22" s="198">
+      <c r="Q22" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="198">
+      <c r="R22" s="198">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50769,27 +50769,27 @@
         <v>0</v>
       </c>
       <c r="L23" s="206">
+        <f t="shared" si="1"/>
+        <v>1212.3252477726548</v>
+      </c>
+      <c r="M23" s="206">
         <f t="shared" si="2"/>
+        <v>0.15554628864634357</v>
+      </c>
+      <c r="N23" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="198">
+        <f t="shared" si="4"/>
         <v>1212.3252477726548</v>
       </c>
-      <c r="M23" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q23" s="198">
+        <f t="shared" si="5"/>
         <v>0.15554628864634357</v>
       </c>
-      <c r="N23" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="198">
-        <f t="shared" si="5"/>
-        <v>1212.3252477726548</v>
-      </c>
-      <c r="Q23" s="198">
+      <c r="R23" s="198">
         <f t="shared" si="6"/>
-        <v>0.15554628864634357</v>
-      </c>
-      <c r="R23" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50825,27 +50825,27 @@
         <v>0</v>
       </c>
       <c r="L24" s="206">
+        <f t="shared" si="1"/>
+        <v>1212.3252477726548</v>
+      </c>
+      <c r="M24" s="206">
         <f t="shared" si="2"/>
+        <v>0.15554628864634357</v>
+      </c>
+      <c r="N24" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="198">
+        <f t="shared" si="4"/>
         <v>1212.3252477726548</v>
       </c>
-      <c r="M24" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q24" s="198">
+        <f t="shared" si="5"/>
         <v>0.15554628864634357</v>
       </c>
-      <c r="N24" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="198">
-        <f t="shared" si="5"/>
-        <v>1212.3252477726548</v>
-      </c>
-      <c r="Q24" s="198">
+      <c r="R24" s="198">
         <f t="shared" si="6"/>
-        <v>0.15554628864634357</v>
-      </c>
-      <c r="R24" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -50881,27 +50881,27 @@
         <v>0.52139999999999997</v>
       </c>
       <c r="L25" s="206">
+        <f t="shared" si="1"/>
+        <v>0.35867475508326024</v>
+      </c>
+      <c r="M25" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M25" s="206">
+        <v>0.21859916896124978</v>
+      </c>
+      <c r="N25" s="206">
         <f t="shared" si="3"/>
+        <v>3.1111128702707055E-5</v>
+      </c>
+      <c r="P25" s="198">
+        <f t="shared" si="4"/>
+        <v>0.35867475508326024</v>
+      </c>
+      <c r="Q25" s="198">
+        <f t="shared" si="5"/>
         <v>0.21859916896124978</v>
       </c>
-      <c r="N25" s="206">
-        <f t="shared" si="4"/>
-        <v>3.1111128702707055E-5</v>
-      </c>
-      <c r="P25" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="198">
+      <c r="R25" s="198">
         <f t="shared" si="6"/>
-        <v>0.21859916896124978</v>
-      </c>
-      <c r="R25" s="198">
-        <f t="shared" si="7"/>
         <v>3.1111128702707055E-5</v>
       </c>
     </row>
@@ -50937,27 +50937,27 @@
         <v>0.52139999999999997</v>
       </c>
       <c r="L26" s="206">
+        <f t="shared" si="1"/>
+        <v>-0.13141398878991267</v>
+      </c>
+      <c r="M26" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M26" s="206">
+        <v>0.21347444333081025</v>
+      </c>
+      <c r="N26" s="206">
         <f t="shared" si="3"/>
+        <v>3.1111128702707055E-5</v>
+      </c>
+      <c r="P26" s="198">
+        <f t="shared" si="4"/>
+        <v>0.13141398878991267</v>
+      </c>
+      <c r="Q26" s="198">
+        <f t="shared" si="5"/>
         <v>0.21347444333081025</v>
       </c>
-      <c r="N26" s="206">
-        <f t="shared" si="4"/>
-        <v>3.1111128702707055E-5</v>
-      </c>
-      <c r="P26" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="198">
+      <c r="R26" s="198">
         <f t="shared" si="6"/>
-        <v>0.21347444333081025</v>
-      </c>
-      <c r="R26" s="198">
-        <f t="shared" si="7"/>
         <v>3.1111128702707055E-5</v>
       </c>
     </row>
@@ -50993,27 +50993,27 @@
         <v>0</v>
       </c>
       <c r="L27" s="206">
+        <f t="shared" si="1"/>
+        <v>1182.3390945940303</v>
+      </c>
+      <c r="M27" s="206">
         <f t="shared" si="2"/>
+        <v>0.22817050741333572</v>
+      </c>
+      <c r="N27" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="198">
+        <f t="shared" si="4"/>
         <v>1182.3390945940303</v>
       </c>
-      <c r="M27" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q27" s="198">
+        <f t="shared" si="5"/>
         <v>0.22817050741333572</v>
       </c>
-      <c r="N27" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="198">
-        <f t="shared" si="5"/>
-        <v>1182.3390945940303</v>
-      </c>
-      <c r="Q27" s="198">
+      <c r="R27" s="198">
         <f t="shared" si="6"/>
-        <v>0.22817050741333572</v>
-      </c>
-      <c r="R27" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51049,27 +51049,27 @@
         <v>0</v>
       </c>
       <c r="L28" s="206">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="206">
+      <c r="N28" s="206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N28" s="206">
+      <c r="P28" s="198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P28" s="198">
+      <c r="Q28" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="198">
+      <c r="R28" s="198">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51105,27 +51105,27 @@
         <v>0</v>
       </c>
       <c r="L29" s="206">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="206">
+      <c r="N29" s="206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N29" s="206">
+      <c r="P29" s="198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P29" s="198">
+      <c r="Q29" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="198">
+      <c r="R29" s="198">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51161,27 +51161,27 @@
         <v>0</v>
       </c>
       <c r="L30" s="206">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="206">
+      <c r="N30" s="206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="206">
+      <c r="P30" s="198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P30" s="198">
+      <c r="Q30" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="198">
+      <c r="R30" s="198">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51217,27 +51217,27 @@
         <v>0.11931789</v>
       </c>
       <c r="L31" s="206">
+        <f t="shared" si="1"/>
+        <v>0.85315248317721692</v>
+      </c>
+      <c r="M31" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M31" s="206">
+        <v>0.37698455949137133</v>
+      </c>
+      <c r="N31" s="206">
         <f t="shared" si="3"/>
+        <v>-6.9712187180349522E-2</v>
+      </c>
+      <c r="P31" s="198">
+        <f t="shared" si="4"/>
+        <v>0.85315248317721692</v>
+      </c>
+      <c r="Q31" s="198">
+        <f t="shared" si="5"/>
         <v>0.37698455949137133</v>
       </c>
-      <c r="N31" s="206">
-        <f t="shared" si="4"/>
-        <v>-6.9712187180349522E-2</v>
-      </c>
-      <c r="P31" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="198">
+      <c r="R31" s="198">
         <f t="shared" si="6"/>
-        <v>0.37698455949137133</v>
-      </c>
-      <c r="R31" s="198">
-        <f t="shared" si="7"/>
         <v>6.9712187180349522E-2</v>
       </c>
     </row>
@@ -51273,27 +51273,27 @@
         <v>4.2042E-3</v>
       </c>
       <c r="L32" s="206">
+        <f t="shared" si="1"/>
+        <v>1.1978303609519931</v>
+      </c>
+      <c r="M32" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M32" s="206">
+        <v>18.284271481736848</v>
+      </c>
+      <c r="N32" s="206">
         <f t="shared" si="3"/>
+        <v>0.32764212192287095</v>
+      </c>
+      <c r="P32" s="198">
+        <f t="shared" si="4"/>
+        <v>1.1978303609519931</v>
+      </c>
+      <c r="Q32" s="198">
+        <f t="shared" si="5"/>
         <v>18.284271481736848</v>
       </c>
-      <c r="N32" s="206">
-        <f t="shared" si="4"/>
-        <v>0.32764212192287095</v>
-      </c>
-      <c r="P32" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="198">
+      <c r="R32" s="198">
         <f t="shared" si="6"/>
-        <v>18.284271481736848</v>
-      </c>
-      <c r="R32" s="198">
-        <f t="shared" si="7"/>
         <v>0.32764212192287095</v>
       </c>
     </row>
@@ -51329,27 +51329,27 @@
         <v>0.31623848999999998</v>
       </c>
       <c r="L33" s="206">
+        <f t="shared" si="1"/>
+        <v>0.39554569761390118</v>
+      </c>
+      <c r="M33" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M33" s="206">
+        <v>8.406576855266909E-2</v>
+      </c>
+      <c r="N33" s="206">
         <f t="shared" si="3"/>
+        <v>6.8854740371322082E-2</v>
+      </c>
+      <c r="P33" s="198">
+        <f t="shared" si="4"/>
+        <v>0.39554569761390118</v>
+      </c>
+      <c r="Q33" s="198">
+        <f t="shared" si="5"/>
         <v>8.406576855266909E-2</v>
       </c>
-      <c r="N33" s="206">
-        <f t="shared" si="4"/>
-        <v>6.8854740371322082E-2</v>
-      </c>
-      <c r="P33" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="198">
+      <c r="R33" s="198">
         <f t="shared" si="6"/>
-        <v>8.406576855266909E-2</v>
-      </c>
-      <c r="R33" s="198">
-        <f t="shared" si="7"/>
         <v>6.8854740371322082E-2</v>
       </c>
     </row>
@@ -51385,27 +51385,27 @@
         <v>3.4034E-3</v>
       </c>
       <c r="L34" s="206">
+        <f t="shared" si="1"/>
+        <v>-0.10383275197202825</v>
+      </c>
+      <c r="M34" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M34" s="206">
+        <v>17.502707162735504</v>
+      </c>
+      <c r="N34" s="206">
         <f t="shared" si="3"/>
+        <v>0.3089999979994234</v>
+      </c>
+      <c r="P34" s="198">
+        <f t="shared" si="4"/>
+        <v>0.10383275197202825</v>
+      </c>
+      <c r="Q34" s="198">
+        <f t="shared" si="5"/>
         <v>17.502707162735504</v>
       </c>
-      <c r="N34" s="206">
-        <f t="shared" si="4"/>
-        <v>0.3089999979994234</v>
-      </c>
-      <c r="P34" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="198">
+      <c r="R34" s="198">
         <f t="shared" si="6"/>
-        <v>17.502707162735504</v>
-      </c>
-      <c r="R34" s="198">
-        <f t="shared" si="7"/>
         <v>0.3089999979994234</v>
       </c>
     </row>
@@ -51441,27 +51441,27 @@
         <v>0.37580089999999999</v>
       </c>
       <c r="L35" s="206">
+        <f t="shared" si="1"/>
+        <v>0.56296285645599276</v>
+      </c>
+      <c r="M35" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M35" s="206">
+        <v>6.0449229319372015E-2</v>
+      </c>
+      <c r="N35" s="206">
         <f t="shared" si="3"/>
+        <v>-3.824924930048406E-2</v>
+      </c>
+      <c r="P35" s="198">
+        <f t="shared" si="4"/>
+        <v>0.56296285645599276</v>
+      </c>
+      <c r="Q35" s="198">
+        <f t="shared" si="5"/>
         <v>6.0449229319372015E-2</v>
       </c>
-      <c r="N35" s="206">
-        <f t="shared" si="4"/>
-        <v>-3.824924930048406E-2</v>
-      </c>
-      <c r="P35" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="198">
+      <c r="R35" s="198">
         <f t="shared" si="6"/>
-        <v>6.0449229319372015E-2</v>
-      </c>
-      <c r="R35" s="198">
-        <f t="shared" si="7"/>
         <v>3.824924930048406E-2</v>
       </c>
     </row>
@@ -51497,27 +51497,27 @@
         <v>0.39069999999999999</v>
       </c>
       <c r="L36" s="206">
+        <f t="shared" si="1"/>
+        <v>0.11355149580837516</v>
+      </c>
+      <c r="M36" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M36" s="206">
+        <v>2.5150588595015993E-2</v>
+      </c>
+      <c r="N36" s="206">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="198">
+        <f t="shared" si="4"/>
+        <v>0.11355149580837516</v>
+      </c>
+      <c r="Q36" s="198">
+        <f t="shared" si="5"/>
         <v>2.5150588595015993E-2</v>
       </c>
-      <c r="N36" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="198">
+      <c r="R36" s="198">
         <f t="shared" si="6"/>
-        <v>2.5150588595015993E-2</v>
-      </c>
-      <c r="R36" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51553,27 +51553,27 @@
         <v>0.45987637999999997</v>
       </c>
       <c r="L37" s="206">
+        <f t="shared" si="1"/>
+        <v>11.484904535108944</v>
+      </c>
+      <c r="M37" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M37" s="206">
+        <v>8.8118294530985297E-2</v>
+      </c>
+      <c r="N37" s="206">
         <f t="shared" si="3"/>
+        <v>-1.9950929709099601E-2</v>
+      </c>
+      <c r="P37" s="198">
+        <f t="shared" si="4"/>
+        <v>11.484904535108944</v>
+      </c>
+      <c r="Q37" s="198">
+        <f t="shared" si="5"/>
         <v>8.8118294530985297E-2</v>
       </c>
-      <c r="N37" s="206">
-        <f t="shared" si="4"/>
-        <v>-1.9950929709099601E-2</v>
-      </c>
-      <c r="P37" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q37" s="198">
+      <c r="R37" s="198">
         <f t="shared" si="6"/>
-        <v>8.8118294530985297E-2</v>
-      </c>
-      <c r="R37" s="198">
-        <f t="shared" si="7"/>
         <v>1.9950929709099601E-2</v>
       </c>
     </row>
@@ -51609,27 +51609,27 @@
         <v>0.37829288</v>
       </c>
       <c r="L38" s="206">
+        <f t="shared" si="1"/>
+        <v>0.77310832148692055</v>
+      </c>
+      <c r="M38" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M38" s="206">
+        <v>7.7848175002371414E-2</v>
+      </c>
+      <c r="N38" s="206">
         <f t="shared" si="3"/>
+        <v>4.8774281121721982E-2</v>
+      </c>
+      <c r="P38" s="198">
+        <f t="shared" si="4"/>
+        <v>0.77310832148692055</v>
+      </c>
+      <c r="Q38" s="198">
+        <f t="shared" si="5"/>
         <v>7.7848175002371414E-2</v>
       </c>
-      <c r="N38" s="206">
-        <f t="shared" si="4"/>
-        <v>4.8774281121721982E-2</v>
-      </c>
-      <c r="P38" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="198">
+      <c r="R38" s="198">
         <f t="shared" si="6"/>
-        <v>7.7848175002371414E-2</v>
-      </c>
-      <c r="R38" s="198">
-        <f t="shared" si="7"/>
         <v>4.8774281121721982E-2</v>
       </c>
     </row>
@@ -51665,27 +51665,27 @@
         <v>4.2042E-3</v>
       </c>
       <c r="L39" s="206">
+        <f t="shared" si="1"/>
+        <v>0.87843648491770798</v>
+      </c>
+      <c r="M39" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M39" s="206">
+        <v>4.8067846415892053</v>
+      </c>
+      <c r="N39" s="206">
         <f t="shared" si="3"/>
+        <v>-7.9372265978025533E-2</v>
+      </c>
+      <c r="P39" s="198">
+        <f t="shared" si="4"/>
+        <v>0.87843648491770798</v>
+      </c>
+      <c r="Q39" s="198">
+        <f t="shared" si="5"/>
         <v>4.8067846415892053</v>
       </c>
-      <c r="N39" s="206">
-        <f t="shared" si="4"/>
-        <v>-7.9372265978025533E-2</v>
-      </c>
-      <c r="P39" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="198">
+      <c r="R39" s="198">
         <f t="shared" si="6"/>
-        <v>4.8067846415892053</v>
-      </c>
-      <c r="R39" s="198">
-        <f t="shared" si="7"/>
         <v>7.9372265978025533E-2</v>
       </c>
     </row>
@@ -51721,27 +51721,27 @@
         <v>0.46826595999999998</v>
       </c>
       <c r="L40" s="206">
+        <f t="shared" si="1"/>
+        <v>0.81598209000115007</v>
+      </c>
+      <c r="M40" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M40" s="206">
+        <v>3.0630918774821748E-2</v>
+      </c>
+      <c r="N40" s="206">
         <f t="shared" si="3"/>
+        <v>-3.1945810274666944E-3</v>
+      </c>
+      <c r="P40" s="198">
+        <f t="shared" si="4"/>
+        <v>0.81598209000115007</v>
+      </c>
+      <c r="Q40" s="198">
+        <f t="shared" si="5"/>
         <v>3.0630918774821748E-2</v>
       </c>
-      <c r="N40" s="206">
-        <f t="shared" si="4"/>
-        <v>-3.1945810274666944E-3</v>
-      </c>
-      <c r="P40" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="198">
+      <c r="R40" s="198">
         <f t="shared" si="6"/>
-        <v>3.0630918774821748E-2</v>
-      </c>
-      <c r="R40" s="198">
-        <f t="shared" si="7"/>
         <v>3.1945810274666944E-3</v>
       </c>
     </row>
@@ -51777,27 +51777,27 @@
         <v>3.88388E-2</v>
       </c>
       <c r="L41" s="206">
+        <f t="shared" si="1"/>
+        <v>1.0604505211141542</v>
+      </c>
+      <c r="M41" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M41" s="206">
+        <v>0.71563483407779982</v>
+      </c>
+      <c r="N41" s="206">
         <f t="shared" si="3"/>
+        <v>-1.5076936574834492E-2</v>
+      </c>
+      <c r="P41" s="198">
+        <f t="shared" si="4"/>
+        <v>1.0604505211141542</v>
+      </c>
+      <c r="Q41" s="198">
+        <f t="shared" si="5"/>
         <v>0.71563483407779982</v>
       </c>
-      <c r="N41" s="206">
-        <f t="shared" si="4"/>
-        <v>-1.5076936574834492E-2</v>
-      </c>
-      <c r="P41" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="198">
+      <c r="R41" s="198">
         <f t="shared" si="6"/>
-        <v>0.71563483407779982</v>
-      </c>
-      <c r="R41" s="198">
-        <f t="shared" si="7"/>
         <v>1.5076936574834492E-2</v>
       </c>
     </row>
@@ -51833,27 +51833,27 @@
         <v>0.55072894999999999</v>
       </c>
       <c r="L42" s="206">
+        <f t="shared" si="1"/>
+        <v>0.74958498344677338</v>
+      </c>
+      <c r="M42" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M42" s="206">
+        <v>2.4822966646868973E-2</v>
+      </c>
+      <c r="N42" s="206">
         <f t="shared" si="3"/>
+        <v>-5.9333357079846182E-2</v>
+      </c>
+      <c r="P42" s="198">
+        <f t="shared" si="4"/>
+        <v>0.74958498344677338</v>
+      </c>
+      <c r="Q42" s="198">
+        <f t="shared" si="5"/>
         <v>2.4822966646868973E-2</v>
       </c>
-      <c r="N42" s="206">
-        <f t="shared" si="4"/>
-        <v>-5.9333357079846182E-2</v>
-      </c>
-      <c r="P42" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="198">
+      <c r="R42" s="198">
         <f t="shared" si="6"/>
-        <v>2.4822966646868973E-2</v>
-      </c>
-      <c r="R42" s="198">
-        <f t="shared" si="7"/>
         <v>5.9333357079846182E-2</v>
       </c>
     </row>
@@ -51889,27 +51889,27 @@
         <v>0</v>
       </c>
       <c r="L43" s="206">
+        <f t="shared" si="1"/>
+        <v>19755.202906564547</v>
+      </c>
+      <c r="M43" s="206">
         <f t="shared" si="2"/>
+        <v>-1.334027785204772E-2</v>
+      </c>
+      <c r="N43" s="206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="198">
+        <f t="shared" si="4"/>
         <v>19755.202906564547</v>
       </c>
-      <c r="M43" s="206">
-        <f t="shared" si="3"/>
-        <v>-1.334027785204772E-2</v>
-      </c>
-      <c r="N43" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="198">
+      <c r="Q43" s="198">
         <f t="shared" si="5"/>
-        <v>19755.202906564547</v>
-      </c>
-      <c r="Q43" s="198">
+        <v>1.334027785204772E-2</v>
+      </c>
+      <c r="R43" s="198">
         <f t="shared" si="6"/>
-        <v>1.334027785204772E-2</v>
-      </c>
-      <c r="R43" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -51945,27 +51945,27 @@
         <v>0.55072894999999999</v>
       </c>
       <c r="L44" s="206">
+        <f t="shared" si="1"/>
+        <v>206802.74841701213</v>
+      </c>
+      <c r="M44" s="206">
         <f t="shared" si="2"/>
+        <v>2.204578199984919E-2</v>
+      </c>
+      <c r="N44" s="206">
+        <f t="shared" si="3"/>
+        <v>-5.9333357079846182E-2</v>
+      </c>
+      <c r="P44" s="198">
+        <f t="shared" si="4"/>
         <v>206802.74841701213</v>
       </c>
-      <c r="M44" s="206">
-        <f t="shared" si="3"/>
+      <c r="Q44" s="198">
+        <f t="shared" si="5"/>
         <v>2.204578199984919E-2</v>
       </c>
-      <c r="N44" s="206">
-        <f t="shared" si="4"/>
-        <v>-5.9333357079846182E-2</v>
-      </c>
-      <c r="P44" s="198">
-        <f t="shared" si="5"/>
-        <v>206802.74841701213</v>
-      </c>
-      <c r="Q44" s="198">
+      <c r="R44" s="198">
         <f t="shared" si="6"/>
-        <v>2.204578199984919E-2</v>
-      </c>
-      <c r="R44" s="198">
-        <f t="shared" si="7"/>
         <v>5.9333357079846182E-2</v>
       </c>
     </row>
@@ -52001,27 +52001,27 @@
         <v>0.46483469999999999</v>
       </c>
       <c r="L45" s="206">
+        <f t="shared" si="1"/>
+        <v>0.35720598131911463</v>
+      </c>
+      <c r="M45" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M45" s="206">
+        <v>-8.8127808020676251E-3</v>
+      </c>
+      <c r="N45" s="206">
         <f t="shared" si="3"/>
-        <v>-8.8127808020676251E-3</v>
-      </c>
-      <c r="N45" s="206">
+        <v>1.4996801947047682E-2</v>
+      </c>
+      <c r="P45" s="198">
         <f t="shared" si="4"/>
-        <v>1.4996801947047682E-2</v>
-      </c>
-      <c r="P45" s="198">
+        <v>0.35720598131911463</v>
+      </c>
+      <c r="Q45" s="198">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="198">
+        <v>8.8127808020676251E-3</v>
+      </c>
+      <c r="R45" s="198">
         <f t="shared" si="6"/>
-        <v>8.8127808020676251E-3</v>
-      </c>
-      <c r="R45" s="198">
-        <f t="shared" si="7"/>
         <v>1.4996801947047682E-2</v>
       </c>
     </row>
@@ -52057,27 +52057,27 @@
         <v>0.63746409999999998</v>
       </c>
       <c r="L46" s="206">
+        <f t="shared" si="1"/>
+        <v>0.71485680648314454</v>
+      </c>
+      <c r="M46" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M46" s="206">
+        <v>1.3061618788612879E-2</v>
+      </c>
+      <c r="N46" s="206">
         <f t="shared" si="3"/>
+        <v>-6.6101303740881039E-3</v>
+      </c>
+      <c r="P46" s="198">
+        <f t="shared" si="4"/>
+        <v>0.71485680648314454</v>
+      </c>
+      <c r="Q46" s="198">
+        <f t="shared" si="5"/>
         <v>1.3061618788612879E-2</v>
       </c>
-      <c r="N46" s="206">
-        <f t="shared" si="4"/>
-        <v>-6.6101303740881039E-3</v>
-      </c>
-      <c r="P46" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q46" s="198">
+      <c r="R46" s="198">
         <f t="shared" si="6"/>
-        <v>1.3061618788612879E-2</v>
-      </c>
-      <c r="R46" s="198">
-        <f t="shared" si="7"/>
         <v>6.6101303740881039E-3</v>
       </c>
     </row>
@@ -52113,27 +52113,27 @@
         <v>0.46496517999999998</v>
       </c>
       <c r="L47" s="206">
+        <f t="shared" si="1"/>
+        <v>1.0048487886399806</v>
+      </c>
+      <c r="M47" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M47" s="206">
+        <v>3.4409070685484613E-2</v>
+      </c>
+      <c r="N47" s="206">
         <f t="shared" si="3"/>
+        <v>1.995870006678226E-2</v>
+      </c>
+      <c r="P47" s="198">
+        <f t="shared" si="4"/>
+        <v>1.0048487886399806</v>
+      </c>
+      <c r="Q47" s="198">
+        <f t="shared" si="5"/>
         <v>3.4409070685484613E-2</v>
       </c>
-      <c r="N47" s="206">
-        <f t="shared" si="4"/>
-        <v>1.995870006678226E-2</v>
-      </c>
-      <c r="P47" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="198">
+      <c r="R47" s="198">
         <f t="shared" si="6"/>
-        <v>3.4409070685484613E-2</v>
-      </c>
-      <c r="R47" s="198">
-        <f t="shared" si="7"/>
         <v>1.995870006678226E-2</v>
       </c>
     </row>
@@ -52169,27 +52169,27 @@
         <v>0</v>
       </c>
       <c r="L48" s="206">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M48" s="206">
+      <c r="N48" s="206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N48" s="206">
+      <c r="P48" s="198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P48" s="198">
+      <c r="Q48" s="198">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="198">
+      <c r="R48" s="198">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -52225,27 +52225,27 @@
         <v>0.64250503000000003</v>
       </c>
       <c r="L49" s="206">
+        <f t="shared" si="1"/>
+        <v>0.71379400142661431</v>
+      </c>
+      <c r="M49" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M49" s="206">
+        <v>1.2966723949382869E-2</v>
+      </c>
+      <c r="N49" s="206">
         <f t="shared" si="3"/>
+        <v>2.441392349890228E-4</v>
+      </c>
+      <c r="P49" s="198">
+        <f t="shared" si="4"/>
+        <v>0.71379400142661431</v>
+      </c>
+      <c r="Q49" s="198">
+        <f t="shared" si="5"/>
         <v>1.2966723949382869E-2</v>
       </c>
-      <c r="N49" s="206">
-        <f t="shared" si="4"/>
-        <v>2.441392349890228E-4</v>
-      </c>
-      <c r="P49" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="198">
+      <c r="R49" s="198">
         <f t="shared" si="6"/>
-        <v>1.2966723949382869E-2</v>
-      </c>
-      <c r="R49" s="198">
-        <f t="shared" si="7"/>
         <v>2.441392349890228E-4</v>
       </c>
     </row>
@@ -52281,27 +52281,27 @@
         <v>5.9816920000000003E-2</v>
       </c>
       <c r="L50" s="206">
+        <f t="shared" si="1"/>
+        <v>0.91201766821995667</v>
+      </c>
+      <c r="M50" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M50" s="206">
+        <v>0.81055853866942196</v>
+      </c>
+      <c r="N50" s="206">
         <f t="shared" si="3"/>
+        <v>2.6512857892153907E-2</v>
+      </c>
+      <c r="P50" s="198">
+        <f t="shared" si="4"/>
+        <v>0.91201766821995667</v>
+      </c>
+      <c r="Q50" s="198">
+        <f t="shared" si="5"/>
         <v>0.81055853866942196</v>
       </c>
-      <c r="N50" s="206">
-        <f t="shared" si="4"/>
-        <v>2.6512857892153907E-2</v>
-      </c>
-      <c r="P50" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q50" s="198">
+      <c r="R50" s="198">
         <f t="shared" si="6"/>
-        <v>0.81055853866942196</v>
-      </c>
-      <c r="R50" s="198">
-        <f t="shared" si="7"/>
         <v>2.6512857892153907E-2</v>
       </c>
     </row>
@@ -52337,27 +52337,27 @@
         <v>0.38447167792999998</v>
       </c>
       <c r="L51" s="206">
+        <f t="shared" si="1"/>
+        <v>2.2257980330387341</v>
+      </c>
+      <c r="M51" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M51" s="206">
+        <v>-4.3637149209278941E-2</v>
+      </c>
+      <c r="N51" s="206">
         <f t="shared" si="3"/>
-        <v>-4.3637149209278941E-2</v>
-      </c>
-      <c r="N51" s="206">
+        <v>5.3347062821917771E-2</v>
+      </c>
+      <c r="P51" s="198">
         <f t="shared" si="4"/>
-        <v>5.3347062821917771E-2</v>
-      </c>
-      <c r="P51" s="198">
+        <v>2.2257980330387341</v>
+      </c>
+      <c r="Q51" s="198">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q51" s="198">
+        <v>4.3637149209278941E-2</v>
+      </c>
+      <c r="R51" s="198">
         <f t="shared" si="6"/>
-        <v>4.3637149209278941E-2</v>
-      </c>
-      <c r="R51" s="198">
-        <f t="shared" si="7"/>
         <v>5.3347062821917771E-2</v>
       </c>
     </row>
@@ -52393,27 +52393,27 @@
         <v>0.33520926280000002</v>
       </c>
       <c r="L52" s="206">
+        <f t="shared" si="1"/>
+        <v>2.225798033038735</v>
+      </c>
+      <c r="M52" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M52" s="206">
+        <v>3.009419718703641E-2</v>
+      </c>
+      <c r="N52" s="206">
         <f t="shared" si="3"/>
+        <v>1.7635891924711572E-2</v>
+      </c>
+      <c r="P52" s="198">
+        <f t="shared" si="4"/>
+        <v>2.225798033038735</v>
+      </c>
+      <c r="Q52" s="198">
+        <f t="shared" si="5"/>
         <v>3.009419718703641E-2</v>
       </c>
-      <c r="N52" s="206">
-        <f t="shared" si="4"/>
-        <v>1.7635891924711572E-2</v>
-      </c>
-      <c r="P52" s="198">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q52" s="198">
+      <c r="R52" s="198">
         <f t="shared" si="6"/>
-        <v>3.009419718703641E-2</v>
-      </c>
-      <c r="R52" s="198">
-        <f t="shared" si="7"/>
         <v>1.7635891924711572E-2</v>
       </c>
     </row>
@@ -52449,28 +52449,28 @@
         <v>0.32195351</v>
       </c>
       <c r="L53" s="206">
+        <f t="shared" si="1"/>
+        <v>13.451119721212953</v>
+      </c>
+      <c r="M53" s="206">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M53" s="206">
+        <v>6.1835453079170967E-2</v>
+      </c>
+      <c r="N53" s="206">
         <f t="shared" si="3"/>
-        <v>6.1835453079170967E-2</v>
-      </c>
-      <c r="N53" s="206">
-        <f t="shared" si="4"/>
         <v>-2.2606223436551387E-2</v>
       </c>
       <c r="O53" s="208"/>
       <c r="P53" s="198">
+        <f t="shared" si="4"/>
+        <v>13.451119721212953</v>
+      </c>
+      <c r="Q53" s="198">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="198">
+        <v>6.1835453079170967E-2</v>
+      </c>
+      <c r="R53" s="198">
         <f t="shared" si="6"/>
-        <v>6.1835453079170967E-2</v>
-      </c>
-      <c r="R53" s="198">
-        <f t="shared" si="7"/>
         <v>2.2606223436551387E-2</v>
       </c>
     </row>
@@ -52634,75 +52634,75 @@
     <row r="3" spans="1:15" ht="16" thickBot="1">
       <c r="A3" s="84"/>
       <c r="B3" s="87"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="320" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="245" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="320"/>
-      <c r="L3" s="320"/>
-      <c r="M3" s="320"/>
-      <c r="N3" s="321"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="246"/>
       <c r="O3" s="158"/>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1">
       <c r="A4" s="84"/>
       <c r="B4" s="87"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
-      <c r="N4" s="323"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="247"/>
+      <c r="M4" s="247"/>
+      <c r="N4" s="248"/>
       <c r="O4" s="158"/>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="84"/>
       <c r="B5" s="87"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="322" t="s">
+      <c r="C5" s="241"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="247" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="325">
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="250">
         <v>44849</v>
       </c>
-      <c r="N5" s="326"/>
+      <c r="N5" s="251"/>
       <c r="O5" s="158"/>
     </row>
     <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="84"/>
       <c r="B6" s="87"/>
-      <c r="C6" s="318"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="324"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="327"/>
-      <c r="N6" s="328"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
+      <c r="L6" s="249"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="253"/>
       <c r="O6" s="158"/>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1">
@@ -52725,9 +52725,9 @@
     <row r="8" spans="1:15" ht="16" thickBot="1">
       <c r="A8" s="84"/>
       <c r="B8" s="88"/>
-      <c r="C8" s="308"/>
-      <c r="D8" s="309"/>
-      <c r="E8" s="309"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
       <c r="F8" s="93" t="s">
         <v>68</v>
       </c>
@@ -52740,8 +52740,8 @@
       <c r="I8" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="312"/>
-      <c r="K8" s="313"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="236"/>
       <c r="L8" s="93" t="s">
         <v>68</v>
       </c>
@@ -52756,9 +52756,9 @@
     <row r="9" spans="1:15" ht="16" thickBot="1">
       <c r="A9" s="84"/>
       <c r="B9" s="88"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
       <c r="F9" s="95" t="s">
         <v>28</v>
       </c>
@@ -52772,7 +52772,7 @@
         <v>73</v>
       </c>
       <c r="J9" s="237"/>
-      <c r="K9" s="293"/>
+      <c r="K9" s="238"/>
       <c r="L9" s="95" t="s">
         <v>28</v>
       </c>
@@ -52787,32 +52787,32 @@
     <row r="10" spans="1:15" ht="16" thickBot="1">
       <c r="A10" s="84"/>
       <c r="B10" s="88"/>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="283"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="283"/>
-      <c r="I10" s="284" t="s">
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="256" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="283"/>
-      <c r="K10" s="283"/>
-      <c r="L10" s="283"/>
-      <c r="M10" s="283"/>
-      <c r="N10" s="285"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="255"/>
+      <c r="N10" s="257"/>
       <c r="O10" s="158"/>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1">
       <c r="A11" s="84"/>
       <c r="B11" s="88"/>
-      <c r="C11" s="286" t="s">
+      <c r="C11" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="287"/>
-      <c r="E11" s="288"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="260"/>
       <c r="F11" s="97">
         <f>Utilidad!O95</f>
         <v>1667565.55403242</v>
@@ -52850,11 +52850,11 @@
     <row r="12" spans="1:15" ht="16" thickBot="1">
       <c r="A12" s="84"/>
       <c r="B12" s="88"/>
-      <c r="C12" s="276" t="s">
+      <c r="C12" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="277"/>
-      <c r="E12" s="278"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="263"/>
       <c r="F12" s="105">
         <f>Utilidad!O70</f>
         <v>6553.2789499999999</v>
@@ -52892,11 +52892,11 @@
     <row r="13" spans="1:15" ht="16" thickBot="1">
       <c r="A13" s="84"/>
       <c r="B13" s="88"/>
-      <c r="C13" s="276" t="s">
+      <c r="C13" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="277"/>
-      <c r="E13" s="278"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="263"/>
       <c r="F13" s="105">
         <f>Utilidad!O76</f>
         <v>7063.5460122175045</v>
@@ -52913,21 +52913,21 @@
         <f>Utilidad!Q76</f>
         <v>0.46432030000000002</v>
       </c>
-      <c r="J13" s="289"/>
-      <c r="K13" s="290"/>
-      <c r="L13" s="294"/>
-      <c r="M13" s="295"/>
-      <c r="N13" s="296"/>
+      <c r="J13" s="264"/>
+      <c r="K13" s="265"/>
+      <c r="L13" s="268"/>
+      <c r="M13" s="269"/>
+      <c r="N13" s="270"/>
       <c r="O13" s="158"/>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1">
       <c r="A14" s="84"/>
       <c r="B14" s="88"/>
-      <c r="C14" s="276" t="s">
+      <c r="C14" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="277"/>
-      <c r="E14" s="278"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="263"/>
       <c r="F14" s="105">
         <f>Utilidad!O79</f>
         <v>12987.951075000003</v>
@@ -52944,21 +52944,21 @@
         <f>Utilidad!Q79</f>
         <v>0.32195351</v>
       </c>
-      <c r="J14" s="291"/>
-      <c r="K14" s="292"/>
-      <c r="L14" s="297"/>
-      <c r="M14" s="298"/>
-      <c r="N14" s="299"/>
+      <c r="J14" s="266"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="273"/>
       <c r="O14" s="158"/>
     </row>
     <row r="15" spans="1:15" ht="16" thickBot="1">
       <c r="A15" s="84"/>
       <c r="B15" s="88"/>
-      <c r="C15" s="276" t="s">
+      <c r="C15" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="303"/>
-      <c r="E15" s="304"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="278"/>
       <c r="F15" s="105">
         <f>Utilidad!O82</f>
         <v>2343.7901485370808</v>
@@ -52975,21 +52975,21 @@
         <f>Utilidad!Q82</f>
         <v>0</v>
       </c>
-      <c r="J15" s="291"/>
-      <c r="K15" s="292"/>
-      <c r="L15" s="297"/>
-      <c r="M15" s="298"/>
-      <c r="N15" s="299"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="267"/>
+      <c r="L15" s="271"/>
+      <c r="M15" s="272"/>
+      <c r="N15" s="273"/>
       <c r="O15" s="158"/>
     </row>
     <row r="16" spans="1:15" ht="16" thickBot="1">
       <c r="A16" s="84"/>
       <c r="B16" s="88"/>
-      <c r="C16" s="276" t="s">
+      <c r="C16" s="261" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="303"/>
-      <c r="E16" s="304"/>
+      <c r="D16" s="277"/>
+      <c r="E16" s="278"/>
       <c r="F16" s="105">
         <f>Utilidad!O85</f>
         <v>2549.3734813806341</v>
@@ -53006,21 +53006,21 @@
         <f>Utilidad!Q85</f>
         <v>0</v>
       </c>
-      <c r="J16" s="291"/>
-      <c r="K16" s="292"/>
-      <c r="L16" s="297"/>
-      <c r="M16" s="298"/>
-      <c r="N16" s="299"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="271"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="273"/>
       <c r="O16" s="158"/>
     </row>
     <row r="17" spans="1:15" ht="16" thickBot="1">
       <c r="A17" s="84"/>
       <c r="B17" s="88"/>
-      <c r="C17" s="276" t="s">
+      <c r="C17" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="303"/>
-      <c r="E17" s="304"/>
+      <c r="D17" s="277"/>
+      <c r="E17" s="278"/>
       <c r="F17" s="105">
         <f>Utilidad!O88</f>
         <v>1212.3252477726548</v>
@@ -53037,21 +53037,21 @@
         <f>Utilidad!Q88</f>
         <v>0</v>
       </c>
-      <c r="J17" s="291"/>
-      <c r="K17" s="292"/>
-      <c r="L17" s="297"/>
-      <c r="M17" s="298"/>
-      <c r="N17" s="299"/>
+      <c r="J17" s="266"/>
+      <c r="K17" s="267"/>
+      <c r="L17" s="271"/>
+      <c r="M17" s="272"/>
+      <c r="N17" s="273"/>
       <c r="O17" s="158"/>
     </row>
     <row r="18" spans="1:15" ht="16" thickBot="1">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
-      <c r="C18" s="276" t="s">
+      <c r="C18" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="303"/>
-      <c r="E18" s="304"/>
+      <c r="D18" s="277"/>
+      <c r="E18" s="278"/>
       <c r="F18" s="105">
         <f>Utilidad!O91</f>
         <v>1182.3390945940303</v>
@@ -53068,21 +53068,21 @@
         <f>Utilidad!Q91</f>
         <v>0</v>
       </c>
-      <c r="J18" s="291"/>
-      <c r="K18" s="292"/>
-      <c r="L18" s="297"/>
-      <c r="M18" s="298"/>
-      <c r="N18" s="299"/>
+      <c r="J18" s="266"/>
+      <c r="K18" s="267"/>
+      <c r="L18" s="271"/>
+      <c r="M18" s="272"/>
+      <c r="N18" s="273"/>
       <c r="O18" s="158"/>
     </row>
     <row r="19" spans="1:15" ht="16" thickBot="1">
       <c r="A19" s="84"/>
       <c r="B19" s="88"/>
-      <c r="C19" s="305" t="s">
+      <c r="C19" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="306"/>
-      <c r="E19" s="307"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="281"/>
       <c r="F19" s="105">
         <f>Utilidad!O73</f>
         <v>1170.581619720929</v>
@@ -53100,20 +53100,20 @@
         <v>0.39119431999999998</v>
       </c>
       <c r="J19" s="237"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="300"/>
-      <c r="M19" s="301"/>
-      <c r="N19" s="302"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="274"/>
+      <c r="M19" s="275"/>
+      <c r="N19" s="276"/>
       <c r="O19" s="158"/>
     </row>
     <row r="20" spans="1:15" ht="16" thickBot="1">
       <c r="A20" s="84"/>
       <c r="B20" s="88"/>
-      <c r="C20" s="252" t="s">
+      <c r="C20" s="282" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="253"/>
-      <c r="E20" s="253"/>
+      <c r="D20" s="283"/>
+      <c r="E20" s="283"/>
       <c r="F20" s="113">
         <f>SUM(F11:F19)</f>
         <v>1702628.7396616428</v>
@@ -53127,8 +53127,8 @@
         <v>268406.0310593493</v>
       </c>
       <c r="I20" s="116"/>
-      <c r="J20" s="270"/>
-      <c r="K20" s="271"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="285"/>
       <c r="L20" s="117"/>
       <c r="M20" s="118"/>
       <c r="N20" s="119"/>
@@ -53137,32 +53137,32 @@
     <row r="21" spans="1:15" ht="16" thickBot="1">
       <c r="A21" s="84"/>
       <c r="B21" s="88"/>
-      <c r="C21" s="272" t="s">
+      <c r="C21" s="286" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="273"/>
-      <c r="E21" s="273"/>
-      <c r="F21" s="273"/>
-      <c r="G21" s="273"/>
-      <c r="H21" s="273"/>
-      <c r="I21" s="274" t="s">
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="288" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="258"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="258"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="275"/>
+      <c r="J21" s="289"/>
+      <c r="K21" s="289"/>
+      <c r="L21" s="289"/>
+      <c r="M21" s="289"/>
+      <c r="N21" s="290"/>
       <c r="O21" s="158"/>
     </row>
     <row r="22" spans="1:15" ht="16" thickBot="1">
       <c r="A22" s="84"/>
       <c r="B22" s="88"/>
-      <c r="C22" s="276" t="s">
+      <c r="C22" s="261" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="277"/>
-      <c r="E22" s="278"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="263"/>
       <c r="F22" s="120">
         <f>'Datos Extra'!B1</f>
         <v>123507</v>
@@ -53175,11 +53175,11 @@
         <f>+F22*G22</f>
         <v>81131.748300000007</v>
       </c>
-      <c r="I22" s="279" t="s">
+      <c r="I22" s="291" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="280"/>
-      <c r="K22" s="281"/>
+      <c r="J22" s="292"/>
+      <c r="K22" s="293"/>
       <c r="L22" s="122">
         <f>Utilidad!O114</f>
         <v>1526877.3044061151</v>
@@ -53197,11 +53197,11 @@
     <row r="23" spans="1:15" ht="16" thickBot="1">
       <c r="A23" s="84"/>
       <c r="B23" s="88"/>
-      <c r="C23" s="252" t="s">
+      <c r="C23" s="282" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="283"/>
       <c r="F23" s="123">
         <f>SUM(F21:F22)</f>
         <v>123507</v>
@@ -53214,11 +53214,11 @@
         <f>SUM(H21:H22)</f>
         <v>81131.748300000007</v>
       </c>
-      <c r="I23" s="254" t="s">
+      <c r="I23" s="314" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="255"/>
-      <c r="K23" s="256"/>
+      <c r="J23" s="315"/>
+      <c r="K23" s="316"/>
       <c r="L23" s="125">
         <f>L22</f>
         <v>1526877.3044061151</v>
@@ -53253,11 +53253,11 @@
     <row r="25" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A25" s="84"/>
       <c r="B25" s="88"/>
-      <c r="C25" s="257" t="s">
+      <c r="C25" s="317" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="258"/>
-      <c r="E25" s="259"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="318"/>
       <c r="F25" s="131" t="s">
         <v>28</v>
       </c>
@@ -53278,11 +53278,11 @@
     <row r="26" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A26" s="84"/>
       <c r="B26" s="88"/>
-      <c r="C26" s="260" t="s">
+      <c r="C26" s="319" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="261"/>
-      <c r="E26" s="262"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="321"/>
       <c r="F26" s="138">
         <f>+'[1]Informacion Planta'!L49</f>
         <v>-5.4250001106993295E-2</v>
@@ -53306,11 +53306,11 @@
     <row r="27" spans="1:15" ht="16" hidden="1" thickBot="1">
       <c r="A27" s="84"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="263" t="s">
+      <c r="C27" s="322" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="264"/>
-      <c r="E27" s="264"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
       <c r="F27" s="144">
         <f>SUM(F26:F26)</f>
         <v>-5.4250001106993295E-2</v>
@@ -53351,20 +53351,20 @@
     <row r="29" spans="1:15" ht="16" thickBot="1">
       <c r="A29" s="84"/>
       <c r="B29" s="88"/>
-      <c r="C29" s="267" t="s">
+      <c r="C29" s="326" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="268"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="268"/>
-      <c r="G29" s="268"/>
-      <c r="H29" s="268"/>
-      <c r="I29" s="268"/>
-      <c r="J29" s="268"/>
-      <c r="K29" s="268"/>
-      <c r="L29" s="268"/>
-      <c r="M29" s="268"/>
-      <c r="N29" s="269"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="327"/>
+      <c r="I29" s="327"/>
+      <c r="J29" s="327"/>
+      <c r="K29" s="327"/>
+      <c r="L29" s="327"/>
+      <c r="M29" s="327"/>
+      <c r="N29" s="328"/>
       <c r="O29" s="158"/>
     </row>
     <row r="30" spans="1:15" ht="16" thickBot="1">
@@ -53387,67 +53387,67 @@
     <row r="31" spans="1:15" ht="16" thickBot="1">
       <c r="A31" s="84"/>
       <c r="B31" s="88"/>
-      <c r="C31" s="231" t="s">
+      <c r="C31" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="265"/>
-      <c r="E31" s="266"/>
+      <c r="D31" s="324"/>
+      <c r="E31" s="325"/>
       <c r="F31" s="154"/>
       <c r="G31" s="154"/>
-      <c r="H31" s="231" t="s">
+      <c r="H31" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="265"/>
-      <c r="J31" s="266"/>
+      <c r="I31" s="324"/>
+      <c r="J31" s="325"/>
       <c r="K31" s="154"/>
-      <c r="L31" s="231" t="s">
+      <c r="L31" s="294" t="s">
         <v>89</v>
       </c>
-      <c r="M31" s="232"/>
-      <c r="N31" s="233"/>
+      <c r="M31" s="295"/>
+      <c r="N31" s="296"/>
       <c r="O31" s="158"/>
     </row>
     <row r="32" spans="1:15" ht="16" thickBot="1">
       <c r="A32" s="84"/>
       <c r="B32" s="88"/>
-      <c r="C32" s="234">
+      <c r="C32" s="297">
         <f>Utilidad!I105</f>
         <v>0.10728922525454682</v>
       </c>
-      <c r="D32" s="235"/>
-      <c r="E32" s="236"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="299"/>
       <c r="F32" s="154"/>
       <c r="G32" s="154"/>
-      <c r="H32" s="240">
+      <c r="H32" s="302">
         <f>Utilidad!I94</f>
         <v>0.43688004059317631</v>
       </c>
-      <c r="I32" s="241"/>
-      <c r="J32" s="242"/>
+      <c r="I32" s="303"/>
+      <c r="J32" s="304"/>
       <c r="K32" s="154"/>
-      <c r="L32" s="246">
+      <c r="L32" s="308">
         <f>Utilidad!I104</f>
         <v>0.54198261471536646</v>
       </c>
-      <c r="M32" s="247"/>
-      <c r="N32" s="248"/>
+      <c r="M32" s="309"/>
+      <c r="N32" s="310"/>
       <c r="O32" s="158"/>
     </row>
     <row r="33" spans="1:15" ht="16" thickBot="1">
       <c r="A33" s="84"/>
       <c r="B33" s="88"/>
       <c r="C33" s="237"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="239"/>
+      <c r="D33" s="300"/>
+      <c r="E33" s="301"/>
       <c r="F33" s="154"/>
       <c r="G33" s="154"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="244"/>
-      <c r="J33" s="245"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="306"/>
+      <c r="J33" s="307"/>
       <c r="K33" s="154"/>
-      <c r="L33" s="249"/>
-      <c r="M33" s="250"/>
-      <c r="N33" s="251"/>
+      <c r="L33" s="311"/>
+      <c r="M33" s="312"/>
+      <c r="N33" s="313"/>
       <c r="O33" s="158"/>
     </row>
     <row r="34" spans="1:15" ht="16" thickBot="1">
@@ -53518,13 +53518,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:N4"/>
-    <mergeCell ref="E5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="L32:N33"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="C11:E11"/>
@@ -53538,24 +53549,13 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="L32:N33"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:N4"/>
+    <mergeCell ref="E5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/public/Export/Exportar_Copiapo_PM.xlsx
+++ b/public/Export/Exportar_Copiapo_PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{732F6A48-C20D-6F47-8032-67B4331EB36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02E8C7A-5961-044E-9A36-FB572CF72DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,7 +1563,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="27" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1881,6 +1881,9 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="25" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="25" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1977,6 +1980,9 @@
     </xf>
     <xf numFmtId="168" fontId="25" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19074,7 +19080,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="65" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19096,7 +19102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184"/>
+      <c r="A1" s="181"/>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
       <c r="D1" s="146"/>
@@ -19109,16 +19115,16 @@
       <c r="K1" s="146"/>
       <c r="L1" s="146"/>
       <c r="M1" s="146"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="173"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="174"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
+      <c r="A2" s="182"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="201" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="203" t="s">
         <v>124</v>
       </c>
       <c r="E2" s="3"/>
@@ -19130,56 +19136,56 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="173"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="174"/>
     </row>
     <row r="3" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
+      <c r="A3" s="182"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="173"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="174"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="180"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="199" t="s">
+      <c r="D4" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200">
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="202">
         <f ca="1">TODAY()</f>
         <v>45250</v>
       </c>
-      <c r="M4" s="200"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="147"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="173"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="174"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
+      <c r="A5" s="182"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
@@ -19192,923 +19198,923 @@
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="173"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="174"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="181"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="173"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="174"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="181"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="193" t="s">
+      <c r="A7" s="183"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="193" t="s">
+      <c r="F7" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="193" t="s">
+      <c r="G7" s="195" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="193" t="s">
+      <c r="H7" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="193" t="s">
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="193" t="s">
+      <c r="M7" s="195" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="193" t="s">
+      <c r="N7" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="147"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="173"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="174"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="181"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="193" t="s">
+      <c r="A8" s="183"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="193" t="s">
+      <c r="F8" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="193" t="s">
+      <c r="G8" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="193" t="s">
+      <c r="H8" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="193" t="s">
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="193" t="s">
+      <c r="L8" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="193" t="s">
+      <c r="M8" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="N8" s="193" t="s">
+      <c r="N8" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="O8" s="147"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="173"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="174"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="181"/>
-      <c r="B9" s="195" t="s">
+      <c r="A9" s="183"/>
+      <c r="B9" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195" t="s">
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
-      <c r="L9" s="195"/>
-      <c r="M9" s="195"/>
-      <c r="N9" s="195"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="173"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="174"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="181"/>
-      <c r="B10" s="196" t="s">
+      <c r="A10" s="183"/>
+      <c r="B10" s="198" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197">
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="199">
         <f>Flujos!H43</f>
         <v>1286252</v>
       </c>
-      <c r="F10" s="148">
+      <c r="F10" s="149">
         <f>Flujos!I43</f>
         <v>0.12900999999999999</v>
       </c>
-      <c r="G10" s="153">
+      <c r="G10" s="154">
         <f>E10*F10</f>
         <v>165939.37051999997</v>
       </c>
-      <c r="H10" s="148">
+      <c r="H10" s="149">
         <f>Flujos!J43</f>
         <v>7.7697000000000002E-2</v>
       </c>
-      <c r="I10" s="192" t="s">
+      <c r="I10" s="194" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="192"/>
-      <c r="K10" s="157">
+      <c r="J10" s="194"/>
+      <c r="K10" s="158">
         <f>Flujos!H61</f>
         <v>87665</v>
       </c>
-      <c r="L10" s="158">
+      <c r="L10" s="159">
         <f>Flujos!I61</f>
         <v>0.65670000000000006</v>
       </c>
-      <c r="M10" s="157">
+      <c r="M10" s="158">
         <f>+L10*K10</f>
         <v>57569.605500000005</v>
       </c>
-      <c r="N10" s="158">
+      <c r="N10" s="159">
         <f>Flujos!J61</f>
         <v>0.64900000000000002</v>
       </c>
-      <c r="O10" s="147"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="173"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="174"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="181"/>
-      <c r="B11" s="196" t="s">
+      <c r="A11" s="183"/>
+      <c r="B11" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="149">
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="150">
         <f>Utilidad!O70</f>
         <v>9006.74</v>
       </c>
-      <c r="F11" s="148">
+      <c r="F11" s="149">
         <f>Flujos!I6</f>
         <v>0.59496599999999999</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="154">
         <f t="shared" ref="G11:G22" si="0">+E11*F11</f>
         <v>5358.70407084</v>
       </c>
-      <c r="H11" s="150">
+      <c r="H11" s="151">
         <f>Flujos!J6</f>
         <v>0.55379800000000001</v>
       </c>
-      <c r="I11" s="192" t="s">
+      <c r="I11" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="192"/>
-      <c r="K11" s="151">
+      <c r="J11" s="194"/>
+      <c r="K11" s="152">
         <f>'Datos Extra'!B2</f>
         <v>88770</v>
       </c>
-      <c r="L11" s="152">
+      <c r="L11" s="153">
         <f>'Datos Extra'!C2</f>
         <v>0.65669999999999995</v>
       </c>
-      <c r="M11" s="157">
+      <c r="M11" s="158">
         <f>+L11*K11</f>
         <v>58295.258999999998</v>
       </c>
-      <c r="N11" s="158">
+      <c r="N11" s="159">
         <f>'Datos Extra'!D2</f>
         <v>0.6489568311939774</v>
       </c>
-      <c r="O11" s="147"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="173"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="174"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="186"/>
-      <c r="B12" s="163" t="s">
+      <c r="A12" s="188"/>
+      <c r="B12" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="149">
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="150">
         <f>Utilidad!O76</f>
         <v>2267.605</v>
       </c>
-      <c r="F12" s="148">
+      <c r="F12" s="149">
         <f>Flujos!I12</f>
         <v>0.54733199999999993</v>
       </c>
-      <c r="G12" s="153">
+      <c r="G12" s="154">
         <f t="shared" si="0"/>
         <v>1241.1327798599998</v>
       </c>
-      <c r="H12" s="150">
+      <c r="H12" s="151">
         <f>Flujos!J12</f>
         <v>0.50960000000000005</v>
       </c>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="173"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="221"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="174"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="186"/>
-      <c r="B13" s="163" t="s">
+      <c r="A13" s="188"/>
+      <c r="B13" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="149">
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="150">
         <f>Utilidad!O79</f>
         <v>0</v>
       </c>
-      <c r="F13" s="150">
+      <c r="F13" s="151">
         <f>Flujos!I15</f>
         <v>0</v>
       </c>
-      <c r="G13" s="153">
+      <c r="G13" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="150">
+      <c r="H13" s="151">
         <f>Flujos!J15</f>
         <v>0</v>
       </c>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="173"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="174"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="186"/>
-      <c r="B14" s="163" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="149">
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="150">
         <f>Utilidad!O82</f>
         <v>0</v>
       </c>
-      <c r="F14" s="150">
+      <c r="F14" s="151">
         <f>Flujos!I18</f>
         <v>0</v>
       </c>
-      <c r="G14" s="153">
+      <c r="G14" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="150">
+      <c r="H14" s="151">
         <f>Utilidad!Q82</f>
         <v>0</v>
       </c>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="173"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="174"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="186"/>
-      <c r="B15" s="163" t="s">
+      <c r="A15" s="188"/>
+      <c r="B15" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="149">
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="150">
         <f>Utilidad!O85</f>
         <v>0</v>
       </c>
-      <c r="F15" s="150">
+      <c r="F15" s="151">
         <f>Utilidad!P85</f>
         <v>0</v>
       </c>
-      <c r="G15" s="153">
+      <c r="G15" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="150">
+      <c r="H15" s="151">
         <f>Flujos!J18</f>
         <v>0</v>
       </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="147"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="173"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="174"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="186"/>
-      <c r="B16" s="163" t="s">
+      <c r="A16" s="188"/>
+      <c r="B16" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="149">
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="150">
         <f>Utilidad!O88</f>
         <v>0</v>
       </c>
-      <c r="F16" s="150">
+      <c r="F16" s="151">
         <f>Flujos!I24</f>
         <v>0</v>
       </c>
-      <c r="G16" s="153">
+      <c r="G16" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="150">
+      <c r="H16" s="151">
         <f>Utilidad!Q88</f>
         <v>0</v>
       </c>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="173"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="174"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="186"/>
-      <c r="B17" s="163" t="s">
+      <c r="A17" s="188"/>
+      <c r="B17" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="149">
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="150">
         <f>Utilidad!O91</f>
         <v>0</v>
       </c>
-      <c r="F17" s="150">
+      <c r="F17" s="151">
         <f>Utilidad!P91</f>
         <v>0</v>
       </c>
-      <c r="G17" s="153">
+      <c r="G17" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="150">
+      <c r="H17" s="151">
         <f>Flujos!J24</f>
         <v>0</v>
       </c>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="173"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="174"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="186"/>
-      <c r="B18" s="163" t="s">
+      <c r="A18" s="188"/>
+      <c r="B18" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="149">
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="150">
         <f>Utilidad!O73</f>
         <v>1076.5899999999999</v>
       </c>
-      <c r="F18" s="150">
+      <c r="F18" s="151">
         <f>Flujos!I9</f>
         <v>0.45002400000000004</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="154">
         <f t="shared" si="0"/>
         <v>484.49133816</v>
       </c>
-      <c r="H18" s="150">
+      <c r="H18" s="151">
         <f>Flujos!J9</f>
         <v>0.40523000000000003</v>
       </c>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="173"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="174"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="186"/>
-      <c r="B19" s="163" t="s">
+      <c r="A19" s="188"/>
+      <c r="B19" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="149">
+      <c r="C19" s="164"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="150">
         <f>'Diagrama Fe T'!G38</f>
         <v>0</v>
       </c>
-      <c r="F19" s="150">
+      <c r="F19" s="151">
         <f>Flujos!I36</f>
         <v>0</v>
       </c>
-      <c r="G19" s="153">
+      <c r="G19" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="150">
+      <c r="H19" s="151">
         <f>Flujos!J30</f>
         <v>0</v>
       </c>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="173"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="174"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="186"/>
-      <c r="B20" s="163" t="s">
+      <c r="A20" s="188"/>
+      <c r="B20" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="149">
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="150">
         <f>'Diagrama Fe T'!G45</f>
         <v>0</v>
       </c>
-      <c r="F20" s="150">
+      <c r="F20" s="151">
         <f>'Diagrama Fe T'!G46</f>
         <v>0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="150">
+      <c r="H20" s="151">
         <f>Flujos!J36</f>
         <v>0</v>
       </c>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="173"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="174"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="186"/>
-      <c r="B21" s="163" t="s">
+      <c r="A21" s="188"/>
+      <c r="B21" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="149">
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="150">
         <f>'Diagrama Fe T'!G51</f>
         <v>0</v>
       </c>
-      <c r="F21" s="150">
+      <c r="F21" s="151">
         <f>Flujos!I36</f>
         <v>0</v>
       </c>
-      <c r="G21" s="153">
+      <c r="G21" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="150">
+      <c r="H21" s="151">
         <f>Flujos!J36</f>
         <v>0</v>
       </c>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="173"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="174"/>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="186"/>
-      <c r="B22" s="205" t="s">
+      <c r="A22" s="188"/>
+      <c r="B22" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="156">
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="157">
         <f>'Diagrama Fe T'!G58</f>
         <v>0</v>
       </c>
-      <c r="F22" s="206">
+      <c r="F22" s="208">
         <f>Flujos!I39</f>
         <v>0</v>
       </c>
-      <c r="G22" s="207">
+      <c r="G22" s="209">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="206">
+      <c r="H22" s="208">
         <f>Flujos!J39</f>
         <v>0</v>
       </c>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="173"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="221"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="174"/>
     </row>
     <row r="23" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
-      <c r="B23" s="164" t="s">
+      <c r="A23" s="183"/>
+      <c r="B23" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="155">
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="156">
         <f>SUM(E10:E22)</f>
         <v>1298602.9350000001</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="155">
         <f>+G23/E23</f>
         <v>0.13323833948431663</v>
       </c>
-      <c r="G23" s="159">
+      <c r="G23" s="160">
         <f>SUM(G10:G22)</f>
         <v>173023.69870885997</v>
       </c>
-      <c r="H23" s="209">
+      <c r="H23" s="211">
         <f>SUMPRODUCT(E10:E22,H10:H22)/E23</f>
         <v>8.2024821787592836E-2</v>
       </c>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="173"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="174"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="181"/>
-      <c r="B24" s="208" t="s">
+      <c r="A24" s="183"/>
+      <c r="B24" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208" t="s">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="173"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="210"/>
+      <c r="L24" s="210"/>
+      <c r="M24" s="210"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="174"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="181"/>
-      <c r="B25" s="196" t="s">
+      <c r="A25" s="183"/>
+      <c r="B25" s="198" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="149">
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="150">
         <f>'Datos Extra'!B1</f>
         <v>163348</v>
       </c>
-      <c r="F25" s="204">
+      <c r="F25" s="206">
         <f>'Datos Extra'!C1</f>
         <v>0.65749999999999997</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="150">
         <f>+E25*F25</f>
         <v>107401.31</v>
       </c>
-      <c r="H25" s="196" t="s">
+      <c r="H25" s="198" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="196"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="157">
+      <c r="I25" s="198"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="158">
         <f>Flujos!H62</f>
         <v>1210937.9350000001</v>
       </c>
-      <c r="L25" s="158">
+      <c r="L25" s="159">
         <f>Flujos!I62</f>
         <v>9.5342700787000009E-2</v>
       </c>
-      <c r="M25" s="157">
+      <c r="M25" s="158">
         <f>+K25*L25</f>
         <v>115454.09320833268</v>
       </c>
-      <c r="N25" s="160"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="173"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="174"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="181"/>
-      <c r="B26" s="167" t="s">
+      <c r="A26" s="183"/>
+      <c r="B26" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="168">
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169">
         <f>SUM(E24:E25)</f>
         <v>163348</v>
       </c>
-      <c r="F26" s="169">
+      <c r="F26" s="170">
         <f>F25</f>
         <v>0.65749999999999997</v>
       </c>
-      <c r="G26" s="170">
+      <c r="G26" s="171">
         <f>SUM(G24:G25)</f>
         <v>107401.31</v>
       </c>
-      <c r="H26" s="167" t="s">
+      <c r="H26" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="171">
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="172">
         <f>K25</f>
         <v>1210937.9350000001</v>
       </c>
-      <c r="L26" s="172">
+      <c r="L26" s="173">
         <f>L25</f>
         <v>9.5342700787000009E-2</v>
       </c>
-      <c r="M26" s="171">
+      <c r="M26" s="172">
         <f>M25</f>
         <v>115454.09320833268</v>
       </c>
-      <c r="N26" s="160"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="173"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="174"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="181"/>
-      <c r="B27" s="160"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="185"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="173"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="174"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
-      <c r="B28" s="166" t="s">
+      <c r="A28" s="183"/>
+      <c r="B28" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="173"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="174"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="185"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="173"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="174"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
-      <c r="B30" s="211" t="s">
+      <c r="A30" s="183"/>
+      <c r="B30" s="213" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="212"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="174" t="s">
+      <c r="C30" s="214"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="175" t="s">
         <v>145</v>
       </c>
-      <c r="H30" s="175"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="211" t="s">
+      <c r="H30" s="176"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="L30" s="212"/>
-      <c r="M30" s="213"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="173"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="174"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="210"/>
-      <c r="B31" s="177">
+      <c r="A31" s="212"/>
+      <c r="B31" s="178">
         <f>Utilidad!I105</f>
         <v>6.520645611161606E-2</v>
       </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="165">
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="166">
         <f>Utilidad!I94</f>
         <v>0.32559785580729284</v>
       </c>
-      <c r="H31" s="165"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="214">
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="216">
         <f>Utilidad!I104</f>
         <v>0.53792623258518568</v>
       </c>
-      <c r="L31" s="178"/>
-      <c r="M31" s="215"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="173"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="174"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="216"/>
-      <c r="L32" s="217"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="147"/>
-      <c r="Q32" s="173"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="218"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="220"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="148"/>
+      <c r="Q32" s="174"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="188"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="189"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="189"/>
-      <c r="O33" s="191"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="173"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="192"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="193"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="174"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="161"/>
-      <c r="B34" s="173"/>
-      <c r="Q34" s="173"/>
+      <c r="A34" s="162"/>
+      <c r="B34" s="174"/>
+      <c r="Q34" s="174"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="161"/>
-      <c r="B35" s="173"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="174"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="161"/>
+      <c r="A36" s="162"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="161"/>
+      <c r="A37" s="162"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C38" s="162"/>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="162"/>
-      <c r="K38" s="162"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="162"/>
-      <c r="N38" s="162"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="163"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C39" s="162"/>
-      <c r="D39" s="162"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="163"/>
+      <c r="K39" s="163"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="163"/>
+      <c r="N39" s="163"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="161"/>
-      <c r="M40" s="161"/>
-      <c r="N40" s="161"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="36">
